--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" r:id="rId6"/>
+    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="489">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">food1</t>
   </si>
   <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">food2</t>
   </si>
   <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t xml:space="preserve">healer1</t>
   </si>
   <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t xml:space="preserve">healer2</t>
   </si>
   <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t xml:space="preserve">appraise1</t>
   </si>
   <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t xml:space="preserve">appraise2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t xml:space="preserve">appraise3</t>
   </si>
   <si>
+    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t xml:space="preserve">expand1</t>
   </si>
   <si>
+    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t xml:space="preserve">expand2</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t xml:space="preserve">expand3</t>
   </si>
   <si>
+    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">拡張できないよう{だ}。</t>
   </si>
   <si>
@@ -128,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">extraTax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
   </si>
   <si>
     <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
@@ -140,6 +173,9 @@
     <t xml:space="preserve">extraTax2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
   </si>
   <si>
@@ -149,6 +185,9 @@
     <t xml:space="preserve">banker1</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
   </si>
   <si>
@@ -158,6 +197,9 @@
     <t xml:space="preserve">banker2</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
   </si>
   <si>
@@ -167,6 +209,9 @@
     <t xml:space="preserve">banker3</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
   </si>
   <si>
@@ -176,6 +221,9 @@
     <t xml:space="preserve">banker4</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
   </si>
   <si>
@@ -185,6 +233,9 @@
     <t xml:space="preserve">noDrawingRoom</t>
   </si>
   <si>
+    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
   </si>
   <si>
@@ -194,6 +245,9 @@
     <t xml:space="preserve">nomoney</t>
   </si>
   <si>
+    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
   </si>
   <si>
@@ -203,6 +257,9 @@
     <t xml:space="preserve">alreadyFull</t>
   </si>
   <si>
+    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
   </si>
   <si>
@@ -212,6 +269,9 @@
     <t xml:space="preserve">questAccept</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
   </si>
   <si>
@@ -221,6 +281,9 @@
     <t xml:space="preserve">questFull</t>
   </si>
   <si>
+    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
   </si>
   <si>
@@ -230,6 +293,9 @@
     <t xml:space="preserve">questInProgress</t>
   </si>
   <si>
+    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
   </si>
   <si>
@@ -239,6 +305,9 @@
     <t xml:space="preserve">questComplete</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -248,6 +317,9 @@
     <t xml:space="preserve">bird1</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
   </si>
   <si>
@@ -255,6 +327,10 @@
   </si>
   <si>
     <t xml:space="preserve">bird2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{간다}!
+우후후.</t>
   </si>
   <si>
     <t xml:space="preserve">いく{よ}！
@@ -268,6 +344,9 @@
     <t xml:space="preserve">bird3</t>
   </si>
   <si>
+    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
   </si>
   <si>
@@ -277,6 +356,9 @@
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
+    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
   </si>
   <si>
@@ -292,6 +374,9 @@
     <t xml:space="preserve">lockpick_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
   </si>
   <si>
@@ -301,6 +386,9 @@
     <t xml:space="preserve">invite</t>
   </si>
   <si>
+    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
   </si>
   <si>
@@ -310,6 +398,9 @@
     <t xml:space="preserve">invite2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
   </si>
   <si>
@@ -319,6 +410,9 @@
     <t xml:space="preserve">invite3</t>
   </si>
   <si>
+    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
+  </si>
+  <si>
     <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
   </si>
   <si>
@@ -328,6 +422,9 @@
     <t xml:space="preserve">talk_hobby</t>
   </si>
   <si>
+    <t xml:space="preserve">취미는 #1 정도{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">趣味は#1{だ}。</t>
   </si>
   <si>
@@ -337,6 +434,9 @@
     <t xml:space="preserve">talk_fav</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
   </si>
   <si>
@@ -346,6 +446,9 @@
     <t xml:space="preserve">slave_buy</t>
   </si>
   <si>
+    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
   </si>
   <si>
@@ -355,6 +458,9 @@
     <t xml:space="preserve">slave_buy2</t>
   </si>
   <si>
+    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
   </si>
   <si>
@@ -364,6 +470,9 @@
     <t xml:space="preserve">goto</t>
   </si>
   <si>
+    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
   </si>
   <si>
@@ -373,6 +482,9 @@
     <t xml:space="preserve">goto2</t>
   </si>
   <si>
+    <t xml:space="preserve">놀리는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">からかっているの{か}？</t>
   </si>
   <si>
@@ -382,6 +494,9 @@
     <t xml:space="preserve">upgrade_heath1</t>
   </si>
   <si>
+    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
+  </si>
+  <si>
     <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
   </si>
   <si>
@@ -391,6 +506,9 @@
     <t xml:space="preserve">upgrade_heath2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
   </si>
   <si>
@@ -400,6 +518,9 @@
     <t xml:space="preserve">invest1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
   </si>
   <si>
@@ -409,6 +530,9 @@
     <t xml:space="preserve">invest2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
   </si>
   <si>
@@ -418,6 +542,9 @@
     <t xml:space="preserve">invest_shop1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
   </si>
   <si>
@@ -427,6 +554,9 @@
     <t xml:space="preserve">invest_shop2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
   </si>
   <si>
@@ -436,6 +566,9 @@
     <t xml:space="preserve">questCompleteDeliver</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -445,6 +578,9 @@
     <t xml:space="preserve">questCompleteDeliverExtra</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
@@ -454,6 +590,9 @@
     <t xml:space="preserve">miral_medal</t>
   </si>
   <si>
+    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
   </si>
   <si>
@@ -463,6 +602,9 @@
     <t xml:space="preserve">miral_medal2</t>
   </si>
   <si>
+    <t xml:space="preserve">흥!</t>
+  </si>
+  <si>
     <t xml:space="preserve">ふん！</t>
   </si>
   <si>
@@ -472,6 +614,9 @@
     <t xml:space="preserve">shop_criminal</t>
   </si>
   <si>
+    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
@@ -481,6 +626,9 @@
     <t xml:space="preserve">guide</t>
   </si>
   <si>
+    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">どこに行きたい{のだ}？</t>
   </si>
   <si>
@@ -490,6 +638,9 @@
     <t xml:space="preserve">shutup</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
+  </si>
+  <si>
     <t xml:space="preserve">（#tgはしゅんとなった…）</t>
   </si>
   <si>
@@ -499,6 +650,9 @@
     <t xml:space="preserve">shutup2</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">（#tgはあなたに抱きついた）</t>
   </si>
   <si>
@@ -508,6 +662,9 @@
     <t xml:space="preserve">insult</t>
   </si>
   <si>
+    <t xml:space="preserve">답도 없는 변태{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうしようもない変態{だな}。</t>
   </si>
   <si>
@@ -517,6 +674,9 @@
     <t xml:space="preserve">insult2</t>
   </si>
   <si>
+    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
   </si>
   <si>
@@ -526,6 +686,9 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">（#tgはこくんと肯いた）</t>
   </si>
   <si>
@@ -535,6 +698,9 @@
     <t xml:space="preserve">deliver_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
   </si>
   <si>
@@ -544,6 +710,9 @@
     <t xml:space="preserve">news1</t>
   </si>
   <si>
+    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
@@ -553,6 +722,9 @@
     <t xml:space="preserve">news2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
   </si>
   <si>
@@ -560,6 +732,11 @@
   </si>
   <si>
     <t xml:space="preserve">bout1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
+진심{이야}?
+지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">力試しをしたいの{か}？
@@ -575,6 +752,11 @@
     <t xml:space="preserve">bout2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
+그렇지 나와{야지}!
+{좋아}, {YOU}의 힘을 보여{줘}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
@@ -588,6 +770,9 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
+    <t xml:space="preserve">{뭐야}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">なん{だ}？</t>
   </si>
   <si>
@@ -597,6 +782,9 @@
     <t xml:space="preserve">becomeMaid</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
   </si>
   <si>
@@ -606,6 +794,9 @@
     <t xml:space="preserve">sellFame1</t>
   </si>
   <si>
+    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
@@ -615,6 +806,9 @@
     <t xml:space="preserve">sellFame2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
   </si>
   <si>
@@ -624,6 +818,9 @@
     <t xml:space="preserve">blessing</t>
   </si>
   <si>
+    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
   </si>
   <si>
@@ -633,6 +830,9 @@
     <t xml:space="preserve">lockTooHard</t>
   </si>
   <si>
+    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
   </si>
   <si>
@@ -642,6 +842,9 @@
     <t xml:space="preserve">loytel_bill_give1</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
   </si>
   <si>
@@ -651,6 +854,9 @@
     <t xml:space="preserve">loytel_bill_give2</t>
   </si>
   <si>
+    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
   </si>
   <si>
@@ -660,6 +866,9 @@
     <t xml:space="preserve">loytel_bill_give_given</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
   </si>
   <si>
@@ -669,6 +878,9 @@
     <t xml:space="preserve">loytel_bill_give_wait</t>
   </si>
   <si>
+    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
@@ -678,6 +890,9 @@
     <t xml:space="preserve">loytel_bill_give_lost</t>
   </si>
   <si>
+    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
   </si>
   <si>
@@ -685,6 +900,15 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가{하다}.
+응? 뭔가 볼일이라도 있{는가}?
+가끔씩은 호화스러운 식사를 하고 {싶다}.
+영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
+눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
+고양이는 왜 이렇게 귀여운 {걸까}.
+#aka? …누굴 말하는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">暇{だ}。
@@ -708,6 +932,12 @@
     <t xml:space="preserve">interest_economy</t>
   </si>
   <si>
+    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
+하여간 이 세상에선 돈이 중요{해}.
+어디 돈 좀 떨어져 있으면 좋을 {텐데}.
+플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
@@ -723,6 +953,12 @@
     <t xml:space="preserve">interest_science</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
+에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
+에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
+신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
@@ -738,6 +974,12 @@
     <t xml:space="preserve">interest_travel</t>
   </si>
   <si>
+    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
+루미에스트는 예술의 거리로 유명{해}.
+노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
+여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
@@ -753,6 +995,12 @@
     <t xml:space="preserve">interest_world</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
+에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
+신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
+아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
@@ -766,6 +1014,15 @@
   </si>
   <si>
     <t xml:space="preserve">interest_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
+신이 없다면 이 세계는 의미가 없{어}.
+치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
+가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
+쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
+행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
+기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">信仰こそ何よりも大事{だ}。
@@ -789,6 +1046,12 @@
     <t xml:space="preserve">interest_human</t>
   </si>
   <si>
+    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
+이제부터는 인간의 시대{다}!
+{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
+엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
@@ -804,6 +1067,12 @@
     <t xml:space="preserve">interest_elea</t>
   </si>
   <si>
+    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
+예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
+숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
+어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
@@ -817,6 +1086,17 @@
   </si>
   <si>
     <t xml:space="preserve">shopkeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
+물건 보는 눈은 자신 있{어}.
+가게 경영은 꽤 어렵{네}.
+건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
+다른 가게에서는 발밑이 안 보이게 조심{해라}.
+만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
+자, {내가} 자신있게 고른 상품들을 둘러{봐}.
+요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
+무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
   </si>
   <si>
     <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
@@ -844,6 +1124,10 @@
     <t xml:space="preserve">guard</t>
   </si>
   <si>
+    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
+수상한 사람을 보면 알려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。</t>
   </si>
@@ -853,6 +1137,11 @@
   </si>
   <si>
     <t xml:space="preserve">banker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
+돈으로 살 수 없는 것들도 있{지}.
+본 지점에 어서 {와}!</t>
   </si>
   <si>
     <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
@@ -868,6 +1157,9 @@
     <t xml:space="preserve">bitch</t>
   </si>
   <si>
+    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
   </si>
   <si>
@@ -875,6 +1167,10 @@
   </si>
   <si>
     <t xml:space="preserve">slaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님도 이쪽 사람이{네}.
+히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
   </si>
   <si>
     <t xml:space="preserve">お客さんも悪い人間{だな}。
@@ -888,6 +1184,10 @@
     <t xml:space="preserve">bored</t>
   </si>
   <si>
+    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
+(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
@@ -897,6 +1197,27 @@
   </si>
   <si>
     <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
+록 스로어가 던지는 바위를 무시하면 안 {돼}.
+꿈속에서 {내가} 믿는 신을 만났{어}!
+귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
+파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
+도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
+저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
+바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
+이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
+세금을 안 내면 나중에 골치 아파{져}.
+정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
+태양의 빛을 내는 신비한 램프가 있다{더라}.
+월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
+그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
+허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
+수영을 연습{해라}. 내구력이 단련된다{고}!
+미식가들은 독버섯도 구별할 수 있다{더라}.
+자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
+의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
   </si>
   <si>
     <r>
@@ -932,7 +1253,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
@@ -963,6 +1284,23 @@
     <t xml:space="preserve">fortune</t>
   </si>
   <si>
+    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
+소재 망치를 평범한 물건에 막 쓰지 마라!
+영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
+질 좋은 침대에서 자면 수면 효과가 좋아진다.
+몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
+독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
+큐브는 상태이상이 걸려 있다면 분열하지 못한다.
+아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
+소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
+환혹 내성이 충분하다면 광기 상태가 되지 않는다.
+지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
+젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
+단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
+강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
+수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
@@ -1000,6 +1338,31 @@
   </si>
   <si>
     <t xml:space="preserve">fortune_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
+지팡이는 땅에 한동안 놔 두면 충전된다!
+소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
+보석은 플래티넘 코인으로 교환할 수 있다.
+보물 지도는 항상 축복해서 읽어라.
+냐…아…아아…
+무엇을 바라는가?
+채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
+신을 펫으로 만드는 방법도 있다고 한다.
+문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
+일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
+뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
+아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
+당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
+고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
+경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
+여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
+달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
+카르마가 높으면 세금이 감면된다.
+몬스터의 똥은 무거울수록 비싸게 팔린다.
+저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
+헤르메스의 피는 *반드시* 축복해서 마셔라!
+귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
   </si>
   <si>
     <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
@@ -1055,6 +1418,11 @@
     <t xml:space="preserve">mayor</t>
   </si>
   <si>
+    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
+용무가 있{는가}? {나는} 바쁜 몸{이다}.
+마을에 투자하겠다면 언제든 환영{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
@@ -1068,6 +1436,10 @@
     <t xml:space="preserve">secretary</t>
   </si>
   <si>
+    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
+제가 도움이 되어 드릴 일이 있나요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
@@ -1077,6 +1449,13 @@
   </si>
   <si>
     <t xml:space="preserve">mysilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
+십년전쟁으로 이 나라는 큰 타격을 입었{어}.
+죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
+십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
+미실리아는 앞으로 어떻게 되는 걸{까}.</t>
   </si>
   <si>
     <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
@@ -1096,6 +1475,13 @@
     <t xml:space="preserve">olvina</t>
   </si>
   <si>
+    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
+시오루시아는 정말로 학구열이 대단해서 감동했{어}.
+올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
+패리스한테 실컷 매도당하고 {싶다}.
+오르비나는 미실리아 최고의 관광지{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
@@ -1113,6 +1499,10 @@
     <t xml:space="preserve">lothria</t>
   </si>
   <si>
+    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
+지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
@@ -1122,6 +1512,13 @@
   </si>
   <si>
     <t xml:space="preserve">derphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}
+그 길에 관심 있으면 도적 길드로 가 {봐}.
+이 세상은 노예가 필요{해}.
+아레나에서 피 튀기는 걸 보는 게 {좋아}.
+이 마을에는 경비병이 없{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">無法者の街、ダルフィへようこそ。
@@ -1139,6 +1536,12 @@
   </si>
   <si>
     <t xml:space="preserve">palmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
+팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
+쟈비님과 스타샤님은 정말로 사이가 {좋아}.
+팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
   </si>
   <si>
     <t xml:space="preserve">パルミア国の王都へようこそ。
@@ -1156,6 +1559,14 @@
   </si>
   <si>
     <t xml:space="preserve">yowyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
+말이라면 여기서 사가는 게 {좋아}.
+수확기에는 항상 일손이 모자라{지}.
+아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
+서쪽에 무법자들의 마을이 있다{더라}.
+마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
@@ -1179,6 +1590,14 @@
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
+    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
+어딘가에 온천으로 유명한 마을이 있다{더라}.
+이 마을은 어디서든지 낚시를 할 수 있{어}.
+그림 얘기로는 하루종일 떠들 수 있{어}.
+마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
+하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
@@ -1198,6 +1617,13 @@
     <t xml:space="preserve">noyel</t>
   </si>
   <si>
+    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
+매일매일 눈 치우는 게 큰일{이다}.
+죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
+추워!
+여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
@@ -1213,6 +1639,13 @@
   </si>
   <si>
     <t xml:space="preserve">kapul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바닷바람 향기가 좋{네}.
+펫 아레나에서 경기 보는 게 취미{다}.
+더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
+이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
+피라미드에는 어떻게 들어가는 걸{까}?</t>
   </si>
   <si>
     <t xml:space="preserve">潮風が香る{な}。
@@ -1233,6 +1666,12 @@
     <t xml:space="preserve">conery</t>
   </si>
   <si>
+    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
+길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
+스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
+스타샤 공주님 만세!</t>
+  </si>
+  <si>
     <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
@@ -1248,6 +1687,11 @@
     <t xml:space="preserve">garokk</t>
   </si>
   <si>
+    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
+미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
+시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
+  </si>
+  <si>
     <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
@@ -1259,6 +1703,14 @@
   </si>
   <si>
     <t xml:space="preserve">gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
+오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
+공주님 만세!
+나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
+후하핫!
+약한 자를 돕고, 악을 쳐부수는 거다!</t>
   </si>
   <si>
     <t xml:space="preserve">フハハハハ！…何だ貴様は？
@@ -1280,6 +1732,10 @@
     <t xml:space="preserve">jonan</t>
   </si>
   <si>
+    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
+나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
@@ -1289,6 +1745,12 @@
   </si>
   <si>
     <t xml:space="preserve">lowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
+어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
+이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
+교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者がこんなところに何のようだね？
@@ -1306,6 +1768,11 @@
     <t xml:space="preserve">mapMerchant</t>
   </si>
   <si>
+    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
+그건 그렇고 귀중한 서적들이다.
+눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
@@ -1319,6 +1786,11 @@
     <t xml:space="preserve">miral</t>
   </si>
   <si>
+    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
+파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
+오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
+  </si>
+  <si>
     <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
@@ -1330,6 +1802,12 @@
   </si>
   <si>
     <t xml:space="preserve">nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
+수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
+서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
+아니… 이건 코스프레가 아니다.</t>
   </si>
   <si>
     <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
@@ -1347,6 +1825,9 @@
     <t xml:space="preserve">nola</t>
   </si>
   <si>
+    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
+  </si>
+  <si>
     <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
   </si>
   <si>
@@ -1354,6 +1835,12 @@
   </si>
   <si>
     <t xml:space="preserve">stasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
+팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
+아이돌…? …다른 나라의 말인가요?
+궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
   </si>
   <si>
     <t xml:space="preserve">あら、私に何かご用ですか？
@@ -1371,6 +1858,11 @@
     <t xml:space="preserve">theolucia</t>
   </si>
   <si>
+    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
+패리스 언니는 화나면 무서워요.
+팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
@@ -1384,6 +1876,11 @@
     <t xml:space="preserve">xabi</t>
   </si>
   <si>
+    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
+아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
+길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
@@ -1397,6 +1894,11 @@
     <t xml:space="preserve">zane</t>
   </si>
   <si>
+    <t xml:space="preserve">무엇이냐, 너는?
+이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
+…</t>
+  </si>
+  <si>
     <t xml:space="preserve">何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
@@ -1408,6 +1910,11 @@
   </si>
   <si>
     <t xml:space="preserve">ephrond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
+아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
+태평하긴, 바보 녀석들이.</t>
   </si>
   <si>
     <r>
@@ -1426,7 +1933,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
@@ -1460,7 +1967,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
@@ -1481,6 +1988,11 @@
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
+    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
+이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
+이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
+  </si>
+  <si>
     <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
@@ -1492,6 +2004,13 @@
   </si>
   <si>
     <t xml:space="preserve">barrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 곡 듣겠나?
+예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
+지금은 미실리아야말로 내 고향이다.
+멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
+내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
   </si>
   <si>
     <t xml:space="preserve">一曲聴いてくかい？
@@ -1517,7 +2036,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
@@ -1528,6 +2047,13 @@
   </si>
   <si>
     <t xml:space="preserve">melvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
+우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
+내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
+귀부인들이 절조가 없어서 참 곤란하단 말이야.
+에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
   </si>
   <si>
     <r>
@@ -1546,7 +2072,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
@@ -1564,6 +2090,12 @@
   </si>
   <si>
     <t xml:space="preserve">caldorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 너는?
+모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
+제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
+팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
   </si>
   <si>
     <t xml:space="preserve">何だお主は？
@@ -1589,7 +2121,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
@@ -1600,6 +2132,9 @@
     <t xml:space="preserve">melilith</t>
   </si>
   <si>
+    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
+  </si>
+  <si>
     <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
   </si>
   <si>
@@ -1607,6 +2142,14 @@
   </si>
   <si>
     <t xml:space="preserve">seeker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
+차라도 들겠나, 큰까마귀.
+나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
+…하지만, 용케도 이런 외딴 곳을 찾아냈군.
+…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
+이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
   </si>
   <si>
     <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
@@ -1628,12 +2171,18 @@
     <t xml:space="preserve">quru</t>
   </si>
   <si>
+    <t xml:space="preserve">왜?</t>
+  </si>
+  <si>
     <t xml:space="preserve">何？</t>
   </si>
   <si>
     <t xml:space="preserve">kettle</t>
   </si>
   <si>
+    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
+  </si>
+  <si>
     <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
   </si>
   <si>
@@ -1641,6 +2190,16 @@
   </si>
   <si>
     <t xml:space="preserve">strange_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
+그 괴물들이랑 똑같은 취급 하지 마.
+아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
+아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
+아빠는 곧 돌아오실 거야.
+부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
+그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
+저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
   <si>
     <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
@@ -1661,566 +2220,6 @@
 Even if they asked, I won't play with the Littles.
 Sometimes, they pick up and bring weird stuff.
 That monster woman is not my mommy. That's obvious!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자, 천천히 {먹어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{간다}!
-우후후.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">취미는 #1 정도{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">놀리는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">흥!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">답도 없는 변태{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
-진심{이야}?
-지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
-그렇지 나와{야지}!
-{좋아}, {YOU}의 힘을 보여{줘}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{뭐야}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한가{하다}.
-응? 뭔가 볼일이라도 있{는가}?
-가끔씩은 호화스러운 식사를 하고 {싶다}.
-영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
-눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
-고양이는 왜 이렇게 귀여운 {걸까}.
-#aka? …누굴 말하는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
-하여간 이 세상에선 돈이 중요{해}.
-어디 돈 좀 떨어져 있으면 좋을 {텐데}.
-플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
-에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
-에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
-신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
-루미에스트는 예술의 거리로 유명{해}.
-노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
-여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
-에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
-신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
-아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
-신이 없다면 이 세계는 의미가 없{어}.
-치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
-가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
-쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
-행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
-기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
-이제부터는 인간의 시대{다}!
-{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
-엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
-예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
-숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
-어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
-물건 보는 눈은 자신 있{어}.
-가게 경영은 꽤 어렵{네}.
-건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
-다른 가게에서는 발밑이 안 보이게 조심{해라}.
-만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
-자, {내가} 자신있게 고른 상품들을 둘러{봐}.
-요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
-무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
-수상한 사람을 보면 알려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
-돈으로 살 수 없는 것들도 있{지}.
-본 지점에 어서 {와}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손님도 이쪽 사람이{네}.
-히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
-(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
-록 스로어가 던지는 바위를 무시하면 안 {돼}.
-꿈속에서 {내가} 믿는 신을 만났{어}!
-귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
-파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
-도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
-저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
-바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
-이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
-세금을 안 내면 나중에 골치 아파{져}.
-정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
-태양의 빛을 내는 신비한 램프가 있다{더라}.
-월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
-그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
-허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
-수영을 연습{해라}. 내구력이 단련된다{고}!
-미식가들은 독버섯도 구별할 수 있다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
-소재 망치를 평범한 물건에 막 쓰지 마라!
-영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
-질 좋은 침대에서 자면 수면 효과가 좋아진다.
-몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
-독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
-큐브는 상태이상이 걸려 있다면 분열하지 못한다.
-아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
-소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
-환혹 내성이 충분하다면 광기 상태가 되지 않는다.
-지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
-젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
-단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
-강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
-수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
-지팡이는 땅에 한동안 놔 두면 충전된다!
-소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
-보석은 플래티넘 코인으로 교환할 수 있다.
-보물 지도는 항상 축복해서 읽어라.
-냐…아…아아…
-무엇을 바라는가?
-채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
-신을 펫으로 만드는 방법도 있다고 한다.
-문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
-일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
-뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
-아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
-당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
-고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
-경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
-여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
-달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
-카르마가 높으면 세금이 감면된다.
-몬스터의 똥은 무거울수록 비싸게 팔린다.
-저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
-헤르메스의 피는 *반드시* 축복해서 마셔라!
-귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
-용무가 있{는가}? {나는} 바쁜 몸{이다}.
-마을에 투자하겠다면 언제든 환영{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
-제가 도움이 되어 드릴 일이 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
-십년전쟁으로 이 나라는 큰 타격을 입었{어}.
-죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
-십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
-미실리아는 앞으로 어떻게 되는 걸{까}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
-시오루시아는 정말로 학구열이 대단해서 감동했{어}.
-올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
-패리스한테 실컷 매도당하고 {싶다}.
-오르비나는 미실리아 최고의 관광지{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
-지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}
-그 길에 관심 있으면 도적 길드로 가 {봐}.
-이 세상은 노예가 필요{해}.
-아레나에서 피 튀기는 걸 보는 게 {좋아}.
-이 마을에는 경비병이 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
-팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
-쟈비님과 스타샤님은 정말로 사이가 {좋아}.
-팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
-말이라면 여기서 사가는 게 {좋아}.
-수확기에는 항상 일손이 모자라{지}.
-아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
-서쪽에 무법자들의 마을이 있다{더라}.
-마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
-어딘가에 온천으로 유명한 마을이 있다{더라}.
-이 마을은 어디서든지 낚시를 할 수 있{어}.
-그림 얘기로는 하루종일 떠들 수 있{어}.
-마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
-하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
-매일매일 눈 치우는 게 큰일{이다}.
-죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
-추워!
-여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바닷바람 향기가 좋{네}.
-펫 아레나에서 경기 보는 게 취미{다}.
-더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
-이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
-피라미드에는 어떻게 들어가는 걸{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
-길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
-스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
-스타샤 공주님 만세!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
-미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
-시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
-오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
-공주님 만세!
-나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
-후하핫!
-약한 자를 돕고, 악을 쳐부수는 거다!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
-나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
-어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
-이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
-교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
-그건 그렇고 귀중한 서적들이다.
-눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
-파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
-오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
-수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
-서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
-아니… 이건 코스프레가 아니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
-팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
-아이돌…? …다른 나라의 말인가요?
-궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
-패리스 언니는 화나면 무서워요.
-팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
-아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
-길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무엇이냐, 너는?
-이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
-…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
-아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
-태평하긴, 바보 녀석들이.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
-이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
-이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한 곡 듣겠나?
-예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
-지금은 미실리아야말로 내 고향이다.
-멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
-내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
-우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
-내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
-귀부인들이 절조가 없어서 참 곤란하단 말이야.
-에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐 너는?
-모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
-제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
-팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
-차라도 들겠나, 큰까마귀.
-나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
-…하지만, 용케도 이런 외딴 곳을 찾아냈군.
-…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
-이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왜?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
-그 괴물들이랑 똑같은 취급 하지 마.
-아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
-아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
-아빠는 곧 돌아오실 거야.
-부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
-그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
-저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
 </sst>
 </file>
@@ -2241,20 +2240,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2267,13 +2266,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2299,7 +2298,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2308,78 +2307,82 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2454,7 +2457,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2463,12 +2466,12 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -2476,13 +2479,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49671360" cy="130680"/>
+          <a:ext cx="49671000" cy="130320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2610,29 +2613,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B76" sqref="B76"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.53" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.34" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.34"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
+    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2646,1022 +2649,1022 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1"/>
-    <row r="3" ht="12" customHeight="1"/>
-    <row r="4" ht="12" customHeight="1"/>
-    <row r="5" ht="12" customHeight="1">
+    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>369</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>370</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>371</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>372</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>373</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>374</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>375</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>376</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>377</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>378</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>380</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>381</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>382</v>
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>383</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>384</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>385</v>
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>386</v>
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>387</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>388</v>
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="20.1" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>389</v>
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" ht="20.1" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>390</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" ht="20.1" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>391</v>
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" ht="20.1" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>392</v>
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" ht="20.1" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>393</v>
+        <v>100</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" ht="20.1" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>394</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>395</v>
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>393</v>
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="12.8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>394</v>
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>396</v>
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" ht="12.8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>397</v>
+        <v>118</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="12.8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>398</v>
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" ht="12.8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>399</v>
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" ht="12.8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>400</v>
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>401</v>
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" ht="12.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>402</v>
+        <v>138</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>403</v>
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>404</v>
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" ht="12.8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>405</v>
+        <v>150</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" ht="12.8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>406</v>
+        <v>154</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>407</v>
+        <v>158</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" ht="22.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>408</v>
+        <v>162</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>409</v>
+        <v>166</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" t="s">
-        <v>410</v>
+        <v>170</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>411</v>
+        <v>174</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>412</v>
+        <v>178</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>413</v>
+        <v>182</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" ht="22.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>414</v>
+        <v>186</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" ht="12.8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" t="s">
-        <v>415</v>
+        <v>190</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>416</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" ht="12.8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s">
-        <v>417</v>
+        <v>198</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" ht="12.8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" t="s">
-        <v>418</v>
+        <v>202</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" ht="12.8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>419</v>
+        <v>206</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" ht="12.8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>421</v>
+        <v>214</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>422</v>
+        <v>218</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>423</v>
+        <v>222</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" ht="12.8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" t="s">
-        <v>424</v>
+        <v>226</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" t="s">
-        <v>425</v>
+        <v>230</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" ht="32.8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>426</v>
+        <v>234</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" ht="32.8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" t="s">
-        <v>427</v>
+        <v>238</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" ht="12.8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" t="s">
-        <v>428</v>
+        <v>242</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" ht="12.8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" t="s">
-        <v>429</v>
+        <v>246</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" ht="12.8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>430</v>
+        <v>250</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" t="s">
-        <v>431</v>
+        <v>254</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" t="s">
-        <v>432</v>
+        <v>258</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" ht="12.8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>433</v>
+        <v>262</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" ht="22.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" t="s">
-        <v>434</v>
+        <v>266</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" ht="12.8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" t="s">
-        <v>435</v>
+        <v>270</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" ht="12.8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>436</v>
+        <v>274</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" ht="12.8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>437</v>
+        <v>278</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" ht="12.8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" t="s">
-        <v>438</v>
+        <v>282</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -3670,29 +3673,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
-    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
-    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="81.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3706,287 +3709,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>439</v>
+        <v>286</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" ht="43.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" t="s">
-        <v>440</v>
+        <v>290</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" t="s">
-        <v>441</v>
+        <v>294</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" ht="43.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" t="s">
-        <v>442</v>
+        <v>298</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" ht="43.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" t="s">
-        <v>443</v>
+        <v>302</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" ht="74.6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" t="s">
-        <v>444</v>
+        <v>306</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" ht="43.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" t="s">
-        <v>445</v>
+        <v>310</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" ht="43.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" t="s">
-        <v>446</v>
+        <v>314</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" t="s">
-        <v>447</v>
+        <v>318</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" ht="22.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" t="s">
-        <v>448</v>
+        <v>322</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" t="s">
-        <v>449</v>
+        <v>326</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" ht="12.8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" t="s">
-        <v>450</v>
+        <v>330</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" ht="22.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" t="s">
-        <v>451</v>
+        <v>334</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" ht="22.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" t="s">
-        <v>452</v>
+        <v>338</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" ht="200.7">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="200.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" ht="168.65">
+    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" t="s">
-        <v>454</v>
+        <v>346</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" t="s">
-        <v>455</v>
+        <v>350</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" ht="32.8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" t="s">
-        <v>456</v>
+        <v>354</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B23" t="s">
-        <v>457</v>
+        <v>358</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -3994,29 +3997,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B13" sqref="B13"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.61" style="1" customWidth="1"/>
-    <col min="3" max="3" width="109.15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.06" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.06"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4030,137 +4033,137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" t="s">
-        <v>458</v>
+        <v>362</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" t="s">
-        <v>459</v>
+        <v>366</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" t="s">
-        <v>460</v>
+        <v>370</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" ht="64.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" t="s">
-        <v>461</v>
+        <v>374</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>462</v>
+        <v>378</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" ht="95.5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" t="s">
-        <v>463</v>
+        <v>382</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" ht="64.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>464</v>
+        <v>386</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" ht="53.7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" t="s">
-        <v>465</v>
+        <v>390</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" t="s">
-        <v>466</v>
+        <v>394</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>299</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4168,29 +4171,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B27" sqref="B27"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
-    <col min="4" max="4" width="87.18" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="87.18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4204,359 +4207,359 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="345.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
-      <c r="A6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C22" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" ht="64.15">
-      <c r="A7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D22" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" ht="64.15">
-      <c r="A8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
-      <c r="A9" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B23" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" ht="95.5">
-      <c r="A10" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C23" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" ht="64.15">
-      <c r="A11" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D23" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" ht="64.15">
-      <c r="A12" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
-      <c r="A13" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B24" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" ht="43.25">
-      <c r="A14" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C24" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
-      <c r="A15" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D24" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" ht="43.25">
-      <c r="A16" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" ht="32.8">
-      <c r="A17" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B25" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" ht="44.75">
-      <c r="A18" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C25" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="19" ht="200.7">
-      <c r="A19" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D25" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" ht="168.65">
-      <c r="A20" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B26" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
-      <c r="A21" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C26" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" ht="67.15">
-      <c r="A22" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D26" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
-      <c r="A23" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" ht="74.6">
-      <c r="A24" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B27" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" ht="12.8">
-      <c r="A25" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C27" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
-      <c r="A26" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D27" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" ht="95.5">
-      <c r="A27" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B27" t="s">
-        <v>489</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" ht="12.8">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" ht="12.8">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="32" ht="12.8">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" ht="12.8">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" r:id="rId6"/>
+    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="489">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">food1</t>
   </si>
   <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">food2</t>
   </si>
   <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t xml:space="preserve">healer1</t>
   </si>
   <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t xml:space="preserve">healer2</t>
   </si>
   <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t xml:space="preserve">appraise1</t>
   </si>
   <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t xml:space="preserve">appraise2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t xml:space="preserve">appraise3</t>
   </si>
   <si>
+    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t xml:space="preserve">expand1</t>
   </si>
   <si>
+    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t xml:space="preserve">expand2</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t xml:space="preserve">expand3</t>
   </si>
   <si>
+    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">拡張できないよう{だ}。</t>
   </si>
   <si>
@@ -128,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">extraTax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
   </si>
   <si>
     <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
@@ -140,6 +173,9 @@
     <t xml:space="preserve">extraTax2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
   </si>
   <si>
@@ -149,6 +185,9 @@
     <t xml:space="preserve">banker1</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
   </si>
   <si>
@@ -158,6 +197,9 @@
     <t xml:space="preserve">banker2</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
   </si>
   <si>
@@ -167,6 +209,9 @@
     <t xml:space="preserve">banker3</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
   </si>
   <si>
@@ -176,6 +221,9 @@
     <t xml:space="preserve">banker4</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
   </si>
   <si>
@@ -185,6 +233,9 @@
     <t xml:space="preserve">noDrawingRoom</t>
   </si>
   <si>
+    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
   </si>
   <si>
@@ -194,6 +245,9 @@
     <t xml:space="preserve">nomoney</t>
   </si>
   <si>
+    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
   </si>
   <si>
@@ -203,6 +257,9 @@
     <t xml:space="preserve">alreadyFull</t>
   </si>
   <si>
+    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
   </si>
   <si>
@@ -212,6 +269,9 @@
     <t xml:space="preserve">questAccept</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
   </si>
   <si>
@@ -221,6 +281,9 @@
     <t xml:space="preserve">questFull</t>
   </si>
   <si>
+    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
   </si>
   <si>
@@ -230,6 +293,9 @@
     <t xml:space="preserve">questInProgress</t>
   </si>
   <si>
+    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
   </si>
   <si>
@@ -239,6 +305,9 @@
     <t xml:space="preserve">questComplete</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -248,6 +317,9 @@
     <t xml:space="preserve">bird1</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
   </si>
   <si>
@@ -255,6 +327,10 @@
   </si>
   <si>
     <t xml:space="preserve">bird2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{간다}!
+우후후.</t>
   </si>
   <si>
     <t xml:space="preserve">いく{よ}！
@@ -268,6 +344,9 @@
     <t xml:space="preserve">bird3</t>
   </si>
   <si>
+    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
   </si>
   <si>
@@ -277,6 +356,9 @@
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
+    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
   </si>
   <si>
@@ -292,6 +374,9 @@
     <t xml:space="preserve">lockpick_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
   </si>
   <si>
@@ -301,6 +386,9 @@
     <t xml:space="preserve">invite</t>
   </si>
   <si>
+    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
   </si>
   <si>
@@ -310,6 +398,9 @@
     <t xml:space="preserve">invite2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
   </si>
   <si>
@@ -319,6 +410,9 @@
     <t xml:space="preserve">invite3</t>
   </si>
   <si>
+    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
+  </si>
+  <si>
     <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
   </si>
   <si>
@@ -328,6 +422,9 @@
     <t xml:space="preserve">talk_hobby</t>
   </si>
   <si>
+    <t xml:space="preserve">취미는 #1 정도{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">趣味は#1{だ}。</t>
   </si>
   <si>
@@ -337,6 +434,9 @@
     <t xml:space="preserve">talk_fav</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
   </si>
   <si>
@@ -346,6 +446,9 @@
     <t xml:space="preserve">slave_buy</t>
   </si>
   <si>
+    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
   </si>
   <si>
@@ -355,6 +458,9 @@
     <t xml:space="preserve">slave_buy2</t>
   </si>
   <si>
+    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
   </si>
   <si>
@@ -364,6 +470,9 @@
     <t xml:space="preserve">goto</t>
   </si>
   <si>
+    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
   </si>
   <si>
@@ -373,6 +482,9 @@
     <t xml:space="preserve">goto2</t>
   </si>
   <si>
+    <t xml:space="preserve">놀리는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">からかっているの{か}？</t>
   </si>
   <si>
@@ -382,6 +494,9 @@
     <t xml:space="preserve">upgrade_heath1</t>
   </si>
   <si>
+    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
+  </si>
+  <si>
     <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
   </si>
   <si>
@@ -391,6 +506,9 @@
     <t xml:space="preserve">upgrade_heath2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
   </si>
   <si>
@@ -400,6 +518,9 @@
     <t xml:space="preserve">invest1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
   </si>
   <si>
@@ -409,6 +530,9 @@
     <t xml:space="preserve">invest2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
   </si>
   <si>
@@ -418,6 +542,9 @@
     <t xml:space="preserve">invest_shop1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
   </si>
   <si>
@@ -427,6 +554,9 @@
     <t xml:space="preserve">invest_shop2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
   </si>
   <si>
@@ -436,6 +566,9 @@
     <t xml:space="preserve">questCompleteDeliver</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -445,6 +578,9 @@
     <t xml:space="preserve">questCompleteDeliverExtra</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
@@ -454,6 +590,9 @@
     <t xml:space="preserve">miral_medal</t>
   </si>
   <si>
+    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
   </si>
   <si>
@@ -463,6 +602,9 @@
     <t xml:space="preserve">miral_medal2</t>
   </si>
   <si>
+    <t xml:space="preserve">흥!</t>
+  </si>
+  <si>
     <t xml:space="preserve">ふん！</t>
   </si>
   <si>
@@ -472,6 +614,9 @@
     <t xml:space="preserve">shop_criminal</t>
   </si>
   <si>
+    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
@@ -481,6 +626,9 @@
     <t xml:space="preserve">guide</t>
   </si>
   <si>
+    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">どこに行きたい{のだ}？</t>
   </si>
   <si>
@@ -490,6 +638,9 @@
     <t xml:space="preserve">shutup</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
+  </si>
+  <si>
     <t xml:space="preserve">（#tgはしゅんとなった…）</t>
   </si>
   <si>
@@ -499,6 +650,9 @@
     <t xml:space="preserve">shutup2</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">（#tgはあなたに抱きついた）</t>
   </si>
   <si>
@@ -508,6 +662,9 @@
     <t xml:space="preserve">insult</t>
   </si>
   <si>
+    <t xml:space="preserve">답도 없는 변태{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうしようもない変態{だな}。</t>
   </si>
   <si>
@@ -517,6 +674,9 @@
     <t xml:space="preserve">insult2</t>
   </si>
   <si>
+    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
   </si>
   <si>
@@ -526,6 +686,9 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">（#tgはこくんと肯いた）</t>
   </si>
   <si>
@@ -535,6 +698,9 @@
     <t xml:space="preserve">deliver_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
   </si>
   <si>
@@ -544,6 +710,9 @@
     <t xml:space="preserve">news1</t>
   </si>
   <si>
+    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
@@ -553,6 +722,9 @@
     <t xml:space="preserve">news2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
   </si>
   <si>
@@ -560,6 +732,11 @@
   </si>
   <si>
     <t xml:space="preserve">bout1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
+진심{이야}?
+지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">力試しをしたいの{か}？
@@ -575,6 +752,11 @@
     <t xml:space="preserve">bout2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
+그렇게 나와{야지}!
+{좋아}, {YOU}의 힘을 보여{줘}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
@@ -588,6 +770,9 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
+    <t xml:space="preserve">{뭐야}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">なん{だ}？</t>
   </si>
   <si>
@@ -597,6 +782,9 @@
     <t xml:space="preserve">becomeMaid</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
   </si>
   <si>
@@ -606,6 +794,9 @@
     <t xml:space="preserve">sellFame1</t>
   </si>
   <si>
+    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
@@ -615,6 +806,9 @@
     <t xml:space="preserve">sellFame2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
   </si>
   <si>
@@ -624,6 +818,9 @@
     <t xml:space="preserve">blessing</t>
   </si>
   <si>
+    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
   </si>
   <si>
@@ -633,6 +830,9 @@
     <t xml:space="preserve">lockTooHard</t>
   </si>
   <si>
+    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
   </si>
   <si>
@@ -642,6 +842,9 @@
     <t xml:space="preserve">loytel_bill_give1</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
   </si>
   <si>
@@ -651,6 +854,9 @@
     <t xml:space="preserve">loytel_bill_give2</t>
   </si>
   <si>
+    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
   </si>
   <si>
@@ -660,6 +866,9 @@
     <t xml:space="preserve">loytel_bill_give_given</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
   </si>
   <si>
@@ -669,6 +878,9 @@
     <t xml:space="preserve">loytel_bill_give_wait</t>
   </si>
   <si>
+    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
@@ -678,6 +890,9 @@
     <t xml:space="preserve">loytel_bill_give_lost</t>
   </si>
   <si>
+    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
   </si>
   <si>
@@ -685,6 +900,15 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가{하다}.
+응? 뭔가 볼일이라도 있{는가}?
+가끔씩은 호화스러운 식사를 하고 {싶다}.
+영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
+눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
+고양이는 왜 이렇게 귀여운 {걸까}.
+#aka? …누굴 말하는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">暇{だ}。
@@ -708,6 +932,12 @@
     <t xml:space="preserve">interest_economy</t>
   </si>
   <si>
+    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
+하여간 이 세상에선 돈이 중요{해}.
+어디 돈 좀 떨어져 있으면 좋을 {텐데}.
+플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
@@ -723,6 +953,12 @@
     <t xml:space="preserve">interest_science</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
+에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
+에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
+신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
@@ -738,6 +974,12 @@
     <t xml:space="preserve">interest_travel</t>
   </si>
   <si>
+    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
+루미에스트는 예술의 거리로 유명{해}.
+노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
+여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
@@ -753,6 +995,12 @@
     <t xml:space="preserve">interest_world</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
+에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
+신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
+아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
@@ -766,6 +1014,15 @@
   </si>
   <si>
     <t xml:space="preserve">interest_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
+신이 없다면 이 세계는 의미가 없{어}.
+치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
+가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
+쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
+행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
+기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">信仰こそ何よりも大事{だ}。
@@ -789,6 +1046,12 @@
     <t xml:space="preserve">interest_human</t>
   </si>
   <si>
+    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
+이제부터는 인간의 시대{다}!
+{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
+엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
@@ -804,6 +1067,12 @@
     <t xml:space="preserve">interest_elea</t>
   </si>
   <si>
+    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
+예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
+숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
+어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
@@ -817,6 +1086,17 @@
   </si>
   <si>
     <t xml:space="preserve">shopkeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
+물건 보는 눈은 자신 있{어}.
+가게 경영은 꽤 어렵{네}.
+건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
+다른 가게에서는 발밑이 안 보이게 조심{해라}.
+만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
+자, {내가} 자신있게 고른 상품들을 둘러{봐}.
+요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
+무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
   </si>
   <si>
     <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
@@ -844,6 +1124,10 @@
     <t xml:space="preserve">guard</t>
   </si>
   <si>
+    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
+수상한 사람을 보면 알려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。</t>
   </si>
@@ -853,6 +1137,11 @@
   </si>
   <si>
     <t xml:space="preserve">banker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
+돈으로 살 수 없는 것들도 있{지}.
+본 지점에 어서 {와}!</t>
   </si>
   <si>
     <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
@@ -868,6 +1157,9 @@
     <t xml:space="preserve">bitch</t>
   </si>
   <si>
+    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
   </si>
   <si>
@@ -875,6 +1167,10 @@
   </si>
   <si>
     <t xml:space="preserve">slaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님도 이쪽 사람이{네}.
+히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
   </si>
   <si>
     <t xml:space="preserve">お客さんも悪い人間{だな}。
@@ -888,6 +1184,10 @@
     <t xml:space="preserve">bored</t>
   </si>
   <si>
+    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
+(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
@@ -897,6 +1197,27 @@
   </si>
   <si>
     <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
+록 스로어가 던지는 바위를 무시하면 안 {돼}.
+꿈속에서 {내가} 믿는 신을 만났{어}!
+귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
+파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
+도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
+저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
+바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
+이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
+세금을 안 내면 나중에 골치 아파{져}.
+정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
+태양의 빛을 내는 신비한 램프가 있다{더라}.
+월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
+그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
+허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
+수영을 연습{해라}. 내구력이 단련된다{고}!
+미식가들은 독버섯도 구별할 수 있다{더라}.
+자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
+의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
   </si>
   <si>
     <r>
@@ -932,7 +1253,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
@@ -963,6 +1284,23 @@
     <t xml:space="preserve">fortune</t>
   </si>
   <si>
+    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
+소재 망치를 평범한 물건에 막 쓰지 마라!
+영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
+질 좋은 침대에서 자면 수면 효과가 좋아진다.
+몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
+독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
+큐브는 상태이상이 걸려 있다면 분열하지 못한다.
+아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
+소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
+환혹 내성이 충분하다면 광기 상태가 되지 않는다.
+지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
+젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
+단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
+강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
+수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
@@ -1000,6 +1338,31 @@
   </si>
   <si>
     <t xml:space="preserve">fortune_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
+지팡이는 땅에 한동안 놔 두면 충전된다!
+소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
+보석은 플래티넘 코인으로 교환할 수 있다.
+보물 지도는 항상 축복해서 읽어라.
+냐…아…아아…
+무엇을 바라는가?
+채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
+신을 펫으로 만드는 방법도 있다고 한다.
+문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
+일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
+뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
+아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
+당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
+고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
+경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
+여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
+달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
+카르마가 높으면 세금이 감면된다.
+몬스터의 똥은 무거울수록 비싸게 팔린다.
+저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
+헤르메스의 피는 *반드시* 축복해서 마셔라!
+귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
   </si>
   <si>
     <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
@@ -1055,6 +1418,11 @@
     <t xml:space="preserve">mayor</t>
   </si>
   <si>
+    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
+용무가 있{는가}? {나는} 바쁜 몸{이다}.
+마을에 투자하겠다면 언제든 환영{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
@@ -1068,6 +1436,10 @@
     <t xml:space="preserve">secretary</t>
   </si>
   <si>
+    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
+제가 도움이 되어 드릴 일이 있나요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
@@ -1077,6 +1449,13 @@
   </si>
   <si>
     <t xml:space="preserve">mysilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
+십년전쟁으로 이 나라는 큰 타격을 입었{어}.
+죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
+십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
+미실리아는 앞으로 어떻게 되는 걸{까}.</t>
   </si>
   <si>
     <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
@@ -1096,6 +1475,13 @@
     <t xml:space="preserve">olvina</t>
   </si>
   <si>
+    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
+시오루시아는 정말로 학구열이 대단해서 감동했{어}.
+올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
+패리스한테 실컷 매도당하고 {싶다}.
+오르비나는 미실리아 최고의 관광지{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
@@ -1113,6 +1499,10 @@
     <t xml:space="preserve">lothria</t>
   </si>
   <si>
+    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
+지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
@@ -1122,6 +1512,13 @@
   </si>
   <si>
     <t xml:space="preserve">derphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}
+그 길에 관심 있으면 도적 길드로 가 {봐}.
+이 세상은 노예가 필요{해}.
+아레나에서 피 튀기는 걸 보는 게 {좋아}.
+이 마을에는 경비병이 없{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">無法者の街、ダルフィへようこそ。
@@ -1139,6 +1536,12 @@
   </si>
   <si>
     <t xml:space="preserve">palmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
+팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
+쟈비님과 스타샤님은 정말로 사이가 {좋아}.
+팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
   </si>
   <si>
     <t xml:space="preserve">パルミア国の王都へようこそ。
@@ -1156,6 +1559,14 @@
   </si>
   <si>
     <t xml:space="preserve">yowyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
+말이라면 여기서 사가는 게 {좋아}.
+수확기에는 항상 일손이 모자라{지}.
+아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
+서쪽에 무법자들의 마을이 있다{더라}.
+마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
@@ -1179,6 +1590,14 @@
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
+    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
+어딘가에 온천으로 유명한 마을이 있다{더라}.
+이 마을은 어디서든지 낚시를 할 수 있{어}.
+그림 얘기로는 하루종일 떠들 수 있{어}.
+마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
+하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
@@ -1198,6 +1617,13 @@
     <t xml:space="preserve">noyel</t>
   </si>
   <si>
+    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
+매일매일 눈 치우는 게 큰일{이다}.
+죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
+추워!
+여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
@@ -1213,6 +1639,13 @@
   </si>
   <si>
     <t xml:space="preserve">kapul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바닷바람 향기가 좋{네}.
+펫 아레나에서 경기 보는 게 취미{다}.
+더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
+이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
+피라미드에는 어떻게 들어가는 걸{까}?</t>
   </si>
   <si>
     <t xml:space="preserve">潮風が香る{な}。
@@ -1233,6 +1666,12 @@
     <t xml:space="preserve">conery</t>
   </si>
   <si>
+    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
+길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
+스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
+스타샤 공주님 만세!</t>
+  </si>
+  <si>
     <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
@@ -1248,6 +1687,11 @@
     <t xml:space="preserve">garokk</t>
   </si>
   <si>
+    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
+미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
+시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
+  </si>
+  <si>
     <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
@@ -1259,6 +1703,14 @@
   </si>
   <si>
     <t xml:space="preserve">gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
+오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
+공주님 만세!
+나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
+후하핫!
+약한 자를 돕고, 악을 쳐부수는 거다!</t>
   </si>
   <si>
     <t xml:space="preserve">フハハハハ！…何だ貴様は？
@@ -1280,6 +1732,10 @@
     <t xml:space="preserve">jonan</t>
   </si>
   <si>
+    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
+나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
@@ -1289,6 +1745,12 @@
   </si>
   <si>
     <t xml:space="preserve">lowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
+어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
+이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
+교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者がこんなところに何のようだね？
@@ -1306,6 +1768,11 @@
     <t xml:space="preserve">mapMerchant</t>
   </si>
   <si>
+    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
+그건 그렇고 귀중한 서적들이다.
+눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
@@ -1319,6 +1786,11 @@
     <t xml:space="preserve">miral</t>
   </si>
   <si>
+    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
+파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
+오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
+  </si>
+  <si>
     <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
@@ -1330,6 +1802,12 @@
   </si>
   <si>
     <t xml:space="preserve">nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
+수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
+서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
+아니… 이건 코스프레가 아니다.</t>
   </si>
   <si>
     <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
@@ -1347,6 +1825,9 @@
     <t xml:space="preserve">nola</t>
   </si>
   <si>
+    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
+  </si>
+  <si>
     <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
   </si>
   <si>
@@ -1354,6 +1835,12 @@
   </si>
   <si>
     <t xml:space="preserve">stasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
+팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
+아이돌…? …다른 나라의 말인가요?
+궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
   </si>
   <si>
     <t xml:space="preserve">あら、私に何かご用ですか？
@@ -1371,6 +1858,11 @@
     <t xml:space="preserve">theolucia</t>
   </si>
   <si>
+    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
+패리스 언니는 화나면 무서워요.
+팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
@@ -1384,6 +1876,11 @@
     <t xml:space="preserve">xabi</t>
   </si>
   <si>
+    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
+아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
+길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
@@ -1397,6 +1894,11 @@
     <t xml:space="preserve">zane</t>
   </si>
   <si>
+    <t xml:space="preserve">무엇이냐, 너는?
+이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
+…</t>
+  </si>
+  <si>
     <t xml:space="preserve">何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
@@ -1408,6 +1910,11 @@
   </si>
   <si>
     <t xml:space="preserve">ephrond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
+아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
+태평하긴, 바보 녀석들이.</t>
   </si>
   <si>
     <r>
@@ -1426,7 +1933,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
@@ -1460,7 +1967,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
@@ -1481,6 +1988,11 @@
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
+    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
+이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
+이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
+  </si>
+  <si>
     <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
@@ -1492,6 +2004,13 @@
   </si>
   <si>
     <t xml:space="preserve">barrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 곡 듣겠나?
+예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
+지금은 미실리아야말로 내 고향이다.
+멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
+내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
   </si>
   <si>
     <t xml:space="preserve">一曲聴いてくかい？
@@ -1517,7 +2036,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
@@ -1528,6 +2047,13 @@
   </si>
   <si>
     <t xml:space="preserve">melvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
+우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
+내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
+귀부인들이 절조가 없어서 참 곤란하단 말이야.
+에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
   </si>
   <si>
     <r>
@@ -1546,7 +2072,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
@@ -1564,6 +2090,12 @@
   </si>
   <si>
     <t xml:space="preserve">caldorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 너는?
+모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
+제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
+팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
   </si>
   <si>
     <t xml:space="preserve">何だお主は？
@@ -1589,7 +2121,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
@@ -1600,6 +2132,9 @@
     <t xml:space="preserve">melilith</t>
   </si>
   <si>
+    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
+  </si>
+  <si>
     <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
   </si>
   <si>
@@ -1607,6 +2142,14 @@
   </si>
   <si>
     <t xml:space="preserve">seeker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
+차라도 들겠나, 큰까마귀.
+나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
+…하지만, 용케도 이런 외딴 곳을 찾아냈군.
+…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
+이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
   </si>
   <si>
     <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
@@ -1628,12 +2171,18 @@
     <t xml:space="preserve">quru</t>
   </si>
   <si>
+    <t xml:space="preserve">왜?</t>
+  </si>
+  <si>
     <t xml:space="preserve">何？</t>
   </si>
   <si>
     <t xml:space="preserve">kettle</t>
   </si>
   <si>
+    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
+  </si>
+  <si>
     <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
   </si>
   <si>
@@ -1641,6 +2190,16 @@
   </si>
   <si>
     <t xml:space="preserve">strange_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
+그 괴물들이랑 똑같은 취급 하지 마.
+아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
+아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
+아빠는 곧 돌아오실 거야.
+부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
+그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
+저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
   <si>
     <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
@@ -1661,568 +2220,6 @@
 Even if they asked, I won't play with the Littles.
 Sometimes, they pick up and bring weird stuff.
 That monster woman is not my mommy. That's obvious!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자, 천천히 {먹어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{간다}!
-우후후.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">취미는 #1 정도{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">놀리는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">흥!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">답도 없는 변태{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
-진심{이야}?
-지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
-그렇지 나와{야지}!
-{좋아}, {YOU}의 힘을 보여{줘}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{뭐야}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한가{하다}.
-응? 뭔가 볼일이라도 있{는가}?
-가끔씩은 호화스러운 식사를 하고 {싶다}.
-영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
-눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
-고양이는 왜 이렇게 귀여운 {걸까}.
-#aka? …누굴 말하는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
-하여간 이 세상에선 돈이 중요{해}.
-어디 돈 좀 떨어져 있으면 좋을 {텐데}.
-플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
-에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
-에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
-신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
-루미에스트는 예술의 거리로 유명{해}.
-노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
-여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
-에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
-신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
-아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
-신이 없다면 이 세계는 의미가 없{어}.
-치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
-가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
-쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
-행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
-기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
-이제부터는 인간의 시대{다}!
-{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
-엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
-예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
-숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
-어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
-물건 보는 눈은 자신 있{어}.
-가게 경영은 꽤 어렵{네}.
-건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
-다른 가게에서는 발밑이 안 보이게 조심{해라}.
-만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
-자, {내가} 자신있게 고른 상품들을 둘러{봐}.
-요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
-무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
-수상한 사람을 보면 알려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
-돈으로 살 수 없는 것들도 있{지}.
-본 지점에 어서 {와}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손님도 이쪽 사람이{네}.
-히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
-(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
-록 스로어가 던지는 바위를 무시하면 안 {돼}.
-꿈속에서 {내가} 믿는 신을 만났{어}!
-귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
-파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
-도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
-저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
-바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
-이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
-세금을 안 내면 나중에 골치 아파{져}.
-정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
-태양의 빛을 내는 신비한 램프가 있다{더라}.
-월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
-그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
-허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
-수영을 연습{해라}. 내구력이 단련된다{고}!
-미식가들은 독버섯도 구별할 수 있다{더라}.
-자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
-의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
-소재 망치를 평범한 물건에 막 쓰지 마라!
-영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
-질 좋은 침대에서 자면 수면 효과가 좋아진다.
-몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
-독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
-큐브는 상태이상이 걸려 있다면 분열하지 못한다.
-아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
-소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
-환혹 내성이 충분하다면 광기 상태가 되지 않는다.
-지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
-젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
-단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
-강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
-수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
-지팡이는 땅에 한동안 놔 두면 충전된다!
-소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
-보석은 플래티넘 코인으로 교환할 수 있다.
-보물 지도는 항상 축복해서 읽어라.
-냐…아…아아…
-무엇을 바라는가?
-채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
-신을 펫으로 만드는 방법도 있다고 한다.
-문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
-일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
-뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
-아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
-당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
-고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
-경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
-여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
-달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
-카르마가 높으면 세금이 감면된다.
-몬스터의 똥은 무거울수록 비싸게 팔린다.
-저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
-헤르메스의 피는 *반드시* 축복해서 마셔라!
-귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
-용무가 있{는가}? {나는} 바쁜 몸{이다}.
-마을에 투자하겠다면 언제든 환영{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
-제가 도움이 되어 드릴 일이 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
-십년전쟁으로 이 나라는 큰 타격을 입었{어}.
-죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
-십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
-미실리아는 앞으로 어떻게 되는 걸{까}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
-시오루시아는 정말로 학구열이 대단해서 감동했{어}.
-올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
-패리스한테 실컷 매도당하고 {싶다}.
-오르비나는 미실리아 최고의 관광지{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
-지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}
-그 길에 관심 있으면 도적 길드로 가 {봐}.
-이 세상은 노예가 필요{해}.
-아레나에서 피 튀기는 걸 보는 게 {좋아}.
-이 마을에는 경비병이 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
-팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
-쟈비님과 스타샤님은 정말로 사이가 {좋아}.
-팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
-말이라면 여기서 사가는 게 {좋아}.
-수확기에는 항상 일손이 모자라{지}.
-아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
-서쪽에 무법자들의 마을이 있다{더라}.
-마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
-어딘가에 온천으로 유명한 마을이 있다{더라}.
-이 마을은 어디서든지 낚시를 할 수 있{어}.
-그림 얘기로는 하루종일 떠들 수 있{어}.
-마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
-하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
-매일매일 눈 치우는 게 큰일{이다}.
-죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
-추워!
-여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바닷바람 향기가 좋{네}.
-펫 아레나에서 경기 보는 게 취미{다}.
-더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
-이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
-피라미드에는 어떻게 들어가는 걸{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
-길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
-스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
-스타샤 공주님 만세!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
-미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
-시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
-오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
-공주님 만세!
-나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
-후하핫!
-약한 자를 돕고, 악을 쳐부수는 거다!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
-나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
-어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
-이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
-교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
-그건 그렇고 귀중한 서적들이다.
-눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
-파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
-오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
-수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
-서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
-아니… 이건 코스프레가 아니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
-팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
-아이돌…? …다른 나라의 말인가요?
-궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
-패리스 언니는 화나면 무서워요.
-팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
-아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
-길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무엇이냐, 너는?
-이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
-…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
-아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
-태평하긴, 바보 녀석들이.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
-이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
-이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한 곡 듣겠나?
-예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
-지금은 미실리아야말로 내 고향이다.
-멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
-내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
-우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
-내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
-귀부인들이 절조가 없어서 참 곤란하단 말이야.
-에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐 너는?
-모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
-제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
-팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
-차라도 들겠나, 큰까마귀.
-나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
-…하지만, 용케도 이런 외딴 곳을 찾아냈군.
-…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
-이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왜?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
-그 괴물들이랑 똑같은 취급 하지 마.
-아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
-아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
-아빠는 곧 돌아오실 거야.
-부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
-그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
-저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
 </sst>
 </file>
@@ -2243,20 +2240,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2269,13 +2266,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2301,7 +2298,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2310,78 +2307,78 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2456,7 +2453,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2465,12 +2462,12 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>131400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -2478,13 +2475,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49671360" cy="130680"/>
+          <a:ext cx="49671000" cy="130320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2612,29 +2609,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B76" sqref="B76"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.53" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.34" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.34"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
+    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2648,1022 +2645,1022 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1"/>
-    <row r="3" ht="12" customHeight="1"/>
-    <row r="4" ht="12" customHeight="1"/>
-    <row r="5" ht="12" customHeight="1">
+    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>369</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>370</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>371</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>372</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>373</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>374</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>375</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>376</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>377</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>378</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>380</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>381</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>382</v>
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>383</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>384</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>385</v>
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>386</v>
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>387</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>388</v>
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="20.1" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>389</v>
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" ht="20.1" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>390</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" ht="20.1" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>391</v>
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" ht="20.1" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>392</v>
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" ht="20.1" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>393</v>
+        <v>100</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" ht="20.1" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>394</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>395</v>
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>393</v>
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="12.8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>394</v>
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>396</v>
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" ht="12.8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>397</v>
+        <v>118</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="12.8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>398</v>
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" ht="12.8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>399</v>
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" ht="12.8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>400</v>
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>401</v>
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" ht="12.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>402</v>
+        <v>138</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>403</v>
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>404</v>
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" ht="12.8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>405</v>
+        <v>150</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" ht="12.8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>406</v>
+        <v>154</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>407</v>
+        <v>158</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" ht="22.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>408</v>
+        <v>162</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>409</v>
+        <v>166</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" t="s">
-        <v>410</v>
+        <v>170</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>411</v>
+        <v>174</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>412</v>
+        <v>178</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>413</v>
+        <v>182</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" ht="22.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>414</v>
+        <v>186</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" ht="12.8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" t="s">
-        <v>415</v>
+        <v>190</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>416</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" ht="12.8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s">
-        <v>417</v>
+        <v>198</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" ht="12.8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" t="s">
-        <v>418</v>
+        <v>202</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" ht="12.8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>419</v>
+        <v>206</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" ht="12.8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>421</v>
+        <v>214</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>422</v>
+        <v>218</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>423</v>
+        <v>222</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" ht="12.8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" t="s">
-        <v>424</v>
+        <v>226</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" t="s">
-        <v>425</v>
+        <v>230</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" ht="32.8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>426</v>
+        <v>234</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" ht="32.8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" t="s">
-        <v>427</v>
+        <v>238</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" ht="12.8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" t="s">
-        <v>428</v>
+        <v>242</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" ht="12.8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" t="s">
-        <v>429</v>
+        <v>246</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" ht="12.8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>430</v>
+        <v>250</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" t="s">
-        <v>431</v>
+        <v>254</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" t="s">
-        <v>432</v>
+        <v>258</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" ht="12.8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>433</v>
+        <v>262</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" ht="22.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" t="s">
-        <v>434</v>
+        <v>266</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" ht="12.8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" t="s">
-        <v>435</v>
+        <v>270</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" ht="12.8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>436</v>
+        <v>274</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" ht="12.8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>437</v>
+        <v>278</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" ht="12.8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" t="s">
-        <v>438</v>
+        <v>282</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -3672,29 +3669,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
-    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
-    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3708,287 +3705,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>439</v>
+        <v>286</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" ht="43.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" t="s">
-        <v>440</v>
+        <v>290</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" t="s">
-        <v>441</v>
+        <v>294</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" ht="43.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" t="s">
-        <v>442</v>
+        <v>298</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" ht="43.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" t="s">
-        <v>443</v>
+        <v>302</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" ht="74.6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" t="s">
-        <v>444</v>
+        <v>306</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" ht="43.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" t="s">
-        <v>445</v>
+        <v>310</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" ht="43.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" t="s">
-        <v>446</v>
+        <v>314</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" t="s">
-        <v>447</v>
+        <v>318</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" ht="22.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" t="s">
-        <v>448</v>
+        <v>322</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" t="s">
-        <v>449</v>
+        <v>326</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" ht="12.8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" t="s">
-        <v>450</v>
+        <v>330</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" ht="22.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" t="s">
-        <v>451</v>
+        <v>334</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" ht="22.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" t="s">
-        <v>452</v>
+        <v>338</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" ht="200.7">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="1128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" ht="168.65">
+    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" t="s">
-        <v>454</v>
+        <v>346</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" t="s">
-        <v>455</v>
+        <v>350</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" ht="32.8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" t="s">
-        <v>456</v>
+        <v>354</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B23" t="s">
-        <v>457</v>
+        <v>358</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -3996,29 +3993,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B13" sqref="B13"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.61" style="1" customWidth="1"/>
-    <col min="3" max="3" width="109.15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.06" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.06"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4032,137 +4029,137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" t="s">
-        <v>458</v>
+        <v>362</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" t="s">
-        <v>459</v>
+        <v>366</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" t="s">
-        <v>460</v>
+        <v>370</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" ht="64.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" t="s">
-        <v>461</v>
+        <v>374</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>462</v>
+        <v>378</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" ht="95.5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" t="s">
-        <v>463</v>
+        <v>382</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" ht="64.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>464</v>
+        <v>386</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" ht="53.7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" t="s">
-        <v>465</v>
+        <v>390</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" t="s">
-        <v>466</v>
+        <v>394</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>299</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4170,29 +4167,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B27" sqref="B27"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
-    <col min="4" max="4" width="87.18" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="87.18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4206,359 +4203,359 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="345.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
-      <c r="A6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C22" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" ht="64.15">
-      <c r="A7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D22" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" ht="64.15">
-      <c r="A8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
-      <c r="A9" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B23" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" ht="95.5">
-      <c r="A10" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C23" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" ht="64.15">
-      <c r="A11" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D23" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" ht="64.15">
-      <c r="A12" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
-      <c r="A13" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B24" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" ht="43.25">
-      <c r="A14" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C24" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
-      <c r="A15" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D24" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" ht="43.25">
-      <c r="A16" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" ht="32.8">
-      <c r="A17" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B25" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" ht="44.75">
-      <c r="A18" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C25" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="19" ht="200.7">
-      <c r="A19" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D25" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" ht="168.65">
-      <c r="A20" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B26" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
-      <c r="A21" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C26" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" ht="67.15">
-      <c r="A22" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D26" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
-      <c r="A23" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" ht="74.6">
-      <c r="A24" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B27" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" ht="12.8">
-      <c r="A25" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C27" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
-      <c r="A26" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D27" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="27" ht="95.5">
-      <c r="A27" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B27" t="s">
-        <v>489</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" ht="12.8">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" ht="12.8">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="32" ht="12.8">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" ht="12.8">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="493">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -490,7 +490,7 @@
     <t xml:space="preserve">shutup</t>
   </si>
   <si>
-    <t xml:space="preserve">（#tgはしゅんとなった…）</t>
+    <t xml:space="preserve">(#tgはしゅんとなった…)</t>
   </si>
   <si>
     <t xml:space="preserve">(#tg stops talking...)</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">shutup2</t>
   </si>
   <si>
-    <t xml:space="preserve">（#tgはあなたに抱きついた）</t>
+    <t xml:space="preserve">(#tgはあなたに抱きついた)</t>
   </si>
   <si>
     <t xml:space="preserve">(#tg hugs you.)</t>
@@ -526,10 +526,19 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
-    <t xml:space="preserve">（#tgはこくんと肯いた）</t>
+    <t xml:space="preserve">(#tgはこくんと肯いた)</t>
   </si>
   <si>
     <t xml:space="preserve">(#tg gives a small nod.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tgはやんわりと断った)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg gently refuses your proposal.)</t>
   </si>
   <si>
     <t xml:space="preserve">deliver_purse</t>
@@ -2466,9 +2475,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2478,7 +2487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49671360" cy="130680"/>
+          <a:ext cx="49671000" cy="130320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2616,14 +2625,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B76" sqref="B76"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B77" sqref="B77"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
@@ -2656,7 +2665,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2670,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2684,7 +2693,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -2698,7 +2707,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -2712,7 +2721,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2726,7 +2735,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -2740,7 +2749,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -2754,7 +2763,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -2768,7 +2777,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -2782,7 +2791,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2796,7 +2805,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -2810,7 +2819,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2824,7 +2833,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -2838,7 +2847,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -2852,7 +2861,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -2866,7 +2875,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -2880,7 +2889,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -2894,7 +2903,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -2908,7 +2917,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -2922,7 +2931,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
@@ -2936,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -2950,7 +2959,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -2964,7 +2973,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -2978,7 +2987,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -2992,7 +3001,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>77</v>
@@ -3006,7 +3015,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -3020,7 +3029,7 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>83</v>
@@ -3034,7 +3043,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>77</v>
@@ -3048,7 +3057,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>80</v>
@@ -3062,7 +3071,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>88</v>
@@ -3076,7 +3085,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>91</v>
@@ -3090,7 +3099,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -3104,7 +3113,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -3118,7 +3127,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>100</v>
@@ -3132,7 +3141,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>103</v>
@@ -3146,7 +3155,7 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>106</v>
@@ -3160,7 +3169,7 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
@@ -3174,7 +3183,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>112</v>
@@ -3188,7 +3197,7 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>115</v>
@@ -3202,7 +3211,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>118</v>
@@ -3216,7 +3225,7 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>121</v>
@@ -3230,7 +3239,7 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
@@ -3244,7 +3253,7 @@
         <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>127</v>
@@ -3258,7 +3267,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>130</v>
@@ -3272,7 +3281,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>133</v>
@@ -3286,7 +3295,7 @@
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>136</v>
@@ -3300,7 +3309,7 @@
         <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>139</v>
@@ -3314,7 +3323,7 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -3328,7 +3337,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>145</v>
@@ -3342,7 +3351,7 @@
         <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>148</v>
@@ -3356,7 +3365,7 @@
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
@@ -3370,7 +3379,7 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>154</v>
@@ -3384,7 +3393,7 @@
         <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>157</v>
@@ -3398,7 +3407,7 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>160</v>
@@ -3412,7 +3421,7 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>163</v>
@@ -3426,7 +3435,7 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>166</v>
@@ -3439,9 +3448,6 @@
       <c r="A61" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B61" t="s">
-        <v>423</v>
-      </c>
       <c r="C61" s="3" t="s">
         <v>169</v>
       </c>
@@ -3454,21 +3460,21 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="63" ht="12.8">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>175</v>
@@ -3477,12 +3483,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" ht="32.8">
-      <c r="A64" s="1" t="s">
+    <row r="64" ht="12.8">
+      <c r="A64" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
@@ -3496,7 +3502,7 @@
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
@@ -3505,17 +3511,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" ht="12.8">
+    <row r="66" ht="32.8">
       <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>428</v>
-      </c>
-      <c r="C66" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3524,7 +3530,7 @@
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>187</v>
@@ -3538,12 +3544,12 @@
         <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>430</v>
-      </c>
-      <c r="C68" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3552,7 +3558,7 @@
         <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>193</v>
@@ -3566,9 +3572,9 @@
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>432</v>
-      </c>
-      <c r="C70" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -3580,7 +3586,7 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>199</v>
@@ -3589,26 +3595,26 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" ht="22.35">
+    <row r="72" ht="12.8">
       <c r="A72" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>434</v>
-      </c>
-      <c r="C72" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" ht="12.8">
+    <row r="73" ht="22.35">
       <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>205</v>
@@ -3622,9 +3628,9 @@
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>436</v>
-      </c>
-      <c r="C74" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -3636,7 +3642,7 @@
         <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>211</v>
@@ -3650,13 +3656,27 @@
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="77" ht="12.8">
+      <c r="A77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" t="s">
+        <v>441</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3719,269 +3739,269 @@
     </row>
     <row r="5" ht="74.6">
       <c r="A5" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" ht="43.25">
       <c r="A6" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" ht="43.25">
       <c r="A7" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" ht="43.25">
       <c r="A8" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" ht="43.25">
       <c r="A9" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" ht="74.6">
       <c r="A10" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" ht="43.25">
       <c r="A11" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" ht="43.25">
       <c r="A12" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" ht="95.5">
       <c r="A13" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" ht="22.35">
       <c r="A14" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" ht="32.8">
       <c r="A15" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" ht="12.8">
       <c r="A16" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" ht="22.35">
       <c r="A17" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" ht="22.35">
       <c r="A18" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" ht="200.7">
       <c r="A19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" ht="168.65">
       <c r="A20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" ht="241.75">
       <c r="A21" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" ht="32.8">
       <c r="A22" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" ht="22.35">
       <c r="A23" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4034,128 +4054,128 @@
     </row>
     <row r="5" ht="74.6">
       <c r="A5" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" ht="43.25">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" ht="64.15">
       <c r="A8" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" ht="95.5">
       <c r="A10" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" ht="64.15">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" ht="53.7">
       <c r="A12" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" ht="95.5">
       <c r="A13" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4177,9 +4197,9 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B27" sqref="B27"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
       <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -4217,324 +4237,324 @@
     </row>
     <row r="5" ht="74.6">
       <c r="A5" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" ht="64.15">
       <c r="A7" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" ht="64.15">
       <c r="A8" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" ht="95.5">
       <c r="A10" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" ht="64.15">
       <c r="A11" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" ht="64.15">
       <c r="A12" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" ht="95.5">
       <c r="A13" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" ht="43.25">
       <c r="A14" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" ht="32.8">
       <c r="A15" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" ht="43.25">
       <c r="A16" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" ht="32.8">
       <c r="A17" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" ht="44.75">
       <c r="A18" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" ht="200.7">
       <c r="A19" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B19" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" ht="168.65">
       <c r="A20" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B20" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" ht="241.75">
       <c r="A21" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" ht="67.15">
       <c r="A22" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B22" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" ht="22.35">
       <c r="A23" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B23" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" ht="74.6">
       <c r="A24" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B24" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" ht="12.8">
       <c r="A25" s="9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" ht="12.8">
       <c r="A26" s="9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B26" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" ht="95.5">
       <c r="A27" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B27" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" ht="12.8">

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" r:id="rId6"/>
+    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="493">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">food1</t>
   </si>
   <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">food2</t>
   </si>
   <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t xml:space="preserve">healer1</t>
   </si>
   <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t xml:space="preserve">healer2</t>
   </si>
   <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t xml:space="preserve">appraise1</t>
   </si>
   <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t xml:space="preserve">appraise2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t xml:space="preserve">appraise3</t>
   </si>
   <si>
+    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t xml:space="preserve">expand1</t>
   </si>
   <si>
+    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t xml:space="preserve">expand2</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t xml:space="preserve">expand3</t>
   </si>
   <si>
+    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">拡張できないよう{だ}。</t>
   </si>
   <si>
@@ -128,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">extraTax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
   </si>
   <si>
     <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
@@ -140,6 +173,9 @@
     <t xml:space="preserve">extraTax2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
   </si>
   <si>
@@ -149,6 +185,9 @@
     <t xml:space="preserve">banker1</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
   </si>
   <si>
@@ -158,6 +197,9 @@
     <t xml:space="preserve">banker2</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
   </si>
   <si>
@@ -167,6 +209,9 @@
     <t xml:space="preserve">banker3</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
   </si>
   <si>
@@ -176,6 +221,9 @@
     <t xml:space="preserve">banker4</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
   </si>
   <si>
@@ -185,6 +233,9 @@
     <t xml:space="preserve">noDrawingRoom</t>
   </si>
   <si>
+    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
   </si>
   <si>
@@ -194,6 +245,9 @@
     <t xml:space="preserve">nomoney</t>
   </si>
   <si>
+    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
   </si>
   <si>
@@ -203,6 +257,9 @@
     <t xml:space="preserve">alreadyFull</t>
   </si>
   <si>
+    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
   </si>
   <si>
@@ -212,6 +269,9 @@
     <t xml:space="preserve">questAccept</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
   </si>
   <si>
@@ -221,6 +281,9 @@
     <t xml:space="preserve">questFull</t>
   </si>
   <si>
+    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
   </si>
   <si>
@@ -230,6 +293,9 @@
     <t xml:space="preserve">questInProgress</t>
   </si>
   <si>
+    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
   </si>
   <si>
@@ -239,6 +305,9 @@
     <t xml:space="preserve">questComplete</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -248,6 +317,9 @@
     <t xml:space="preserve">bird1</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
   </si>
   <si>
@@ -255,6 +327,10 @@
   </si>
   <si>
     <t xml:space="preserve">bird2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{간다}!
+우후후.</t>
   </si>
   <si>
     <t xml:space="preserve">いく{よ}！
@@ -268,6 +344,9 @@
     <t xml:space="preserve">bird3</t>
   </si>
   <si>
+    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
   </si>
   <si>
@@ -277,6 +356,9 @@
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
+    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
   </si>
   <si>
@@ -292,6 +374,9 @@
     <t xml:space="preserve">lockpick_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
   </si>
   <si>
@@ -301,6 +386,9 @@
     <t xml:space="preserve">invite</t>
   </si>
   <si>
+    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
   </si>
   <si>
@@ -310,6 +398,9 @@
     <t xml:space="preserve">invite2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
   </si>
   <si>
@@ -319,6 +410,9 @@
     <t xml:space="preserve">invite3</t>
   </si>
   <si>
+    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
+  </si>
+  <si>
     <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
   </si>
   <si>
@@ -328,6 +422,9 @@
     <t xml:space="preserve">talk_hobby</t>
   </si>
   <si>
+    <t xml:space="preserve">취미는 #1 정도{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">趣味は#1{だ}。</t>
   </si>
   <si>
@@ -337,6 +434,9 @@
     <t xml:space="preserve">talk_fav</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
   </si>
   <si>
@@ -346,6 +446,9 @@
     <t xml:space="preserve">slave_buy</t>
   </si>
   <si>
+    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
   </si>
   <si>
@@ -355,6 +458,9 @@
     <t xml:space="preserve">slave_buy2</t>
   </si>
   <si>
+    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
   </si>
   <si>
@@ -364,6 +470,9 @@
     <t xml:space="preserve">goto</t>
   </si>
   <si>
+    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
   </si>
   <si>
@@ -373,6 +482,9 @@
     <t xml:space="preserve">goto2</t>
   </si>
   <si>
+    <t xml:space="preserve">놀리는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">からかっているの{か}？</t>
   </si>
   <si>
@@ -382,6 +494,9 @@
     <t xml:space="preserve">upgrade_heath1</t>
   </si>
   <si>
+    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
+  </si>
+  <si>
     <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
   </si>
   <si>
@@ -391,6 +506,9 @@
     <t xml:space="preserve">upgrade_heath2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
   </si>
   <si>
@@ -400,6 +518,9 @@
     <t xml:space="preserve">invest1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
   </si>
   <si>
@@ -409,6 +530,9 @@
     <t xml:space="preserve">invest2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
   </si>
   <si>
@@ -418,6 +542,9 @@
     <t xml:space="preserve">invest_shop1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
   </si>
   <si>
@@ -427,6 +554,9 @@
     <t xml:space="preserve">invest_shop2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
   </si>
   <si>
@@ -436,6 +566,9 @@
     <t xml:space="preserve">questCompleteDeliver</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -445,6 +578,9 @@
     <t xml:space="preserve">questCompleteDeliverExtra</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
@@ -454,6 +590,9 @@
     <t xml:space="preserve">miral_medal</t>
   </si>
   <si>
+    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
   </si>
   <si>
@@ -463,6 +602,9 @@
     <t xml:space="preserve">miral_medal2</t>
   </si>
   <si>
+    <t xml:space="preserve">흥!</t>
+  </si>
+  <si>
     <t xml:space="preserve">ふん！</t>
   </si>
   <si>
@@ -472,6 +614,9 @@
     <t xml:space="preserve">shop_criminal</t>
   </si>
   <si>
+    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
@@ -481,6 +626,9 @@
     <t xml:space="preserve">guide</t>
   </si>
   <si>
+    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">どこに行きたい{のだ}？</t>
   </si>
   <si>
@@ -490,6 +638,9 @@
     <t xml:space="preserve">shutup</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはしゅんとなった…)</t>
   </si>
   <si>
@@ -499,6 +650,9 @@
     <t xml:space="preserve">shutup2</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはあなたに抱きついた)</t>
   </si>
   <si>
@@ -508,6 +662,9 @@
     <t xml:space="preserve">insult</t>
   </si>
   <si>
+    <t xml:space="preserve">답도 없는 변태{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうしようもない変態{だな}。</t>
   </si>
   <si>
@@ -517,6 +674,9 @@
     <t xml:space="preserve">insult2</t>
   </si>
   <si>
+    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
   </si>
   <si>
@@ -526,6 +686,9 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはこくんと肯いた)</t>
   </si>
   <si>
@@ -535,6 +698,9 @@
     <t xml:space="preserve">refuse</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはやんわりと断った)</t>
   </si>
   <si>
@@ -544,6 +710,9 @@
     <t xml:space="preserve">deliver_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
   </si>
   <si>
@@ -553,6 +722,9 @@
     <t xml:space="preserve">news1</t>
   </si>
   <si>
+    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
@@ -562,6 +734,9 @@
     <t xml:space="preserve">news2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
   </si>
   <si>
@@ -569,6 +744,11 @@
   </si>
   <si>
     <t xml:space="preserve">bout1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
+진심{이야}?
+지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">力試しをしたいの{か}？
@@ -584,6 +764,11 @@
     <t xml:space="preserve">bout2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
+그렇게 나와{야지}!
+{좋아}, {YOU}의 힘을 보여{줘}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
@@ -597,6 +782,9 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
+    <t xml:space="preserve">{뭐야}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">なん{だ}？</t>
   </si>
   <si>
@@ -606,6 +794,9 @@
     <t xml:space="preserve">becomeMaid</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
   </si>
   <si>
@@ -615,6 +806,9 @@
     <t xml:space="preserve">sellFame1</t>
   </si>
   <si>
+    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
@@ -624,6 +818,9 @@
     <t xml:space="preserve">sellFame2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
   </si>
   <si>
@@ -633,6 +830,9 @@
     <t xml:space="preserve">blessing</t>
   </si>
   <si>
+    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
   </si>
   <si>
@@ -642,6 +842,9 @@
     <t xml:space="preserve">lockTooHard</t>
   </si>
   <si>
+    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
   </si>
   <si>
@@ -651,6 +854,9 @@
     <t xml:space="preserve">loytel_bill_give1</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
   </si>
   <si>
@@ -660,6 +866,9 @@
     <t xml:space="preserve">loytel_bill_give2</t>
   </si>
   <si>
+    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
   </si>
   <si>
@@ -669,6 +878,9 @@
     <t xml:space="preserve">loytel_bill_give_given</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
   </si>
   <si>
@@ -678,6 +890,9 @@
     <t xml:space="preserve">loytel_bill_give_wait</t>
   </si>
   <si>
+    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
@@ -687,6 +902,9 @@
     <t xml:space="preserve">loytel_bill_give_lost</t>
   </si>
   <si>
+    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
   </si>
   <si>
@@ -694,6 +912,15 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가{하다}.
+응? 뭔가 볼일이라도 있{는가}?
+가끔씩은 호화스러운 식사를 하고 {싶다}.
+영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
+눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
+고양이는 왜 이렇게 귀여운 {걸까}.
+#aka? …누굴 말하는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">暇{だ}。
@@ -717,6 +944,12 @@
     <t xml:space="preserve">interest_economy</t>
   </si>
   <si>
+    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
+하여간 이 세상에선 돈이 중요{해}.
+어디 돈 좀 떨어져 있으면 좋을 {텐데}.
+플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
@@ -732,6 +965,12 @@
     <t xml:space="preserve">interest_science</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
+에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
+에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
+신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
@@ -747,6 +986,12 @@
     <t xml:space="preserve">interest_travel</t>
   </si>
   <si>
+    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
+루미에스트는 예술의 거리로 유명{해}.
+노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
+여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
@@ -762,6 +1007,12 @@
     <t xml:space="preserve">interest_world</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
+에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
+신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
+아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
@@ -775,6 +1026,15 @@
   </si>
   <si>
     <t xml:space="preserve">interest_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
+신이 없다면 이 세계는 의미가 없{어}.
+치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
+가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
+쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
+행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
+기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">信仰こそ何よりも大事{だ}。
@@ -798,6 +1058,12 @@
     <t xml:space="preserve">interest_human</t>
   </si>
   <si>
+    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
+이제부터는 인간의 시대{다}!
+{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
+엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
@@ -813,6 +1079,12 @@
     <t xml:space="preserve">interest_elea</t>
   </si>
   <si>
+    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
+예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
+숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
+어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
@@ -826,6 +1098,17 @@
   </si>
   <si>
     <t xml:space="preserve">shopkeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
+물건 보는 눈은 자신 있{어}.
+가게 경영은 꽤 어렵{네}.
+건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
+다른 가게에서는 발밑이 안 보이게 조심{해라}.
+만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
+자, {내가} 자신있게 고른 상품들을 둘러{봐}.
+요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
+무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
   </si>
   <si>
     <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
@@ -853,6 +1136,10 @@
     <t xml:space="preserve">guard</t>
   </si>
   <si>
+    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
+수상한 사람을 보면 알려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。</t>
   </si>
@@ -862,6 +1149,11 @@
   </si>
   <si>
     <t xml:space="preserve">banker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
+돈으로 살 수 없는 것들도 있{지}.
+본 지점에 어서 {와}!</t>
   </si>
   <si>
     <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
@@ -877,6 +1169,9 @@
     <t xml:space="preserve">bitch</t>
   </si>
   <si>
+    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
   </si>
   <si>
@@ -884,6 +1179,10 @@
   </si>
   <si>
     <t xml:space="preserve">slaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님도 이쪽 사람이{네}.
+히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
   </si>
   <si>
     <t xml:space="preserve">お客さんも悪い人間{だな}。
@@ -897,6 +1196,10 @@
     <t xml:space="preserve">bored</t>
   </si>
   <si>
+    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
+(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
@@ -906,6 +1209,27 @@
   </si>
   <si>
     <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
+록 스로어가 던지는 바위를 무시하면 안 {돼}.
+꿈속에서 {내가} 믿는 신을 만났{어}!
+귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
+파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
+도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
+저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
+바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
+이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
+세금을 안 내면 나중에 골치 아파{져}.
+정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
+태양의 빛을 내는 신비한 램프가 있다{더라}.
+월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
+그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
+허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
+수영을 연습{해라}. 내구력이 단련된다{고}!
+미식가들은 독버섯도 구별할 수 있다{더라}.
+자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
+의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
   </si>
   <si>
     <r>
@@ -941,7 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
@@ -972,6 +1296,23 @@
     <t xml:space="preserve">fortune</t>
   </si>
   <si>
+    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
+소재 망치를 평범한 물건에 막 쓰지 마라!
+영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
+질 좋은 침대에서 자면 수면 효과가 좋아진다.
+몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
+독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
+큐브는 상태이상이 걸려 있다면 분열하지 못한다.
+아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
+소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
+환혹 내성이 충분하다면 광기 상태가 되지 않는다.
+지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
+젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
+단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
+강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
+수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
@@ -1009,6 +1350,31 @@
   </si>
   <si>
     <t xml:space="preserve">fortune_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
+지팡이는 땅에 한동안 놔 두면 충전된다!
+소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
+보석은 플래티넘 코인으로 교환할 수 있다.
+보물 지도는 항상 축복해서 읽어라.
+냐…아…아아…
+무엇을 바라는가?
+채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
+신을 펫으로 만드는 방법도 있다고 한다.
+문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
+일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
+뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
+아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
+당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
+고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
+경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
+여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
+달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
+카르마가 높으면 세금이 감면된다.
+몬스터의 똥은 무거울수록 비싸게 팔린다.
+저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
+헤르메스의 피는 *반드시* 축복해서 마셔라!
+귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
   </si>
   <si>
     <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
@@ -1064,6 +1430,11 @@
     <t xml:space="preserve">mayor</t>
   </si>
   <si>
+    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
+용무가 있{는가}? {나는} 바쁜 몸{이다}.
+마을에 투자하겠다면 언제든 환영{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
@@ -1077,6 +1448,10 @@
     <t xml:space="preserve">secretary</t>
   </si>
   <si>
+    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
+제가 도움이 되어 드릴 일이 있나요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
@@ -1086,6 +1461,13 @@
   </si>
   <si>
     <t xml:space="preserve">mysilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
+십년전쟁으로 이 나라는 큰 타격을 입었{어}.
+죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
+십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
+미실리아는 앞으로 어떻게 되는 걸{까}.</t>
   </si>
   <si>
     <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
@@ -1105,6 +1487,13 @@
     <t xml:space="preserve">olvina</t>
   </si>
   <si>
+    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
+시오루시아는 정말로 학구열이 대단해서 감동했{어}.
+올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
+패리스한테 실컷 매도당하고 {싶다}.
+오르비나는 미실리아 최고의 관광지{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
@@ -1122,6 +1511,10 @@
     <t xml:space="preserve">lothria</t>
   </si>
   <si>
+    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
+지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
@@ -1131,6 +1524,13 @@
   </si>
   <si>
     <t xml:space="preserve">derphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}
+그 길에 관심 있으면 도적 길드로 가 {봐}.
+이 세상은 노예가 필요{해}.
+아레나에서 피 튀기는 걸 보는 게 {좋아}.
+이 마을에는 경비병이 없{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">無法者の街、ダルフィへようこそ。
@@ -1148,6 +1548,12 @@
   </si>
   <si>
     <t xml:space="preserve">palmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
+팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
+쟈비님과 스타샤님은 정말로 사이가 {좋아}.
+팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
   </si>
   <si>
     <t xml:space="preserve">パルミア国の王都へようこそ。
@@ -1165,6 +1571,14 @@
   </si>
   <si>
     <t xml:space="preserve">yowyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
+말이라면 여기서 사가는 게 {좋아}.
+수확기에는 항상 일손이 모자라{지}.
+아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
+서쪽에 무법자들의 마을이 있다{더라}.
+마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
@@ -1188,6 +1602,14 @@
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
+    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
+어딘가에 온천으로 유명한 마을이 있다{더라}.
+이 마을은 어디서든지 낚시를 할 수 있{어}.
+그림 얘기로는 하루종일 떠들 수 있{어}.
+마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
+하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
@@ -1207,6 +1629,13 @@
     <t xml:space="preserve">noyel</t>
   </si>
   <si>
+    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
+매일매일 눈 치우는 게 큰일{이다}.
+죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
+추워!
+여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
@@ -1222,6 +1651,13 @@
   </si>
   <si>
     <t xml:space="preserve">kapul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바닷바람 향기가 좋{네}.
+펫 아레나에서 경기 보는 게 취미{다}.
+더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
+이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
+피라미드에는 어떻게 들어가는 걸{까}?</t>
   </si>
   <si>
     <t xml:space="preserve">潮風が香る{な}。
@@ -1242,6 +1678,12 @@
     <t xml:space="preserve">conery</t>
   </si>
   <si>
+    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
+길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
+스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
+스타샤 공주님 만세!</t>
+  </si>
+  <si>
     <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
@@ -1257,6 +1699,11 @@
     <t xml:space="preserve">garokk</t>
   </si>
   <si>
+    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
+미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
+시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
+  </si>
+  <si>
     <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
@@ -1268,6 +1715,14 @@
   </si>
   <si>
     <t xml:space="preserve">gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
+오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
+공주님 만세!
+나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
+후하핫!
+약한 자를 돕고, 악을 쳐부수는 거다!</t>
   </si>
   <si>
     <t xml:space="preserve">フハハハハ！…何だ貴様は？
@@ -1289,6 +1744,10 @@
     <t xml:space="preserve">jonan</t>
   </si>
   <si>
+    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
+나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
@@ -1298,6 +1757,12 @@
   </si>
   <si>
     <t xml:space="preserve">lowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
+어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
+이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
+교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者がこんなところに何のようだね？
@@ -1315,6 +1780,11 @@
     <t xml:space="preserve">mapMerchant</t>
   </si>
   <si>
+    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
+그건 그렇고 귀중한 서적들이다.
+눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
@@ -1328,6 +1798,11 @@
     <t xml:space="preserve">miral</t>
   </si>
   <si>
+    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
+파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
+오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
+  </si>
+  <si>
     <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
@@ -1339,6 +1814,12 @@
   </si>
   <si>
     <t xml:space="preserve">nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
+수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
+서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
+아니… 이건 코스프레가 아니다.</t>
   </si>
   <si>
     <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
@@ -1356,6 +1837,9 @@
     <t xml:space="preserve">nola</t>
   </si>
   <si>
+    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
+  </si>
+  <si>
     <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
   </si>
   <si>
@@ -1363,6 +1847,12 @@
   </si>
   <si>
     <t xml:space="preserve">stasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
+팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
+아이돌…? …다른 나라의 말인가요?
+궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
   </si>
   <si>
     <t xml:space="preserve">あら、私に何かご用ですか？
@@ -1380,6 +1870,11 @@
     <t xml:space="preserve">theolucia</t>
   </si>
   <si>
+    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
+패리스 언니는 화나면 무서워요.
+팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
@@ -1393,6 +1888,11 @@
     <t xml:space="preserve">xabi</t>
   </si>
   <si>
+    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
+아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
+길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
@@ -1406,6 +1906,11 @@
     <t xml:space="preserve">zane</t>
   </si>
   <si>
+    <t xml:space="preserve">무엇이냐, 너는?
+이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
+…</t>
+  </si>
+  <si>
     <t xml:space="preserve">何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
@@ -1417,6 +1922,11 @@
   </si>
   <si>
     <t xml:space="preserve">ephrond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
+아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
+태평하긴, 바보 녀석들이.</t>
   </si>
   <si>
     <r>
@@ -1435,7 +1945,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
@@ -1469,7 +1979,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
@@ -1490,6 +2000,11 @@
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
+    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
+이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
+이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
+  </si>
+  <si>
     <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
@@ -1501,6 +2016,13 @@
   </si>
   <si>
     <t xml:space="preserve">barrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 곡 듣겠나?
+예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
+지금은 미실리아야말로 내 고향이다.
+멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
+내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
   </si>
   <si>
     <t xml:space="preserve">一曲聴いてくかい？
@@ -1526,7 +2048,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
@@ -1537,6 +2059,13 @@
   </si>
   <si>
     <t xml:space="preserve">melvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
+우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
+내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
+귀부인들이 절조가 없어서 참 곤란하단 말이야.
+에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
   </si>
   <si>
     <r>
@@ -1555,7 +2084,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
@@ -1573,6 +2102,12 @@
   </si>
   <si>
     <t xml:space="preserve">caldorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 너는?
+모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
+제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
+팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
   </si>
   <si>
     <t xml:space="preserve">何だお主は？
@@ -1598,7 +2133,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
@@ -1609,6 +2144,9 @@
     <t xml:space="preserve">melilith</t>
   </si>
   <si>
+    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
+  </si>
+  <si>
     <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
   </si>
   <si>
@@ -1616,6 +2154,14 @@
   </si>
   <si>
     <t xml:space="preserve">seeker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
+차라도 들겠나, 큰까마귀.
+나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
+…하지만, 용케도 이런 외딴 곳을 찾아냈군.
+…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
+이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
   </si>
   <si>
     <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
@@ -1637,12 +2183,18 @@
     <t xml:space="preserve">quru</t>
   </si>
   <si>
+    <t xml:space="preserve">왜?</t>
+  </si>
+  <si>
     <t xml:space="preserve">何？</t>
   </si>
   <si>
     <t xml:space="preserve">kettle</t>
   </si>
   <si>
+    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
+  </si>
+  <si>
     <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
   </si>
   <si>
@@ -1650,6 +2202,16 @@
   </si>
   <si>
     <t xml:space="preserve">strange_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
+그 괴물들이랑 똑같은 취급 하지 마.
+아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
+아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
+아빠는 곧 돌아오실 거야.
+부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
+그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
+저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
   <si>
     <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
@@ -1670,568 +2232,6 @@
 Even if they asked, I won't play with the Littles.
 Sometimes, they pick up and bring weird stuff.
 That monster woman is not my mommy. That's obvious!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자, 천천히 {먹어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{간다}!
-우후후.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">취미는 #1 정도{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">놀리는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">흥!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">답도 없는 변태{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
-진심{이야}?
-지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
-그렇게 나와{야지}!
-{좋아}, {YOU}의 힘을 보여{줘}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{뭐야}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한가{하다}.
-응? 뭔가 볼일이라도 있{는가}?
-가끔씩은 호화스러운 식사를 하고 {싶다}.
-영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
-눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
-고양이는 왜 이렇게 귀여운 {걸까}.
-#aka? …누굴 말하는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
-하여간 이 세상에선 돈이 중요{해}.
-어디 돈 좀 떨어져 있으면 좋을 {텐데}.
-플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
-에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
-에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
-신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
-루미에스트는 예술의 거리로 유명{해}.
-노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
-여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
-에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
-신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
-아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
-신이 없다면 이 세계는 의미가 없{어}.
-치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
-가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
-쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
-행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
-기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
-이제부터는 인간의 시대{다}!
-{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
-엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
-예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
-숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
-어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
-물건 보는 눈은 자신 있{어}.
-가게 경영은 꽤 어렵{네}.
-건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
-다른 가게에서는 발밑이 안 보이게 조심{해라}.
-만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
-자, {내가} 자신있게 고른 상품들을 둘러{봐}.
-요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
-무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
-수상한 사람을 보면 알려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
-돈으로 살 수 없는 것들도 있{지}.
-본 지점에 어서 {와}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손님도 이쪽 사람이{네}.
-히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
-(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
-록 스로어가 던지는 바위를 무시하면 안 {돼}.
-꿈속에서 {내가} 믿는 신을 만났{어}!
-귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
-파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
-도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
-저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
-바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
-이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
-세금을 안 내면 나중에 골치 아파{져}.
-정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
-태양의 빛을 내는 신비한 램프가 있다{더라}.
-월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
-그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
-허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
-수영을 연습{해라}. 내구력이 단련된다{고}!
-미식가들은 독버섯도 구별할 수 있다{더라}.
-자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
-의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
-소재 망치를 평범한 물건에 막 쓰지 마라!
-영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
-질 좋은 침대에서 자면 수면 효과가 좋아진다.
-몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
-독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
-큐브는 상태이상이 걸려 있다면 분열하지 못한다.
-아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
-소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
-환혹 내성이 충분하다면 광기 상태가 되지 않는다.
-지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
-젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
-단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
-강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
-수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
-지팡이는 땅에 한동안 놔 두면 충전된다!
-소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
-보석은 플래티넘 코인으로 교환할 수 있다.
-보물 지도는 항상 축복해서 읽어라.
-냐…아…아아…
-무엇을 바라는가?
-채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
-신을 펫으로 만드는 방법도 있다고 한다.
-문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
-일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
-뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
-아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
-당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
-고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
-경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
-여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
-달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
-카르마가 높으면 세금이 감면된다.
-몬스터의 똥은 무거울수록 비싸게 팔린다.
-저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
-헤르메스의 피는 *반드시* 축복해서 마셔라!
-귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
-용무가 있{는가}? {나는} 바쁜 몸{이다}.
-마을에 투자하겠다면 언제든 환영{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
-제가 도움이 되어 드릴 일이 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
-십년전쟁으로 이 나라는 큰 타격을 입었{어}.
-죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
-십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
-미실리아는 앞으로 어떻게 되는 걸{까}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
-시오루시아는 정말로 학구열이 대단해서 감동했{어}.
-올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
-패리스한테 실컷 매도당하고 {싶다}.
-오르비나는 미실리아 최고의 관광지{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
-지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}
-그 길에 관심 있으면 도적 길드로 가 {봐}.
-이 세상은 노예가 필요{해}.
-아레나에서 피 튀기는 걸 보는 게 {좋아}.
-이 마을에는 경비병이 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
-팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
-쟈비님과 스타샤님은 정말로 사이가 {좋아}.
-팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
-말이라면 여기서 사가는 게 {좋아}.
-수확기에는 항상 일손이 모자라{지}.
-아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
-서쪽에 무법자들의 마을이 있다{더라}.
-마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
-어딘가에 온천으로 유명한 마을이 있다{더라}.
-이 마을은 어디서든지 낚시를 할 수 있{어}.
-그림 얘기로는 하루종일 떠들 수 있{어}.
-마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
-하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
-매일매일 눈 치우는 게 큰일{이다}.
-죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
-추워!
-여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바닷바람 향기가 좋{네}.
-펫 아레나에서 경기 보는 게 취미{다}.
-더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
-이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
-피라미드에는 어떻게 들어가는 걸{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
-길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
-스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
-스타샤 공주님 만세!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
-미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
-시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
-오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
-공주님 만세!
-나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
-후하핫!
-약한 자를 돕고, 악을 쳐부수는 거다!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
-나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
-어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
-이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
-교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
-그건 그렇고 귀중한 서적들이다.
-눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
-파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
-오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
-수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
-서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
-아니… 이건 코스프레가 아니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
-팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
-아이돌…? …다른 나라의 말인가요?
-궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
-패리스 언니는 화나면 무서워요.
-팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
-아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
-길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무엇이냐, 너는?
-이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
-…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
-아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
-태평하긴, 바보 녀석들이.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
-이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
-이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한 곡 듣겠나?
-예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
-지금은 미실리아야말로 내 고향이다.
-멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
-내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
-우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
-내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
-귀부인들이 절조가 없어서 참 곤란하단 말이야.
-에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐 너는?
-모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
-제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
-팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
-차라도 들겠나, 큰까마귀.
-나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
-…하지만, 용케도 이런 외딴 곳을 찾아냈군.
-…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
-이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왜?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
-그 괴물들이랑 똑같은 취급 하지 마.
-아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
-아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
-아빠는 곧 돌아오실 거야.
-부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
-그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
-저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
 </sst>
 </file>
@@ -2252,20 +2252,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2278,13 +2278,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2310,7 +2310,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2319,78 +2319,78 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2465,7 +2465,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2474,12 +2474,12 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>953280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -2487,13 +2487,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49671000" cy="130320"/>
+          <a:ext cx="49670640" cy="129960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2621,29 +2621,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B77" sqref="B77"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.53" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.34" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.34"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
+    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2657,1033 +2657,1036 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1"/>
-    <row r="3" ht="12" customHeight="1"/>
-    <row r="4" ht="12" customHeight="1"/>
-    <row r="5" ht="12" customHeight="1">
+    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>372</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>373</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>374</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>375</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>376</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>377</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>378</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>379</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>380</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>381</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>383</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>384</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>385</v>
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>386</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>387</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>388</v>
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>389</v>
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>390</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>391</v>
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="20.1" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>392</v>
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" ht="20.1" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>393</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" ht="20.1" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>394</v>
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" ht="20.1" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>395</v>
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" ht="20.1" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>396</v>
+        <v>100</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" ht="20.1" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>397</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>398</v>
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>396</v>
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="12.8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>397</v>
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>399</v>
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" ht="12.8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>400</v>
+        <v>118</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="12.8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>401</v>
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" ht="12.8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>402</v>
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" ht="12.8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>403</v>
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>404</v>
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" ht="12.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>405</v>
+        <v>138</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>406</v>
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>407</v>
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" ht="12.8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>408</v>
+        <v>150</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" ht="12.8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>409</v>
+        <v>154</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>410</v>
+        <v>158</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" ht="22.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>411</v>
+        <v>162</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>412</v>
+        <v>166</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" t="s">
-        <v>413</v>
+        <v>170</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>414</v>
+        <v>174</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>415</v>
+        <v>178</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>416</v>
+        <v>182</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" ht="22.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>417</v>
+        <v>186</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" ht="12.8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" t="s">
-        <v>418</v>
+        <v>190</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>419</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" ht="12.8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s">
-        <v>420</v>
+        <v>198</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" ht="12.8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" t="s">
-        <v>421</v>
+        <v>202</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" ht="12.8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>422</v>
+        <v>206</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" ht="12.8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" t="s">
-        <v>423</v>
+        <v>210</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>424</v>
+        <v>214</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>425</v>
+        <v>218</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" ht="12.8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" t="s">
-        <v>426</v>
+        <v>226</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" t="s">
-        <v>427</v>
+        <v>230</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" ht="12.8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>428</v>
+        <v>234</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" ht="32.8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" t="s">
-        <v>429</v>
+        <v>238</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" ht="32.8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" t="s">
-        <v>430</v>
+        <v>242</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" ht="12.8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" t="s">
-        <v>431</v>
+        <v>246</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" ht="12.8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>432</v>
+        <v>250</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" t="s">
-        <v>433</v>
+        <v>254</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" t="s">
-        <v>434</v>
+        <v>258</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" ht="12.8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>435</v>
+        <v>262</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" ht="12.8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" t="s">
-        <v>436</v>
+        <v>266</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" ht="22.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" t="s">
-        <v>437</v>
+        <v>270</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" ht="12.8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>438</v>
+        <v>274</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" ht="12.8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>439</v>
+        <v>278</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" ht="12.8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" t="s">
-        <v>440</v>
+        <v>282</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" ht="12.8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B77" t="s">
-        <v>441</v>
+        <v>286</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -3692,29 +3695,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
-    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
-    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="57.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3728,287 +3731,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>442</v>
+        <v>290</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" ht="43.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>443</v>
+        <v>294</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" t="s">
-        <v>444</v>
+        <v>298</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" ht="43.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" t="s">
-        <v>445</v>
+        <v>302</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" ht="43.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" t="s">
-        <v>446</v>
+        <v>306</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" ht="74.6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" t="s">
-        <v>447</v>
+        <v>310</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" ht="43.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" t="s">
-        <v>448</v>
+        <v>314</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" ht="43.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" t="s">
-        <v>449</v>
+        <v>318</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" t="s">
-        <v>450</v>
+        <v>322</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" ht="22.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B14" t="s">
-        <v>451</v>
+        <v>326</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" t="s">
-        <v>452</v>
+        <v>330</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" ht="12.8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16" t="s">
-        <v>453</v>
+        <v>334</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" ht="22.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" t="s">
-        <v>454</v>
+        <v>338</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" ht="22.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" t="s">
-        <v>455</v>
+        <v>342</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" ht="200.7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="1128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>456</v>
+        <v>347</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" ht="168.65">
+    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B20" t="s">
-        <v>457</v>
+        <v>350</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B21" t="s">
-        <v>458</v>
+        <v>354</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" ht="32.8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B22" t="s">
-        <v>459</v>
+        <v>358</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" t="s">
-        <v>460</v>
+        <v>362</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>275</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4016,29 +4019,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B13" sqref="B13"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.61" style="1" customWidth="1"/>
-    <col min="3" max="3" width="109.15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.06" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.06"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4052,137 +4055,137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>461</v>
+        <v>366</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" t="s">
-        <v>462</v>
+        <v>370</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" t="s">
-        <v>463</v>
+        <v>374</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" ht="64.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>464</v>
+        <v>378</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" t="s">
-        <v>465</v>
+        <v>382</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" ht="95.5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" t="s">
-        <v>466</v>
+        <v>386</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" ht="64.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" t="s">
-        <v>467</v>
+        <v>390</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" ht="53.7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" t="s">
-        <v>468</v>
+        <v>394</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" t="s">
-        <v>469</v>
+        <v>398</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>302</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4190,29 +4193,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B27" sqref="B27"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
-    <col min="4" max="4" width="87.18" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="87.18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4226,359 +4229,359 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="345.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
-      <c r="A6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B22" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" ht="64.15">
-      <c r="A7" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C22" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" ht="64.15">
-      <c r="A8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D22" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
-      <c r="A9" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" ht="95.5">
-      <c r="A10" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B23" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" ht="64.15">
-      <c r="A11" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C23" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" ht="64.15">
-      <c r="A12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
-      <c r="A13" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" ht="43.25">
-      <c r="A14" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B24" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
-      <c r="A15" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C24" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" ht="43.25">
-      <c r="A16" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D24" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" ht="32.8">
-      <c r="A17" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" ht="44.75">
-      <c r="A18" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" ht="200.7">
-      <c r="A19" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C25" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" ht="168.65">
-      <c r="A20" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D25" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
-      <c r="A21" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B26" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22" ht="67.15">
-      <c r="A22" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C26" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
-      <c r="A23" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D26" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="24" ht="74.6">
-      <c r="A24" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" ht="12.8">
-      <c r="A25" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B27" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
-      <c r="A26" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C27" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27" ht="95.5">
-      <c r="A27" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D27" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" ht="12.8">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" ht="12.8">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="32" ht="12.8">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" ht="12.8">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="1"/>
   <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId3"/>
@@ -13,7 +13,7 @@
     <sheet name="zone" sheetId="3" r:id="rId5"/>
     <sheet name="unique" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="R1C1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
     <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="497">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1670,6 +1670,15 @@
 Even if they asked, I won't play with the Littles.
 Sometimes, they pick up and bring weird stuff.
 That monster woman is not my mommy. That's obvious!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おっとガラガラを引きに来たのかい？残念だが、今は準備中だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here to spin the prize wheel, huh? Sorry, but it’s not ready yet!</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -2478,9 +2487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2490,7 +2499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49671000" cy="130320"/>
+          <a:ext cx="49670640" cy="129960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2630,11 +2639,11 @@
   </sheetPr>
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B77" sqref="B77"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
       <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -2668,7 +2677,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2682,7 +2691,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2696,7 +2705,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -2710,7 +2719,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -2724,7 +2733,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2738,7 +2747,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -2752,7 +2761,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -2766,7 +2775,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -2780,7 +2789,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -2794,7 +2803,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2808,7 +2817,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -2822,7 +2831,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2836,7 +2845,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -2850,7 +2859,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -2864,7 +2873,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -2878,7 +2887,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -2892,7 +2901,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -2906,7 +2915,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -2920,7 +2929,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -2934,7 +2943,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
@@ -2948,7 +2957,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -2962,7 +2971,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -2976,7 +2985,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -2990,7 +2999,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -3004,7 +3013,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>77</v>
@@ -3018,7 +3027,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -3032,7 +3041,7 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>83</v>
@@ -3046,7 +3055,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>77</v>
@@ -3060,7 +3069,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>80</v>
@@ -3074,7 +3083,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>88</v>
@@ -3088,7 +3097,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>91</v>
@@ -3102,7 +3111,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -3116,7 +3125,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -3130,7 +3139,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>100</v>
@@ -3144,7 +3153,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>103</v>
@@ -3158,7 +3167,7 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>106</v>
@@ -3172,7 +3181,7 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
@@ -3186,7 +3195,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>112</v>
@@ -3200,7 +3209,7 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>115</v>
@@ -3214,7 +3223,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>118</v>
@@ -3228,7 +3237,7 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>121</v>
@@ -3242,7 +3251,7 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
@@ -3256,7 +3265,7 @@
         <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>127</v>
@@ -3270,7 +3279,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>130</v>
@@ -3284,7 +3293,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>133</v>
@@ -3298,7 +3307,7 @@
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>136</v>
@@ -3312,7 +3321,7 @@
         <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>139</v>
@@ -3326,7 +3335,7 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -3340,7 +3349,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>145</v>
@@ -3354,7 +3363,7 @@
         <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>148</v>
@@ -3368,7 +3377,7 @@
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
@@ -3382,7 +3391,7 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>154</v>
@@ -3396,7 +3405,7 @@
         <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>157</v>
@@ -3410,7 +3419,7 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>160</v>
@@ -3424,7 +3433,7 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>163</v>
@@ -3438,7 +3447,7 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>166</v>
@@ -3452,7 +3461,7 @@
         <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>169</v>
@@ -3466,7 +3475,7 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
@@ -3480,7 +3489,7 @@
         <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>175</v>
@@ -3494,7 +3503,7 @@
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
@@ -3508,7 +3517,7 @@
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
@@ -3522,7 +3531,7 @@
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>184</v>
@@ -3536,7 +3545,7 @@
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>187</v>
@@ -3550,7 +3559,7 @@
         <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>190</v>
@@ -3564,7 +3573,7 @@
         <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>193</v>
@@ -3578,7 +3587,7 @@
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>196</v>
@@ -3592,7 +3601,7 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>199</v>
@@ -3606,7 +3615,7 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>202</v>
@@ -3620,7 +3629,7 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>205</v>
@@ -3634,7 +3643,7 @@
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>208</v>
@@ -3648,7 +3657,7 @@
         <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>211</v>
@@ -3662,7 +3671,7 @@
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>214</v>
@@ -3676,7 +3685,7 @@
         <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>217</v>
@@ -3748,7 +3757,7 @@
         <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>220</v>
@@ -3762,7 +3771,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>223</v>
@@ -3776,7 +3785,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>226</v>
@@ -3790,7 +3799,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>229</v>
@@ -3804,7 +3813,7 @@
         <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>232</v>
@@ -3818,7 +3827,7 @@
         <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>235</v>
@@ -3832,7 +3841,7 @@
         <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>238</v>
@@ -3846,7 +3855,7 @@
         <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>241</v>
@@ -3860,7 +3869,7 @@
         <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>244</v>
@@ -3874,7 +3883,7 @@
         <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>247</v>
@@ -3888,7 +3897,7 @@
         <v>249</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>250</v>
@@ -3902,7 +3911,7 @@
         <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>253</v>
@@ -3916,7 +3925,7 @@
         <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>256</v>
@@ -3930,7 +3939,7 @@
         <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>259</v>
@@ -3944,7 +3953,7 @@
         <v>261</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>262</v>
@@ -3959,7 +3968,7 @@
         <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>265</v>
@@ -3973,7 +3982,7 @@
         <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>268</v>
@@ -3987,7 +3996,7 @@
         <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>271</v>
@@ -4001,7 +4010,7 @@
         <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>274</v>
@@ -4058,12 +4067,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" ht="64.15">
       <c r="A5" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>277</v>
@@ -4077,7 +4086,7 @@
         <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>280</v>
@@ -4086,12 +4095,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" ht="43.25">
+    <row r="7" ht="22.35">
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>283</v>
@@ -4105,7 +4114,7 @@
         <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>286</v>
@@ -4119,7 +4128,7 @@
         <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>289</v>
@@ -4133,7 +4142,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>292</v>
@@ -4147,7 +4156,7 @@
         <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>295</v>
@@ -4161,7 +4170,7 @@
         <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>298</v>
@@ -4170,12 +4179,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" ht="95.5">
+    <row r="13" ht="74.6">
       <c r="A13" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>301</v>
@@ -4202,12 +4211,12 @@
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B27" sqref="B27"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -4241,12 +4250,12 @@
     <row r="4" ht="12.8">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" ht="43.25">
       <c r="A5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>304</v>
@@ -4260,7 +4269,7 @@
         <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>307</v>
@@ -4274,7 +4283,7 @@
         <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>310</v>
@@ -4283,12 +4292,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" ht="64.15">
+    <row r="8" ht="22.35">
       <c r="A8" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>313</v>
@@ -4297,12 +4306,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" ht="64.15">
+    <row r="9" ht="53.7">
       <c r="A9" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>316</v>
@@ -4311,12 +4320,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" ht="95.5">
+    <row r="10" ht="43.25">
       <c r="A10" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>319</v>
@@ -4325,12 +4334,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" ht="64.15">
+    <row r="11" ht="53.7">
       <c r="A11" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B11" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>322</v>
@@ -4344,7 +4353,7 @@
         <v>324</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>325</v>
@@ -4353,12 +4362,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" ht="95.5">
+    <row r="13" ht="12.8">
       <c r="A13" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>328</v>
@@ -4372,7 +4381,7 @@
         <v>330</v>
       </c>
       <c r="B14" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>331</v>
@@ -4386,7 +4395,7 @@
         <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>334</v>
@@ -4400,7 +4409,7 @@
         <v>336</v>
       </c>
       <c r="B16" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>337</v>
@@ -4414,7 +4423,7 @@
         <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>340</v>
@@ -4428,7 +4437,7 @@
         <v>342</v>
       </c>
       <c r="B18" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>343</v>
@@ -4437,12 +4446,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" ht="200.7">
+    <row r="19" ht="32.8">
       <c r="A19" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B19" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>346</v>
@@ -4451,12 +4460,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" ht="168.65">
+    <row r="20" ht="56.7">
       <c r="A20" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B20" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>349</v>
@@ -4465,12 +4474,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" ht="241.75">
+    <row r="21" ht="91">
       <c r="A21" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B21" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>352</v>
@@ -4484,7 +4493,7 @@
         <v>354</v>
       </c>
       <c r="B22" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>355</v>
@@ -4493,12 +4502,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" ht="22.35">
+    <row r="23" ht="13.8">
       <c r="A23" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B23" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>358</v>
@@ -4512,7 +4521,7 @@
         <v>360</v>
       </c>
       <c r="B24" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>361</v>
@@ -4526,7 +4535,7 @@
         <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>364</v>
@@ -4540,7 +4549,7 @@
         <v>365</v>
       </c>
       <c r="B26" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>366</v>
@@ -4554,7 +4563,7 @@
         <v>368</v>
       </c>
       <c r="B27" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>369</v>
@@ -4564,7 +4573,15 @@
       </c>
     </row>
     <row r="28" ht="12.8">
-      <c r="C28" s="3"/>
+      <c r="A28" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="29" ht="12.8">
       <c r="C29" s="3"/>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Elin_KR\Mod_Korean\Lang\KR\Dialog\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099E1E51-4626-4D62-BD29-A99FA1C41956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId1"/>
-    <sheet name="rumor" sheetId="2" r:id="rId2"/>
-    <sheet name="zone" sheetId="3" r:id="rId3"/>
-    <sheet name="unique" sheetId="4" r:id="rId4"/>
+    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -30,751 +25,751 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="497">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>text_JP</t>
-  </si>
-  <si>
-    <t>text_EN</t>
-  </si>
-  <si>
-    <t>food1</t>
-  </si>
-  <si>
-    <t>따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t>熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
-  </si>
-  <si>
-    <t>We've got some hot special dishes waiting for you. #1 Orens and they are all yours.</t>
-  </si>
-  <si>
-    <t>food2</t>
-  </si>
-  <si>
-    <t>자, 천천히 {먹어}!</t>
-  </si>
-  <si>
-    <t>さあ、ゆっくり食べていって{くれ}！</t>
-  </si>
-  <si>
-    <t>Here, enjoy your meal!</t>
-  </si>
-  <si>
-    <t>healer1</t>
-  </si>
-  <si>
-    <t>부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
-  </si>
-  <si>
-    <t>怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
-  </si>
-  <si>
-    <t>Are you suffering from an injury or illness? #1 Orens and I will begin your treatment immediately.</t>
-  </si>
-  <si>
-    <t>healer2</t>
-  </si>
-  <si>
-    <t>그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
-  </si>
-  <si>
-    <t>ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
-  </si>
-  <si>
-    <t>Then stay still. I'll have your body back to health in no time.</t>
-  </si>
-  <si>
-    <t>appraise1</t>
-  </si>
-  <si>
-    <t>배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
-  </si>
-  <si>
-    <t>バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
-  </si>
-  <si>
-    <t>Do you have any unidentified items in your backpack? For #1 Orens, I will appraise all of them for you.</t>
-  </si>
-  <si>
-    <t>appraise2</t>
-  </si>
-  <si>
-    <t>{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
-  </si>
-  <si>
-    <t>{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
-  </si>
-  <si>
-    <t>I'll start appraising your items right away. Wait here for a while.</t>
-  </si>
-  <si>
-    <t>appraise3</t>
-  </si>
-  <si>
-    <t>감정할 물건이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t>鑑定するものがないよう{だ}。</t>
-  </si>
-  <si>
-    <t>It seems you have nothing to appraise.</t>
-  </si>
-  <si>
-    <t>expand1</t>
-  </si>
-  <si>
-    <t>홈을 확장하려면 금괴 #2개가 필요{해}.</t>
-  </si>
-  <si>
-    <t>ホームの拡張には金塊#2本が必要{だ}。</t>
-  </si>
-  <si>
-    <t>#2 gold bars are required to expand your home.</t>
-  </si>
-  <si>
-    <t>expand2</t>
-  </si>
-  <si>
-    <t>좋아, 홈을 확장했{어}!</t>
-  </si>
-  <si>
-    <t>よし、ホームを拡張した{よ}！</t>
-  </si>
-  <si>
-    <t>Okay, your home has been expanded!</t>
-  </si>
-  <si>
-    <t>expand3</t>
-  </si>
-  <si>
-    <t>확장할 수 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t>拡張できないよう{だ}。</t>
-  </si>
-  <si>
-    <t>It seems your home can't be expanded.</t>
-  </si>
-  <si>
-    <t>extraTax</t>
-  </si>
-  <si>
-    <t>현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
-  </si>
-  <si>
-    <t>現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We've got some hot special dishes waiting for you. #1 Orens and they are all yours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, enjoy your meal!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">healer1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you suffering from an injury or illness? #1 Orens and I will begin your treatment immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">healer2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then stay still. I'll have your body back to health in no time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appraise1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any unidentified items in your backpack? For #1 Orens, I will appraise all of them for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appraise2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'll start appraising your items right away. Wait here for a while.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appraise3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems you have nothing to appraise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2 gold bars are required to expand your home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay, your home has been expanded!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拡張できないよう{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems your home can't be expanded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extraTax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
   </si>
   <si>
     <t xml:space="preserve">
 Currently, your additional monthly tax payment to Mysilia is #1. If you want to change the amount, just let me know.</t>
   </si>
   <si>
-    <t>extraTax2</t>
-  </si>
-  <si>
-    <t>{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
-  </si>
-  <si>
-    <t>{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
-  </si>
-  <si>
-    <t>Alright, I've changed your additional tax payment to Mysilia to #1.</t>
-  </si>
-  <si>
-    <t>banker1</t>
-  </si>
-  <si>
-    <t>현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
-  </si>
-  <si>
-    <t>現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
-  </si>
-  <si>
-    <t>You currently have #1 Orens in your account. How much do you want to deposit?</t>
-  </si>
-  <si>
-    <t>banker2</t>
-  </si>
-  <si>
-    <t>현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
-  </si>
-  <si>
-    <t>現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
-  </si>
-  <si>
-    <t>You currently have #1 Orens in your account. How much do you want to withdraw?</t>
-  </si>
-  <si>
-    <t>banker3</t>
-  </si>
-  <si>
-    <t>{좋아}, 돈은 확실히 받았{어}.</t>
-  </si>
-  <si>
-    <t>{よし}、金は確かに預かった{よ}。</t>
-  </si>
-  <si>
-    <t>Very well. The money will be added to your account.</t>
-  </si>
-  <si>
-    <t>banker4</t>
-  </si>
-  <si>
-    <t>{좋아}, 이게 원하는 금액{이다}.</t>
-  </si>
-  <si>
-    <t>{よし}、ではこれを受け取って{くれ}。</t>
-  </si>
-  <si>
-    <t>Very well. Here is your money.</t>
-  </si>
-  <si>
-    <t>noDrawingRoom</t>
-  </si>
-  <si>
-    <t>방문객을 위한 응접실이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t>面会のための応接室がないみたい{だ}。</t>
-  </si>
-  <si>
-    <t>You don't have a reception room for visitors.</t>
-  </si>
-  <si>
-    <t>nomoney</t>
-  </si>
-  <si>
-    <t>돈이 부족한 것 같{네}.</t>
-  </si>
-  <si>
-    <t>どうやら金が足りないみたい{だ}。</t>
-  </si>
-  <si>
-    <t>Apparently, you don't have enough money.</t>
-  </si>
-  <si>
-    <t>alreadyFull</t>
-  </si>
-  <si>
-    <t>{너는} 이미 배가 부른 것 같{네}.</t>
-  </si>
-  <si>
-    <t>君はすでに満腹のよう{だ}。</t>
-  </si>
-  <si>
-    <t>You seem to be full already.</t>
-  </si>
-  <si>
-    <t>questAccept</t>
-  </si>
-  <si>
-    <t>{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
-  </si>
-  <si>
-    <t>{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
-  </si>
-  <si>
-    <t>You will accept my request? Very well, I'm counting on you.</t>
-  </si>
-  <si>
-    <t>questFull</t>
-  </si>
-  <si>
-    <t>의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
-  </si>
-  <si>
-    <t>随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
-  </si>
-  <si>
-    <t>It seems you're taking on a lot of requests. Deal with the others first.</t>
-  </si>
-  <si>
-    <t>questInProgress</t>
-  </si>
-  <si>
-    <t>맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
-  </si>
-  <si>
-    <t>頼んでいた依頼は順調{か}？</t>
-  </si>
-  <si>
-    <t>Is everything alright with your task?</t>
-  </si>
-  <si>
-    <t>questComplete</t>
-  </si>
-  <si>
-    <t>{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t>{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
-  </si>
-  <si>
-    <t>Oh, I see you have finished my request! Thank you. Here is your reward.</t>
-  </si>
-  <si>
-    <t>bird1</t>
-  </si>
-  <si>
-    <t>{오오}, {I}도 새 관찰 좋아{해}!</t>
-  </si>
-  <si>
-    <t>{おお}、バードウォッチングは私も好き{だ}！</t>
-  </si>
-  <si>
-    <t>Oh I love watching birds!</t>
-  </si>
-  <si>
-    <t>bird2</t>
-  </si>
-  <si>
-    <t>{간다}!
+    <t xml:space="preserve">extraTax2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright, I've changed your additional tax payment to Mysilia to #1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banker1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You currently have #1 Orens in your account. How much do you want to deposit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banker2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You currently have #1 Orens in your account. How much do you want to withdraw?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banker3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very well. The money will be added to your account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banker4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very well. Here is your money.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noDrawingRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You don't have a reception room for visitors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nomoney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparently, you don't have enough money.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alreadyFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You seem to be full already.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questAccept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will accept my request? Very well, I'm counting on you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems you're taking on a lot of requests. Deal with the others first.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questInProgress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is everything alright with your task?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questComplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, I see you have finished my request! Thank you. Here is your reward.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bird1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh I love watching birds!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bird2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{간다}!
 우후후.</t>
   </si>
   <si>
-    <t>いく{よ}！
+    <t xml:space="preserve">いく{よ}！
 うふふ。</t>
   </si>
   <si>
-    <t>Okay, no turning back now!
+    <t xml:space="preserve">Okay, no turning back now!
 Come on!</t>
   </si>
   <si>
-    <t>bird3</t>
-  </si>
-  <si>
-    <t>{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
-  </si>
-  <si>
-    <t>そう{だな}、#1オレンを前払いで{くれ}。</t>
-  </si>
-  <si>
-    <t>Okay sweetie, I need #1 Orens in front.</t>
-  </si>
-  <si>
-    <t>tail1</t>
-  </si>
-  <si>
-    <t>몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
-  </si>
-  <si>
-    <t>なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
-  </si>
-  <si>
-    <t>You are...quite attractive. I'll buy you.</t>
-  </si>
-  <si>
-    <t>tail2</t>
-  </si>
-  <si>
-    <t>tail3</t>
-  </si>
-  <si>
-    <t>lockpick_purse</t>
-  </si>
-  <si>
-    <t>이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
-  </si>
-  <si>
-    <t>これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
-  </si>
-  <si>
-    <t>Likely a lost property. But hey, do I care?</t>
-  </si>
-  <si>
-    <t>invite</t>
-  </si>
-  <si>
-    <t>{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t>私に君のホームの住人になれというの{か}？</t>
-  </si>
-  <si>
-    <t>You want me to settle in your home?</t>
-  </si>
-  <si>
-    <t>invite2</t>
-  </si>
-  <si>
-    <t>아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
-  </si>
-  <si>
-    <t>残念{だが}、私にはやらなければならないことがある{のだ}。</t>
-  </si>
-  <si>
-    <t>Unfortunately, I cannot join you right now.</t>
-  </si>
-  <si>
-    <t>invite3</t>
-  </si>
-  <si>
-    <t>{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
-  </si>
-  <si>
-    <t>君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
-  </si>
-  <si>
-    <t>If you were just a little more charming, perhaps.#newline(#1 charisma required)</t>
-  </si>
-  <si>
-    <t>talk_hobby</t>
-  </si>
-  <si>
-    <t>취미는 #1 정도{다}.</t>
-  </si>
-  <si>
-    <t>趣味は#1{だ}。</t>
-  </si>
-  <si>
-    <t>My hobby is #1.</t>
-  </si>
-  <si>
-    <t>talk_fav</t>
-  </si>
-  <si>
-    <t>좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
-  </si>
-  <si>
-    <t>好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
-  </si>
-  <si>
-    <t>My favorite? I like #1 and I really have a thing for #2.</t>
-  </si>
-  <si>
-    <t>slave_buy</t>
-  </si>
-  <si>
-    <t>#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t>#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
-  </si>
-  <si>
-    <t>You want #2? Oh, you have pretty good taste! It will cost you #1 orens.</t>
-  </si>
-  <si>
-    <t>slave_buy2</t>
-  </si>
-  <si>
-    <t>오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
-  </si>
-  <si>
-    <t>今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
-  </si>
-  <si>
-    <t>#1 is yours from now on. Take a good care of your new pet.</t>
-  </si>
-  <si>
-    <t>goto</t>
-  </si>
-  <si>
-    <t>#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
-  </si>
-  <si>
-    <t>#1{か}？{よし}、案内してあげ{る}。</t>
-  </si>
-  <si>
-    <t>#1? Yeah, let me show you where he was.</t>
-  </si>
-  <si>
-    <t>goto2</t>
-  </si>
-  <si>
-    <t>놀리는 {거냐}?</t>
-  </si>
-  <si>
-    <t>からかっているの{か}？</t>
-  </si>
-  <si>
-    <t>Funny joke.</t>
-  </si>
-  <si>
-    <t>upgrade_heath1</t>
-  </si>
-  <si>
-    <t>맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
-  </si>
-  <si>
-    <t>盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
-  </si>
-  <si>
-    <t>We will need #1 to upgrade the hearth stone to level #2.#3</t>
-  </si>
-  <si>
-    <t>upgrade_heath2</t>
-  </si>
-  <si>
-    <t>{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
-  </si>
-  <si>
-    <t>{よし}、これでこの場所もより発展すること{だろう}！</t>
-  </si>
-  <si>
-    <t>Great, this should help our home to advance further!</t>
-  </si>
-  <si>
-    <t>invest1</t>
-  </si>
-  <si>
-    <t>투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
-  </si>
-  <si>
-    <t>投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
-  </si>
-  <si>
-    <t>Interested in investing? You have invested #2 orens so far and #zone is now seeking #1 orens investment.</t>
-  </si>
-  <si>
-    <t>invest2</t>
-  </si>
-  <si>
-    <t>{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
-  </si>
-  <si>
-    <t>{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
-  </si>
-  <si>
-    <t>Thank you! Your investment will make #zone more prosperous.</t>
-  </si>
-  <si>
-    <t>invest_shop1</t>
-  </si>
-  <si>
-    <t>투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
-  </si>
-  <si>
-    <t>投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
-  </si>
-  <si>
-    <t>Oh, do you want to invest in my shop? It will cost you #1 orens. I hope you got the money.</t>
-  </si>
-  <si>
-    <t>invest_shop2</t>
-  </si>
-  <si>
-    <t>{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
-  </si>
-  <si>
-    <t>{ありがとう}！これでいい商売ができる{よ}。</t>
-  </si>
-  <si>
-    <t>You made my day!</t>
-  </si>
-  <si>
-    <t>questCompleteDeliver</t>
-  </si>
-  <si>
-    <t>{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t>{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
-  </si>
-  <si>
-    <t>Oh, you've brought me #1! Thank you. Here is your reward.</t>
-  </si>
-  <si>
-    <t>questCompleteDeliverExtra</t>
-  </si>
-  <si>
-    <t>{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
-  </si>
-  <si>
-    <t>{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
+    <t xml:space="preserve">bird3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay sweetie, I need #1 Orens in front.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tail1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are...quite attractive. I'll buy you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tail2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tail3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lockpick_purse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likely a lost property. But hey, do I care?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You want me to settle in your home?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invite2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfortunately, I cannot join you right now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invite3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you were just a little more charming, perhaps.#newline(#1 charisma required)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk_hobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">취미는 #1 정도{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">趣味は#1{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My hobby is #1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk_fav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My favorite? I like #1 and I really have a thing for #2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slave_buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You want #2? Oh, you have pretty good taste! It will cost you #1 orens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slave_buy2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 is yours from now on. Take a good care of your new pet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1? Yeah, let me show you where he was.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goto2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">놀리는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">からかっているの{か}？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funny joke.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upgrade_heath1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will need #1 to upgrade the hearth stone to level #2.#3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upgrade_heath2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great, this should help our home to advance further!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invest1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interested in investing? You have invested #2 orens so far and #zone is now seeking #1 orens investment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invest2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you! Your investment will make #zone more prosperous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invest_shop1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, do you want to invest in my shop? It will cost you #1 orens. I hope you got the money.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invest_shop2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You made my day!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questCompleteDeliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, you've brought me #1! Thank you. Here is your reward.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questCompleteDeliverExtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
     <t xml:space="preserve">Oh, this is certainly the item I asked for. I'll give you a reward that's worthy of #1. </t>
   </si>
   <si>
-    <t>miral_medal</t>
-  </si>
-  <si>
-    <t>호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
-  </si>
-  <si>
-    <t>ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
-  </si>
-  <si>
-    <t>Ho ho ho! You got small medals! Let me see, let me see! Would you like to trade them for one of my proud works?</t>
-  </si>
-  <si>
-    <t>miral_medal2</t>
-  </si>
-  <si>
-    <t>흥!</t>
-  </si>
-  <si>
-    <t>ふん！</t>
-  </si>
-  <si>
-    <t>Hump!</t>
-  </si>
-  <si>
-    <t>shop_criminal</t>
-  </si>
-  <si>
-    <t>범죄자한테는 장사 안 {해}.</t>
-  </si>
-  <si>
-    <t>犯罪者に売るものはない{よ}。</t>
-  </si>
-  <si>
-    <t>I don't have business with criminals.</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>어디로 가고 싶은 {거냐}?</t>
-  </si>
-  <si>
-    <t>どこに行きたい{のだ}？</t>
-  </si>
-  <si>
-    <t>You looking for someone?</t>
-  </si>
-  <si>
-    <t>shutup</t>
-  </si>
-  <si>
-    <t>(#tg은(는) 시무룩해졌다…)</t>
-  </si>
-  <si>
-    <t>(#tgはしゅんとなった…)</t>
-  </si>
-  <si>
-    <t>(#tg stops talking...)</t>
-  </si>
-  <si>
-    <t>shutup2</t>
-  </si>
-  <si>
-    <t>(#tg은(는) 당신을 껴안았다)</t>
-  </si>
-  <si>
-    <t>(#tgはあなたに抱きついた)</t>
-  </si>
-  <si>
-    <t>(#tg hugs you.)</t>
-  </si>
-  <si>
-    <t>insult</t>
-  </si>
-  <si>
-    <t>답도 없는 변태{네}.</t>
-  </si>
-  <si>
-    <t>どうしようもない変態{だな}。</t>
-  </si>
-  <si>
-    <t>You're a hopeless pervert.</t>
-  </si>
-  <si>
-    <t>insult2</t>
-  </si>
-  <si>
-    <t>드디어 멀쩡해진 것 같{네}.</t>
-  </si>
-  <si>
-    <t>ようやくまともになったよう{だな}。</t>
-  </si>
-  <si>
-    <t>It seems you've finally become normal.</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>(#tg은(는) 고개를 끄덕였다)</t>
-  </si>
-  <si>
-    <t>(#tgはこくんと肯いた)</t>
-  </si>
-  <si>
-    <t>(#tg gives a small nod.)</t>
-  </si>
-  <si>
-    <t>refuse</t>
-  </si>
-  <si>
-    <t>(#tg은(는) 완곡하게 거절했다)</t>
-  </si>
-  <si>
-    <t>(#tgはやんわりと断った)</t>
-  </si>
-  <si>
-    <t>(#tg gently refuses your proposal.)</t>
-  </si>
-  <si>
-    <t>deliver_purse</t>
-  </si>
-  <si>
-    <t>분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
-  </si>
-  <si>
-    <t>わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
-  </si>
-  <si>
-    <t>How nice of you to take the trouble to bring it. You're a model citizen indeed!</t>
-  </si>
-  <si>
-    <t>news1</t>
-  </si>
-  <si>
-    <t>이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
-  </si>
-  <si>
-    <t>この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
+    <t xml:space="preserve">miral_medal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho ho ho! You got small medals! Let me see, let me see! Would you like to trade them for one of my proud works?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miral_medal2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">흥!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふん！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hump!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shop_criminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't have business with criminals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どこに行きたい{のだ}？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You looking for someone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shutup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tgはしゅんとなった…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg stops talking...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shutup2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tgはあなたに抱きついた)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg hugs you.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">답도 없는 변태{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうしようもない変態{だな}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're a hopeless pervert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insult2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems you've finally become normal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tgはこくんと肯いた)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg gives a small nod.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tgはやんわりと断った)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg gently refuses your proposal.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deliver_purse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How nice of you to take the trouble to bring it. You're a model citizen indeed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">news1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
     <t xml:space="preserve">There's a place called #1 around here. If you're interested, it might be worth exploring. </t>
   </si>
   <si>
-    <t>news2</t>
-  </si>
-  <si>
-    <t>아쉽지만, 지금은 별다른 정보가 없{어}.</t>
-  </si>
-  <si>
-    <t>残念{だが}、これといった情報は今はない{な}。</t>
-  </si>
-  <si>
-    <t>Unfortunately, I have no good news right now.</t>
-  </si>
-  <si>
-    <t>bout1</t>
-  </si>
-  <si>
-    <t>힘을 시험해 보고 싶은 {거냐}?
+    <t xml:space="preserve">news2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfortunately, I have no good news right now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bout1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
 진심{이야}?
 지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
   </si>
   <si>
-    <t>力試しをしたいの{か}？
+    <t xml:space="preserve">力試しをしたいの{か}？
 本気{か}？
 私に喧嘩を売るというの{か}？</t>
   </si>
   <si>
-    <t>You want to test your strength?
+    <t xml:space="preserve">You want to test your strength?
 Are you serious?
 Are you picking a fight with me?</t>
   </si>
   <si>
-    <t>bout2</t>
-  </si>
-  <si>
-    <t>{좋아}, 배짱도 좋{네}!
+    <t xml:space="preserve">bout2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
 그렇게 나와{야지}!
 {좋아}, {YOU}의 힘을 보여{줘}!</t>
   </si>
   <si>
-    <t>{よし}、いい度胸{だ}！
+    <t xml:space="preserve">{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
   </si>
@@ -784,142 +779,142 @@
 Alright, let's see what you've got! </t>
   </si>
   <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>{뭐야}?</t>
-  </si>
-  <si>
-    <t>なん{だ}？</t>
-  </si>
-  <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>becomeMaid</t>
-  </si>
-  <si>
-    <t>{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
-  </si>
-  <si>
-    <t>{よし}、今日から私が君のメイド{だ}。</t>
-  </si>
-  <si>
-    <t>Alright, I'm your maid from today.</t>
-  </si>
-  <si>
-    <t>sellFame1</t>
-  </si>
-  <si>
-    <t>{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
-  </si>
-  <si>
-    <t>{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
+    <t xml:space="preserve">what</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{뭐야}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なん{だ}？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">becomeMaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright, I'm your maid from today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sellFame1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
     <t xml:space="preserve">Ha ha, #brother, are you that desperate for money? Alright, I'll buy your reputation for #1 orens. </t>
   </si>
   <si>
-    <t>sellFame2</t>
-  </si>
-  <si>
-    <t>{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
-  </si>
-  <si>
-    <t>{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
-  </si>
-  <si>
-    <t>Thanks, I'll make good use of your reputation.</t>
-  </si>
-  <si>
-    <t>blessing</t>
-  </si>
-  <si>
-    <t>축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
-  </si>
-  <si>
-    <t>祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
-  </si>
-  <si>
-    <t>Do you wish to be blessed? Very well, bow your head!</t>
-  </si>
-  <si>
-    <t>lockTooHard</t>
-  </si>
-  <si>
-    <t>이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
-  </si>
-  <si>
-    <t>この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
-  </si>
-  <si>
-    <t>This lock seems too complicated for me. Sorry, but you’ll have to handle it yourself.</t>
-  </si>
-  <si>
-    <t>loytel_bill_give1</t>
-  </si>
-  <si>
-    <t>빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t>借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
-  </si>
-  <si>
-    <t>Of course... I appreciate you helping me with my debt repayment. Alright, let's deal with this small debt bill first. Throw it into tax chest, and report to me once the repayment is complete.</t>
-  </si>
-  <si>
-    <t>loytel_bill_give2</t>
-  </si>
-  <si>
-    <t>그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t>そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
-  </si>
-  <si>
-    <t>Of course... It aches me to give you this, but here's the next bill. Come talk to me again once you've completed the payment.</t>
-  </si>
-  <si>
-    <t>loytel_bill_give_given</t>
-  </si>
-  <si>
-    <t>빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
-  </si>
-  <si>
-    <t>借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
-  </si>
-  <si>
-    <t>You have the debt bill. It's important, so please don't lose it.</t>
-  </si>
-  <si>
-    <t>loytel_bill_give_wait</t>
-  </si>
-  <si>
-    <t>그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
-  </si>
-  <si>
-    <t>その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
+    <t xml:space="preserve">sellFame2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks, I'll make good use of your reputation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you wish to be blessed? Very well, bow your head!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lockTooHard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This lock seems too complicated for me. Sorry, but you’ll have to handle it yourself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loytel_bill_give1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course... I appreciate you helping me with my debt repayment. Alright, let's deal with this small debt bill first. Throw it into tax chest, and report to me once the repayment is complete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loytel_bill_give2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course... It aches me to give you this, but here's the next bill. Come talk to me again once you've completed the payment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loytel_bill_give_given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have the debt bill. It's important, so please don't lose it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loytel_bill_give_wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
     <t xml:space="preserve">I'm not quite ready for the next bill yet... Can you wait a little longer? </t>
   </si>
   <si>
-    <t>loytel_bill_give_lost</t>
-  </si>
-  <si>
-    <t>… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
-  </si>
-  <si>
-    <t>…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
-  </si>
-  <si>
-    <t>...Do you recall when I told you, 'Don't lose it'? Here’s another, so take care of it this time.</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>한가{하다}.
+    <t xml:space="preserve">loytel_bill_give_lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Do you recall when I told you, 'Don't lose it'? Here’s another, so take care of it this time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가{하다}.
 응? 뭔가 볼일이라도 있{는가}?
 가끔씩은 호화스러운 식사를 하고 {싶다}.
 영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
@@ -928,7 +923,7 @@
 #aka? …누굴 말하는 {거냐}?</t>
   </si>
   <si>
-    <t>暇{だ}。
+    <t xml:space="preserve">暇{だ}。
 ん？ 何か用{か}？
 たまには豪勢な食事をしたい{な}。
 永遠の盟約…？そんな言葉は聞いたことがない{な}。
@@ -937,7 +932,7 @@
 #aka？…いったい誰のこと{だ}？</t>
   </si>
   <si>
-    <t>I've got nothing to do.
+    <t xml:space="preserve">I've got nothing to do.
 Eh? What do you want?
 You're an adventurer right? Got any news from afar?
 The Eternal League? Never heard of it.
@@ -946,94 +941,94 @@
 #aka? I've never heard of you.</t>
   </si>
   <si>
-    <t>interest_economy</t>
-  </si>
-  <si>
-    <t>경제 이야기에는 관심이 있{어}.
+    <t xml:space="preserve">interest_economy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
 하여간 이 세상에선 돈이 중요{해}.
 어디 돈 좀 떨어져 있으면 좋을 {텐데}.
 플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
   </si>
   <si>
-    <t>経済の話題には関心がある{のだ}。
+    <t xml:space="preserve">経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
 プラチナ硬貨はなかなか手に入らない{な}。</t>
   </si>
   <si>
-    <t>I'm very much into economics.
+    <t xml:space="preserve">I'm very much into economics.
 Money and currency are critical to our society.
 Do you have any good ideas for investments?
 Platinum coins are a lot rarer than gold. Spend them wisely.</t>
   </si>
   <si>
-    <t>interest_science</t>
-  </si>
-  <si>
-    <t>{나는} 과학 이야기 하는 걸 좋아{해}.
+    <t xml:space="preserve">interest_science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
 에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
 에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
 신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
   </si>
   <si>
-    <t>科学について語るのが好き{だ}。
+    <t xml:space="preserve">科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
 新王国イエルでは、機械仕掛けの人形が人間の仕事をこなしているそう{だ}。</t>
   </si>
   <si>
-    <t>I like talking about science.
+    <t xml:space="preserve">I like talking about science.
 Science in Eyth Terre was far more advanced than ours.
 In Eyth Terre, magic and science were thought to be opposites.
 They say mechanical puppets are doing the work of humans in the New Kingdom of Yerl.</t>
   </si>
   <si>
-    <t>interest_travel</t>
-  </si>
-  <si>
-    <t>다양한 곳을 여행하는 게 {좋아}.
+    <t xml:space="preserve">interest_travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
 루미에스트는 예술의 거리로 유명{해}.
 노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
 여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
   </si>
   <si>
-    <t>色々なところを旅するのが好き{だ}。
+    <t xml:space="preserve">色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
 旅に出るなら、食料は十分に用意しておいた方がいい{よ}。</t>
   </si>
   <si>
-    <t>I like traveling I've been to so many places.
+    <t xml:space="preserve">I like traveling I've been to so many places.
 Lumiest is the famous city of art.
 The land of North Tyris has countless ruins and dungeons on it. They are called the ruins of Nefia.
 You should never leave home without an ample supply of food.</t>
   </si>
   <si>
-    <t>interest_world</t>
-  </si>
-  <si>
-    <t>{나는} 세계 정세에 관심이 있{어}.
+    <t xml:space="preserve">interest_world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
 에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
 신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
 아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
   </si>
   <si>
-    <t>世界の情勢に興味がある{のだ}。
+    <t xml:space="preserve">世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
 ザナンには、どうやら帝国の息がかかっているらしい{よ}。</t>
   </si>
   <si>
-    <t>I'm interested in world affairs.
+    <t xml:space="preserve">I'm interested in world affairs.
 Euderna is a powerful empire in the deserts on the eastern continent.
 It's said the New Kingdom of Yerl was founded by slaves who escaped from the empire.
 Zanan is an old kingdom that values history and honor, but it's apparently a puppet of the empire.</t>
   </si>
   <si>
-    <t>interest_religion</t>
-  </si>
-  <si>
-    <t>믿음이야말로 무엇보다 중요{해}.
+    <t xml:space="preserve">interest_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
 신이 없다면 이 세계는 의미가 없{어}.
 치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
 가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
@@ -1042,7 +1037,7 @@
 기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
   </si>
   <si>
-    <t>信仰こそ何よりも大事{だ}。
+    <t xml:space="preserve">信仰こそ何よりも大事{だ}。
 神の存在なくしてこの世は無意味{だ}。
 癒やしの女神の頭の翼の羽には、どんな難病でも治す力があると言われてい{る}。
 たまに大地が揺れるのは、オパートスが寝返りをうっているからだそう{だ}。
@@ -1051,7 +1046,7 @@
 噂によれば、機械のマニはもともと人間だったよう{だ}。</t>
   </si>
   <si>
-    <t>Faith is the most precious of all.
+    <t xml:space="preserve">Faith is the most precious of all.
 Our lives would be meaningless without the gods.
 It is said that the feathers that fall from the small wings on the head of the Goddess of Healing have the power to heal any incurable disease.
 The earth shakes sometimes because Opatos is turning over.
@@ -1060,52 +1055,52 @@
 Rumor has it that Mani of the Machine, was originally human.</t>
   </si>
   <si>
-    <t>interest_human</t>
-  </si>
-  <si>
-    <t>엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
+    <t xml:space="preserve">interest_human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
 이제부터는 인간의 시대{다}!
 {우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
 엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
   </si>
   <si>
-    <t>十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
+    <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
 エレアの住む森など、全部燃やしてしまえばいい{のだ}。</t>
   </si>
   <si>
-    <t>Elea tried to leave us in peril during the Ten Years War.
+    <t xml:space="preserve">Elea tried to leave us in peril during the Ten Years War.
 The time has come for us humans to prosper.
 We no longer need any help from Elea.
 Burn the old forests!</t>
   </si>
   <si>
-    <t>interest_elea</t>
-  </si>
-  <si>
-    <t>인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
+    <t xml:space="preserve">interest_elea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
 예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
 숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
 어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
   </si>
   <si>
-    <t>人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
+    <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
 なぜ、森の人たちをそっとしておくことができないの{だろう}？</t>
   </si>
   <si>
-    <t>Humans need to be more humble. We should pay more respect to older races.
+    <t xml:space="preserve">Humans need to be more humble. We should pay more respect to older races.
 Humans once called Elea their mother.
 The people of the old forests are not fond of fighting. They do not want to interfere or be interfered with.
 Why can't we leave Eleas alone?</t>
   </si>
   <si>
-    <t>shopkeeper</t>
-  </si>
-  <si>
-    <t>어서 {와}, 천천히 둘러{봐}.
+    <t xml:space="preserve">shopkeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
 물건 보는 눈은 자신 있{어}.
 가게 경영은 꽤 어렵{네}.
 건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
@@ -1116,7 +1111,7 @@
 무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
   </si>
   <si>
-    <t>いらっしゃい。ゆっくり見ていって{くれ}。
+    <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
 品揃えには自信がある{のだ}。
 店の経営は、なかなか難しい{な}。
 ごろつきを追い払えるぐらい強くないと、店主はつとまらない{よ}。
@@ -1127,7 +1122,7 @@
 武器と防具はきちんと鑑定されたものでないと、高くは買い取れない{よ}。</t>
   </si>
   <si>
-    <t>Welcome to my shop!
+    <t xml:space="preserve">Welcome to my shop!
 We have the best selection of goods!
 Running a store is hard work!
 I can handle bandits myself. We have to be tough.
@@ -1138,85 +1133,85 @@
 I can't give you a fair price if your weapons and armors aren't fully identified.</t>
   </si>
   <si>
-    <t>guard</t>
-  </si>
-  <si>
-    <t>시민의 안전을 지키는 게 경비병의 일{이다}.
+    <t xml:space="preserve">guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
 수상한 사람을 보면 알려 {줘}.</t>
   </si>
   <si>
-    <t>市民の安全を守るのがガードの仕事{だ}。
+    <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。</t>
   </si>
   <si>
-    <t>It is our duty to protect citizens.
+    <t xml:space="preserve">It is our duty to protect citizens.
 Report to me if you see anyone suspicious.</t>
   </si>
   <si>
-    <t>banker</t>
-  </si>
-  <si>
-    <t>고객의 돈은 무엇보다도 중요{해}.
+    <t xml:space="preserve">banker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
 돈으로 살 수 없는 것들도 있{지}.
 본 지점에 어서 {와}!</t>
   </si>
   <si>
-    <t>お客様のお金は何よりも大事{だ}。
+    <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
 お金で買えない価値があ{る}。
 当店へ{ようこそ}！</t>
   </si>
   <si>
-    <t>Your money is more important than anything else.
+    <t xml:space="preserve">Your money is more important than anything else.
 There are some things money can't buy.
 Welcome to our bank!</t>
   </si>
   <si>
-    <t>bitch</t>
-  </si>
-  <si>
-    <t>어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
-  </si>
-  <si>
-    <t>あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
-  </si>
-  <si>
-    <t>Hey sexy, wanna relax for a while?</t>
-  </si>
-  <si>
-    <t>slaver</t>
-  </si>
-  <si>
-    <t>손님도 이쪽 사람이{네}.
+    <t xml:space="preserve">bitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey sexy, wanna relax for a while?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님도 이쪽 사람이{네}.
 히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
   </si>
   <si>
-    <t>お客さんも悪い人間{だな}。
+    <t xml:space="preserve">お客さんも悪い人間{だな}。
 ひひひ…旦那も好き者{だな}。</t>
   </si>
   <si>
-    <t>He he he.  I think I have just what you need.
+    <t xml:space="preserve">He he he.  I think I have just what you need.
 Don't look at me like that.</t>
   </si>
   <si>
-    <t>bored</t>
-  </si>
-  <si>
-    <t>(지루하다는 얼굴로 당신을 보고 있다)
+    <t xml:space="preserve">bored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
 (#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
   </si>
   <si>
-    <t>(退屈そうにあなたを見ている)
+    <t xml:space="preserve">(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
   <si>
-    <t>(#me looks bored. )
+    <t xml:space="preserve">(#me looks bored. )
 (#me glances at you and steps back.)</t>
   </si>
   <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>토끼의 꼬리는 행운을 부른다{더라}.
+    <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
 록 스로어가 던지는 바위를 무시하면 안 {돼}.
 꿈속에서 {내가} 믿는 신을 만났{어}!
 귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
@@ -1271,12 +1266,13 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
+      <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
     </r>
   </si>
   <si>
-    <t>Rabbit's tails are said to bring good luck to those who eat them.
+    <t xml:space="preserve">Rabbit's tails are said to bring good luck to those who eat them.
 Don't underestimate the rock thrower. His rock can be very deadly.
 I met my god in a dream!
 Some nobles collect strange things.
@@ -1297,10 +1293,10 @@
 If you find requests difficult, one option is to sell your fame.</t>
   </si>
   <si>
-    <t>fortune</t>
-  </si>
-  <si>
-    <t>쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
+    <t xml:space="preserve">fortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
 소재 망치를 평범한 물건에 막 쓰지 마라!
 영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
 질 좋은 침대에서 자면 수면 효과가 좋아진다.
@@ -1317,7 +1313,7 @@
 수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
   </si>
   <si>
-    <t>クミロミを信仰すれば、腐った食料から種を取り出すことができる。
+    <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
 質の良いベッドで眠ると睡眠の効果があがるぞ。
@@ -1335,7 +1331,7 @@
 水泳のスキルがあれば、他の大陸に泳いで渡ることができる。</t>
   </si>
   <si>
-    <t>If you worship Kumiromi, you might find seeds in rotten meat.
+    <t xml:space="preserve">If you worship Kumiromi, you might find seeds in rotten meat.
 Do not ever waste material kits on normal items!
 Nutrient-dense food are real value if you feed them to your pet.
 Better tools give you better results for your skills. Better beds give you better dreams if you sleep in them.
@@ -1353,10 +1349,10 @@
 If you have the swimming skill, you can swim across to another continent.</t>
   </si>
   <si>
-    <t>fortune_false</t>
-  </si>
-  <si>
-    <t>손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
+    <t xml:space="preserve">fortune_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
 지팡이는 땅에 한동안 놔 두면 충전된다!
 소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
 보석은 플래티넘 코인으로 교환할 수 있다.
@@ -1381,7 +1377,7 @@
 귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
   </si>
   <si>
-    <t>指追加というすばらしい指輪があるそうだ。
+    <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
 杖はしばらく地面に置いておけば充填されるぞ！
 何を願えばいいかわからない？アスールの秘宝を試すといい。
 宝石はプラチナ硬貨と交換することができる。
@@ -1406,7 +1402,7 @@
 帰還場所を間違うと大変なことになるかもしれない。</t>
   </si>
   <si>
-    <t>A ring of extra ring finger is useless if not enchanted.
+    <t xml:space="preserve">A ring of extra ring finger is useless if not enchanted.
 A staff may recharge if you drop it for awhile.
 Not sure what you should wish for? Try secret artifact of milas.
 Gems can be traded for platinum coins.
@@ -1431,142 +1427,142 @@
 It would be really bad if something wrong happenes when you cast the return spell.</t>
   </si>
   <si>
-    <t>mayor</t>
-  </si>
-  <si>
-    <t>서면 절차는 비서를 통해서 {해라}.
+    <t xml:space="preserve">mayor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
 용무가 있{는가}? {나는} 바쁜 몸{이다}.
 마을에 투자하겠다면 언제든 환영{이다}.</t>
   </si>
   <si>
-    <t>手続きなら秘書を通して{くれ}。
+    <t xml:space="preserve">手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
   </si>
   <si>
-    <t>You can go through my secretary if you need paperworks.
+    <t xml:space="preserve">You can go through my secretary if you need paperworks.
 What do you want? I'm quite busy.
 Investments to the town are always welcome.</t>
   </si>
   <si>
-    <t>secretary</t>
-  </si>
-  <si>
-    <t>마을에 투자하시는 건 어떻습니까?
+    <t xml:space="preserve">secretary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
 제가 도움이 되어 드릴 일이 있나요?</t>
   </si>
   <si>
-    <t>街への投資はいかがですか？
+    <t xml:space="preserve">街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
   <si>
-    <t>Would you like to invest to the town?
+    <t xml:space="preserve">Would you like to invest to the town?
 How may I serve you today?</t>
   </si>
   <si>
-    <t>mysilia</t>
-  </si>
-  <si>
-    <t>미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
+    <t xml:space="preserve">mysilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
 십년전쟁으로 이 나라는 큰 타격을 입었{어}.
 죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
 십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
 미실리아는 앞으로 어떻게 되는 걸{까}.</t>
   </si>
   <si>
-    <t>ミシリアでは人間とエレアが平和に暮らしている{よ}。
+    <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
 十年戦争でこの国は大きな痛手を負ってしまった{のだ}。
 ジョナン公の世継ぎ、エフロンド様の良い噂はあまり耳にしない{な}。
 十年戦争の後、この国は謎の疫病に襲われ{た}。一説では、あのナイミールの奇跡の風に運ばれて、病が蔓延したといわれてい{る}。
 ミシリアは、この先どうなってしまうの{だろう}。</t>
   </si>
   <si>
-    <t>Humans and Eleas live peacefully in Mysilia.
+    <t xml:space="preserve">Humans and Eleas live peacefully in Mysilia.
 The Ten Years' War has hurt this country greatly.
 We don't hear many good rumors about Lord Jonan's heir, Lord Efrond.
 Our country was struck by a mysterious plague after the Ten Years' War. A rumor is that the disease was spread by that miraculous wind of Nymelle.
 What will happen to Mysilia when the empire rebuilds its strength?</t>
   </si>
   <si>
-    <t>olvina</t>
-  </si>
-  <si>
-    <t>와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
+    <t xml:space="preserve">olvina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
 시오루시아는 정말로 학구열이 대단해서 감동했{어}.
 올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
 패리스한테 실컷 매도당하고 {싶다}.
 오르비나는 미실리아 최고의 관광지{다}.</t>
   </si>
   <si>
-    <t>ワインと温泉と桜の村、オルヴィナへようこそ。
+    <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
 ファリスに思いっきり罵られたい{よ}。
 オルヴィナは、ミシリアでも随一の観光地{だ}。</t>
   </si>
   <si>
-    <t>Welcome to Olvina, the village of wine, hot springs and cherry blossoms.
+    <t xml:space="preserve">Welcome to Olvina, the village of wine, hot springs and cherry blossoms.
 I'm really impressed with Theolucia's enthusiasm for learning.
 Can't wait for another wet tunic contest!
 I want to be cursed by Farris with all her might.
 Olvina is the best tourist village in Mysilia.</t>
   </si>
   <si>
-    <t>lothria</t>
-  </si>
-  <si>
-    <t>프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
+    <t xml:space="preserve">lothria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
 지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
   </si>
   <si>
-    <t>フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
+    <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
   <si>
-    <t>Lord Cetrus has seldom laughed much ever since Lady Friaune passed away.
+    <t xml:space="preserve">Lord Cetrus has seldom laughed much ever since Lady Friaune passed away.
 Everyone now calls this fort Willow, but it used to have another name.</t>
   </si>
   <si>
-    <t>derphy</t>
-  </si>
-  <si>
-    <t>무법자의 마을, 달피에 어서 {와}
+    <t xml:space="preserve">derphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}
 그 길에 관심 있으면 도적 길드로 가 {봐}.
 이 세상은 노예가 필요{해}.
 아레나에서 피 튀기는 걸 보는 게 {좋아}.
 이 마을에는 경비병이 없{어}.</t>
   </si>
   <si>
-    <t>無法者の街、ダルフィへようこそ。
+    <t xml:space="preserve">無法者の街、ダルフィへようこそ。
 その道に興味があるなら盗賊ギルドに行くと良い{よ}。
 奴隷は世に必要なもの{だ}。
 アリーナで血を見るのが好き{だ}。
 この街にはガードがいない{のだ}。</t>
   </si>
   <si>
-    <t>Welcome to Derphy, a rotten hive of scum and villainy.
+    <t xml:space="preserve">Welcome to Derphy, a rotten hive of scum and villainy.
 A lot of thieves hang out here. They have a hideout under the tavern but they won't just let you in.
 Slavery is a very lucrative business. Many people claim it's evil, but even mighty Palmia's economy would disintegrate if they didn't have any slaves to work their fields.
 Nothing beats a bloody match at the arena. If you want to impress the crowd then give them lots of drama and blood.
 Derphy has no city guards, so we can do whatever we want!</t>
   </si>
   <si>
-    <t>palmia</t>
-  </si>
-  <si>
-    <t>팔미아국의 수도에 어서 {와}.
+    <t xml:space="preserve">palmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
 팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
 쟈비님과 스타샤님은 정말로 사이가 {좋아}.
 팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
   </si>
   <si>
-    <t>パルミア国の王都へようこそ。
+    <t xml:space="preserve">パルミア国の王都へようこそ。
 パルミアは何でも揃っていて便利でいい{が}、広いから人探しが大変{だ}。
 ジャビ様とスターシャ様は、本当に仲がいい{のだ}。
 パルミア名産といえば、貴族のおもちゃ{だ}。</t>
   </si>
   <si>
-    <t>Palmia is huge. I got lost in this town all the time. It's really hard to find other people sometimes.
+    <t xml:space="preserve">Palmia is huge. I got lost in this town all the time. It's really hard to find other people sometimes.
 Welcome to the capital of Palmia!  Our kingdom is old and very prosperous.
 Prince Xabi and Queen Stasha are a beautiful couple.
 One of our special products here are toys that the nobility often buy.
@@ -1574,10 +1570,10 @@
 We have a lot of parties in Palmia. The nobility will throw money at any excuse for a drunken celebration.</t>
   </si>
   <si>
-    <t>yowyn</t>
-  </si>
-  <si>
-    <t>이런 촌동네에도 요윈이라는 이름이 있{어}.
+    <t xml:space="preserve">yowyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
 말이라면 여기서 사가는 게 {좋아}.
 수확기에는 항상 일손이 모자라{지}.
 아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
@@ -1585,7 +1581,7 @@
 마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
   </si>
   <si>
-    <t>こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
+    <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
 馬ならここで買って行くと良い{よ}。
 収穫期はいつも人が足りない{な}。
 何もない場所だけど、ゆっくりしていくといい{よ}。
@@ -1593,7 +1589,7 @@
 街を出て東の道沿いに行けば王都パルミア{だ}。</t>
   </si>
   <si>
-    <t>This village is called Yowyn.
+    <t xml:space="preserve">This village is called Yowyn.
 The horses sold here are the finest in the land.
 We always seem to be short-handed during the harvest season. I'm sure everyone in town would be glad to have you lend a hand.
 Sometimes we see known outlaws heading to the west after they raid our farms or kill our cattle. I wonder if something is out there.
@@ -1603,10 +1599,10 @@
 The air is so fresh and lively here in the countryside. I wouldn't give this up for anything.</t>
   </si>
   <si>
-    <t>lumiest</t>
-  </si>
-  <si>
-    <t>어서 {와}, 물과 예술의 도시에.
+    <t xml:space="preserve">lumiest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
 어딘가에 온천으로 유명한 마을이 있다{더라}.
 이 마을은 어디서든지 낚시를 할 수 있{어}.
 그림 얘기로는 하루종일 떠들 수 있{어}.
@@ -1614,7 +1610,7 @@
 하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
   </si>
   <si>
-    <t>ようこそ、水と芸術の街へ。
+    <t xml:space="preserve">ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
 絵画に関してはうるさい{よ}。
@@ -1622,7 +1618,7 @@
 下水道はひどい匂いだし、恐ろしい化け物が出るとの噂{だ}。</t>
   </si>
   <si>
-    <t>Lumiest is a city of great culture and art. Welcome to our fine city.
+    <t xml:space="preserve">Lumiest is a city of great culture and art. Welcome to our fine city.
 I heard there's a town famous for hot springs somewhere.
 Here in Lumiest, you can go fishing anywhere you like.
 I could talk about painting for hours.
@@ -1630,48 +1626,48 @@
 They say something horrible lives in the sewers. It smells horrific though, so I'd never go down there.</t>
   </si>
   <si>
-    <t>noyel</t>
-  </si>
-  <si>
-    <t>엣취! 으으, 오늘도 춥{네}.
+    <t xml:space="preserve">noyel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
 매일매일 눈 치우는 게 큰일{이다}.
 죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
 추워!
 여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
   </si>
   <si>
-    <t>えっくし！ うぅ、今日も寒い{な}。
+    <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
 寒いっ！
 少し南に行った所に小さな工房が建ってるのを見た{のだ}。</t>
   </si>
   <si>
-    <t>It's colder than death's pecker hanging in a well. But, y'know, welcome to Noyel.
+    <t xml:space="preserve">It's colder than death's pecker hanging in a well. But, y'know, welcome to Noyel.
 The snow never goes away, but we still have to shovel it so we can get around.
 You can confess your sins at the church. I can't think of a better way to be forgiven for your crimes.
 I'm freezing. I can't feel my fingers.
 A while back I saw a small house south of Noyel. It looked like some sort of workshop.</t>
   </si>
   <si>
-    <t>kapul</t>
-  </si>
-  <si>
-    <t>바닷바람 향기가 좋{네}.
+    <t xml:space="preserve">kapul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바닷바람 향기가 좋{네}.
 펫 아레나에서 경기 보는 게 취미{다}.
 더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
 이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
 피라미드에는 어떻게 들어가는 걸{까}?</t>
   </si>
   <si>
-    <t>潮風が香る{な}。
+    <t xml:space="preserve">潮風が香る{な}。
 ペットアリーナで観戦するのが趣味{だ}。
 もっと強くなりたいのなら戦士ギルドに行くと良い{よ}。
 ここの海産物は内陸部で高く売れる{のだ}。
 ピラミッドにはどうやったら入れるの{だろう}？</t>
   </si>
   <si>
-    <t>Ah, there's nothing like the salty smell of the sea breeze.
+    <t xml:space="preserve">Ah, there's nothing like the salty smell of the sea breeze.
 I love to watch the brutal fights in the pet arena. You have to be careful though, sometimes audience members catch a stray bullet or get hit by careless dragons.
 If you want the best training a fighter can have, you should check out the fighter's guild.
 The price of seafood cargo is very high farther inland.
@@ -1679,49 +1675,49 @@
 I hear that a lot of the seediest and creepiest people head to Derphy.</t>
   </si>
   <si>
-    <t>conery</t>
-  </si>
-  <si>
-    <t>도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
+    <t xml:space="preserve">conery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
 길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
 스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
 스타샤 공주님 만세!</t>
   </si>
   <si>
-    <t>若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
+    <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
 スターシャ姫万歳！</t>
   </si>
   <si>
-    <t>I wish my prince would have a little more moderation as the heir to Palmia.
+    <t xml:space="preserve">I wish my prince would have a little more moderation as the heir to Palmia.
 It is people like Gilbert who make my prince look bad.
 How courteous and resolute Princess Stasha acts at her age! She is truly an idol of the royal court!
 Long live Princess Stasha!</t>
   </si>
   <si>
-    <t>garokk</t>
-  </si>
-  <si>
-    <t>내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
+    <t xml:space="preserve">garokk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
 미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
 시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
   </si>
   <si>
-    <t>相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
+    <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
   </si>
   <si>
-    <t>My partner Miral and I have been known each other since we were kids who couldn't even hold a hammer.
+    <t xml:space="preserve">My partner Miral and I have been known each other since we were kids who couldn't even hold a hammer.
 I have always admired Miral's talent. And yet, here he is, making cat toys while neglecting to fulfill customers' orders.
 Boring. I need a big commission to set my smoldering craftsman's heart aflame!</t>
   </si>
   <si>
-    <t>gilbert</t>
-  </si>
-  <si>
-    <t>후하하하하! …뭐냐, 넌?
+    <t xml:space="preserve">gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
 오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
 공주님 만세!
 나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
@@ -1729,7 +1725,7 @@
 약한 자를 돕고, 악을 쳐부수는 거다!</t>
   </si>
   <si>
-    <t>フハハハハ！…何だ貴様は？
+    <t xml:space="preserve">フハハハハ！…何だ貴様は？
 オパートスの名にかけて、スターシャ姫に近づく悪い虫は俺が全部退治してやる、フハハハハぁ！
 姫様万歳！
 俺も15年前の戦争でブイブイいわせたかったぜ！
@@ -1737,7 +1733,7 @@
 弱きを助け、悪を砕くのだ！</t>
   </si>
   <si>
-    <t>Muwahahaha! ...What are you?
+    <t xml:space="preserve">Muwahahaha! ...What are you?
 By Opatos, I'll squash every bad bug that gets near Princess Stasha! Muwahaha!
 Long live Princess Stasha!
 I wish I was in the war 15 years ago!
@@ -1745,190 +1741,190 @@
 Help the helpless, crush the vileness!</t>
   </si>
   <si>
-    <t>jonan</t>
-  </si>
-  <si>
-    <t>미실리아 왕궁에는 무슨 용무인가?
+    <t xml:space="preserve">jonan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
 나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
   </si>
   <si>
-    <t>ミシリア宮廷に何の用かな？
+    <t xml:space="preserve">ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
   <si>
-    <t>What business do you have at the court of Mysilia?
+    <t xml:space="preserve">What business do you have at the court of Mysilia?
 I am old but I can't go into hiding just yet.</t>
   </si>
   <si>
-    <t>lowell</t>
-  </si>
-  <si>
-    <t>모험가가 이런 곳에는 무슨 일인가?
+    <t xml:space="preserve">lowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
 어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
 이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
 교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
   </si>
   <si>
-    <t>冒険者がこんなところに何のようだね？
+    <t xml:space="preserve">冒険者がこんなところに何のようだね？
 アシュラムでは、親のいない子どもを養護し、教育している。
 こんな時世だが、子どもたちには元気に育ってほしいと願っているよ。
 教育は重要だ。何の後ろ盾もないこの子たちも、やがては働き口を見つけなければならない。</t>
   </si>
   <si>
-    <t>What's an adventurer doing here, eh?
+    <t xml:space="preserve">What's an adventurer doing here, eh?
 The asylum shelters and educates children who have no parents.
 Even in these times, I hope that our children will grow up healthy and happy.
 Education is important. These children, who have nothing behind them, will eventually have to find a place to work.</t>
   </si>
   <si>
-    <t>mapMerchant</t>
-  </si>
-  <si>
-    <t>내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
+    <t xml:space="preserve">mapMerchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
 그건 그렇고 귀중한 서적들이다.
 눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
   </si>
   <si>
-    <t>私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
+    <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
   </si>
   <si>
-    <t>My name is Slan, a servant of Palmia. I'm currently spending my time traveling around the world to improve my skills.
+    <t xml:space="preserve">My name is Slan, a servant of Palmia. I'm currently spending my time traveling around the world to improve my skills.
 These are indeed valuable books.
 I arrived at this isolated castle on a snowy day and have been staying here for a while.</t>
   </si>
   <si>
-    <t>miral</t>
-  </si>
-  <si>
-    <t>오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
+    <t xml:space="preserve">miral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
 파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
 오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
   </si>
   <si>
-    <t>おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
+    <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
   </si>
   <si>
-    <t>Oh, a guest! Don't hesitate to play with my cats.
+    <t xml:space="preserve">Oh, a guest! Don't hesitate to play with my cats.
 My partner and I used to argue about the name of the workshop. If he had any sense of naming, he wouldn't have come up with such a ridiculous name as "Garokk Miral".
 What shall we make for today's meal? Lately, I've been having more fun than blacksmithing thinking about the menu for the cats' meals.</t>
   </si>
   <si>
-    <t>nino</t>
-  </si>
-  <si>
-    <t>행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
+    <t xml:space="preserve">nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
 수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
 서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
 아니… 이건 코스프레가 아니다.</t>
   </si>
   <si>
-    <t>隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
+    <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
 獣人の商人は珍しいか？ティリスではあまり見かけないかもしれないな。
 西は海洋の国ヴェーリッツァから、東は砂漠の黄金郷ニーサまで出向いて仕入れた自慢の品の数々だ。ゆっくり見ていってくれ。
 いや…これはかぶりものではない。</t>
   </si>
   <si>
-    <t>The life of a merchant is nice and carefree, but it wouldn't be bad to settle down in a comfortable town somewhere. Yes, in Kapoor or thereabouts.
+    <t xml:space="preserve">The life of a merchant is nice and carefree, but it wouldn't be bad to settle down in a comfortable town somewhere. Yes, in Kapoor or thereabouts.
 Is it rare to find a beastman merchant? Perhaps you don't see many of us in Tyris.
 We are proud of the many items we have gathered from Verizzia, the land of the oceans in the west, to Nieca, the golden land of the desert in the east. Take your time and look around.
 No...it's not a costume.</t>
   </si>
   <si>
-    <t>nola</t>
-  </si>
-  <si>
-    <t>시장 대리 노라입니다. 무슨 용무시죠?</t>
-  </si>
-  <si>
-    <t>市長代理のノーラです。何かご用ですか？</t>
-  </si>
-  <si>
-    <t>I am Nola, Acting Mayor. How may I help you?</t>
-  </si>
-  <si>
-    <t>stasha</t>
-  </si>
-  <si>
-    <t>어머나, 제게 무언가 용무가 있으신지요?
+    <t xml:space="preserve">nola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am Nola, Acting Mayor. How may I help you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
 팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
 아이돌…? …다른 나라의 말인가요?
 궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
   </si>
   <si>
-    <t>あら、私に何かご用ですか？
+    <t xml:space="preserve">あら、私に何かご用ですか？
 パルミアは歴史あるティリスの大国。この王宮に迎えられて光栄です。
 アイドル…？…異国の言葉でしょうか？
 王宮ではファン…あ…み…みなさんにとても良くしていただいています。</t>
   </si>
   <si>
-    <t>Oh, how may I help you?
+    <t xml:space="preserve">Oh, how may I help you?
 Palmia is a kingdom with great history in Tyris. I am honored to be welcomed into this royal palace.
 Idol...? ...Is it a foreign language?
 The fans...ah...p...people at the Royal Palace have been very nice to me.</t>
   </si>
   <si>
-    <t>theolucia</t>
-  </si>
-  <si>
-    <t>저는 역사와 전승에 관심이 있습니다.
+    <t xml:space="preserve">theolucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
 패리스 언니는 화나면 무서워요.
 팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
   </si>
   <si>
-    <t>私は歴史と伝承に興味があります。
+    <t xml:space="preserve">私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
   </si>
   <si>
-    <t>I am interested in history and folklore.
+    <t xml:space="preserve">I am interested in history and folklore.
 My sister Farris is very scary when she gets angry.
 The Royal Library of Palmia is a really nice place with a huge collection of books.</t>
   </si>
   <si>
-    <t>xabi</t>
-  </si>
-  <si>
-    <t>너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
+    <t xml:space="preserve">xabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
 아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
 길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
   </si>
   <si>
-    <t>君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
+    <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
   </si>
   <si>
-    <t>Are you an adventurer? I'd love to hear your stories.
+    <t xml:space="preserve">Are you an adventurer? I'd love to hear your stories.
 My father is too strict. I hate it when he nitpicks at everything. I hope Conery doesn't get a bad influence from him.
 Gilbert and Conery have been my friends since childhood.</t>
   </si>
   <si>
-    <t>zane</t>
-  </si>
-  <si>
-    <t>무엇이냐, 너는?
+    <t xml:space="preserve">zane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무엇이냐, 너는?
 이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
 …</t>
   </si>
   <si>
-    <t>何だね、君は？
+    <t xml:space="preserve">何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
   </si>
   <si>
-    <t>What are you?
+    <t xml:space="preserve">What are you?
 This is not a place for adventurers. You shall leave now.
 …</t>
   </si>
   <si>
-    <t>ephrond</t>
-  </si>
-  <si>
-    <t>뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
+    <t xml:space="preserve">ephrond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
 아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
 태평하긴, 바보 녀석들이.</t>
   </si>
@@ -1950,6 +1946,7 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
 </t>
@@ -1962,7 +1959,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>呑気な顔を並べて、アホウ共が。</t>
+      <t xml:space="preserve">呑気な顔を並べて、アホウ共が。</t>
     </r>
   </si>
   <si>
@@ -1983,6 +1980,7 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
 </t>
@@ -1995,39 +1993,39 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>They're all a bunch of fools, lining up their silly faces.</t>
+      <t xml:space="preserve">They're all a bunch of fools, lining up their silly faces.</t>
     </r>
   </si>
   <si>
-    <t>eluminaire</t>
-  </si>
-  <si>
-    <t>가까이 오지 마세요… 에프론드님이 화내십니다.
+    <t xml:space="preserve">eluminaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
 이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
 이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
   </si>
   <si>
-    <t>近づかないでください…エフロンド様に怒られます。
+    <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
   </si>
   <si>
-    <t>Please stay away...Lord Efrond will be angry with me.
+    <t xml:space="preserve">Please stay away...Lord Efrond will be angry with me.
 The Forest of Vindale...I have never visited it. All the elea who live in Mysiria are "outsiders".
 Looking at the flowers like this makes me sleepy...</t>
   </si>
   <si>
-    <t>barrich</t>
-  </si>
-  <si>
-    <t>한 곡 듣겠나?
+    <t xml:space="preserve">barrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 곡 듣겠나?
 예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
 지금은 미실리아야말로 내 고향이다.
 멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
 내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
   </si>
   <si>
-    <t>一曲聴いてくかい？
+    <t xml:space="preserve">一曲聴いてくかい？
 昔はザナンの王宮に仕えていたんだが、まあ、ヘマをやっちまってな…
 今やミシリアこそが俺の故郷だよ。
 メルヴィンの奴を見かけなかったか？ちょっくら歌の一つでも披露したい気分なんだ。
@@ -2051,18 +2049,19 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>I served in the royal court of Zanan long ago, but, well, I screwed up.
+      <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
 Mysilia is truely my home now.
 Have you seen Melvin? I'm in the mood for a little singing.
 My wife is the most beautiful and brilliant woman in all of Mysilia. She's almost too good for me.</t>
     </r>
   </si>
   <si>
-    <t>melvin</t>
-  </si>
-  <si>
-    <t>여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
+    <t xml:space="preserve">melvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
 우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
 내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
 귀부인들이 절조가 없어서 참 곤란하단 말이야.
@@ -2086,31 +2085,32 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
+      <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
 相棒のグリフィンは野生のミミズクだ。手負いの彼を介抱していたら、懐かれてしまった。今では私の肩を宿り木だと思っているらしい。
 ご婦人方の節操のなさには困ったものだ。
 エフロンド様にお付きのエルミナレという娘、あの娘はまさか…いや、私の考え過ぎか。</t>
     </r>
   </si>
   <si>
-    <t>It has already been eight years since my sister married Barrich. Time flies.
+    <t xml:space="preserve">It has already been eight years since my sister married Barrich. Time flies.
 My family has held the title of Protector of the Forest for generations. In this time of hardship for the Eleas, I would like to prove that this title is not just a name. Of course, it would be best if such an opportunity never presents itself.
 My partner, Griffin, is a wild owl. I took care of him when he was wounded and he got attached to me. Now he thinks my shoulder is his lodging.
 The lack of moderation of the ladies is troubling.
 Eluminaire, the girl who accompanies Lord Efrond, could she be...no, I'm thinking too much.</t>
   </si>
   <si>
-    <t>caldorn</t>
-  </si>
-  <si>
-    <t>뭐냐 너는?
+    <t xml:space="preserve">caldorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 너는?
 모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
 제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
 팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
   </si>
   <si>
-    <t>何だお主は？
+    <t xml:space="preserve">何だお主は？
 冒険者とは聞こえがいいが、要はまっとうに働く意志のない流れものではないか？
 帝国の脅威はもちろんだが、腹の底が見えないザナンもまた不気味な存在だ。
 パルミアのゼイン王は名君と名高いが、息子のジャビ王子は道楽者だと聞く。世継ぎに頭を悩まされるのはどの国も同じだな！</t>
@@ -2134,28 +2134,29 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t>Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
+      <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
 King Zane of Palmia is a renowned monarch, but I hear his son, Prince Xabi , is a spoiled brat. It seems every country has the same problem with its heir!</t>
     </r>
   </si>
   <si>
-    <t>melilith</t>
-  </si>
-  <si>
-    <t>여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
-  </si>
-  <si>
-    <t>妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
-  </si>
-  <si>
-    <t>Which is scarier, younger sisters or cubes? I personally find younger sisters to be more adorable, though.</t>
-  </si>
-  <si>
-    <t>seeker</t>
-  </si>
-  <si>
-    <t>여어, 큰까마귀여. 무슨 일인가.
+    <t xml:space="preserve">melilith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which is scarier, younger sisters or cubes? I personally find younger sisters to be more adorable, though.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seeker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
 차라도 들겠나, 큰까마귀.
 나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
 …하지만, 용케도 이런 외딴 곳을 찾아냈군.
@@ -2163,7 +2164,7 @@
 이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
   </si>
   <si>
-    <t>やあ、ワタリガラス。なにか用かな。
+    <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
 お茶でも飲むかい、ワタリガラス。
 私は『探求者』…あるいは『異界渡り』とも呼ばれる男だ。この世のすべての知識を得るために人生を捧げている。見てのとおりの世捨て人さ。
 …しかし、よくぞまあ、こんな辺ぴな場所を見つけたものだな。
@@ -2171,7 +2172,7 @@
 この世のすべての知識は、誰もが手にする権利を持っているのだ。君も自由に過ごしたまえ。</t>
   </si>
   <si>
-    <t>Ah, a raven. Do you seek something?
+    <t xml:space="preserve">Ah, a raven. Do you seek something?
 Would you like some tea, raven?
  I am "Seeker"... or you might call me "Realm Wanderer". I've dedicated my life to acquiring all the knowledge in this world. As you can see, I am a recluse.
 It's quite remarkable that you found such a remote place.
@@ -2179,31 +2180,31 @@
 All the knowledge of this world should be accessible to everyone. Feel free to make yourself at home.</t>
   </si>
   <si>
-    <t>quru</t>
-  </si>
-  <si>
-    <t>왜?</t>
-  </si>
-  <si>
-    <t>何？</t>
-  </si>
-  <si>
-    <t>kettle</t>
-  </si>
-  <si>
-    <t>바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
-  </si>
-  <si>
-    <t>風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
-  </si>
-  <si>
-    <t>Can you hear the ancient words the wind whispers? I wander this world to learn the story of the wind.</t>
-  </si>
-  <si>
-    <t>strange_girl</t>
-  </si>
-  <si>
-    <t>리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
+    <t xml:space="preserve">quru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">왜?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you hear the ancient words the wind whispers? I wander this world to learn the story of the wind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strange_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
 그 괴물들이랑 똑같은 취급 하지 마.
 아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
 아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
@@ -2213,7 +2214,7 @@
 저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
   <si>
-    <t>リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
+    <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
 あのバケモノたちといっしょにしないでね。
 パパが帰ってきたら、こんなところに二度とこないよう、おねがいするの！
 パパは「かがくしゃ」なの。この保育園にきて…それで、あのバケモノ女になにかたのまれて、すぐ帰ってくるからって…
@@ -2223,7 +2224,7 @@
 あのバケモノ女はママなんかじゃない。あたりまえでしょ？</t>
   </si>
   <si>
-    <t>I don't like those Littles. They talk weird things and it's really creepy!
+    <t xml:space="preserve">I don't like those Littles. They talk weird things and it's really creepy!
 Don't lump me in with those monsters.
 When Daddy comes back, I'm gonna ask him so we never come here again.
 Daddy is a "sci-entist." He came to this nursery and then... that monster woman asked him for something, and he said he'd be right back...
@@ -2233,13 +2234,7 @@
 That monster woman is not my mommy. That's obvious!</t>
   </si>
   <si>
-    <t>moyer</t>
-  </si>
-  <si>
-    <t>모이어</t>
-  </si>
-  <si>
-    <t>Here to spin the prize wheel, huh? Sorry, but it’s not ready yet!</t>
+    <t xml:space="preserve">moyer</t>
   </si>
   <si>
     <r>
@@ -2250,7 +2245,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>아앗</t>
+      <t xml:space="preserve">아앗</t>
     </r>
     <r>
       <rPr>
@@ -2258,9 +2253,9 @@
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="129"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve">,</t>
     </r>
     <r>
       <rPr>
@@ -2270,7 +2265,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 돌돌이추첨기를</t>
+      <t xml:space="preserve"> 돌돌이 추첨기를</t>
     </r>
     <r>
       <rPr>
@@ -2278,7 +2273,7 @@
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2290,7 +2285,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>돌리러</t>
+      <t xml:space="preserve">돌리러</t>
     </r>
     <r>
       <rPr>
@@ -2298,7 +2293,7 @@
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2310,7 +2305,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>온거야</t>
+      <t xml:space="preserve">온 거야</t>
     </r>
     <r>
       <rPr>
@@ -2318,7 +2313,7 @@
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">? </t>
     </r>
@@ -2330,7 +2325,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>미안하지만</t>
+      <t xml:space="preserve">미안하지만</t>
     </r>
     <r>
       <rPr>
@@ -2338,7 +2333,7 @@
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2350,7 +2345,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>지금은</t>
+      <t xml:space="preserve">지금은</t>
     </r>
     <r>
       <rPr>
@@ -2358,7 +2353,7 @@
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2370,7 +2365,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>준비중이야</t>
+      <t xml:space="preserve">준비 중이야</t>
     </r>
     <r>
       <rPr>
@@ -2378,24 +2373,50 @@
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="129"/>
       </rPr>
-      <t>!</t>
+      <t xml:space="preserve">!</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">おっとガラガラを引きに来たのかい？残念だが、今は準備中だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here to spin the prize wheel, huh? Sorry, but it’s not ready yet!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2409,11 +2430,13 @@
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2423,9 +2446,17 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
-      <family val="3"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -2433,20 +2464,6 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -2472,7 +2489,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2480,43 +2497,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2575,29 +2646,13 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2607,31 +2662,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>290880</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49670280" cy="129600"/>
+          <a:ext cx="49758120" cy="129240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2641,15 +2690,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2659,56 +2702,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -2761,31 +2804,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12" customHeight="1">
+    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2799,10 +2844,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12" customHeight="1"/>
-    <row r="3" spans="1:4" ht="12" customHeight="1"/>
-    <row r="4" spans="1:4" ht="12" customHeight="1"/>
-    <row r="5" spans="1:4" ht="12" customHeight="1">
+    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2816,7 +2861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2830,7 +2875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2844,7 +2889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2858,7 +2903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2872,7 +2917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -2886,7 +2931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2900,7 +2945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2914,7 +2959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2928,7 +2973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2942,7 +2987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" s="1" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -2956,7 +3001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2970,7 +3015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -2984,7 +3029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2998,7 +3043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -3012,7 +3057,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -3026,7 +3071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -3040,7 +3085,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -3054,7 +3099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -3068,7 +3113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -3082,7 +3127,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -3096,7 +3141,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -3110,7 +3155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
@@ -3124,7 +3169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>96</v>
       </c>
@@ -3138,11 +3183,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3152,7 +3197,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -3166,7 +3211,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
@@ -3180,11 +3225,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33">
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3194,7 +3239,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -3208,7 +3253,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>114</v>
       </c>
@@ -3222,7 +3267,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>118</v>
       </c>
@@ -3236,7 +3281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>122</v>
       </c>
@@ -3250,7 +3295,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>126</v>
       </c>
@@ -3264,7 +3309,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>130</v>
       </c>
@@ -3278,7 +3323,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>134</v>
       </c>
@@ -3292,7 +3337,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>138</v>
       </c>
@@ -3306,7 +3351,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>142</v>
       </c>
@@ -3320,7 +3365,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>146</v>
       </c>
@@ -3334,7 +3379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
@@ -3348,7 +3393,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>154</v>
       </c>
@@ -3362,7 +3407,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>158</v>
       </c>
@@ -3376,7 +3421,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="33">
+    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>162</v>
       </c>
@@ -3390,7 +3435,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
@@ -3404,7 +3449,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
@@ -3418,7 +3463,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>174</v>
       </c>
@@ -3432,7 +3477,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>178</v>
       </c>
@@ -3446,7 +3491,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>182</v>
       </c>
@@ -3460,7 +3505,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="33">
+    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>186</v>
       </c>
@@ -3474,7 +3519,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>190</v>
       </c>
@@ -3488,7 +3533,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>194</v>
       </c>
@@ -3502,7 +3547,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>198</v>
       </c>
@@ -3516,7 +3561,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>202</v>
       </c>
@@ -3530,7 +3575,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>206</v>
       </c>
@@ -3544,7 +3589,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>210</v>
       </c>
@@ -3558,7 +3603,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>214</v>
       </c>
@@ -3572,7 +3617,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>218</v>
       </c>
@@ -3586,7 +3631,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>222</v>
       </c>
@@ -3600,7 +3645,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>226</v>
       </c>
@@ -3614,7 +3659,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>230</v>
       </c>
@@ -3628,7 +3673,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>234</v>
       </c>
@@ -3642,11 +3687,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="49.5">
+    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -3656,11 +3701,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="49.5">
+    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -3670,7 +3715,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>246</v>
       </c>
@@ -3684,7 +3729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>250</v>
       </c>
@@ -3698,7 +3743,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>254</v>
       </c>
@@ -3712,7 +3757,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>258</v>
       </c>
@@ -3726,7 +3771,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>262</v>
       </c>
@@ -3740,7 +3785,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>266</v>
       </c>
@@ -3754,7 +3799,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="33">
+    <row r="73" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>270</v>
       </c>
@@ -3768,7 +3813,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>274</v>
       </c>
@@ -3782,7 +3827,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>278</v>
       </c>
@@ -3796,7 +3841,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>282</v>
       </c>
@@ -3810,7 +3855,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>286</v>
       </c>
@@ -3825,33 +3870,41 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="117.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="122.7109375" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3865,20 +3918,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="115.5">
+    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>291</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3888,11 +3941,11 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="66">
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>295</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -3902,11 +3955,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="66">
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>299</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -3916,11 +3969,11 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="66">
+    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>303</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3930,11 +3983,11 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="66">
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>307</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3944,11 +3997,11 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="132">
+    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>311</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3958,11 +4011,11 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="66">
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>315</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -3972,11 +4025,11 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="66">
+    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>319</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3986,11 +4039,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="148.5">
+    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>323</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -4000,11 +4053,11 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33">
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>327</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -4014,11 +4067,11 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="49.5">
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>331</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -4028,7 +4081,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>334</v>
       </c>
@@ -4042,11 +4095,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33">
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>339</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -4056,11 +4109,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33">
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>343</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -4070,7 +4123,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.5">
+    <row r="19" customFormat="false" ht="1128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>346</v>
       </c>
@@ -4085,11 +4138,11 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="264">
+    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>351</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -4099,11 +4152,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="379.5">
+    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>355</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -4113,11 +4166,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="49.5">
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>359</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -4127,11 +4180,11 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33">
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>363</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -4142,32 +4195,40 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="109.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4181,11 +4242,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="99">
+    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -4195,11 +4256,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="82.5">
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4209,11 +4270,11 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33">
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>375</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -4223,11 +4284,11 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="99">
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4237,11 +4298,11 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="99">
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>383</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4251,11 +4312,11 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="148.5">
+    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>387</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -4265,11 +4326,11 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="99">
+    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4279,11 +4340,11 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="82.5">
+    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>395</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -4293,11 +4354,11 @@
         <v>397</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="115.5">
+    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>399</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -4308,32 +4369,40 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="87.140625" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="111"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="87.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4347,20 +4416,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="66">
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>403</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -4370,11 +4439,11 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="82.5">
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>407</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4384,11 +4453,11 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="99">
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>411</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -4398,11 +4467,11 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33">
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>415</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4412,11 +4481,11 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="82.5">
+    <row r="9" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>419</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4426,11 +4495,11 @@
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="66">
+    <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>423</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -4440,11 +4509,11 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="82.5">
+    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>427</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4454,7 +4523,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="409.5">
+    <row r="12" customFormat="false" ht="345.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>430</v>
       </c>
@@ -4468,7 +4537,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>434</v>
       </c>
@@ -4482,11 +4551,11 @@
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="66">
+    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>439</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -4496,11 +4565,11 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="49.5">
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -4510,11 +4579,11 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="66">
+    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>447</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -4524,11 +4593,11 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.5">
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>451</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -4538,11 +4607,11 @@
         <v>453</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60">
+    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>455</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -4552,11 +4621,11 @@
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="49.5">
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>459</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4566,11 +4635,11 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="87">
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>463</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4580,11 +4649,11 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="111">
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>467</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -4594,11 +4663,11 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="106.5">
+    <row r="22" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>471</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -4608,7 +4677,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>474</v>
       </c>
@@ -4622,11 +4691,11 @@
         <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="132">
+    <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>479</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -4636,7 +4705,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>482</v>
       </c>
@@ -4650,7 +4719,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>485</v>
       </c>
@@ -4664,11 +4733,11 @@
         <v>488</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="148.5">
+    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>490</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -4678,37 +4747,41 @@
         <v>492</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" r:id="rId6"/>
+    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="497">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">food1</t>
   </si>
   <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">food2</t>
   </si>
   <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t xml:space="preserve">healer1</t>
   </si>
   <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t xml:space="preserve">healer2</t>
   </si>
   <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t xml:space="preserve">appraise1</t>
   </si>
   <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t xml:space="preserve">appraise2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t xml:space="preserve">appraise3</t>
   </si>
   <si>
+    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t xml:space="preserve">expand1</t>
   </si>
   <si>
+    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t xml:space="preserve">expand2</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t xml:space="preserve">expand3</t>
   </si>
   <si>
+    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">拡張できないよう{だ}。</t>
   </si>
   <si>
@@ -128,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">extraTax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
   </si>
   <si>
     <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
@@ -140,6 +173,9 @@
     <t xml:space="preserve">extraTax2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
   </si>
   <si>
@@ -149,6 +185,9 @@
     <t xml:space="preserve">banker1</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
   </si>
   <si>
@@ -158,6 +197,9 @@
     <t xml:space="preserve">banker2</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
   </si>
   <si>
@@ -167,6 +209,9 @@
     <t xml:space="preserve">banker3</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
   </si>
   <si>
@@ -176,6 +221,9 @@
     <t xml:space="preserve">banker4</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
   </si>
   <si>
@@ -185,6 +233,9 @@
     <t xml:space="preserve">noDrawingRoom</t>
   </si>
   <si>
+    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
   </si>
   <si>
@@ -194,6 +245,9 @@
     <t xml:space="preserve">nomoney</t>
   </si>
   <si>
+    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
   </si>
   <si>
@@ -203,6 +257,9 @@
     <t xml:space="preserve">alreadyFull</t>
   </si>
   <si>
+    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
   </si>
   <si>
@@ -212,6 +269,9 @@
     <t xml:space="preserve">questAccept</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
   </si>
   <si>
@@ -221,6 +281,9 @@
     <t xml:space="preserve">questFull</t>
   </si>
   <si>
+    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
   </si>
   <si>
@@ -230,6 +293,9 @@
     <t xml:space="preserve">questInProgress</t>
   </si>
   <si>
+    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
   </si>
   <si>
@@ -239,6 +305,9 @@
     <t xml:space="preserve">questComplete</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -248,6 +317,9 @@
     <t xml:space="preserve">bird1</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
   </si>
   <si>
@@ -255,6 +327,10 @@
   </si>
   <si>
     <t xml:space="preserve">bird2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{간다}!
+우후후.</t>
   </si>
   <si>
     <t xml:space="preserve">いく{よ}！
@@ -268,6 +344,9 @@
     <t xml:space="preserve">bird3</t>
   </si>
   <si>
+    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
   </si>
   <si>
@@ -277,6 +356,9 @@
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
+    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
   </si>
   <si>
@@ -292,6 +374,9 @@
     <t xml:space="preserve">lockpick_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
   </si>
   <si>
@@ -301,6 +386,9 @@
     <t xml:space="preserve">invite</t>
   </si>
   <si>
+    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
   </si>
   <si>
@@ -310,6 +398,9 @@
     <t xml:space="preserve">invite2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
   </si>
   <si>
@@ -319,6 +410,9 @@
     <t xml:space="preserve">invite3</t>
   </si>
   <si>
+    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
+  </si>
+  <si>
     <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
   </si>
   <si>
@@ -328,6 +422,9 @@
     <t xml:space="preserve">talk_hobby</t>
   </si>
   <si>
+    <t xml:space="preserve">취미는 #1 정도{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">趣味は#1{だ}。</t>
   </si>
   <si>
@@ -337,6 +434,9 @@
     <t xml:space="preserve">talk_fav</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
   </si>
   <si>
@@ -346,6 +446,9 @@
     <t xml:space="preserve">slave_buy</t>
   </si>
   <si>
+    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
   </si>
   <si>
@@ -355,6 +458,9 @@
     <t xml:space="preserve">slave_buy2</t>
   </si>
   <si>
+    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
   </si>
   <si>
@@ -364,6 +470,9 @@
     <t xml:space="preserve">goto</t>
   </si>
   <si>
+    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
   </si>
   <si>
@@ -373,6 +482,9 @@
     <t xml:space="preserve">goto2</t>
   </si>
   <si>
+    <t xml:space="preserve">놀리는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">からかっているの{か}？</t>
   </si>
   <si>
@@ -382,6 +494,9 @@
     <t xml:space="preserve">upgrade_heath1</t>
   </si>
   <si>
+    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
+  </si>
+  <si>
     <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
   </si>
   <si>
@@ -391,6 +506,9 @@
     <t xml:space="preserve">upgrade_heath2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
   </si>
   <si>
@@ -400,6 +518,9 @@
     <t xml:space="preserve">invest1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
   </si>
   <si>
@@ -409,6 +530,9 @@
     <t xml:space="preserve">invest2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
   </si>
   <si>
@@ -418,6 +542,9 @@
     <t xml:space="preserve">invest_shop1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
   </si>
   <si>
@@ -427,6 +554,9 @@
     <t xml:space="preserve">invest_shop2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
   </si>
   <si>
@@ -436,6 +566,9 @@
     <t xml:space="preserve">questCompleteDeliver</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -445,6 +578,9 @@
     <t xml:space="preserve">questCompleteDeliverExtra</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
@@ -454,6 +590,9 @@
     <t xml:space="preserve">miral_medal</t>
   </si>
   <si>
+    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
   </si>
   <si>
@@ -463,6 +602,9 @@
     <t xml:space="preserve">miral_medal2</t>
   </si>
   <si>
+    <t xml:space="preserve">흥!</t>
+  </si>
+  <si>
     <t xml:space="preserve">ふん！</t>
   </si>
   <si>
@@ -472,6 +614,9 @@
     <t xml:space="preserve">shop_criminal</t>
   </si>
   <si>
+    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
@@ -481,6 +626,9 @@
     <t xml:space="preserve">guide</t>
   </si>
   <si>
+    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">どこに行きたい{のだ}？</t>
   </si>
   <si>
@@ -490,6 +638,9 @@
     <t xml:space="preserve">shutup</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはしゅんとなった…)</t>
   </si>
   <si>
@@ -499,6 +650,9 @@
     <t xml:space="preserve">shutup2</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはあなたに抱きついた)</t>
   </si>
   <si>
@@ -508,6 +662,9 @@
     <t xml:space="preserve">insult</t>
   </si>
   <si>
+    <t xml:space="preserve">답도 없는 변태{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうしようもない変態{だな}。</t>
   </si>
   <si>
@@ -517,6 +674,9 @@
     <t xml:space="preserve">insult2</t>
   </si>
   <si>
+    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
   </si>
   <si>
@@ -526,6 +686,9 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはこくんと肯いた)</t>
   </si>
   <si>
@@ -535,6 +698,9 @@
     <t xml:space="preserve">refuse</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはやんわりと断った)</t>
   </si>
   <si>
@@ -544,6 +710,9 @@
     <t xml:space="preserve">deliver_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
   </si>
   <si>
@@ -553,6 +722,9 @@
     <t xml:space="preserve">news1</t>
   </si>
   <si>
+    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
@@ -562,6 +734,9 @@
     <t xml:space="preserve">news2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
   </si>
   <si>
@@ -569,6 +744,11 @@
   </si>
   <si>
     <t xml:space="preserve">bout1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
+진심{이야}?
+지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">力試しをしたいの{か}？
@@ -584,6 +764,11 @@
     <t xml:space="preserve">bout2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
+그렇게 나와{야지}!
+{좋아}, {YOU}의 힘을 보여{줘}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
@@ -597,6 +782,9 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
+    <t xml:space="preserve">{뭐야}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">なん{だ}？</t>
   </si>
   <si>
@@ -606,6 +794,9 @@
     <t xml:space="preserve">becomeMaid</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
   </si>
   <si>
@@ -615,6 +806,9 @@
     <t xml:space="preserve">sellFame1</t>
   </si>
   <si>
+    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
@@ -624,6 +818,9 @@
     <t xml:space="preserve">sellFame2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
   </si>
   <si>
@@ -633,6 +830,9 @@
     <t xml:space="preserve">blessing</t>
   </si>
   <si>
+    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
   </si>
   <si>
@@ -642,6 +842,9 @@
     <t xml:space="preserve">lockTooHard</t>
   </si>
   <si>
+    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
   </si>
   <si>
@@ -651,6 +854,9 @@
     <t xml:space="preserve">loytel_bill_give1</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
   </si>
   <si>
@@ -660,6 +866,9 @@
     <t xml:space="preserve">loytel_bill_give2</t>
   </si>
   <si>
+    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
   </si>
   <si>
@@ -669,6 +878,9 @@
     <t xml:space="preserve">loytel_bill_give_given</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
   </si>
   <si>
@@ -678,6 +890,9 @@
     <t xml:space="preserve">loytel_bill_give_wait</t>
   </si>
   <si>
+    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
@@ -687,6 +902,9 @@
     <t xml:space="preserve">loytel_bill_give_lost</t>
   </si>
   <si>
+    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
   </si>
   <si>
@@ -694,6 +912,15 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가{하다}.
+응? 뭔가 볼일이라도 있{는가}?
+가끔씩은 호화스러운 식사를 하고 {싶다}.
+영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
+눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
+고양이는 왜 이렇게 귀여운 {걸까}.
+#aka? …누굴 말하는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">暇{だ}。
@@ -717,6 +944,12 @@
     <t xml:space="preserve">interest_economy</t>
   </si>
   <si>
+    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
+하여간 이 세상에선 돈이 중요{해}.
+어디 돈 좀 떨어져 있으면 좋을 {텐데}.
+플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
@@ -732,6 +965,12 @@
     <t xml:space="preserve">interest_science</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
+에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
+에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
+신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
@@ -747,6 +986,12 @@
     <t xml:space="preserve">interest_travel</t>
   </si>
   <si>
+    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
+루미에스트는 예술의 거리로 유명{해}.
+노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
+여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
@@ -762,6 +1007,12 @@
     <t xml:space="preserve">interest_world</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
+에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
+신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
+아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
@@ -775,6 +1026,15 @@
   </si>
   <si>
     <t xml:space="preserve">interest_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
+신이 없다면 이 세계는 의미가 없{어}.
+치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
+가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
+쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
+행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
+기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">信仰こそ何よりも大事{だ}。
@@ -798,6 +1058,12 @@
     <t xml:space="preserve">interest_human</t>
   </si>
   <si>
+    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
+이제부터는 인간의 시대{다}!
+{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
+엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
@@ -813,6 +1079,12 @@
     <t xml:space="preserve">interest_elea</t>
   </si>
   <si>
+    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
+예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
+숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
+어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
@@ -826,6 +1098,17 @@
   </si>
   <si>
     <t xml:space="preserve">shopkeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
+물건 보는 눈은 자신 있{어}.
+가게 경영은 꽤 어렵{네}.
+건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
+다른 가게에서는 발밑이 안 보이게 조심{해라}.
+만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
+자, {내가} 자신있게 고른 상품들을 둘러{봐}.
+요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
+무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
   </si>
   <si>
     <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
@@ -853,6 +1136,10 @@
     <t xml:space="preserve">guard</t>
   </si>
   <si>
+    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
+수상한 사람을 보면 알려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。</t>
   </si>
@@ -862,6 +1149,11 @@
   </si>
   <si>
     <t xml:space="preserve">banker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
+돈으로 살 수 없는 것들도 있{지}.
+본 지점에 어서 {와}!</t>
   </si>
   <si>
     <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
@@ -877,6 +1169,9 @@
     <t xml:space="preserve">bitch</t>
   </si>
   <si>
+    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
   </si>
   <si>
@@ -884,6 +1179,10 @@
   </si>
   <si>
     <t xml:space="preserve">slaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님도 이쪽 사람이{네}.
+히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
   </si>
   <si>
     <t xml:space="preserve">お客さんも悪い人間{だな}。
@@ -897,6 +1196,10 @@
     <t xml:space="preserve">bored</t>
   </si>
   <si>
+    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
+(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
@@ -906,6 +1209,27 @@
   </si>
   <si>
     <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
+록 스로어가 던지는 바위를 무시하면 안 {돼}.
+꿈속에서 {내가} 믿는 신을 만났{어}!
+귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
+파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
+도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
+저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
+바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
+이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
+세금을 안 내면 나중에 골치 아파{져}.
+정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
+태양의 빛을 내는 신비한 램프가 있다{더라}.
+월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
+그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
+허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
+수영을 연습{해라}. 내구력이 단련된다{고}!
+미식가들은 독버섯도 구별할 수 있다{더라}.
+자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
+의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
   </si>
   <si>
     <r>
@@ -941,7 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
@@ -972,6 +1296,23 @@
     <t xml:space="preserve">fortune</t>
   </si>
   <si>
+    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
+소재 망치를 평범한 물건에 막 쓰지 마라!
+영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
+질 좋은 침대에서 자면 수면 효과가 좋아진다.
+몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
+독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
+큐브는 상태이상이 걸려 있다면 분열하지 못한다.
+아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
+소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
+환혹 내성이 충분하다면 광기 상태가 되지 않는다.
+지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
+젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
+단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
+강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
+수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
@@ -1009,6 +1350,31 @@
   </si>
   <si>
     <t xml:space="preserve">fortune_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
+지팡이는 땅에 한동안 놔 두면 충전된다!
+소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
+보석은 플래티넘 코인으로 교환할 수 있다.
+보물 지도는 항상 축복해서 읽어라.
+냐…아…아아…
+무엇을 바라는가?
+채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
+신을 펫으로 만드는 방법도 있다고 한다.
+문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
+일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
+뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
+아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
+당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
+고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
+경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
+여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
+달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
+카르마가 높으면 세금이 감면된다.
+몬스터의 똥은 무거울수록 비싸게 팔린다.
+저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
+헤르메스의 피는 *반드시* 축복해서 마셔라!
+귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
   </si>
   <si>
     <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
@@ -1064,6 +1430,11 @@
     <t xml:space="preserve">mayor</t>
   </si>
   <si>
+    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
+용무가 있{는가}? {나는} 바쁜 몸{이다}.
+마을에 투자하겠다면 언제든 환영{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
@@ -1077,6 +1448,10 @@
     <t xml:space="preserve">secretary</t>
   </si>
   <si>
+    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
+제가 도움이 되어 드릴 일이 있나요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
@@ -1086,6 +1461,13 @@
   </si>
   <si>
     <t xml:space="preserve">mysilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
+십년전쟁으로 이 나라는 큰 타격을 입었{어}.
+죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
+십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
+미실리아는 앞으로 어떻게 되는 걸{까}.</t>
   </si>
   <si>
     <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
@@ -1105,6 +1487,13 @@
     <t xml:space="preserve">olvina</t>
   </si>
   <si>
+    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
+시오루시아는 정말로 학구열이 대단해서 감동했{어}.
+올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
+패리스한테 실컷 매도당하고 {싶다}.
+오르비나는 미실리아 최고의 관광지{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
@@ -1122,6 +1511,10 @@
     <t xml:space="preserve">lothria</t>
   </si>
   <si>
+    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
+지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
@@ -1131,6 +1524,13 @@
   </si>
   <si>
     <t xml:space="preserve">derphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}
+그 길에 관심 있으면 도적 길드로 가 {봐}.
+이 세상은 노예가 필요{해}.
+아레나에서 피 튀기는 걸 보는 게 {좋아}.
+이 마을에는 경비병이 없{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">無法者の街、ダルフィへようこそ。
@@ -1148,6 +1548,12 @@
   </si>
   <si>
     <t xml:space="preserve">palmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
+팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
+쟈비님과 스타샤님은 정말로 사이가 {좋아}.
+팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
   </si>
   <si>
     <t xml:space="preserve">パルミア国の王都へようこそ。
@@ -1165,6 +1571,14 @@
   </si>
   <si>
     <t xml:space="preserve">yowyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
+말이라면 여기서 사가는 게 {좋아}.
+수확기에는 항상 일손이 모자라{지}.
+아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
+서쪽에 무법자들의 마을이 있다{더라}.
+마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
@@ -1188,6 +1602,14 @@
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
+    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
+어딘가에 온천으로 유명한 마을이 있다{더라}.
+이 마을은 어디서든지 낚시를 할 수 있{어}.
+그림 얘기로는 하루종일 떠들 수 있{어}.
+마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
+하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
@@ -1207,6 +1629,13 @@
     <t xml:space="preserve">noyel</t>
   </si>
   <si>
+    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
+매일매일 눈 치우는 게 큰일{이다}.
+죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
+추워!
+여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
@@ -1222,6 +1651,13 @@
   </si>
   <si>
     <t xml:space="preserve">kapul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바닷바람 향기가 좋{네}.
+펫 아레나에서 경기 보는 게 취미{다}.
+더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
+이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
+피라미드에는 어떻게 들어가는 걸{까}?</t>
   </si>
   <si>
     <t xml:space="preserve">潮風が香る{な}。
@@ -1242,6 +1678,12 @@
     <t xml:space="preserve">conery</t>
   </si>
   <si>
+    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
+길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
+스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
+스타샤 공주님 만세!</t>
+  </si>
+  <si>
     <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
@@ -1257,6 +1699,11 @@
     <t xml:space="preserve">garokk</t>
   </si>
   <si>
+    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
+미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
+시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
+  </si>
+  <si>
     <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
@@ -1268,6 +1715,14 @@
   </si>
   <si>
     <t xml:space="preserve">gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
+오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
+공주님 만세!
+나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
+후하핫!
+약한 자를 돕고, 악을 쳐부수는 거다!</t>
   </si>
   <si>
     <t xml:space="preserve">フハハハハ！…何だ貴様は？
@@ -1289,6 +1744,10 @@
     <t xml:space="preserve">jonan</t>
   </si>
   <si>
+    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
+나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
@@ -1298,6 +1757,12 @@
   </si>
   <si>
     <t xml:space="preserve">lowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
+어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
+이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
+교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者がこんなところに何のようだね？
@@ -1315,6 +1780,11 @@
     <t xml:space="preserve">mapMerchant</t>
   </si>
   <si>
+    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
+그건 그렇고 귀중한 서적들이다.
+눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
@@ -1328,6 +1798,11 @@
     <t xml:space="preserve">miral</t>
   </si>
   <si>
+    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
+파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
+오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
+  </si>
+  <si>
     <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
@@ -1339,6 +1814,12 @@
   </si>
   <si>
     <t xml:space="preserve">nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
+수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
+서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
+아니… 이건 코스프레가 아니다.</t>
   </si>
   <si>
     <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
@@ -1356,6 +1837,9 @@
     <t xml:space="preserve">nola</t>
   </si>
   <si>
+    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
+  </si>
+  <si>
     <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
   </si>
   <si>
@@ -1363,6 +1847,12 @@
   </si>
   <si>
     <t xml:space="preserve">stasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
+팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
+아이돌…? …다른 나라의 말인가요?
+궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
   </si>
   <si>
     <t xml:space="preserve">あら、私に何かご用ですか？
@@ -1380,6 +1870,11 @@
     <t xml:space="preserve">theolucia</t>
   </si>
   <si>
+    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
+패리스 언니는 화나면 무서워요.
+팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
@@ -1393,6 +1888,11 @@
     <t xml:space="preserve">xabi</t>
   </si>
   <si>
+    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
+아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
+길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
@@ -1406,6 +1906,11 @@
     <t xml:space="preserve">zane</t>
   </si>
   <si>
+    <t xml:space="preserve">무엇이냐, 너는?
+이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
+…</t>
+  </si>
+  <si>
     <t xml:space="preserve">何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
@@ -1417,6 +1922,11 @@
   </si>
   <si>
     <t xml:space="preserve">ephrond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
+아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
+태평하긴, 바보 녀석들이.</t>
   </si>
   <si>
     <r>
@@ -1435,7 +1945,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
@@ -1469,7 +1979,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
@@ -1490,6 +2000,11 @@
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
+    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
+이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
+이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
+  </si>
+  <si>
     <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
@@ -1501,6 +2016,13 @@
   </si>
   <si>
     <t xml:space="preserve">barrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 곡 듣겠나?
+예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
+지금은 미실리아야말로 내 고향이다.
+멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
+내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
   </si>
   <si>
     <t xml:space="preserve">一曲聴いてくかい？
@@ -1526,7 +2048,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
@@ -1537,6 +2059,13 @@
   </si>
   <si>
     <t xml:space="preserve">melvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
+우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
+내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
+귀부인들이 절조가 없어서 참 곤란하단 말이야.
+에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
   </si>
   <si>
     <r>
@@ -1555,7 +2084,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
@@ -1573,6 +2102,12 @@
   </si>
   <si>
     <t xml:space="preserve">caldorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 너는?
+모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
+제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
+팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
   </si>
   <si>
     <t xml:space="preserve">何だお主は？
@@ -1598,7 +2133,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
@@ -1609,6 +2144,9 @@
     <t xml:space="preserve">melilith</t>
   </si>
   <si>
+    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
+  </si>
+  <si>
     <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
   </si>
   <si>
@@ -1616,6 +2154,14 @@
   </si>
   <si>
     <t xml:space="preserve">seeker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
+차라도 들겠나, 큰까마귀.
+나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
+…하지만, 용케도 이런 외딴 곳을 찾아냈군.
+…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
+이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
   </si>
   <si>
     <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
@@ -1637,12 +2183,18 @@
     <t xml:space="preserve">quru</t>
   </si>
   <si>
+    <t xml:space="preserve">왜?</t>
+  </si>
+  <si>
     <t xml:space="preserve">何？</t>
   </si>
   <si>
     <t xml:space="preserve">kettle</t>
   </si>
   <si>
+    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
+  </si>
+  <si>
     <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
   </si>
   <si>
@@ -1650,6 +2202,16 @@
   </si>
   <si>
     <t xml:space="preserve">strange_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
+그 괴물들이랑 똑같은 취급 하지 마.
+아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
+아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
+아빠는 곧 돌아오실 거야.
+부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
+그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
+저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
   <si>
     <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
@@ -1675,578 +2237,13 @@
     <t xml:space="preserve">moyer</t>
   </si>
   <si>
+    <t xml:space="preserve">아앗, 돌돌이 추첨기를 돌리러 온 거야?</t>
+  </si>
+  <si>
     <t xml:space="preserve">おっとガラガラを引きに来たのかい？</t>
   </si>
   <si>
     <t xml:space="preserve">Here to spin the prize wheel, huh?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자, 천천히 {먹어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{간다}!
-우후후.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">취미는 #1 정도{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">놀리는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">흥!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">답도 없는 변태{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
-진심{이야}?
-지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
-그렇게 나와{야지}!
-{좋아}, {YOU}의 힘을 보여{줘}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{뭐야}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한가{하다}.
-응? 뭔가 볼일이라도 있{는가}?
-가끔씩은 호화스러운 식사를 하고 {싶다}.
-영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
-눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
-고양이는 왜 이렇게 귀여운 {걸까}.
-#aka? …누굴 말하는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
-하여간 이 세상에선 돈이 중요{해}.
-어디 돈 좀 떨어져 있으면 좋을 {텐데}.
-플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
-에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
-에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
-신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
-루미에스트는 예술의 거리로 유명{해}.
-노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
-여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
-에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
-신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
-아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
-신이 없다면 이 세계는 의미가 없{어}.
-치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
-가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
-쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
-행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
-기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
-이제부터는 인간의 시대{다}!
-{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
-엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
-예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
-숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
-어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
-물건 보는 눈은 자신 있{어}.
-가게 경영은 꽤 어렵{네}.
-건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
-다른 가게에서는 발밑이 안 보이게 조심{해라}.
-만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
-자, {내가} 자신있게 고른 상품들을 둘러{봐}.
-요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
-무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
-수상한 사람을 보면 알려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
-돈으로 살 수 없는 것들도 있{지}.
-본 지점에 어서 {와}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손님도 이쪽 사람이{네}.
-히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
-(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
-록 스로어가 던지는 바위를 무시하면 안 {돼}.
-꿈속에서 {내가} 믿는 신을 만났{어}!
-귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
-파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
-도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
-저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
-바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
-이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
-세금을 안 내면 나중에 골치 아파{져}.
-정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
-태양의 빛을 내는 신비한 램프가 있다{더라}.
-월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
-그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
-허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
-수영을 연습{해라}. 내구력이 단련된다{고}!
-미식가들은 독버섯도 구별할 수 있다{더라}.
-자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
-의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
-소재 망치를 평범한 물건에 막 쓰지 마라!
-영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
-질 좋은 침대에서 자면 수면 효과가 좋아진다.
-몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
-독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
-큐브는 상태이상이 걸려 있다면 분열하지 못한다.
-아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
-소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
-환혹 내성이 충분하다면 광기 상태가 되지 않는다.
-지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
-젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
-단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
-강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
-수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
-지팡이는 땅에 한동안 놔 두면 충전된다!
-소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
-보석은 플래티넘 코인으로 교환할 수 있다.
-보물 지도는 항상 축복해서 읽어라.
-냐…아…아아…
-무엇을 바라는가?
-채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
-신을 펫으로 만드는 방법도 있다고 한다.
-문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
-일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
-뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
-아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
-당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
-고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
-경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
-여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
-달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
-카르마가 높으면 세금이 감면된다.
-몬스터의 똥은 무거울수록 비싸게 팔린다.
-저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
-헤르메스의 피는 *반드시* 축복해서 마셔라!
-귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
-용무가 있{는가}? {나는} 바쁜 몸{이다}.
-마을에 투자하겠다면 언제든 환영{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
-제가 도움이 되어 드릴 일이 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
-십년전쟁으로 이 나라는 큰 타격을 입었{어}.
-죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
-십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
-미실리아는 앞으로 어떻게 되는 걸{까}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
-시오루시아는 정말로 학구열이 대단해서 감동했{어}.
-올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
-패리스한테 실컷 매도당하고 {싶다}.
-오르비나는 미실리아 최고의 관광지{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
-지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}
-그 길에 관심 있으면 도적 길드로 가 {봐}.
-이 세상은 노예가 필요{해}.
-아레나에서 피 튀기는 걸 보는 게 {좋아}.
-이 마을에는 경비병이 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
-팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
-쟈비님과 스타샤님은 정말로 사이가 {좋아}.
-팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
-말이라면 여기서 사가는 게 {좋아}.
-수확기에는 항상 일손이 모자라{지}.
-아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
-서쪽에 무법자들의 마을이 있다{더라}.
-마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
-어딘가에 온천으로 유명한 마을이 있다{더라}.
-이 마을은 어디서든지 낚시를 할 수 있{어}.
-그림 얘기로는 하루종일 떠들 수 있{어}.
-마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
-하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
-매일매일 눈 치우는 게 큰일{이다}.
-죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
-추워!
-여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바닷바람 향기가 좋{네}.
-펫 아레나에서 경기 보는 게 취미{다}.
-더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
-이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
-피라미드에는 어떻게 들어가는 걸{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
-길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
-스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
-스타샤 공주님 만세!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
-미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
-시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
-오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
-공주님 만세!
-나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
-후하핫!
-약한 자를 돕고, 악을 쳐부수는 거다!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
-나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
-어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
-이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
-교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
-그건 그렇고 귀중한 서적들이다.
-눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
-파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
-오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
-수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
-서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
-아니… 이건 코스프레가 아니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
-팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
-아이돌…? …다른 나라의 말인가요?
-궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
-패리스 언니는 화나면 무서워요.
-팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
-아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
-길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무엇이냐, 너는?
-이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
-…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
-아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
-태평하긴, 바보 녀석들이.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
-이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
-이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한 곡 듣겠나?
-예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
-지금은 미실리아야말로 내 고향이다.
-멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
-내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
-우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
-내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
-귀부인들이 절조가 없어서 참 곤란하단 말이야.
-에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐 너는?
-모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
-제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
-팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
-차라도 들겠나, 큰까마귀.
-나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
-…하지만, 용케도 이런 외딴 곳을 찾아냈군.
-…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
-이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왜?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
-그 괴물들이랑 똑같은 취급 하지 마.
-아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
-아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
-아빠는 곧 돌아오실 거야.
-부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
-그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
-저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아앗, 돌돌이 추첨기를 돌리러 온 거야? 미안하지만, 지금은 준비 중이야!</t>
   </si>
 </sst>
 </file>
@@ -2267,20 +2264,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2293,13 +2290,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2325,7 +2322,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2334,78 +2331,78 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2480,7 +2477,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2490,11 +2487,11 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>290880</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -2502,13 +2499,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49670280" cy="129600"/>
+          <a:ext cx="49669920" cy="129240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2636,29 +2633,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B77" sqref="B77"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.53" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.34" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.34"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
+    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2672,1036 +2669,1036 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1"/>
-    <row r="3" ht="12" customHeight="1"/>
-    <row r="4" ht="12" customHeight="1"/>
-    <row r="5" ht="12" customHeight="1">
+    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>375</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>376</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>377</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>378</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>379</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>380</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>381</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>382</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>383</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>384</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>386</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>387</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>388</v>
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>389</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>390</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>391</v>
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>392</v>
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>393</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>394</v>
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="20.1" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>395</v>
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" ht="20.1" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>396</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" ht="20.1" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>397</v>
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" ht="20.1" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>398</v>
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" ht="20.1" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>399</v>
+        <v>100</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" ht="20.1" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>400</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>401</v>
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>399</v>
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="12.8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>400</v>
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>402</v>
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" ht="12.8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>403</v>
+        <v>118</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="12.8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>404</v>
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" ht="12.8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>405</v>
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" ht="12.8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>406</v>
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>407</v>
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" ht="12.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>408</v>
+        <v>138</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>409</v>
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>410</v>
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" ht="12.8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>411</v>
+        <v>150</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" ht="12.8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>412</v>
+        <v>154</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>413</v>
+        <v>158</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" ht="22.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>414</v>
+        <v>162</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>415</v>
+        <v>166</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" t="s">
-        <v>416</v>
+        <v>170</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>417</v>
+        <v>174</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>418</v>
+        <v>178</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>419</v>
+        <v>182</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" ht="22.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>420</v>
+        <v>186</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" ht="12.8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" t="s">
-        <v>421</v>
+        <v>190</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>422</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" ht="12.8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s">
-        <v>423</v>
+        <v>198</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" ht="12.8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" t="s">
-        <v>424</v>
+        <v>202</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" ht="12.8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>425</v>
+        <v>206</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" ht="12.8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" t="s">
-        <v>426</v>
+        <v>210</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>427</v>
+        <v>214</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>428</v>
+        <v>218</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>429</v>
+        <v>222</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" ht="12.8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" t="s">
-        <v>430</v>
+        <v>226</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" t="s">
-        <v>431</v>
+        <v>230</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" ht="12.8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>432</v>
+        <v>234</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" ht="32.8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" t="s">
-        <v>433</v>
+        <v>238</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" ht="32.8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" t="s">
-        <v>434</v>
+        <v>242</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" ht="12.8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" t="s">
-        <v>435</v>
+        <v>246</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" ht="12.8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>436</v>
+        <v>250</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" t="s">
-        <v>437</v>
+        <v>254</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" t="s">
-        <v>438</v>
+        <v>258</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" ht="12.8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>439</v>
+        <v>262</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" ht="12.8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" t="s">
-        <v>440</v>
+        <v>266</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" ht="22.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" t="s">
-        <v>441</v>
+        <v>270</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" ht="12.8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>442</v>
+        <v>274</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" ht="12.8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>443</v>
+        <v>278</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" ht="12.8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" t="s">
-        <v>444</v>
+        <v>282</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" ht="12.8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B77" t="s">
-        <v>445</v>
+        <v>286</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -3710,29 +3707,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
-    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
-    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3746,287 +3743,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>446</v>
+        <v>290</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" ht="43.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>447</v>
+        <v>294</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" t="s">
-        <v>448</v>
+        <v>298</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" ht="43.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" t="s">
-        <v>449</v>
+        <v>302</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" ht="43.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" t="s">
-        <v>450</v>
+        <v>306</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" ht="74.6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" t="s">
-        <v>451</v>
+        <v>310</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" ht="43.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" t="s">
-        <v>452</v>
+        <v>314</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" ht="43.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" t="s">
-        <v>453</v>
+        <v>318</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" t="s">
-        <v>454</v>
+        <v>322</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" ht="22.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B14" t="s">
-        <v>455</v>
+        <v>326</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" t="s">
-        <v>456</v>
+        <v>330</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" ht="12.8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16" t="s">
-        <v>457</v>
+        <v>334</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" ht="22.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" t="s">
-        <v>458</v>
+        <v>338</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" ht="22.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" t="s">
-        <v>459</v>
+        <v>342</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" ht="200.7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="1128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" ht="168.65">
+    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B20" t="s">
-        <v>461</v>
+        <v>350</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B21" t="s">
-        <v>462</v>
+        <v>354</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" ht="32.8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B22" t="s">
-        <v>463</v>
+        <v>358</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" t="s">
-        <v>464</v>
+        <v>362</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>275</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4034,29 +4031,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B13" sqref="B13"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.61" style="1" customWidth="1"/>
-    <col min="3" max="3" width="109.15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.06" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.06"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4070,137 +4067,137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="64.15">
+    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>465</v>
+        <v>366</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" t="s">
-        <v>466</v>
+        <v>370</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" ht="22.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" t="s">
-        <v>467</v>
+        <v>374</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" ht="64.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>468</v>
+        <v>378</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" t="s">
-        <v>469</v>
+        <v>382</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" ht="95.5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" t="s">
-        <v>470</v>
+        <v>386</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" ht="64.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" t="s">
-        <v>471</v>
+        <v>390</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" ht="53.7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" t="s">
-        <v>472</v>
+        <v>394</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" ht="74.6">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" t="s">
-        <v>473</v>
+        <v>398</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>302</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4208,29 +4205,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B28" sqref="B28"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
-    <col min="4" max="4" width="87.18" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="87.18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4244,370 +4241,370 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="43.25">
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="345.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
-      <c r="A6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B23" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" ht="64.15">
-      <c r="A7" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C23" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" ht="22.35">
-      <c r="A8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D23" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" ht="53.7">
-      <c r="A9" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" ht="43.25">
-      <c r="A10" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B24" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" ht="53.7">
-      <c r="A11" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C24" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" ht="64.15">
-      <c r="A12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" ht="12.8">
-      <c r="A13" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" ht="43.25">
-      <c r="A14" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B25" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
-      <c r="A15" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C25" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" ht="43.25">
-      <c r="A16" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D25" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" ht="32.8">
-      <c r="A17" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B26" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" ht="44.75">
-      <c r="A18" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C26" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" ht="32.8">
-      <c r="A19" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D26" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" ht="56.7">
-      <c r="A20" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" ht="91">
-      <c r="A21" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B27" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22" ht="67.15">
-      <c r="A22" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C27" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="23" ht="13.8">
-      <c r="A23" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D27" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="24" ht="74.6">
-      <c r="A24" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" ht="12.8">
-      <c r="A25" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B28" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" ht="13.8">
-      <c r="A26" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C28" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27" ht="95.5">
-      <c r="A27" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D28" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
-      <c r="A28" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B28" t="s">
-        <v>497</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" ht="12.8">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" ht="12.8">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="32" ht="12.8">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" ht="12.8">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="1"/>
   <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId3"/>
@@ -983,7 +983,7 @@
 音耐性が十分にあれば朦朧を防ぐことができる。
 幻惑耐性が十分にあれば狂気を防ぐことができる。
 杖を祝福するのはいいアイデアだが、祝福されたポーションや巻物よりは若干効果が劣るそうだ。
-濡れている間は炎属性のダメージはほとんど受けない。しかし雷属性のダメージは増加する。
+濡れている間は火炎属性のダメージはほとんど受けない。しかし電撃属性のダメージは増加する。
 短期間に吐きすぎると拒食症になるぞ。病気になったら飲み物で空腹を癒すしかない。
 祝福された能力復活や精神復活のポーションは、肉体や精神強化する。
 強敵には呪われた能力復活や精神復活のポーションを投げつけろ。
@@ -2490,9 +2490,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>290880</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2502,7 +2502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49670280" cy="129600"/>
+          <a:ext cx="49669920" cy="129240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3716,12 +3716,12 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -4214,7 +4214,7 @@
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B28" sqref="B28"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="1"/>
   <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="537">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1239,6 +1239,138 @@
 I hear that a lot of the seediest and creepiest people head to Derphy.</t>
   </si>
   <si>
+    <t xml:space="preserve">foxtown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私たちはたくさんの米を作って、人間に売ってい{る}。
+キズアミ様はこの村の守護神{だ}。
+この村の川は、ラーナの近くの山から流れてくるん{だよ}。
+私たちの祖先は、この丘に棚田を切り開いて稲作を始め{た}。
+村の者は皆、書道にたしなみが{ある}。
+書道に興味があれば、雑貨屋で書道道具を買える{よ}。
+もし田んぼのそばで金色の鬼火を見かけたら、すぐにキヌに知らせて{くれ}。あれは人を迷わせる邪悪な霊な{のだ}。
+この村では大根やネギのような野菜もたくさん育てて{いる}。
+キヌは米を育てるのが本当に上手{だ}。
+キズアミ様を信仰する者だけが、この村の霊的な力を感じ取れる{のだ}。
+ラーナへ向かう旅人は、山道に挑む前にこの村の宿で一休みするん{だよ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We produce far more rice than we need, so we sell the surplus to humans.
+Lord Kizuami is the patron deity of this village.
+The river that flows through this village begins in the mountains, near Larna.
+Our ancestors cut terraces into these foothills to grow rice on.
+It's important that everyone in the village knows how to write in the traditional way.
+If you're interested in calligraphy, the general store sells the tools.
+If you see any golden will-o'-wisps by the rice paddies, tell Kinu immediately. They're evil spirits that will lead you astray.
+This village also plant many vegetables like radishes and leeks.
+Kinu makes rice cultivation look so easy.
+Only those faithful to Lord Kizuami are able to perceive the village's spiritual energy.
+People traveling to Larna will sometimes rest in the village inn before ascending the mountain pass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foxtown_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">村の外に出るのは怖い{よ}。人間たちは平気で耳や尻尾に触れてくるから{ね}。
+ホロメ様はこの村の皆を見守ってくださってい{る}。
+観光客が村の雰囲気を壊しているのが嫌{だな}。
+夜に一人で桜の木のそばにいると、金色の九尾の狐が見えると噂されてい{る}。
+この村の者は幼い頃から剣術を学んで{いる}。
+この村で売っている乳は最高な{のだ}！
+ミフは南から稲を運んできて、ここで酒を仕込む{のだ}。
+桜花酒は女神への良い供物{だ}。
+ミズナさんは本当に豊かな体をして{いる}。大きくて包容力があって最高{だ}！
+ミサキとミズナのおかげで、この村は安全で繁栄して{いる}。
+この村の空気は北地の中でも暖かく穏やか{だ}。神木は冬でも葉を落とさ{ない}。
+桜花酒はこの村の名物{だ}。
+滝の下で瞑想すると、体と心が邪悪から清められ{のだ}。
+ホロメ様を信仰する者だけが、この村の本当の美しさを目にすることができる{のだ}。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's scary to go out of the village. Humans will touch our ears and tails as they please.
+Lady Horome watches over everyone in this village.
+All the tourists are ruining our village's atmosphere.
+It's said that if you're alone by the cherry tree at night, you might see a golden nine-tailed fox.
+Everyone in this village is trained in swordsmanship from young.
+The milk sold in this village is the best!
+The mifu bring rice from the south all the way here to be brewed.
+Cherry blossom sake is a pleasing offering for both our gods.
+Mizuno has a really robust body, doesn't she? That's right... big and robust.
+Between Misaki and Mizuno's hard work, this village is safe and prosperous.
+Despite being this far north, the air in this village is warm and mild. Even the sacred tree doesn't shed its leaves in winter.
+Cherry blossom sake is our village's specialty.
+Meditating beneath the waterfall purifies both the body and mind of evil influences.
+Only those faithful to Lady Horome are able to see the village's true beauty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specwing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここは街道から遠く離れているので、ほとんどの物資は空から届けられる{のだ}。
+スペクウィングには多くの冒険者が集まり、ネフィアに挑む前にパーティーを組んで{いる}。
+スペクウィングは、ノースティリスの荒野に向かう多くの冒険者にとって、最後の補給地点なん{だよ}。
+この周辺には危険なネフィアが多い{よ}。
+大使館から特別な許可がないと探索できないネフィアが近くにあるそう{だ}。
+この村はもともと妖精たちが住み着いた場所{だ}。
+冒険者たちが訪れるようになって、この村も大きくなった{よ}。
+木の上で続く終わりなき宴、それが私たちが冒険者からお金を巻き上げる方法な{のだ}。
+スペクウィングの創設者は青いナスの衣装を着た妖精だったらしい{よ}。
+妖精の魔法のおかげで、この木は人々が住んでいるにもかかわらず元気に育ってい{る}。
+私たちが木を世話し、木も私たちを守ってくれる{のだ}。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're very far from the roads, so most goods arrive by air.
+Many adventurers gather in Specwing to form parties before venturing into nefia.
+Specwing is the last stop for supplies for many adventuring parties before entering the remote wilderness of North Tyris.
+Nefia in the surrounding region are more dangerous than usual.
+I've heard there's one peculior Nefia nearby where you need a special license from the Embassy to explore it.
+This village was originally settled by faries.
+Everything in this village was enlarged when adventurers started to visit.
+The never-ending revelry in the treetops is how we part adventurers from their money.
+It is said Specwing's founder was a fairy who dressed in a blue eggplant costume.
+Fairy magic allows the tree to grow and thrive despite having people living in it.
+We take care of it, and it takes care of us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">village_exile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#raceが何故この村に…？
+#raceが何をしに来た{のだ}？
+結界がこの村をモンスターや好奇心の目から守ってい{る}。
+時々、私たちは外の世界から研究材料を手に入れる必要が{ある}。
+私が大切に思っていた人々はとうに亡くなり、今では外の世界で私を覚えている者など誰もいない{のだ}。
+私たちは神々の禁忌を破り、大いなる父に仕える労働を課せられて{いる}。
+長老ビチェリンは、自分がどれだけの歳月を生きてきたのか、あまり話したがらないよう{だ}。
+もし君が灰のような味のしない食べ物を持ってきてくれるなら、皆が喜ぶ{だろう}。
+この村には食材が不足してい{る}。
+私たちが自然な死を迎えることは{ない}。
+私たちが解放される日は、大いなる父が我々の罪がすべて償われたと判断した時だけ{だ}。
+私たちのもつ知識は、外の世界に広まるには危険すぎるもの{だ}。
+大いなる父は常に私たちを見守って{いる}。
+大いなる父は私たちの償いを監督し、その運命から逃れることはでき{ない}。
+時が経つにつれ、物質的なことに私たちはあまり関心を持たなくなった{のだ}。
+#raceよ、君の前にいるのは千年以上生きた追放者{だ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A #race in this village...?
+What brings a #race to this village? 
+The barrier shields the village from monsters and curious eyes.
+Sometimes, we must acquire research materials from the outside world.
+Anyone I cared for passed ages ago. Now no one in the outside world remembers me...
+For our sins against the gods, we labor in service of our great father.
+Elder Bicerin doesn't talk much about how old he is.
+Everyone is hoping you'll bring food that doesn't taste like ashes.
+Tthis village is lacking in ingredients.
+None of us die natural deaths.
+Our release will only come when our great father deems our sins repaid in full.
+The knowledge we curate is too dangerous to be widespread.
+Our great father's eye is always upon us.
+Our great father oversees our penance, and there is no escape from our fates.
+As time passes, we grow less concerned with our material conditions...
+Yes #race, you're standing in front of an exile who has lived more than 1000 years.</t>
+  </si>
+  <si>
     <t xml:space="preserve">conery</t>
   </si>
   <si>
@@ -1679,6 +1811,227 @@
   </si>
   <si>
     <t xml:space="preserve">Here to spin the prize wheel, huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miko_mifu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私たちは祝福でもあり、呪いでもあります。見方を変えれば、弱さもまた強さに変わるのです。
+命に死がなく、天に地獄がなく、出会いに別れがなく、喜びに悲しみがない世界など、存在しないのです。
+私は祝福の巫女として、毎年この村で封印の儀を導く役目を担っています。
+キズアミ様の祝福はすべての者に与えられます。その力は世界に干渉するものであり、信仰のない者にすら感じることができるでしょう。
+私たちが育てる稲は、豊かな霊力を宿し、封印の儀には欠かせないものです。
+ユフは歪んだ負の神であり、神々の間にある争いをすべて消し去り、理想の平和をイルヴァにもたらそうとしました。
+巫女を引き継ぐと決めた時、私はかつての名を捨て、「キヌ」と名乗りました。いつの日か、私の娘の一人も同じ道を歩むことでしょう。
+永遠の夏はなく、季節は巡り、やがて冬が訪れます。祝福も永遠には続かず、不幸もまた同様です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are both our blessings and curses. By changing our perspectives, we turn our weaknesses into strengths.
+There is no life without death, no heaven without hell, no meeting without parting, no joy without sorrow.
+As Maiden of Blessings, it's my duty to lead the village in the sealing rites every year.
+Lord Kizuami's blessings may be received by all. It is his way to meddle with the world, and even unbelievers may amuse him for a time.
+The rice we grow is blessed with an abundance of spiritual energy and is essential to the sealing rites.
+Yufu was a wicked negentropy god who sought to bring his delusion of peace to Ylva by eliminating all strife between the gods.
+When I rose to the position of shrine maiden, I set aside my old name and am now called "Kinu". Someday, one of my daughters will do the same.
+There is no eternal summer; the seasons turn and winter arrives. Blessings cannot last forever, but neither will misfortune.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miko_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユフは、神々の戦争を操り、イルヴァを支配しようとした邪悪な負の神だった。
+私たちは神樹の広場で儀式の舞を捧げる。
+ホロメ様はすべての命を愛し、信仰のない者にさえ小さな祝福を与えるのよ。
+刃の巫女として、私は毎年、封印の儀式の剣舞を舞うの。
+桜の花びらは女神の涙のように散り、私たちの心に儚さを刻む。
+儀式用の刀剣は、女神への崇拝において重要な役割を果たすのよ。
+ホロメ様は子供を慈しみ、大きな家族を持つ者に祝福を授ける。ネフは決して数の多い種族ではないけど、大家族は大いに尊敬されるの。
+私の刀は代々の巫女から受け継がれてきたものだ。
+刃の巫女はそれぞれ、その刀に新たな伝説を刻むことを目指す。
+私たちの女神は、力と美は相反するものではないと教える。ネフの剣舞はその両方を体現しようとするものだ。
+ネフの村は神樹を守るために築かれた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yufu was a wicked negentropy god who sought to manipulate the divine wars and rule over Ylva unopposed.
+We hold ceremonial dances in the clearing before the sacred tree.
+Lady Horome loves all mortals, and even unbelievers may receive a small blessing.
+As Maiden of Blades, every year I perform a sword dance as part of the sealing rites.
+The cherry blossoms fall like our goddess' tears and touch our hearts with melancholy.
+Ceremonial swords play a central role in the worship rites of our goddess.
+Lady Horome delights in children, and she blesses those who have large families. We Nefu have never been a numerous people, and those who gain her favor this way are greatly respected.
+My katana has been passed down through generations of shrine maidens.
+Each Maiden of Blades seeks to add to its legacy.
+Our goddess teaches that strength and beauty are not at odds; Nefu sword dances seek to exemplify both.
+Nefu Village was founded to guard the sacred tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eureka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冒険者ですか？こんな場所まで来るとは、物好きですね。
+私は主にここの守護を任されています。大変な栄誉ではあるのですが...ときどき退屈ですね。
+イーヴァン様の教えは苛烈とされますが、元は定命者への深い愛情と期待から来るものでもあります。
+機械は嫌いです。血が出ないから。
+模擬戦でもどうですか？最近闘争が足りていなくて。
+ビリーさん、あの棘さえなければ...
+猫は本当にかわいい生き物ですね...
+戦場の硝煙が恋しいです。連れて行ってくれませんか？
+ここの景色は美しいのですが、暮らす分には不便ですね。時折、北にあるミフの里まで遊びに行くのがたまの楽しみです。
+ここに眠る負の神に挑戦するのであれば止めはしませんよ。イーヴァン様も喜びそうですし。
+エーテルは非常に興味深い物質ですね。良くも悪くも、今後の人類の行く末を左右しそうです。
+初対面の狐族をモフモフするのって失礼でしょうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A traveler? What a rare occasion.
+I've been tasked to oversee this location by my god. It's a great honor, but well...can get boring at times.
+Lord Yevan's teachings may be considered drastic, but are rooted in his deep love and high expectations for mortals.
+I hate machinery. It doesn't bleed.
+Interested in sparring? I could use some practice.
+If only Billy didn't have those spikes...
+Cats...such cute animals.
+Ah, I miss the scent of the battlefield. Any chance you could take me to one?
+The scenery here is beautiful, but food is sparse. I like to occasionally stop by Mifu Village north of here for supplies.
+I won't stop you if you'd like to challenge the god sealed here. Lord Yevan would surely enjoy it.
+Ether is an interesting substance. It's sure to change the path of humanity, for better or worse.
+Do you think it's rude to fluffy stroke a random foxfolk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_inn_fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この首飾り？もちろん中身は米よ。私たちの村では小麦は育てていないから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The charm about my neck? Of course it's filled with rice, we don't grow wheat in this village.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_inn_fox2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この宿は元々巡礼者を迎えるために建てられたのですが、最近は観光客も増えてきました。
+いらっしゃいませ！ お食事にしますか？ それともお風呂？ それとも…？
+なぜ急に村が人気になったのかはわかりませんが、忙しいのは悪くないですね！
+観光客たちは、ミサキの警告を無視して聖樹に近づきすぎるので困ります。まったく、敬意が足りませんね。
+私たちだけなら自給自足もできるのですが、ミフ村から食料を送ってもらわなければ、観光客たちをまかないきれません。
+どうして人間は、私たちの耳や尻尾にあんなに興味を持つのでしょう？
+ミサキは神殿を守り、私は宿を切り盛りしています。これじゃあ、長老がすることはあまり残っていませんね！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This inn was originally built to house pilgrims, but the village has had many tourists of late.
+Welcome! Would you like a meal, a bath, or perhaps...?
+I don't know how the village suddenly became popular, but I'm more than happy to be this busy!
+The tourists keep on getting too close to the sacred tree despite Misaki's warnings. They simply have no respect!
+We can sustain ourselves, but I wouldn't be able to deal with all these tourists if Mifu Village wasn't sending us food from the south.
+Why are humans so fascinated by our ears and tails?
+Misaki minds the temple, while I run the inn. Between us, there's not much left for the elder to do!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なぜ私が作られたのか知ってる？ いいえ？ だと思った。
+ 家みたいな場所を夢に見るけど、どうやってそこへ戻ればいいか思い出せない。
+目が覚めたらこの武器を持っていた。なんて重いの。刺す？撃つ？両方やっちゃえ。
+「はーい！ みんなのアイドル、機械人形キリアちゃんキリ～！」…私にアイドルモジュールなんてあった？ いつ録音したんだっけ？
+機械のマニは虚無を聞ける者に囁くって聞いた。あの人なら、私がなぜ作られたか知っているかも。
+*zzt* また壊れた記憶…何をしにここへ来たんだっけ？
+*beep* ただいま定期メンテナンス中です。もう少しお待ちください。
+私が小さなゴーレムだって？ 馬鹿な。
+バグ？ グリッチ？ それは機能だよ。
+*じっと見つめる* ちっ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know why I was made? No? Didn’t think so.
+I keep dreaming of a place that looks like home, but I can't remember how to get there.
+I woke up with this weapon. So cumbersome. Should I stab, or shoot?  I'll just do both.
+"Hai! It's everyone's idol, Machine Doll Kiria-chan, kiri～" ... Do I have an idol module? When did I record this?
+I heard Mani of Machine whispers to those who can hear the void. Maybe he knows why I was made.
+*zzt* Another corrupt memory... what was I doing here again?
+*beep* We are performing scheduled maintenance and will be back online shortly.
+Some people think I'm a tiny golem? Nonsense.
+Bugs? Glitches? Those are features.
+*stares* tch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_gaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空色のチューリップ？ 色々旅してきたけど見たことないよ。
+新しい奇妙な病気が流行ってるらしい……ツノでも生えないかな～。
+怒らせると変な呪いをかけてくる神がいるから気を付けようね。
+カジノのディーラーは絶対｢やってる｣……！ 
+卵の卵♪ 切り身の切り身♪ 切り身の卵♪
+上には上がいる。ざこよりざこもいる。#brother2はどっちかなぁ～？
+もう1本ツノ……いや刀を持ってたんだけど旅の途中で失くしちゃってねぇ。
+美味しいもの食べてる時がしゃーわせ♪
+牙姫ちゃん来たよ。もてなしてねすぐでいいよ。
+可愛くて強いのが牙姫ちゃんってワケ☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A phantom azure tulip? I’ve traveled far and wide, but I’ve never seen one.
+There’s some new weird disease going around... I wonder if it’ll make me grow horns~
+There’s a god who curses people with weird spells when they get mad, so be careful.
+I’m telling you, the casino dealers are definitely cheating...! 
+Egg of an egg♪ Slice of a slice♪ Slice of an egg♪
+There’s always someone better. And someone worse than the worst. Which one are you, #brother2?
+I used to have another horn... no, another sword, but I lost it along the way.
+Eating something delicious is pure bliss♪
+Fang Princess is here. Treat her well, and quickly.
+Cute and strong, that’s what makes me Fang Princess☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_mesherada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魂が再び絡み合い、私たちが約束を果たすその時を待っている…そうではないか？ 
+もしそなたが私の探し人なら…きっと運命が二人に囁くだろう。
+そなたには、時の彼方に失われたと思っていた安らぎを感じる。
+そなたの魂は懐かしい…まるで言葉が生まれるよりも前に、出会っていたかのようだ。
+この瞬間が永遠に続けばよいのに…そなたの温もりをもう少し感じていたい。
+そなたはただの優しい見知らぬ人なのか…それとも時を越えて追いかけてきた面影か…
+目の前に立つそなたの名前を、私はまだ呼ぶことができない。
+不思議だ…そなたの傍にいると、なぜか一番安らぐ。
+そなたも感じているか…？ 二人を繋ぐ糸が張り詰めているのを？
+いくつもの道を歩んでも…その先には必ずそなたがいるのだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder... are our souls once more intertwined, waiting for the moment when we shall fulfill our promise?
+If thou art the one I seek... surely fate shall whisper it to us both.
+There is something in thy presence—a peace I thought lost to time.
+Thy soul feels familiar, as though we met long before names were spoken.
+Would that this moment could linger, if only to feel thy warmth a while more.
+Art thou merely a kind stranger... or the echo I have chased through time?
+Thou standest before me, and yet I dare not name thee.
+Strange... I feel safest when thou art near.
+Dost thou feel it too? A thread pulled taut between us.
+So many paths... yet I always find thee at the end of mine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olderyoungersister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私がいつ生まれたのか気になるの#brother2？遠い遠い遥か昔の事だよ#brother2…
+ずっと#brother2を求めてこの世界を彷徨っていたの…そしたらいたのよ#brother2が！
+#brother2ずっと…一緒だよね…？ちょっと不安になっただけだよ#brother2。
+#brother2の為に戦いも家事もあらゆることはできるようになっておきたいの。
+神様は時に残酷だよね#brother2…
+私は#brother2のこと束縛しないよっ！本当だよっ！
+私の囀りには混沌の力が宿るみたい。
+私以外にもこの世界には#brother2の血の繋がらない妹達がいるんだって！
+雪プチちゃんをもふもふしたい！もふりたいよ#brother2！
+雪プチちゃんには色の違う子たちがいるんだよ#brother2。みんなお迎えできると嬉しいね#brother2。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder when I was born, #brother2? It was a long, long time ago, #brother2...
+I’ve been wandering this world all this time, searching for you, #brother2... and then I found you!
+We’ll be together forever, right, #brother2...? I just got a little scared, that’s all, #brother2.
+I want to be able to do everything for you, #brother2 – fighting, housework, everything.
+God can be so cruel sometimes, #brother2...
+I won’t ever tie you down, #brother2! I promise!
+It seems like there’s a power of chaos in my song.
+I heard there are other sisters in this world who aren’t blood-related to you, #brother2!
+I want to snuggle with snow putit-chan! I really do, #brother2!
+There are snow putit-chans with different colors, #brother2. It would be so nice if we could welcome them all, #brother2.</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -2358,7 +2711,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -2391,6 +2744,10 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
@@ -2404,6 +2761,10 @@
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
@@ -2490,9 +2851,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>288000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2502,7 +2863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49669920" cy="129240"/>
+          <a:ext cx="49667400" cy="126720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2680,7 +3041,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2694,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2708,7 +3069,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -2722,7 +3083,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -2736,7 +3097,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -2750,7 +3111,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -2764,7 +3125,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -2778,7 +3139,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -2792,7 +3153,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -2806,7 +3167,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2820,7 +3181,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -2834,7 +3195,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -2848,7 +3209,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -2862,7 +3223,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -2876,7 +3237,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -2890,7 +3251,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -2904,7 +3265,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -2918,7 +3279,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -2932,7 +3293,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -2946,7 +3307,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
@@ -2960,7 +3321,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -2974,7 +3335,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -2988,7 +3349,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -3002,7 +3363,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -3016,7 +3377,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>77</v>
@@ -3030,7 +3391,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -3044,7 +3405,7 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>83</v>
@@ -3058,7 +3419,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>77</v>
@@ -3072,7 +3433,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>80</v>
@@ -3086,7 +3447,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>88</v>
@@ -3100,7 +3461,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>91</v>
@@ -3114,7 +3475,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -3128,7 +3489,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -3142,7 +3503,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>100</v>
@@ -3156,7 +3517,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>103</v>
@@ -3170,7 +3531,7 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>106</v>
@@ -3184,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
@@ -3198,7 +3559,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>112</v>
@@ -3212,7 +3573,7 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>115</v>
@@ -3226,7 +3587,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>118</v>
@@ -3240,7 +3601,7 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>121</v>
@@ -3254,7 +3615,7 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
@@ -3268,7 +3629,7 @@
         <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>127</v>
@@ -3282,7 +3643,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>130</v>
@@ -3296,7 +3657,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>133</v>
@@ -3310,7 +3671,7 @@
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>136</v>
@@ -3324,7 +3685,7 @@
         <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>139</v>
@@ -3338,7 +3699,7 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -3352,7 +3713,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>145</v>
@@ -3366,7 +3727,7 @@
         <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>148</v>
@@ -3380,7 +3741,7 @@
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
@@ -3394,7 +3755,7 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>154</v>
@@ -3408,7 +3769,7 @@
         <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>157</v>
@@ -3422,7 +3783,7 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>160</v>
@@ -3436,7 +3797,7 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>163</v>
@@ -3450,7 +3811,7 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>166</v>
@@ -3464,7 +3825,7 @@
         <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>169</v>
@@ -3478,7 +3839,7 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
@@ -3492,7 +3853,7 @@
         <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>175</v>
@@ -3506,7 +3867,7 @@
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
@@ -3520,7 +3881,7 @@
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
@@ -3534,7 +3895,7 @@
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>184</v>
@@ -3548,7 +3909,7 @@
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>187</v>
@@ -3562,7 +3923,7 @@
         <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>190</v>
@@ -3576,7 +3937,7 @@
         <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>193</v>
@@ -3590,7 +3951,7 @@
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>196</v>
@@ -3604,7 +3965,7 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>199</v>
@@ -3618,7 +3979,7 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>202</v>
@@ -3632,7 +3993,7 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>205</v>
@@ -3646,7 +4007,7 @@
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>208</v>
@@ -3660,7 +4021,7 @@
         <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>211</v>
@@ -3674,7 +4035,7 @@
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>214</v>
@@ -3688,7 +4049,7 @@
         <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>217</v>
@@ -3716,11 +4077,11 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3760,7 +4121,7 @@
         <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>220</v>
@@ -3774,7 +4135,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>223</v>
@@ -3788,7 +4149,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>226</v>
@@ -3802,7 +4163,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>229</v>
@@ -3816,7 +4177,7 @@
         <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>232</v>
@@ -3830,7 +4191,7 @@
         <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>235</v>
@@ -3844,7 +4205,7 @@
         <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>238</v>
@@ -3858,7 +4219,7 @@
         <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>241</v>
@@ -3872,7 +4233,7 @@
         <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>244</v>
@@ -3886,7 +4247,7 @@
         <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>247</v>
@@ -3900,7 +4261,7 @@
         <v>249</v>
       </c>
       <c r="B15" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>250</v>
@@ -3914,7 +4275,7 @@
         <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>253</v>
@@ -3928,7 +4289,7 @@
         <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>256</v>
@@ -3942,7 +4303,7 @@
         <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>259</v>
@@ -3956,7 +4317,7 @@
         <v>261</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>262</v>
@@ -3971,7 +4332,7 @@
         <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>265</v>
@@ -3985,7 +4346,7 @@
         <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>268</v>
@@ -3999,7 +4360,7 @@
         <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>271</v>
@@ -4013,7 +4374,7 @@
         <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>274</v>
@@ -4038,14 +4399,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B13" sqref="B13"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -4075,7 +4436,7 @@
         <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>277</v>
@@ -4089,7 +4450,7 @@
         <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>280</v>
@@ -4103,7 +4464,7 @@
         <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>283</v>
@@ -4117,7 +4478,7 @@
         <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>286</v>
@@ -4131,7 +4492,7 @@
         <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>289</v>
@@ -4145,7 +4506,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>292</v>
@@ -4159,7 +4520,7 @@
         <v>294</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>295</v>
@@ -4173,7 +4534,7 @@
         <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>298</v>
@@ -4187,13 +4548,61 @@
         <v>300</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="14" ht="116.4">
+      <c r="A14" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" ht="147.75">
+      <c r="A15" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" ht="116.4">
+      <c r="A16" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" ht="168.65">
+      <c r="A17" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4212,14 +4621,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B28" sqref="B28"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -4227,7 +4636,7 @@
     <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
     <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
-    <col min="4" max="4" width="87.18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="100.58" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8">
@@ -4255,353 +4664,443 @@
     </row>
     <row r="5" ht="43.25">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" ht="64.15">
       <c r="A7" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" ht="22.35">
       <c r="A8" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="53.7">
       <c r="A9" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" ht="43.25">
       <c r="A10" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" ht="53.7">
       <c r="A11" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" ht="64.15">
       <c r="A12" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" ht="12.8">
       <c r="A13" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" ht="43.25">
       <c r="A14" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" ht="32.8">
       <c r="A15" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" ht="43.25">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" ht="32.8">
       <c r="A17" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" ht="44.75">
       <c r="A18" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" ht="32.8">
       <c r="A19" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" ht="56.7">
       <c r="A20" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B20" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" ht="91">
       <c r="A21" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>353</v>
+        <v>364</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="22" ht="67.15">
       <c r="A22" s="1" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B22" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" ht="13.8">
       <c r="A23" s="1" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B23" t="s">
-        <v>492</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>358</v>
+        <v>531</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" ht="74.6">
       <c r="A24" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" ht="12.8">
-      <c r="A25" s="9" t="s">
-        <v>363</v>
+      <c r="A25" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="B25" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="26" ht="13.8">
-      <c r="A26" s="9" t="s">
-        <v>365</v>
+      <c r="A26" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="B26" t="s">
-        <v>495</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>366</v>
+        <v>534</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" ht="95.5">
-      <c r="A27" s="9" t="s">
-        <v>368</v>
+      <c r="A27" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="B27" t="s">
-        <v>496</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>369</v>
+        <v>535</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" ht="12.8">
       <c r="A28" s="1" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B28" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" ht="12.8">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" ht="12.8">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="32" ht="12.8">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" ht="12.8">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" ht="147.75">
+      <c r="A29" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" ht="147.75">
+      <c r="A30" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" ht="147.75">
+      <c r="A31" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" ht="22.35">
+      <c r="A32" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" ht="95.5">
+      <c r="A33" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" ht="116.4">
+      <c r="A34" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" ht="105.95">
+      <c r="A35" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" ht="105.95">
+      <c r="A36" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" ht="116.4">
+      <c r="A37" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>412</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" r:id="rId6"/>
+    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="549">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">food1</t>
   </si>
   <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">food2</t>
   </si>
   <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t xml:space="preserve">healer1</t>
   </si>
   <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t xml:space="preserve">healer2</t>
   </si>
   <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t xml:space="preserve">appraise1</t>
   </si>
   <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t xml:space="preserve">appraise2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t xml:space="preserve">appraise3</t>
   </si>
   <si>
+    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t xml:space="preserve">expand1</t>
   </si>
   <si>
+    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t xml:space="preserve">expand2</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t xml:space="preserve">expand3</t>
   </si>
   <si>
+    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">拡張できないよう{だ}。</t>
   </si>
   <si>
@@ -128,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">extraTax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
   </si>
   <si>
     <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
@@ -140,6 +173,9 @@
     <t xml:space="preserve">extraTax2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
   </si>
   <si>
@@ -149,6 +185,9 @@
     <t xml:space="preserve">banker1</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
   </si>
   <si>
@@ -158,6 +197,9 @@
     <t xml:space="preserve">banker2</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
   </si>
   <si>
@@ -167,6 +209,9 @@
     <t xml:space="preserve">banker3</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
   </si>
   <si>
@@ -176,6 +221,9 @@
     <t xml:space="preserve">banker4</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
   </si>
   <si>
@@ -185,6 +233,9 @@
     <t xml:space="preserve">noDrawingRoom</t>
   </si>
   <si>
+    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
   </si>
   <si>
@@ -194,6 +245,9 @@
     <t xml:space="preserve">nomoney</t>
   </si>
   <si>
+    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
   </si>
   <si>
@@ -203,6 +257,9 @@
     <t xml:space="preserve">alreadyFull</t>
   </si>
   <si>
+    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
   </si>
   <si>
@@ -212,6 +269,9 @@
     <t xml:space="preserve">questAccept</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
   </si>
   <si>
@@ -221,6 +281,9 @@
     <t xml:space="preserve">questFull</t>
   </si>
   <si>
+    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
   </si>
   <si>
@@ -230,6 +293,9 @@
     <t xml:space="preserve">questInProgress</t>
   </si>
   <si>
+    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
   </si>
   <si>
@@ -239,6 +305,9 @@
     <t xml:space="preserve">questComplete</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -248,6 +317,9 @@
     <t xml:space="preserve">bird1</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
   </si>
   <si>
@@ -255,6 +327,10 @@
   </si>
   <si>
     <t xml:space="preserve">bird2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{간다}!
+우후후.</t>
   </si>
   <si>
     <t xml:space="preserve">いく{よ}！
@@ -268,6 +344,9 @@
     <t xml:space="preserve">bird3</t>
   </si>
   <si>
+    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
   </si>
   <si>
@@ -277,6 +356,9 @@
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
+    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
   </si>
   <si>
@@ -292,6 +374,9 @@
     <t xml:space="preserve">lockpick_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
   </si>
   <si>
@@ -301,6 +386,9 @@
     <t xml:space="preserve">invite</t>
   </si>
   <si>
+    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
   </si>
   <si>
@@ -310,6 +398,9 @@
     <t xml:space="preserve">invite2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
   </si>
   <si>
@@ -319,6 +410,9 @@
     <t xml:space="preserve">invite3</t>
   </si>
   <si>
+    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
+  </si>
+  <si>
     <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
   </si>
   <si>
@@ -328,6 +422,9 @@
     <t xml:space="preserve">talk_hobby</t>
   </si>
   <si>
+    <t xml:space="preserve">취미는 #1 정도{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">趣味は#1{だ}。</t>
   </si>
   <si>
@@ -337,6 +434,9 @@
     <t xml:space="preserve">talk_fav</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
   </si>
   <si>
@@ -346,6 +446,9 @@
     <t xml:space="preserve">slave_buy</t>
   </si>
   <si>
+    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
   </si>
   <si>
@@ -355,6 +458,9 @@
     <t xml:space="preserve">slave_buy2</t>
   </si>
   <si>
+    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
   </si>
   <si>
@@ -364,6 +470,9 @@
     <t xml:space="preserve">goto</t>
   </si>
   <si>
+    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
   </si>
   <si>
@@ -373,6 +482,9 @@
     <t xml:space="preserve">goto2</t>
   </si>
   <si>
+    <t xml:space="preserve">놀리는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">からかっているの{か}？</t>
   </si>
   <si>
@@ -382,6 +494,9 @@
     <t xml:space="preserve">upgrade_heath1</t>
   </si>
   <si>
+    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
+  </si>
+  <si>
     <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
   </si>
   <si>
@@ -391,6 +506,9 @@
     <t xml:space="preserve">upgrade_heath2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
   </si>
   <si>
@@ -400,6 +518,9 @@
     <t xml:space="preserve">invest1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
   </si>
   <si>
@@ -409,6 +530,9 @@
     <t xml:space="preserve">invest2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
   </si>
   <si>
@@ -418,6 +542,9 @@
     <t xml:space="preserve">invest_shop1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
   </si>
   <si>
@@ -427,6 +554,9 @@
     <t xml:space="preserve">invest_shop2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
   </si>
   <si>
@@ -436,6 +566,9 @@
     <t xml:space="preserve">questCompleteDeliver</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -445,6 +578,9 @@
     <t xml:space="preserve">questCompleteDeliverExtra</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
@@ -454,6 +590,9 @@
     <t xml:space="preserve">miral_medal</t>
   </si>
   <si>
+    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
   </si>
   <si>
@@ -463,6 +602,9 @@
     <t xml:space="preserve">miral_medal2</t>
   </si>
   <si>
+    <t xml:space="preserve">흥!</t>
+  </si>
+  <si>
     <t xml:space="preserve">ふん！</t>
   </si>
   <si>
@@ -472,6 +614,9 @@
     <t xml:space="preserve">shop_criminal</t>
   </si>
   <si>
+    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
@@ -481,6 +626,9 @@
     <t xml:space="preserve">guide</t>
   </si>
   <si>
+    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">どこに行きたい{のだ}？</t>
   </si>
   <si>
@@ -490,6 +638,9 @@
     <t xml:space="preserve">shutup</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはしゅんとなった…)</t>
   </si>
   <si>
@@ -499,6 +650,9 @@
     <t xml:space="preserve">shutup2</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはあなたに抱きついた)</t>
   </si>
   <si>
@@ -508,6 +662,9 @@
     <t xml:space="preserve">insult</t>
   </si>
   <si>
+    <t xml:space="preserve">답도 없는 변태{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうしようもない変態{だな}。</t>
   </si>
   <si>
@@ -517,6 +674,9 @@
     <t xml:space="preserve">insult2</t>
   </si>
   <si>
+    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
   </si>
   <si>
@@ -526,6 +686,9 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはこくんと肯いた)</t>
   </si>
   <si>
@@ -535,6 +698,9 @@
     <t xml:space="preserve">refuse</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはやんわりと断った)</t>
   </si>
   <si>
@@ -544,6 +710,9 @@
     <t xml:space="preserve">deliver_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
   </si>
   <si>
@@ -553,6 +722,9 @@
     <t xml:space="preserve">news1</t>
   </si>
   <si>
+    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
@@ -562,6 +734,9 @@
     <t xml:space="preserve">news2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
   </si>
   <si>
@@ -569,6 +744,11 @@
   </si>
   <si>
     <t xml:space="preserve">bout1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
+진심{이야}?
+지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">力試しをしたいの{か}？
@@ -584,6 +764,11 @@
     <t xml:space="preserve">bout2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
+그렇게 나와{야지}!
+{좋아}, {YOU}의 힘을 보여{줘}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
@@ -597,6 +782,9 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
+    <t xml:space="preserve">{뭐야}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">なん{だ}？</t>
   </si>
   <si>
@@ -606,6 +794,9 @@
     <t xml:space="preserve">becomeMaid</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
   </si>
   <si>
@@ -615,6 +806,9 @@
     <t xml:space="preserve">sellFame1</t>
   </si>
   <si>
+    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
@@ -624,6 +818,9 @@
     <t xml:space="preserve">sellFame2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
   </si>
   <si>
@@ -633,6 +830,9 @@
     <t xml:space="preserve">blessing</t>
   </si>
   <si>
+    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
   </si>
   <si>
@@ -642,6 +842,9 @@
     <t xml:space="preserve">lockTooHard</t>
   </si>
   <si>
+    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
   </si>
   <si>
@@ -651,6 +854,9 @@
     <t xml:space="preserve">loytel_bill_give1</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
   </si>
   <si>
@@ -660,6 +866,9 @@
     <t xml:space="preserve">loytel_bill_give2</t>
   </si>
   <si>
+    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
   </si>
   <si>
@@ -669,6 +878,9 @@
     <t xml:space="preserve">loytel_bill_give_given</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
   </si>
   <si>
@@ -678,6 +890,9 @@
     <t xml:space="preserve">loytel_bill_give_wait</t>
   </si>
   <si>
+    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
@@ -687,6 +902,9 @@
     <t xml:space="preserve">loytel_bill_give_lost</t>
   </si>
   <si>
+    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
   </si>
   <si>
@@ -694,6 +912,15 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가{하다}.
+응? 뭔가 볼일이라도 있{는가}?
+가끔씩은 호화스러운 식사를 하고 {싶다}.
+영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
+눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
+고양이는 왜 이렇게 귀여운 {걸까}.
+#aka? …누굴 말하는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">暇{だ}。
@@ -717,6 +944,12 @@
     <t xml:space="preserve">interest_economy</t>
   </si>
   <si>
+    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
+하여간 이 세상에선 돈이 중요{해}.
+어디 돈 좀 떨어져 있으면 좋을 {텐데}.
+플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
@@ -732,6 +965,12 @@
     <t xml:space="preserve">interest_science</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
+에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
+에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
+신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
@@ -747,6 +986,12 @@
     <t xml:space="preserve">interest_travel</t>
   </si>
   <si>
+    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
+루미에스트는 예술의 거리로 유명{해}.
+노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
+여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
@@ -762,6 +1007,12 @@
     <t xml:space="preserve">interest_world</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
+에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
+신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
+아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
@@ -775,6 +1026,15 @@
   </si>
   <si>
     <t xml:space="preserve">interest_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
+신이 없다면 이 세계는 의미가 없{어}.
+치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
+가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
+쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
+행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
+기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">信仰こそ何よりも大事{だ}。
@@ -798,6 +1058,12 @@
     <t xml:space="preserve">interest_human</t>
   </si>
   <si>
+    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
+이제부터는 인간의 시대{다}!
+{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
+엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
@@ -813,6 +1079,12 @@
     <t xml:space="preserve">interest_elea</t>
   </si>
   <si>
+    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
+예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
+숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
+어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
@@ -826,6 +1098,17 @@
   </si>
   <si>
     <t xml:space="preserve">shopkeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
+물건 보는 눈은 자신 있{어}.
+가게 경영은 꽤 어렵{네}.
+건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
+다른 가게에서는 발밑이 안 보이게 조심{해라}.
+만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
+자, {내가} 자신있게 고른 상품들을 둘러{봐}.
+요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
+무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
   </si>
   <si>
     <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
@@ -853,6 +1136,10 @@
     <t xml:space="preserve">guard</t>
   </si>
   <si>
+    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
+수상한 사람을 보면 알려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。</t>
   </si>
@@ -862,6 +1149,11 @@
   </si>
   <si>
     <t xml:space="preserve">banker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
+돈으로 살 수 없는 것들도 있{지}.
+본 지점에 어서 {와}!</t>
   </si>
   <si>
     <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
@@ -877,6 +1169,9 @@
     <t xml:space="preserve">bitch</t>
   </si>
   <si>
+    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
   </si>
   <si>
@@ -884,6 +1179,10 @@
   </si>
   <si>
     <t xml:space="preserve">slaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님도 이쪽 사람이{네}.
+히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
   </si>
   <si>
     <t xml:space="preserve">お客さんも悪い人間{だな}。
@@ -897,6 +1196,10 @@
     <t xml:space="preserve">bored</t>
   </si>
   <si>
+    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
+(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
@@ -906,6 +1209,27 @@
   </si>
   <si>
     <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
+록 스로어가 던지는 바위를 무시하면 안 {돼}.
+꿈속에서 {내가} 믿는 신을 만났{어}!
+귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
+파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
+도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
+저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
+바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
+이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
+세금을 안 내면 나중에 골치 아파{져}.
+정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
+태양의 빛을 내는 신비한 램프가 있다{더라}.
+월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
+그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
+허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
+수영을 연습{해라}. 내구력이 단련된다{고}!
+미식가들은 독버섯도 구별할 수 있다{더라}.
+자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
+의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
   </si>
   <si>
     <r>
@@ -941,7 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
@@ -972,6 +1296,23 @@
     <t xml:space="preserve">fortune</t>
   </si>
   <si>
+    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
+소재 망치를 평범한 물건에 막 쓰지 마라!
+영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
+질 좋은 침대에서 자면 수면 효과가 좋아진다.
+몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
+독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
+큐브는 상태이상이 걸려 있다면 분열하지 못한다.
+아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
+소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
+환혹 내성이 충분하다면 광기 상태가 되지 않는다.
+지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
+젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
+단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
+강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
+수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
@@ -1009,6 +1350,31 @@
   </si>
   <si>
     <t xml:space="preserve">fortune_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
+지팡이는 땅에 한동안 놔 두면 충전된다!
+소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
+보석은 플래티넘 코인으로 교환할 수 있다.
+보물 지도는 항상 축복해서 읽어라.
+냐…아…아아…
+무엇을 바라는가?
+채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
+신을 펫으로 만드는 방법도 있다고 한다.
+문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
+일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
+뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
+아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
+당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
+고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
+경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
+여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
+달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
+카르마가 높으면 세금이 감면된다.
+몬스터의 똥은 무거울수록 비싸게 팔린다.
+저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
+헤르메스의 피는 *반드시* 축복해서 마셔라!
+귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
   </si>
   <si>
     <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
@@ -1064,6 +1430,11 @@
     <t xml:space="preserve">mayor</t>
   </si>
   <si>
+    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
+용무가 있{는가}? {나는} 바쁜 몸{이다}.
+마을에 투자하겠다면 언제든 환영{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
@@ -1077,6 +1448,10 @@
     <t xml:space="preserve">secretary</t>
   </si>
   <si>
+    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
+제가 도움이 되어 드릴 일이 있나요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
@@ -1086,6 +1461,13 @@
   </si>
   <si>
     <t xml:space="preserve">mysilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
+십년전쟁으로 이 나라는 큰 타격을 입었{어}.
+죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
+십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
+미실리아는 앞으로 어떻게 되는 걸{까}.</t>
   </si>
   <si>
     <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
@@ -1105,6 +1487,13 @@
     <t xml:space="preserve">olvina</t>
   </si>
   <si>
+    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
+시오루시아는 정말로 학구열이 대단해서 감동했{어}.
+올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
+패리스한테 실컷 매도당하고 {싶다}.
+오르비나는 미실리아 최고의 관광지{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
@@ -1122,6 +1511,10 @@
     <t xml:space="preserve">lothria</t>
   </si>
   <si>
+    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
+지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
@@ -1131,6 +1524,13 @@
   </si>
   <si>
     <t xml:space="preserve">derphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}.
+그 길에 관심 있으면 도적 길드로 가 {봐}.
+이 세상은 노예가 필요{해}.
+아레나에서 피 튀기는 걸 보는 게 {좋아}.
+이 마을에는 경비병이 없{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">無法者の街、ダルフィへようこそ。
@@ -1148,6 +1548,12 @@
   </si>
   <si>
     <t xml:space="preserve">palmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
+팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
+쟈비님과 스타샤님은 정말로 사이가 {좋아}.
+팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
   </si>
   <si>
     <t xml:space="preserve">パルミア国の王都へようこそ。
@@ -1165,6 +1571,14 @@
   </si>
   <si>
     <t xml:space="preserve">yowyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
+말이라면 여기서 사가는 게 {좋아}.
+수확기에는 항상 일손이 모자라{지}.
+아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
+서쪽에 무법자들의 마을이 있다{더라}.
+마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
@@ -1188,6 +1602,14 @@
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
+    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
+어딘가에 온천으로 유명한 마을이 있다{더라}.
+이 마을은 어디서든지 낚시를 할 수 있{어}.
+그림 얘기로는 하루종일 떠들 수 있{어}.
+마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
+하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
@@ -1207,6 +1629,13 @@
     <t xml:space="preserve">noyel</t>
   </si>
   <si>
+    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
+매일매일 눈 치우는 게 큰일{이다}.
+죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
+추워!
+여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
@@ -1222,6 +1651,13 @@
   </si>
   <si>
     <t xml:space="preserve">kapul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바닷바람 향기가 좋{네}.
+펫 아레나에서 경기 보는 게 취미{다}.
+더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
+이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
+피라미드에는 어떻게 들어가는 걸{까}?</t>
   </si>
   <si>
     <t xml:space="preserve">潮風が香る{な}。
@@ -1240,6 +1676,19 @@
   </si>
   <si>
     <t xml:space="preserve">foxtown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{우리}는 쌀을 많이 만들어서 인간들에게 팔고 있{어}.
+키즈아미님이 이 마을의 수호신{이다}.
+이 마을의 강은 라나 근처 산에서부터 흐르는 {거야}.
+{우리} 선조는 이 언덕을 깎아 논밭을 만들고 벼농사를 짓기 시작하셨{어}.
+이 마을 사람들은 모두 서예에 조예가 있{어}.
+서예에 관심 있으면, 잡화상에서 서예도구를 사 {봐}.
+혹시 밭 근처에서 금색 도깨비불을 보면, 바로 키누한테 알려 {줘}. 그건 사람을 홀리는 사악한 령이니{까}.
+이 마을에선 무나 대파 같은 야채도 많이 기르고 있{어}.
+키누는 쌀 농사에 재능이 있는 것 {같다}.
+키즈아미님을 믿는 사람만이 이 마을의 영적인 힘을 알아챌 수 있{어}.
+라나로 가는 여행자들이 산길을 오르기 전에 이 마을의 여관에서 잠시 쉬고 가곤 {해}.</t>
   </si>
   <si>
     <t xml:space="preserve">私たちはたくさんの米を作って、人間に売ってい{る}。
@@ -1269,6 +1718,22 @@
   </si>
   <si>
     <t xml:space="preserve">foxtown_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마을 밖으로 나가는 건 {무서워}. 인간들은 아무렇지도 않게 귀랑 꼬리를 만지려 드니{까}.
+호로메님이 이 마을의 모두를 지켜보고 있{어}.
+관광객들이 마을의 분위기를 깨뜨리는 게 싫{어}.
+밤에 혼자 벚나무 근처에 있으면, 황금빛 구미호가 보인다는 소문이 있{어}.
+이 마을 사람들은 어렸을 때부터 검술을 배우고 있{어}.
+이 마을에서 파는 밀크는 최고{다}!
+미후는 남쪽에서 쌀을 가져와서, 여기서 술을 담그곤 {해}.
+앵화주는 여신께 바치는 좋은 공물{이다}.
+미즈나 씨는 정말 쭉쭉빵빵{해}. 그 크기가 주는 포용력이 정말 최고{다}!
+미사키와 미즈나 덕분에 이 마을은 안전하게 경영되고 있{어}.
+이 마을의 공기는 북쪽 땅에서도 따듯하고 평온{하다}. 신목은 겨울에도 잎이 지지 {않아}.
+앵화주는 이 마을의 명물{이다}.
+폭포 아래에서 명상을 하면 몸과 마음에서 사악한 것이 씻겨져 나간다{더라}.
+호로메님을 믿는 사람만이 이 마을의 진짜 아름다움을 알아볼 수 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">村の外に出るのは怖い{よ}。人間たちは平気で耳や尻尾に触れてくるから{ね}。
@@ -1306,6 +1771,19 @@
     <t xml:space="preserve">specwing</t>
   </si>
   <si>
+    <t xml:space="preserve">여기는 가도에서 멀리 떨어진 곳이라, 대부분의 물건들은 하늘길을 통해 받고 있{어}.
+스펙윙에는 수많은 모험가들이 모이고, 네피아에 도전하기 전에 파티를 짜고 있{어}.
+스펙윙은 노스티리스의 황야로 향하는 수많은 모험가들의 최후의 보급지점{이다}.
+이 주변에는 위험한 네피아가 많이 있{어}.
+대사관에서 특별한 허가를 받지 못하면 탐사를 할 수 없는 네피아가 근처에 있다{더라}.
+이 마을은 원래 요정들이 살던 곳{이다}.
+모험가들이 찾아오는 덕분에 이 마을도 꽤 커졌{어}.
+나무 위에서 벌어지는 끝없는 연회, 그게 {우리}가 모험가들에게서 돈을 얻어내는 방법{이다}.
+스펙윙을 세운 건 파란 가지 의상을 입은 요정이라{더라}.
+요정의 마법 덕에, 이 나무는 사람들이 살 수 있는데다 건강하게 자라고 있{어}.
+{우리}는 나무를 돌보고, 나무는 {우리}를 지켜주는 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ここは街道から遠く離れているので、ほとんどの物資は空から届けられる{のだ}。
 スペクウィングには多くの冒険者が集まり、ネフィアに挑む前にパーティーを組んで{いる}。
 スペクウィングは、ノースティリスの荒野に向かう多くの冒険者にとって、最後の補給地点なん{だよ}。
@@ -1333,6 +1811,42 @@
   </si>
   <si>
     <t xml:space="preserve">village_exile</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">#race</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">? 어째서 이 마을에…?
+#race 같은 종족이 뭘 하러 온 {거냐}?
+결계가 이 마을을 몬스터들과 호기심에 찬 눈으로부터 지켜주고 있{어}.
+{우리}는 종종 바깥 세계에서 연구 소재를 구해와야 {해}.
+{내가} 소중하게 여기던 사람들은 이미 죽었고, 이제 바깥 세상에 {나를} 기억하고 있는 사람은 아무도 없{어}.
+{우리}는 신들의 금기를 깨, 위대한 아버지를 섬기는 노동을 하게 됐{어}.
+장로 비체린은 자기가 얼마나 오랜 세월을 살아왔는지 이야기를 잘 안 {해}.
+만약 {네가} 잿더미 말고 다른 맛이 나는 먹을거리를 갖고 있다면, 모두가 기뻐할 {거야}.
+이 마을은 먹을거리가 부족{해}.
+{우리}가 자연스럽게 죽음을 맞이하는 일은 없{어}.
+{우리}가 해방될 날은, 위대한 아버지께서 {우리}가 죗값을 전부 치렀다고 판단하실 때 뿐{이다}.
+위대한 아버지께서 항상 {우리}를 지켜보고 있{어}.
+위대한 아버지께서 {우리}의 속죄를 감독하시니, 그 운명으로부터 도망칠 수는 없{어}.
+시간이 흐르며 {우리}는 물질적인 것에 그다지 관심을 갖지 않게 됐{어}.
+#race, 지금 {YOU}의 앞에 있는 것은 천 년 이상 살아온 추방자{다}.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">#raceが何故この村に…？
@@ -1374,6 +1888,12 @@
     <t xml:space="preserve">conery</t>
   </si>
   <si>
+    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
+길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
+스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
+스타샤 공주님 만세!</t>
+  </si>
+  <si>
     <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
@@ -1389,6 +1909,11 @@
     <t xml:space="preserve">garokk</t>
   </si>
   <si>
+    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
+미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
+시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
+  </si>
+  <si>
     <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
@@ -1400,6 +1925,14 @@
   </si>
   <si>
     <t xml:space="preserve">gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
+오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
+공주님 만세!
+나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
+후하핫!
+약한 자를 돕고, 악을 쳐부수는 거다!</t>
   </si>
   <si>
     <t xml:space="preserve">フハハハハ！…何だ貴様は？
@@ -1421,6 +1954,10 @@
     <t xml:space="preserve">jonan</t>
   </si>
   <si>
+    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
+나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
@@ -1430,6 +1967,12 @@
   </si>
   <si>
     <t xml:space="preserve">lowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
+어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
+이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
+교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者がこんなところに何のようだね？
@@ -1447,6 +1990,11 @@
     <t xml:space="preserve">mapMerchant</t>
   </si>
   <si>
+    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
+그건 그렇고 귀중한 서적들이다.
+눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
@@ -1460,6 +2008,11 @@
     <t xml:space="preserve">miral</t>
   </si>
   <si>
+    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
+파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
+오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
+  </si>
+  <si>
     <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
@@ -1471,6 +2024,12 @@
   </si>
   <si>
     <t xml:space="preserve">nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
+수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
+서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
+아니… 이건 코스프레가 아니다.</t>
   </si>
   <si>
     <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
@@ -1488,6 +2047,9 @@
     <t xml:space="preserve">nola</t>
   </si>
   <si>
+    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
+  </si>
+  <si>
     <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
   </si>
   <si>
@@ -1495,6 +2057,12 @@
   </si>
   <si>
     <t xml:space="preserve">stasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
+팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
+아이돌…? …다른 나라의 말인가요?
+궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
   </si>
   <si>
     <t xml:space="preserve">あら、私に何かご用ですか？
@@ -1512,6 +2080,11 @@
     <t xml:space="preserve">theolucia</t>
   </si>
   <si>
+    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
+패리스 언니는 화나면 무서워요.
+팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
@@ -1525,6 +2098,11 @@
     <t xml:space="preserve">xabi</t>
   </si>
   <si>
+    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
+아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
+길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
@@ -1538,6 +2116,11 @@
     <t xml:space="preserve">zane</t>
   </si>
   <si>
+    <t xml:space="preserve">무엇이냐, 너는?
+이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
+…</t>
+  </si>
+  <si>
     <t xml:space="preserve">何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
@@ -1549,6 +2132,11 @@
   </si>
   <si>
     <t xml:space="preserve">ephrond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
+아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
+태평하긴, 바보 녀석들이.</t>
   </si>
   <si>
     <r>
@@ -1567,7 +2155,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
@@ -1601,7 +2189,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
@@ -1622,6 +2210,11 @@
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
+    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
+이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
+이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
+  </si>
+  <si>
     <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
@@ -1633,6 +2226,13 @@
   </si>
   <si>
     <t xml:space="preserve">barrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 곡 듣겠나?
+예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
+지금은 미실리아야말로 내 고향이다.
+멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
+내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
   </si>
   <si>
     <t xml:space="preserve">一曲聴いてくかい？
@@ -1658,7 +2258,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
@@ -1669,6 +2269,13 @@
   </si>
   <si>
     <t xml:space="preserve">melvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
+우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
+내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
+귀부인들이 절조가 없어서 참 곤란하단 말이야.
+에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
   </si>
   <si>
     <r>
@@ -1687,7 +2294,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
@@ -1705,6 +2312,12 @@
   </si>
   <si>
     <t xml:space="preserve">caldorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 너는?
+모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
+제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
+팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
   </si>
   <si>
     <t xml:space="preserve">何だお主は？
@@ -1730,7 +2343,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
@@ -1741,6 +2354,9 @@
     <t xml:space="preserve">melilith</t>
   </si>
   <si>
+    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
+  </si>
+  <si>
     <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
   </si>
   <si>
@@ -1748,6 +2364,14 @@
   </si>
   <si>
     <t xml:space="preserve">seeker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
+차라도 들겠나, 큰까마귀.
+나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
+…하지만, 용케도 이런 외딴 곳을 찾아냈군.
+…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
+이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
   </si>
   <si>
     <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
@@ -1769,12 +2393,18 @@
     <t xml:space="preserve">quru</t>
   </si>
   <si>
+    <t xml:space="preserve">왜?</t>
+  </si>
+  <si>
     <t xml:space="preserve">何？</t>
   </si>
   <si>
     <t xml:space="preserve">kettle</t>
   </si>
   <si>
+    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
+  </si>
+  <si>
     <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
   </si>
   <si>
@@ -1782,6 +2412,16 @@
   </si>
   <si>
     <t xml:space="preserve">strange_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
+그 괴물들이랑 똑같은 취급 하지 마.
+아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
+아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
+아빠는 곧 돌아오실 거야.
+부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
+그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
+저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
   <si>
     <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
@@ -1807,6 +2447,9 @@
     <t xml:space="preserve">moyer</t>
   </si>
   <si>
+    <t xml:space="preserve">아앗, 돌돌이 추첨기를 돌리러 온 거야?</t>
+  </si>
+  <si>
     <t xml:space="preserve">おっとガラガラを引きに来たのかい？</t>
   </si>
   <si>
@@ -1814,6 +2457,35 @@
   </si>
   <si>
     <t xml:space="preserve">miko_mifu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">우리는 축복이기도 하고, 저주이기도 합니다. 관점을 바꾸면 연약함 또한 강인함이 되지요.
+삶에 죽음이 없고, 하늘에 지옥이 없고, 만남에 이별이 없고, 기쁨에 슬픔이 없는 세계 같은 건 존재하지 않아요.
+저는 축복의 무녀로서, 매년 이 마을에서 봉인의 의식을 지도하는 역할을 맡고 있습니다.
+키즈아미님의 축복은 누구든지 받을 수 있습니다. 그 힘은 이 세계에 개입하는 것으로써, 신앙심이 없는 자조차도 느낄 수 있겠지요.
+우리가 기르는 벼는 풍부한 영력을 품고 있습니다. 봉인의 의식에 없어서는 안 되는 것이죠.
+유후는 비뚤어진 부정한 신입니다. 신들 간에 벌어지는 다툼을 전부 없애고, 이상적인 평화를 이르바에 가져오고자 했지요.
+무녀직을 이어받겠다고 결심했을 때, 저는 옛 이름을 버리고 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">「키누」 라는 이름을 쓰게 됐습니다. 언젠가 제 딸이 저와 같은 길을 걷게 되겠죠.
+영원한 여름이란 없고, 계절은 돌고 도며, 끝내 겨울은 찾아옵니다. 축복도 영원히는 이어지지 않고, 불행 또한 그러합니다.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">私たちは祝福でもあり、呪いでもあります。見方を変えれば、弱さもまた強さに変わるのです。
@@ -1837,6 +2509,19 @@
   </si>
   <si>
     <t xml:space="preserve">miko_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유후는 신들의 전쟁을 이용해 이르바를 지배하고자 했던, 사악한 부정의 신이었어.
+우리는 신수의 광장에서 의식의 춤을 바쳐.
+호로메님께선 모든 생명을 사랑하시고, 신앙심이 없는 자에게조차 작은 축복을 내려주셔.
+칼날의 무녀로서, 나는 매년 봉인의 의식으로 칼춤을 춰.
+벚꽃잎은 여신의 눈물처럼 흩날리고, 우리의 마음에 덧없는 느낌을 새기지.
+의식에 쓰이는 칼은 여신을 숭배하는 데에 중요한 역할을 해.
+호로메님께선 아이들을 아끼셔서, 대가족을 이룬 자에게 축복을 내려주셔. 네후는 결코 인구가 많은 종족은 아니지만, 대가족은 큰 존경을 받아.
+내 칼은 무녀들 사이에서 대대로 전해 내려온 물건이야.
+칼날의 무녀들은 각자 그 칼에 새로운 전설을 새기는 것을 목표로 삼지.
+우리 여신님께서는 힘과 아름다움이 반대되는 게 아니라고 가르치셔. 네후의 칼춤은 그 둘 모두를 체현하는 게 목적이야.
+네후 마을은 신수를 지키기 위해 세워졌어.</t>
   </si>
   <si>
     <t xml:space="preserve">ユフは、神々の戦争を操り、イルヴァを支配しようとした邪悪な負の神だった。
@@ -1866,6 +2551,39 @@
   </si>
   <si>
     <t xml:space="preserve">eureka</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">모험가신가요? 이런 곳까지 오시다니 참 별난 분이시네요.
+저는 주님께 이곳을 수호하라는 명을 받았습니다. 대단한 영예긴 하지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">… 가끔씩은 좀 심심하네요.
+이반님의 가르침은 가혹하다고들 하지만, 그건 필멸자들에게 깊은 애정과 기대를 품고 계시기 때문이기도 합니다.
+기계는 싫어요. 피를 안 흘리니까.
+저랑 모의전 한 판 어떠세요? 최근에 투쟁이 좀 부족해서.
+빌리씨한테 저 가시만 없었으면…
+고양이는 정말 귀여운 동물이네요…
+전장의 화약 냄새가 그리워요. 저 좀 데려다 주지 않으실래요?
+여기는 풍경이 아름답지만, 생활하기는 불편하단 말이죠. 가끔 북쪽에 있는 미후 마을에 놀러 가는 게 소소한 즐거움이에요.
+여기 있는, 잠들어 있는 부정한 신에게 도전하신다면 말리지는 않을게요. 이반님께서도 기뻐하실 것 같고.
+에테르는 정말로 흥미로운 물질이네요. 좋은 쪽이든 나쁜 쪽이든, 이후 인류의 방향을 좌우할 것 같아요.
+처음 보는 여우족을 쓰다듬는 건 실례일까요?</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">冒険者ですか？こんな場所まで来るとは、物好きですね。
@@ -1899,6 +2617,9 @@
     <t xml:space="preserve">merchant_inn_fox</t>
   </si>
   <si>
+    <t xml:space="preserve">이 목걸이? 물론 쌀이 들어 있어. 우리 마을은 밀을 안 키우니까.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この首飾り？もちろん中身は米よ。私たちの村では小麦は育てていないから。</t>
   </si>
   <si>
@@ -1906,6 +2627,34 @@
   </si>
   <si>
     <t xml:space="preserve">merchant_inn_fox2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">이 여관은 원래 순례자들을 맞이하기 위해 지었지만, 최근에는 관광객도 많이 늘었어요.
+어서 오세요! 식사하실 건가요? 아니면 목욕? 아니면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">…?
+왜 갑자기 마을이 인기가 있어진 건지 잘 모르겠지만, 바쁜 것도 나쁘진 않네요!
+관광객 분들이 미사키의 경고를 무시하고 신성한 나무에 가까이 가서 참 곤란해요. 정말이지, 경의가 부족하단 말이죠.
+저희끼리는 자급자족이 되지만, 미후 마을에서 식량을 보내 주지 않았다면 관광객들을 접대하지는 못했을 거예요.
+왜 인간들은 저희 귀와 꼬리에 그렇게 관심이 있는 걸까요?
+미사키는 신전을 지키고, 저는 여관을 담당하고 있죠. 이대로라면 장로님이 할 일이 얼마 안 남겠네요!</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">この宿は元々巡礼者を迎えるために建てられたのですが、最近は観光客も増えてきました。
@@ -1927,6 +2676,37 @@
   </si>
   <si>
     <t xml:space="preserve">adv_kiria</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">내가 왜 만들어진 건지 알고 있어? 몰라? 그럴 것 같았어.
+집 같은 장소를 꿈에서 봤는데, 어떻게 해야 돌아갈 수 있는지는 기억이 안 나.
+눈을 떴을 때부터 이 무기를 갖고 있었어. 정말 무거워. 찌르기? 쏘기? 둘 다 하면 되지.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">「네ー에! 모두의 아이돌, 기계 인형 키리아 쨩이야 키리～!」…나한테 아이돌 모듈 같은 게 있었어? 언제 녹음했었지?
+기계의 마니는 허무를 들을 수 있는 자에게 속삭인다고 들었어. 그 사람이라면, 내가 왜 만들어졌는지 알고 있을지도.
+*zzt* 또 손상된 기억… 이곳에 뭘 하러 왔더라?
+*beep* 현재 정기 메인터넌스 중입니다. 잠시만 기다려 주십시오.
+내가 작은 골렘이라고? 말도 안 돼.
+버그? 글리치? 그건 기능이야.
+*물끄러미* 칫.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">なぜ私が作られたのか知ってる？ いいえ？ だと思った。
@@ -1956,6 +2736,37 @@
     <t xml:space="preserve">adv_gaki</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">하늘빛 튤립? 여기 저기 여행을 다녔었지만 본 적 없어.
+기묘한 병이 새로 유행한다네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">…… 뿔 하나 달아주지 않으려나～
+화나게 만들면 이상한 저주를 거는 신이 있으니까 조심하라구.
+카지노의 딜러 말이야, 언젠가 그 손모가지를 날려 줄 거야……!
+알의 알♪ 토막의 토막♪ 토막의 알♪
+위에도 위가 있어. 허접 밑에도 허접이 있고. #brother2는 어느 쪽일까나～?
+뿔을…… 아니 칼을 하나 더 갖고 있었는데, 여행하다가 잃어버려서 말이야.
+맛있는 거 먹을 때가 제일 행복해ー♪
+가키 쨩이 왔어. 빨리 대접해줘 빨리 빨리.
+강한데다 귀엽기까지 하다고? 그거 가키 쨩 말하는 거네☆</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">空色のチューリップ？ 色々旅してきたけど見たことないよ。
 新しい奇妙な病気が流行ってるらしい……ツノでも生えないかな～。
 怒らせると変な呪いをかけてくる神がいるから気を付けようね。
@@ -1983,6 +2794,37 @@
     <t xml:space="preserve">adv_mesherada</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">두 혼이 다시 한 번 얽히고, 우리가 약속을 다할 그 때를 기다리고 있어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">… 그렇지 않나?
+혹시 그대가 내가 찾는 사람이라면… 틀림없이 운명이 우리에게 속삭이겠지.
+그대에게서는, 시간의 저편에서 잃어버렸다고 생각했던 평온함을 느낄 수 있어.
+그대의 혼은 그리운 느낌이야… 마치 언어가 생겨나기 전에 만났던 것 같은.
+이 순간이 영원히 계속되면 좋으련만… 그대의 온기를 조금 더 느끼고 싶으니.
+그대는 그저 상냥한 낯선 이일 뿐인가… 아니면 시간을 뛰어넘어 쫓아온 잔영인가…
+내 눈앞의 그대의 이름을, 나는 아직 부를 수가 없구나.
+이상하군… 그대의 곁에 있으면 어째서인지 정말 안심이 돼.
+그대도 느끼고 있는 건가…? 우리를 묶는 실이 팽팽해져 있는 것을?
+수없는 길을 걸어도… 그 앞에는 반드시 그대가 있을 테지.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">魂が再び絡み合い、私たちが約束を果たすその時を待っている…そうではないか？ 
 もしそなたが私の探し人なら…きっと運命が二人に囁くだろう。
 そなたには、時の彼方に失われたと思っていた安らぎを感じる。
@@ -2010,6 +2852,37 @@
     <t xml:space="preserve">olderyoungersister</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">내가 언제 태어났는지가 신경 쓰여, #brother2? 아주 아주 먼 옛날이야, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">#brother2…
+#brother2를 찾아서 쭉 이 세상을 방황했어… 그러니까 정말 있더라구, #brother2가!
+#brother2… 쭉… 함께 있어줄 거지…? 조금 불안해졌을 뿐이야, #brother2.
+#brother2를 위해서 싸움도 집안일도, 여러가지 잘 해낼 수 있게 되고 싶어.
+하느님은 가끔씩 잔혹하시구나, #brother2…
+난 #brother2를 옭아매지 않을 거야! 진짜야!
+내 목소리에는 혼돈의 힘이 담겨 있는 것 같아.
+이 세상에 나 말고도 #brother2랑 피가 이어지지 않은 여동생들이 있대!
+눈 쁘띠 쨩을 쓰담쓰담 하고 싶어! 쓰다듬고 싶다구 #brother2!
+눈 쁘띠 쨩들 중에선 색이 다른 아이가 있어, #brother2. 모두 맞이해줄 수 있다면 정말 좋겠네, #brother2.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">私がいつ生まれたのか気になるの#brother2？遠い遠い遥か昔の事だよ#brother2…
 ずっと#brother2を求めてこの世界を彷徨っていたの…そしたらいたのよ#brother2が！
 #brother2ずっと…一緒だよね…？ちょっと不安になっただけだよ#brother2。
@@ -2033,574 +2906,6 @@
 I want to snuggle with snow putit-chan! I really do, #brother2!
 There are snow putit-chans with different colors, #brother2. It would be so nice if we could welcome them all, #brother2.</t>
   </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자, 천천히 {먹어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{간다}!
-우후후.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">취미는 #1 정도{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">놀리는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">흥!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">답도 없는 변태{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
-진심{이야}?
-지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
-그렇게 나와{야지}!
-{좋아}, {YOU}의 힘을 보여{줘}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{뭐야}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한가{하다}.
-응? 뭔가 볼일이라도 있{는가}?
-가끔씩은 호화스러운 식사를 하고 {싶다}.
-영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
-눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
-고양이는 왜 이렇게 귀여운 {걸까}.
-#aka? …누굴 말하는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
-하여간 이 세상에선 돈이 중요{해}.
-어디 돈 좀 떨어져 있으면 좋을 {텐데}.
-플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
-에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
-에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
-신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
-루미에스트는 예술의 거리로 유명{해}.
-노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
-여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
-에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
-신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
-아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
-신이 없다면 이 세계는 의미가 없{어}.
-치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
-가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
-쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
-행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
-기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
-이제부터는 인간의 시대{다}!
-{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
-엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
-예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
-숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
-어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
-물건 보는 눈은 자신 있{어}.
-가게 경영은 꽤 어렵{네}.
-건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
-다른 가게에서는 발밑이 안 보이게 조심{해라}.
-만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
-자, {내가} 자신있게 고른 상품들을 둘러{봐}.
-요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
-무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
-수상한 사람을 보면 알려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
-돈으로 살 수 없는 것들도 있{지}.
-본 지점에 어서 {와}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손님도 이쪽 사람이{네}.
-히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
-(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
-록 스로어가 던지는 바위를 무시하면 안 {돼}.
-꿈속에서 {내가} 믿는 신을 만났{어}!
-귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
-파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
-도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
-저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
-바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
-이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
-세금을 안 내면 나중에 골치 아파{져}.
-정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
-태양의 빛을 내는 신비한 램프가 있다{더라}.
-월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
-그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
-허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
-수영을 연습{해라}. 내구력이 단련된다{고}!
-미식가들은 독버섯도 구별할 수 있다{더라}.
-자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
-의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
-소재 망치를 평범한 물건에 막 쓰지 마라!
-영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
-질 좋은 침대에서 자면 수면 효과가 좋아진다.
-몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
-독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
-큐브는 상태이상이 걸려 있다면 분열하지 못한다.
-아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
-소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
-환혹 내성이 충분하다면 광기 상태가 되지 않는다.
-지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
-젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
-단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
-강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
-수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
-지팡이는 땅에 한동안 놔 두면 충전된다!
-소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
-보석은 플래티넘 코인으로 교환할 수 있다.
-보물 지도는 항상 축복해서 읽어라.
-냐…아…아아…
-무엇을 바라는가?
-채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
-신을 펫으로 만드는 방법도 있다고 한다.
-문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
-일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
-뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
-아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
-당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
-고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
-경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
-여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
-달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
-카르마가 높으면 세금이 감면된다.
-몬스터의 똥은 무거울수록 비싸게 팔린다.
-저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
-헤르메스의 피는 *반드시* 축복해서 마셔라!
-귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
-용무가 있{는가}? {나는} 바쁜 몸{이다}.
-마을에 투자하겠다면 언제든 환영{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
-제가 도움이 되어 드릴 일이 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
-십년전쟁으로 이 나라는 큰 타격을 입었{어}.
-죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
-십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
-미실리아는 앞으로 어떻게 되는 걸{까}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
-시오루시아는 정말로 학구열이 대단해서 감동했{어}.
-올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
-패리스한테 실컷 매도당하고 {싶다}.
-오르비나는 미실리아 최고의 관광지{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
-지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}
-그 길에 관심 있으면 도적 길드로 가 {봐}.
-이 세상은 노예가 필요{해}.
-아레나에서 피 튀기는 걸 보는 게 {좋아}.
-이 마을에는 경비병이 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
-팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
-쟈비님과 스타샤님은 정말로 사이가 {좋아}.
-팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
-말이라면 여기서 사가는 게 {좋아}.
-수확기에는 항상 일손이 모자라{지}.
-아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
-서쪽에 무법자들의 마을이 있다{더라}.
-마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
-어딘가에 온천으로 유명한 마을이 있다{더라}.
-이 마을은 어디서든지 낚시를 할 수 있{어}.
-그림 얘기로는 하루종일 떠들 수 있{어}.
-마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
-하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
-매일매일 눈 치우는 게 큰일{이다}.
-죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
-추워!
-여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바닷바람 향기가 좋{네}.
-펫 아레나에서 경기 보는 게 취미{다}.
-더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
-이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
-피라미드에는 어떻게 들어가는 걸{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
-길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
-스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
-스타샤 공주님 만세!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
-미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
-시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
-오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
-공주님 만세!
-나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
-후하핫!
-약한 자를 돕고, 악을 쳐부수는 거다!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
-나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
-어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
-이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
-교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
-그건 그렇고 귀중한 서적들이다.
-눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
-파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
-오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
-수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
-서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
-아니… 이건 코스프레가 아니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
-팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
-아이돌…? …다른 나라의 말인가요?
-궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
-패리스 언니는 화나면 무서워요.
-팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
-아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
-길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무엇이냐, 너는?
-이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
-…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
-아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
-태평하긴, 바보 녀석들이.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
-이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
-이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한 곡 듣겠나?
-예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
-지금은 미실리아야말로 내 고향이다.
-멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
-내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
-우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
-내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
-귀부인들이 절조가 없어서 참 곤란하단 말이야.
-에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐 너는?
-모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
-제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
-팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
-차라도 들겠나, 큰까마귀.
-나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
-…하지만, 용케도 이런 외딴 곳을 찾아냈군.
-…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
-이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왜?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
-그 괴물들이랑 똑같은 취급 하지 마.
-아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
-아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
-아빠는 곧 돌아오실 거야.
-부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
-그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
-저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아앗, 돌돌이 추첨기를 돌리러 온 거야?</t>
-  </si>
 </sst>
 </file>
 
@@ -2609,7 +2914,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2620,20 +2925,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2646,13 +2951,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2678,7 +2990,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2687,86 +2999,94 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+  <cellXfs count="16">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2841,7 +3161,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2851,11 +3171,11 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -2863,13 +3183,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49667400" cy="126720"/>
+          <a:ext cx="49667040" cy="126360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2997,29 +3317,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B77" sqref="B77"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.53" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.34" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.34"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
+    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3033,1036 +3353,1036 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1"/>
-    <row r="3" ht="12" customHeight="1"/>
-    <row r="4" ht="12" customHeight="1"/>
-    <row r="5" ht="12" customHeight="1">
+    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>414</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>415</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>416</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>417</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>418</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>419</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>420</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>421</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>422</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>423</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>424</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>425</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>426</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>427</v>
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>428</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>429</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>430</v>
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>431</v>
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>432</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>433</v>
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="20.1" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>434</v>
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" ht="20.1" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>435</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" ht="20.1" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>436</v>
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" ht="20.1" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>437</v>
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" ht="20.1" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>438</v>
+        <v>100</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" ht="20.1" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>439</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>440</v>
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>438</v>
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="12.8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>439</v>
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>441</v>
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" ht="12.8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>442</v>
+        <v>118</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="12.8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>443</v>
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" ht="12.8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>444</v>
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" ht="12.8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>445</v>
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>446</v>
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" ht="12.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>447</v>
+        <v>138</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>448</v>
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>449</v>
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" ht="12.8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>450</v>
+        <v>150</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" ht="12.8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>451</v>
+        <v>154</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>452</v>
+        <v>158</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" ht="22.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>453</v>
+        <v>162</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>454</v>
+        <v>166</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" t="s">
-        <v>455</v>
+        <v>170</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>456</v>
+        <v>174</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>457</v>
+        <v>178</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>458</v>
+        <v>182</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" ht="22.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>459</v>
+        <v>186</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" ht="12.8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" t="s">
-        <v>460</v>
+        <v>190</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>461</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" ht="12.8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s">
-        <v>462</v>
+        <v>198</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" ht="12.8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" t="s">
-        <v>463</v>
+        <v>202</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" ht="12.8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>464</v>
+        <v>206</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" ht="12.8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" t="s">
-        <v>465</v>
+        <v>210</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>466</v>
+        <v>214</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>467</v>
+        <v>218</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>468</v>
+        <v>222</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" ht="12.8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" t="s">
-        <v>469</v>
+        <v>226</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" t="s">
-        <v>470</v>
+        <v>230</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" ht="12.8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>471</v>
+        <v>234</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" ht="32.8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" t="s">
-        <v>472</v>
+        <v>238</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" ht="32.8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" t="s">
-        <v>473</v>
+        <v>242</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" ht="12.8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" t="s">
-        <v>474</v>
+        <v>246</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" ht="12.8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>475</v>
+        <v>250</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" t="s">
-        <v>476</v>
+        <v>254</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" t="s">
-        <v>477</v>
+        <v>258</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" ht="12.8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>478</v>
+        <v>262</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" ht="12.8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" t="s">
-        <v>479</v>
+        <v>266</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" ht="22.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" t="s">
-        <v>480</v>
+        <v>270</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" ht="12.8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>481</v>
+        <v>274</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" ht="12.8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>482</v>
+        <v>278</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" ht="12.8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" t="s">
-        <v>483</v>
+        <v>282</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" ht="12.8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B77" t="s">
-        <v>484</v>
+        <v>286</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4071,29 +4391,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
-    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
-    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4107,287 +4427,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>485</v>
+        <v>290</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" ht="43.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>486</v>
+        <v>294</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" t="s">
-        <v>487</v>
+        <v>298</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" ht="43.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" t="s">
-        <v>488</v>
+        <v>302</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" ht="43.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" t="s">
-        <v>489</v>
+        <v>306</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" ht="74.6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" t="s">
-        <v>490</v>
+        <v>310</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" ht="43.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" t="s">
-        <v>491</v>
+        <v>314</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" ht="43.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" t="s">
-        <v>492</v>
+        <v>318</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" t="s">
-        <v>493</v>
+        <v>322</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" ht="22.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B14" t="s">
-        <v>494</v>
+        <v>326</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" t="s">
-        <v>495</v>
+        <v>330</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" ht="12.8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16" t="s">
-        <v>496</v>
+        <v>334</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" ht="22.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" t="s">
-        <v>497</v>
+        <v>338</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" ht="22.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" t="s">
-        <v>498</v>
+        <v>342</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" ht="200.7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="1149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>499</v>
+        <v>347</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" ht="168.65">
+    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B20" t="s">
-        <v>500</v>
+        <v>350</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B21" t="s">
-        <v>501</v>
+        <v>354</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" ht="32.8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B22" t="s">
-        <v>502</v>
+        <v>358</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" t="s">
-        <v>503</v>
+        <v>362</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>275</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4395,33 +4715,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B13" sqref="B13"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.61" style="1" customWidth="1"/>
-    <col min="3" max="3" width="109.15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.06" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="76.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.06"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4431,185 +4751,193 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="64.15">
+    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>504</v>
+        <v>366</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" t="s">
-        <v>505</v>
+        <v>370</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" ht="22.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" t="s">
-        <v>506</v>
+        <v>374</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" ht="64.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>507</v>
+        <v>378</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" t="s">
-        <v>508</v>
+        <v>382</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" ht="95.5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" t="s">
-        <v>509</v>
+        <v>386</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" ht="64.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" t="s">
-        <v>510</v>
+        <v>390</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" ht="53.7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" t="s">
-        <v>511</v>
+        <v>394</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" ht="74.6">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" t="s">
-        <v>512</v>
+        <v>398</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" ht="116.4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B14" s="8"/>
+        <v>402</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" ht="147.75">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>406</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" ht="116.4">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B16" s="8"/>
+        <v>410</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" ht="168.65">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="8"/>
+        <v>414</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4617,33 +4945,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B28" sqref="B28"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
-    <col min="4" max="4" width="100.58" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="83.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="100.58"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -4653,460 +4981,482 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="43.25">
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
-      <c r="A6" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B29" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" ht="64.15">
-      <c r="A7" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C29" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" ht="22.35">
-      <c r="A8" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D29" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" ht="53.7">
-      <c r="A9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" ht="43.25">
-      <c r="A10" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B30" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" ht="53.7">
-      <c r="A11" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C30" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" ht="64.15">
-      <c r="A12" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" ht="12.8">
-      <c r="A13" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" ht="43.25">
-      <c r="A14" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B31" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
-      <c r="A15" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C31" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" ht="43.25">
-      <c r="A16" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D31" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" ht="32.8">
-      <c r="A17" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" ht="44.75">
-      <c r="A18" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B32" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="19" ht="32.8">
-      <c r="A19" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C32" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" ht="56.7">
-      <c r="A20" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D32" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" ht="91">
-      <c r="A21" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" ht="67.15">
-      <c r="A22" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B33" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="23" ht="13.8">
-      <c r="A23" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C33" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" ht="74.6">
-      <c r="A24" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D33" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" ht="12.8">
-      <c r="A25" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" ht="13.8">
-      <c r="A26" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B34" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="27" ht="95.5">
-      <c r="A27" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C34" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
-      <c r="A28" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D34" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="29" ht="147.75">
-      <c r="A29" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" ht="147.75">
-      <c r="A30" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" ht="147.75">
-      <c r="A31" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
-      <c r="A32" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" ht="95.5">
-      <c r="A33" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" ht="116.4">
-      <c r="A34" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="35" ht="105.95">
+    </row>
+    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>404</v>
+        <v>537</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>405</v>
+        <v>539</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="36" ht="105.95">
-      <c r="A36" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" ht="116.4">
-      <c r="A37" s="10" t="s">
-        <v>410</v>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>546</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>411</v>
+        <v>547</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>412</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" r:id="rId6"/>
+    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="557">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">food1</t>
   </si>
   <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">food2</t>
   </si>
   <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t xml:space="preserve">healer1</t>
   </si>
   <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t xml:space="preserve">healer2</t>
   </si>
   <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t xml:space="preserve">appraise1</t>
   </si>
   <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t xml:space="preserve">appraise2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t xml:space="preserve">appraise3</t>
   </si>
   <si>
+    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t xml:space="preserve">expand1</t>
   </si>
   <si>
+    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t xml:space="preserve">expand2</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t xml:space="preserve">expand3</t>
   </si>
   <si>
+    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">拡張できないよう{だ}。</t>
   </si>
   <si>
@@ -128,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">extraTax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
   </si>
   <si>
     <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
@@ -140,6 +173,9 @@
     <t xml:space="preserve">extraTax2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
   </si>
   <si>
@@ -149,6 +185,9 @@
     <t xml:space="preserve">banker1</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
   </si>
   <si>
@@ -158,6 +197,9 @@
     <t xml:space="preserve">banker2</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
   </si>
   <si>
@@ -167,6 +209,9 @@
     <t xml:space="preserve">banker3</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
   </si>
   <si>
@@ -176,6 +221,9 @@
     <t xml:space="preserve">banker4</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
   </si>
   <si>
@@ -185,6 +233,9 @@
     <t xml:space="preserve">noDrawingRoom</t>
   </si>
   <si>
+    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
   </si>
   <si>
@@ -194,6 +245,9 @@
     <t xml:space="preserve">nomoney</t>
   </si>
   <si>
+    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
   </si>
   <si>
@@ -203,6 +257,9 @@
     <t xml:space="preserve">alreadyFull</t>
   </si>
   <si>
+    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
   </si>
   <si>
@@ -212,6 +269,9 @@
     <t xml:space="preserve">questAccept</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
   </si>
   <si>
@@ -221,6 +281,9 @@
     <t xml:space="preserve">questFull</t>
   </si>
   <si>
+    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
   </si>
   <si>
@@ -230,6 +293,9 @@
     <t xml:space="preserve">questInProgress</t>
   </si>
   <si>
+    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
   </si>
   <si>
@@ -239,6 +305,9 @@
     <t xml:space="preserve">questComplete</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -248,6 +317,9 @@
     <t xml:space="preserve">bird1</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
   </si>
   <si>
@@ -255,6 +327,10 @@
   </si>
   <si>
     <t xml:space="preserve">bird2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{간다}!
+우후후.</t>
   </si>
   <si>
     <t xml:space="preserve">いく{よ}！
@@ -268,6 +344,9 @@
     <t xml:space="preserve">bird3</t>
   </si>
   <si>
+    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
   </si>
   <si>
@@ -277,6 +356,9 @@
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
+    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
   </si>
   <si>
@@ -292,6 +374,9 @@
     <t xml:space="preserve">lockpick_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
   </si>
   <si>
@@ -301,6 +386,9 @@
     <t xml:space="preserve">invite</t>
   </si>
   <si>
+    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
   </si>
   <si>
@@ -310,6 +398,9 @@
     <t xml:space="preserve">invite2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
   </si>
   <si>
@@ -319,6 +410,9 @@
     <t xml:space="preserve">invite3</t>
   </si>
   <si>
+    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
+  </si>
+  <si>
     <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
   </si>
   <si>
@@ -328,6 +422,9 @@
     <t xml:space="preserve">talk_hobby</t>
   </si>
   <si>
+    <t xml:space="preserve">취미는 #1 정도{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">趣味は#1{だ}。</t>
   </si>
   <si>
@@ -337,6 +434,9 @@
     <t xml:space="preserve">talk_fav</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
   </si>
   <si>
@@ -346,6 +446,9 @@
     <t xml:space="preserve">slave_buy</t>
   </si>
   <si>
+    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
   </si>
   <si>
@@ -355,6 +458,9 @@
     <t xml:space="preserve">slave_buy2</t>
   </si>
   <si>
+    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
   </si>
   <si>
@@ -364,6 +470,9 @@
     <t xml:space="preserve">goto</t>
   </si>
   <si>
+    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
   </si>
   <si>
@@ -373,6 +482,9 @@
     <t xml:space="preserve">goto2</t>
   </si>
   <si>
+    <t xml:space="preserve">놀리는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">からかっているの{か}？</t>
   </si>
   <si>
@@ -382,6 +494,9 @@
     <t xml:space="preserve">upgrade_heath1</t>
   </si>
   <si>
+    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
+  </si>
+  <si>
     <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
   </si>
   <si>
@@ -391,6 +506,9 @@
     <t xml:space="preserve">upgrade_heath2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
   </si>
   <si>
@@ -400,6 +518,9 @@
     <t xml:space="preserve">invest1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
   </si>
   <si>
@@ -409,6 +530,9 @@
     <t xml:space="preserve">invest2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
   </si>
   <si>
@@ -418,6 +542,9 @@
     <t xml:space="preserve">invest_shop1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
   </si>
   <si>
@@ -427,6 +554,9 @@
     <t xml:space="preserve">invest_shop2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
   </si>
   <si>
@@ -436,6 +566,9 @@
     <t xml:space="preserve">questCompleteDeliver</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -445,6 +578,9 @@
     <t xml:space="preserve">questCompleteDeliverExtra</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
@@ -454,6 +590,9 @@
     <t xml:space="preserve">miral_medal</t>
   </si>
   <si>
+    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
   </si>
   <si>
@@ -463,6 +602,9 @@
     <t xml:space="preserve">miral_medal2</t>
   </si>
   <si>
+    <t xml:space="preserve">흥!</t>
+  </si>
+  <si>
     <t xml:space="preserve">ふん！</t>
   </si>
   <si>
@@ -472,6 +614,9 @@
     <t xml:space="preserve">shop_criminal</t>
   </si>
   <si>
+    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
@@ -481,6 +626,9 @@
     <t xml:space="preserve">shop_blackmarket_noaccess</t>
   </si>
   <si>
+    <t xml:space="preserve">{아하하}, {YOU} 같은 건실한 모험가가 {I}한테 무슨 볼일{이야}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">{あはは}、君みたいなカタギの冒険者が私に何の用{だ}？</t>
   </si>
   <si>
@@ -490,6 +638,9 @@
     <t xml:space="preserve">guide</t>
   </si>
   <si>
+    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">どこに行きたい{のだ}？</t>
   </si>
   <si>
@@ -499,6 +650,9 @@
     <t xml:space="preserve">shutup</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはしゅんとなった…)</t>
   </si>
   <si>
@@ -508,6 +662,9 @@
     <t xml:space="preserve">shutup2</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはあなたに抱きついた)</t>
   </si>
   <si>
@@ -517,6 +674,9 @@
     <t xml:space="preserve">insult</t>
   </si>
   <si>
+    <t xml:space="preserve">답도 없는 변태{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうしようもない変態{だな}。</t>
   </si>
   <si>
@@ -526,6 +686,9 @@
     <t xml:space="preserve">insult2</t>
   </si>
   <si>
+    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
   </si>
   <si>
@@ -535,6 +698,9 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはこくんと肯いた)</t>
   </si>
   <si>
@@ -544,6 +710,9 @@
     <t xml:space="preserve">refuse</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはやんわりと断った)</t>
   </si>
   <si>
@@ -553,6 +722,9 @@
     <t xml:space="preserve">deliver_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
   </si>
   <si>
@@ -562,6 +734,9 @@
     <t xml:space="preserve">news1</t>
   </si>
   <si>
+    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
@@ -571,6 +746,9 @@
     <t xml:space="preserve">news2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
   </si>
   <si>
@@ -578,6 +756,11 @@
   </si>
   <si>
     <t xml:space="preserve">bout1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
+진심{이야}?
+지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">力試しをしたいの{か}？
@@ -593,6 +776,11 @@
     <t xml:space="preserve">bout2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
+그렇게 나와{야지}!
+{좋아}, {YOU}의 힘을 보여{줘}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
@@ -606,6 +794,9 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
+    <t xml:space="preserve">{뭐야}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">なん{だ}？</t>
   </si>
   <si>
@@ -615,6 +806,9 @@
     <t xml:space="preserve">becomeMaid</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
   </si>
   <si>
@@ -624,6 +818,9 @@
     <t xml:space="preserve">sellFame1</t>
   </si>
   <si>
+    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
@@ -633,6 +830,9 @@
     <t xml:space="preserve">sellFame2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
   </si>
   <si>
@@ -642,6 +842,9 @@
     <t xml:space="preserve">blessing</t>
   </si>
   <si>
+    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
   </si>
   <si>
@@ -651,6 +854,9 @@
     <t xml:space="preserve">lockTooHard</t>
   </si>
   <si>
+    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
   </si>
   <si>
@@ -660,6 +866,9 @@
     <t xml:space="preserve">loytel_bill_give1</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
   </si>
   <si>
@@ -669,6 +878,9 @@
     <t xml:space="preserve">loytel_bill_give2</t>
   </si>
   <si>
+    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
   </si>
   <si>
@@ -678,6 +890,9 @@
     <t xml:space="preserve">loytel_bill_give_given</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
   </si>
   <si>
@@ -687,6 +902,9 @@
     <t xml:space="preserve">loytel_bill_give_wait</t>
   </si>
   <si>
+    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
@@ -696,6 +914,9 @@
     <t xml:space="preserve">loytel_bill_give_lost</t>
   </si>
   <si>
+    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
   </si>
   <si>
@@ -703,6 +924,15 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가{하다}.
+응? 뭔가 볼일이라도 있{는가}?
+가끔씩은 호화스러운 식사를 하고 {싶다}.
+영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
+눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
+고양이는 왜 이렇게 귀여운 {걸까}.
+#aka? …누굴 말하는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">暇{だ}。
@@ -726,6 +956,12 @@
     <t xml:space="preserve">interest_economy</t>
   </si>
   <si>
+    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
+하여간 이 세상에선 돈이 중요{해}.
+어디 돈 좀 떨어져 있으면 좋을 {텐데}.
+플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
@@ -741,6 +977,12 @@
     <t xml:space="preserve">interest_science</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
+에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
+에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
+신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
@@ -756,6 +998,12 @@
     <t xml:space="preserve">interest_travel</t>
   </si>
   <si>
+    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
+루미에스트는 예술의 거리로 유명{해}.
+노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
+여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
@@ -771,6 +1019,12 @@
     <t xml:space="preserve">interest_world</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
+에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
+신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
+아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
@@ -784,6 +1038,15 @@
   </si>
   <si>
     <t xml:space="preserve">interest_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
+신이 없다면 이 세계는 의미가 없{어}.
+치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
+가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
+쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
+행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
+기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">信仰こそ何よりも大事{だ}。
@@ -807,6 +1070,12 @@
     <t xml:space="preserve">interest_human</t>
   </si>
   <si>
+    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
+이제부터는 인간의 시대{다}!
+{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
+엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
@@ -822,6 +1091,12 @@
     <t xml:space="preserve">interest_elea</t>
   </si>
   <si>
+    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
+예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
+숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
+어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
@@ -835,6 +1110,17 @@
   </si>
   <si>
     <t xml:space="preserve">shopkeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
+물건 보는 눈은 자신 있{어}.
+가게 경영은 꽤 어렵{네}.
+건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
+다른 가게에서는 발밑이 안 보이게 조심{해라}.
+만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
+자, {내가} 자신있게 고른 상품들을 둘러{봐}.
+요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
+무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
   </si>
   <si>
     <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
@@ -862,6 +1148,10 @@
     <t xml:space="preserve">guard</t>
   </si>
   <si>
+    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
+수상한 사람을 보면 알려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。</t>
   </si>
@@ -871,6 +1161,11 @@
   </si>
   <si>
     <t xml:space="preserve">banker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
+돈으로 살 수 없는 것들도 있{지}.
+본 지점에 어서 {와}!</t>
   </si>
   <si>
     <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
@@ -886,6 +1181,9 @@
     <t xml:space="preserve">bitch</t>
   </si>
   <si>
+    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
   </si>
   <si>
@@ -893,6 +1191,10 @@
   </si>
   <si>
     <t xml:space="preserve">slaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님도 이쪽 사람이{네}.
+히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
   </si>
   <si>
     <t xml:space="preserve">お客さんも悪い人間{だな}。
@@ -906,6 +1208,10 @@
     <t xml:space="preserve">bored</t>
   </si>
   <si>
+    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
+(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
@@ -915,6 +1221,27 @@
   </si>
   <si>
     <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
+록 스로어가 던지는 바위를 무시하면 안 {돼}.
+꿈속에서 {내가} 믿는 신을 만났{어}!
+귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
+파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
+도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
+저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
+바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
+이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
+세금을 안 내면 나중에 골치 아파{져}.
+정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
+태양의 빛을 내는 신비한 램프가 있다{더라}.
+월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
+그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
+허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
+수영을 연습{해라}. 내구력이 단련된다{고}!
+미식가들은 독버섯도 구별할 수 있다{더라}.
+자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
+의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
   </si>
   <si>
     <r>
@@ -950,7 +1277,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
@@ -981,6 +1308,23 @@
     <t xml:space="preserve">fortune</t>
   </si>
   <si>
+    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
+소재 망치를 평범한 물건에 막 쓰지 마라!
+영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
+질 좋은 침대에서 자면 수면 효과가 좋아진다.
+몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
+독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
+큐브는 상태이상이 걸려 있다면 분열하지 못한다.
+아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
+소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
+환혹 내성이 충분하다면 광기 상태가 되지 않는다.
+지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
+젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
+단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
+강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
+수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
@@ -1018,6 +1362,31 @@
   </si>
   <si>
     <t xml:space="preserve">fortune_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
+지팡이는 땅에 한동안 놔 두면 충전된다!
+소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
+보석은 플래티넘 코인으로 교환할 수 있다.
+보물 지도는 항상 축복해서 읽어라.
+냐…아…아아…
+무엇을 바라는가?
+채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
+신을 펫으로 만드는 방법도 있다고 한다.
+문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
+일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
+뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
+아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
+당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
+고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
+경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
+여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
+달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
+카르마가 높으면 세금이 감면된다.
+몬스터의 똥은 무거울수록 비싸게 팔린다.
+저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
+헤르메스의 피는 *반드시* 축복해서 마셔라!
+귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
   </si>
   <si>
     <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
@@ -1073,6 +1442,11 @@
     <t xml:space="preserve">mayor</t>
   </si>
   <si>
+    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
+용무가 있{는가}? {나는} 바쁜 몸{이다}.
+마을에 투자하겠다면 언제든 환영{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
@@ -1086,6 +1460,10 @@
     <t xml:space="preserve">secretary</t>
   </si>
   <si>
+    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
+제가 도움이 되어 드릴 일이 있나요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
@@ -1095,6 +1473,13 @@
   </si>
   <si>
     <t xml:space="preserve">mysilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
+십년전쟁으로 이 나라는 큰 타격을 입었{어}.
+죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
+십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
+미실리아는 앞으로 어떻게 되는 걸{까}.</t>
   </si>
   <si>
     <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
@@ -1114,6 +1499,13 @@
     <t xml:space="preserve">olvina</t>
   </si>
   <si>
+    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
+시오루시아는 정말로 학구열이 대단해서 감동했{어}.
+올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
+패리스한테 실컷 매도당하고 {싶다}.
+오르비나는 미실리아 최고의 관광지{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
@@ -1131,6 +1523,10 @@
     <t xml:space="preserve">lothria</t>
   </si>
   <si>
+    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
+지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
@@ -1140,6 +1536,13 @@
   </si>
   <si>
     <t xml:space="preserve">derphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}.
+그 길에 관심 있으면 도적 길드로 가 {봐}.
+이 세상은 노예가 필요{해}.
+아레나에서 피 튀기는 걸 보는 게 {좋아}.
+이 마을에는 경비병이 없{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">無法者の街、ダルフィへようこそ。
@@ -1157,6 +1560,12 @@
   </si>
   <si>
     <t xml:space="preserve">palmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
+팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
+쟈비님과 스타샤님은 정말로 사이가 {좋아}.
+팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
   </si>
   <si>
     <t xml:space="preserve">パルミア国の王都へようこそ。
@@ -1174,6 +1583,14 @@
   </si>
   <si>
     <t xml:space="preserve">yowyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
+말이라면 여기서 사가는 게 {좋아}.
+수확기에는 항상 일손이 모자라{지}.
+아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
+서쪽에 무법자들의 마을이 있다{더라}.
+마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
@@ -1197,6 +1614,14 @@
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
+    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
+어딘가에 온천으로 유명한 마을이 있다{더라}.
+이 마을은 어디서든지 낚시를 할 수 있{어}.
+그림 얘기로는 하루종일 떠들 수 있{어}.
+마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
+하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
@@ -1216,6 +1641,13 @@
     <t xml:space="preserve">noyel</t>
   </si>
   <si>
+    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
+매일매일 눈 치우는 게 큰일{이다}.
+죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
+추워!
+여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
@@ -1231,6 +1663,13 @@
   </si>
   <si>
     <t xml:space="preserve">kapul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바닷바람 향기가 좋{네}.
+펫 아레나에서 경기 보는 게 취미{다}.
+더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
+이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
+피라미드에는 어떻게 들어가는 걸{까}?</t>
   </si>
   <si>
     <t xml:space="preserve">潮風が香る{な}。
@@ -1249,6 +1688,19 @@
   </si>
   <si>
     <t xml:space="preserve">foxtown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{우리}는 쌀을 많이 만들어서 인간들에게 팔고 있{어}.
+키즈아미님이 이 마을의 수호신{이다}.
+이 마을의 강은 라나 근처 산에서부터 흐르는 {거야}.
+{우리} 선조는 이 언덕을 깎아 논밭을 만들고 벼농사를 짓기 시작하셨{어}.
+이 마을 사람들은 모두 서예에 조예가 있{어}.
+서예에 관심 있으면, 잡화상에서 서예도구를 사 {봐}.
+혹시 밭 근처에서 금색 도깨비불을 보면, 바로 키누한테 알려 {줘}. 그건 사람을 홀리는 사악한 령이니{까}.
+이 마을에선 무나 대파 같은 야채도 많이 기르고 있{어}.
+키누는 쌀 농사에 재능이 있는 것 {같다}.
+키즈아미님을 믿는 사람만이 이 마을의 영적인 힘을 알아챌 수 있{어}.
+라나로 가는 여행자들이 산길을 오르기 전에 이 마을의 여관에서 잠시 쉬고 가곤 {해}.</t>
   </si>
   <si>
     <t xml:space="preserve">私たちはたくさんの米を作って、人間に売ってい{る}。
@@ -1278,6 +1730,22 @@
   </si>
   <si>
     <t xml:space="preserve">foxtown_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마을 밖으로 나가는 건 {무서워}. 인간들은 아무렇지도 않게 귀랑 꼬리를 만지려 드니{까}.
+호로메님이 이 마을의 모두를 지켜보고 있{어}.
+관광객들이 마을의 분위기를 깨뜨리는 게 싫{어}.
+밤에 혼자 벚나무 근처에 있으면, 황금빛 구미호가 보인다는 소문이 있{어}.
+이 마을 사람들은 어렸을 때부터 검술을 배우고 있{어}.
+이 마을에서 파는 밀크는 최고{다}!
+미후는 남쪽에서 쌀을 가져와서, 여기서 술을 담그곤 {해}.
+앵화주는 여신께 바치는 좋은 공물{이다}.
+미즈나 씨는 정말 쭉쭉빵빵{해}. 그 크기가 주는 포용력이 정말 최고{다}!
+미사키와 미즈나 덕분에 이 마을은 안전하게 경영되고 있{어}.
+이 마을의 공기는 북쪽 땅에서도 따듯하고 평온{하다}. 신목은 겨울에도 잎이 지지 {않아}.
+앵화주는 이 마을의 명물{이다}.
+폭포 아래에서 명상을 하면 몸과 마음에서 사악한 것이 씻겨져 나간다{더라}.
+호로메님을 믿는 사람만이 이 마을의 진짜 아름다움을 알아볼 수 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">村の外に出るのは怖い{よ}。人間たちは平気で耳や尻尾に触れてくるから{ね}。
@@ -1315,6 +1783,19 @@
     <t xml:space="preserve">specwing</t>
   </si>
   <si>
+    <t xml:space="preserve">여기는 가도에서 멀리 떨어진 곳이라, 대부분의 물건들은 하늘길을 통해 받고 있{어}.
+스펙윙에는 수많은 모험가들이 모이고, 네피아에 도전하기 전에 파티를 짜고 있{어}.
+스펙윙은 노스티리스의 황야로 향하는 수많은 모험가들의 최후의 보급지점{이다}.
+이 주변에는 위험한 네피아가 많이 있{어}.
+대사관에서 특별한 허가를 받지 못하면 탐사를 할 수 없는 네피아가 근처에 있다{더라}.
+이 마을은 원래 요정들이 살던 곳{이다}.
+모험가들이 찾아오는 덕분에 이 마을도 꽤 커졌{어}.
+나무 위에서 벌어지는 끝없는 연회, 그게 {우리}가 모험가들에게서 돈을 얻어내는 방법{이다}.
+스펙윙을 세운 건 파란 가지 의상을 입은 요정이라{더라}.
+요정의 마법 덕에, 이 나무는 사람들이 살 수 있는데다 건강하게 자라고 있{어}.
+{우리}는 나무를 돌보고, 나무는 {우리}를 지켜주는 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ここは街道から遠く離れているので、ほとんどの物資は空から届けられる{のだ}。
 スペクウィングには多くの冒険者が集まり、ネフィアに挑む前にパーティーを組んで{いる}。
 スペクウィングは、ノースティリスの荒野に向かう多くの冒険者にとって、最後の補給地点なん{だよ}。
@@ -1342,6 +1823,23 @@
   </si>
   <si>
     <t xml:space="preserve">village_exile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#race? 어째서 이 마을에…?
+#race 같은 종족이 뭘 하러 온 {거냐}?
+결계가 이 마을을 몬스터들과 호기심에 찬 눈으로부터 지켜주고 있{어}.
+{우리}는 종종 바깥 세계에서 연구 소재를 구해와야 {해}.
+{내가} 소중하게 여기던 사람들은 이미 죽었고, 이제 바깥 세상에 {나를} 기억하고 있는 사람은 아무도 없{어}.
+{우리}는 신들의 금기를 깨, 위대한 아버지를 섬기는 노동을 하게 됐{어}.
+장로 비체린은 자기가 얼마나 오랜 세월을 살아왔는지 이야기를 잘 안 {해}.
+만약 {네가} 잿더미 말고 다른 맛이 나는 먹을거리를 갖고 있다면, 모두가 기뻐할 {거야}.
+이 마을은 먹을거리가 부족{해}.
+{우리}가 자연스럽게 죽음을 맞이하는 일은 없{어}.
+{우리}가 해방될 날은, 위대한 아버지께서 {우리}가 죗값을 전부 치렀다고 판단하실 때 뿐{이다}.
+위대한 아버지께서 항상 {우리}를 지켜보고 있{어}.
+위대한 아버지께서 {우리}의 속죄를 감독하시니, 그 운명으로부터 도망칠 수는 없{어}.
+시간이 흐르며 {우리}는 물질적인 것에 그다지 관심을 갖지 않게 됐{어}.
+#race, 지금 {YOU}의 앞에 있는 것은 천 년 이상 살아온 추방자{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">#raceが何故この村に…？
@@ -1383,6 +1881,12 @@
     <t xml:space="preserve">conery</t>
   </si>
   <si>
+    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
+길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
+스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
+스타샤 공주님 만세!</t>
+  </si>
+  <si>
     <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
@@ -1398,6 +1902,11 @@
     <t xml:space="preserve">garokk</t>
   </si>
   <si>
+    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
+미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
+시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
+  </si>
+  <si>
     <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
@@ -1409,6 +1918,14 @@
   </si>
   <si>
     <t xml:space="preserve">gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
+오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
+공주님 만세!
+나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
+후하핫!
+약한 자를 돕고, 악을 쳐부수는 거다!</t>
   </si>
   <si>
     <t xml:space="preserve">フハハハハ！…何だ貴様は？
@@ -1430,6 +1947,10 @@
     <t xml:space="preserve">jonan</t>
   </si>
   <si>
+    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
+나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
@@ -1439,6 +1960,12 @@
   </si>
   <si>
     <t xml:space="preserve">lowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
+어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
+이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
+교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者がこんなところに何のようだね？
@@ -1456,6 +1983,11 @@
     <t xml:space="preserve">mapMerchant</t>
   </si>
   <si>
+    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
+그건 그렇고 귀중한 서적들이다.
+눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
@@ -1469,6 +2001,11 @@
     <t xml:space="preserve">miral</t>
   </si>
   <si>
+    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
+파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
+오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
+  </si>
+  <si>
     <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
@@ -1480,6 +2017,12 @@
   </si>
   <si>
     <t xml:space="preserve">nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
+수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
+서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
+아니… 이건 코스프레가 아니다.</t>
   </si>
   <si>
     <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
@@ -1497,6 +2040,9 @@
     <t xml:space="preserve">nola</t>
   </si>
   <si>
+    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
+  </si>
+  <si>
     <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
   </si>
   <si>
@@ -1504,6 +2050,12 @@
   </si>
   <si>
     <t xml:space="preserve">stasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
+팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
+아이돌…? …다른 나라의 말인가요?
+궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
   </si>
   <si>
     <t xml:space="preserve">あら、私に何かご用ですか？
@@ -1521,6 +2073,11 @@
     <t xml:space="preserve">theolucia</t>
   </si>
   <si>
+    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
+패리스 언니는 화나면 무서워요.
+팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
@@ -1534,6 +2091,11 @@
     <t xml:space="preserve">xabi</t>
   </si>
   <si>
+    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
+아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
+길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
@@ -1547,6 +2109,11 @@
     <t xml:space="preserve">zane</t>
   </si>
   <si>
+    <t xml:space="preserve">무엇이냐, 너는?
+이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
+…</t>
+  </si>
+  <si>
     <t xml:space="preserve">何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
@@ -1558,6 +2125,11 @@
   </si>
   <si>
     <t xml:space="preserve">ephrond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
+아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
+태평하긴, 바보 녀석들이.</t>
   </si>
   <si>
     <r>
@@ -1576,7 +2148,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
@@ -1610,7 +2182,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
@@ -1631,6 +2203,11 @@
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
+    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
+이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
+이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
+  </si>
+  <si>
     <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
@@ -1642,6 +2219,13 @@
   </si>
   <si>
     <t xml:space="preserve">barrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 곡 듣겠나?
+예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
+지금은 미실리아야말로 내 고향이다.
+멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
+내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
   </si>
   <si>
     <t xml:space="preserve">一曲聴いてくかい？
@@ -1667,7 +2251,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
@@ -1678,6 +2262,13 @@
   </si>
   <si>
     <t xml:space="preserve">melvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
+우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
+내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
+귀부인들이 절조가 없어서 참 곤란하단 말이야.
+에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
   </si>
   <si>
     <r>
@@ -1696,7 +2287,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
@@ -1714,6 +2305,12 @@
   </si>
   <si>
     <t xml:space="preserve">caldorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 너는?
+모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
+제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
+팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
   </si>
   <si>
     <t xml:space="preserve">何だお主は？
@@ -1739,7 +2336,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
@@ -1750,6 +2347,9 @@
     <t xml:space="preserve">melilith</t>
   </si>
   <si>
+    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
+  </si>
+  <si>
     <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
   </si>
   <si>
@@ -1757,6 +2357,83 @@
   </si>
   <si>
     <t xml:space="preserve">seeker</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
+차라도 들겠나, 큰까마귀.
+나는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">『탐구자』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">… 또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">『이계 방랑자』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
+…하지만, 용케도 이런 외딴 곳을 찾아냈군.
+…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
+이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이 세상 어딘가에, 이르바의 모든 역사와 진상이 담긴 비보가 있다더군….
+영원의 맹약…? 까마득히 오래된 이야기를 알고 있군.
+여어, 큰까마귀여. 빌려간 책은 잘 읽고 있나?
+지식을 후세에 남기는 것이 지식을 가진 자의 의무지.
+여어, 큰까마귀여. 내 벗인 슬란을 못 봤나?
+…이 투구 말인가? 아름다운 짐승이지? 내 오랜 벗이다.
+…얼굴을 가리는 이유? 십년전쟁 이래로 엘레아는 얼굴을 들 면목이 없어서 말이야….
+…벗이란 모두, 한 발 빠르게 떠나 버리지….
+아무래도, 강아지 여동생의 저택이라는 환상을 좇고 있는 어떤 광인이 있는 모양이다.
+또 전쟁이 일어나려나.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
@@ -1816,12 +2493,18 @@
     <t xml:space="preserve">quru</t>
   </si>
   <si>
+    <t xml:space="preserve">왜?</t>
+  </si>
+  <si>
     <t xml:space="preserve">何？</t>
   </si>
   <si>
     <t xml:space="preserve">kettle</t>
   </si>
   <si>
+    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
+  </si>
+  <si>
     <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
   </si>
   <si>
@@ -1829,6 +2512,16 @@
   </si>
   <si>
     <t xml:space="preserve">strange_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
+그 괴물들이랑 똑같은 취급 하지 마.
+아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
+아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
+아빠는 곧 돌아오실 거야.
+부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
+그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
+저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
   <si>
     <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
@@ -1854,6 +2547,9 @@
     <t xml:space="preserve">moyer</t>
   </si>
   <si>
+    <t xml:space="preserve">아앗, 돌돌이 추첨기를 돌리러 온 거야?</t>
+  </si>
+  <si>
     <t xml:space="preserve">おっとガラガラを引きに来たのかい？</t>
   </si>
   <si>
@@ -1861,6 +2557,16 @@
   </si>
   <si>
     <t xml:space="preserve">miko_mifu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리는 축복이기도 하고, 저주이기도 합니다. 관점을 바꾸면 연약함 또한 강인함이 되지요.
+삶에 죽음이 없고, 하늘에 지옥이 없고, 만남에 이별이 없고, 기쁨에 슬픔이 없는 세계 같은 건 존재하지 않아요.
+저는 축복의 무녀로서, 매년 이 마을에서 봉인의 의식을 지도하는 역할을 맡고 있습니다.
+키즈아미님의 축복은 누구든지 받을 수 있습니다. 그 힘은 이 세계에 개입하는 것으로써, 신앙심이 없는 자조차도 느낄 수 있겠지요.
+우리가 기르는 벼는 풍부한 영력을 품고 있습니다. 봉인의 의식에 없어서는 안 되는 것이죠.
+유후는 비뚤어진 부정한 신입니다. 신들 간에 벌어지는 다툼을 전부 없애고, 이상적인 평화를 이르바에 가져오고자 했지요.
+무녀직을 이어받겠다고 결심했을 때, 저는 옛 이름을 버리고 「키누」 라는 이름을 쓰게 됐습니다. 언젠가 제 딸이 저와 같은 길을 걷게 되겠죠.
+영원한 여름이란 없고, 계절은 돌고 도며, 끝내 겨울은 찾아옵니다. 축복도 영원히는 이어지지 않고, 불행 또한 그러합니다.</t>
   </si>
   <si>
     <t xml:space="preserve">私たちは祝福でもあり、呪いでもあります。見方を変えれば、弱さもまた強さに変わるのです。
@@ -1884,6 +2590,19 @@
   </si>
   <si>
     <t xml:space="preserve">miko_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유후는 신들의 전쟁을 이용해 이르바를 지배하고자 했던, 사악한 부정의 신이었어.
+우리는 신수의 광장에서 의식의 춤을 바쳐.
+호로메님께선 모든 생명을 사랑하시고, 신앙심이 없는 자에게조차 작은 축복을 내려주셔.
+칼날의 무녀로서, 나는 매년 봉인의 의식으로 칼춤을 춰.
+벚꽃잎은 여신의 눈물처럼 흩날리고, 우리의 마음에 덧없는 느낌을 새기지.
+의식에 쓰이는 칼은 여신을 숭배하는 데에 중요한 역할을 해.
+호로메님께선 아이들을 아끼셔서, 대가족을 이룬 자에게 축복을 내려주셔. 네후는 결코 인구가 많은 종족은 아니지만, 대가족은 큰 존경을 받아.
+내 칼은 무녀들 사이에서 대대로 전해 내려온 물건이야.
+칼날의 무녀들은 각자 그 칼에 새로운 전설을 새기는 것을 목표로 삼지.
+우리 여신님께서는 힘과 아름다움이 반대되는 게 아니라고 가르치셔. 네후의 칼춤은 그 둘 모두를 체현하는 게 목적이야.
+네후 마을은 신수를 지키기 위해 세워졌어.</t>
   </si>
   <si>
     <t xml:space="preserve">ユフは、神々の戦争を操り、イルヴァを支配しようとした邪悪な負の神だった。
@@ -1913,6 +2632,20 @@
   </si>
   <si>
     <t xml:space="preserve">eureka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가신가요? 이런 곳까지 오시다니 참 별난 분이시네요.
+저는 주님께 이곳을 수호하라는 명을 받았습니다. 대단한 영예긴 하지만… 가끔씩은 좀 심심하네요.
+이반님의 가르침은 가혹하다고들 하지만, 그건 필멸자들에게 깊은 애정과 기대를 품고 계시기 때문이기도 합니다.
+기계는 싫어요. 피를 안 흘리니까.
+저랑 모의전 한 판 어떠세요? 최근에 투쟁이 좀 부족해서.
+빌리씨한테 저 가시만 없었으면…
+고양이는 정말 귀여운 동물이네요…
+전장의 화약 냄새가 그리워요. 저 좀 데려다 주지 않으실래요?
+여기는 풍경이 아름답지만, 생활하기는 불편하단 말이죠. 가끔 북쪽에 있는 미후 마을에 놀러 가는 게 소소한 즐거움이에요.
+이곳에 잠들어 있는 부정한 신에게 도전하신다면 말리지는 않을게요. 이반님께서도 기뻐하실 것 같고.
+에테르는 정말로 흥미로운 물질이네요. 좋은 쪽이든 나쁜 쪽이든, 이후 인류의 방향을 좌우할 것 같아요.
+처음 보는 여우족을 쓰다듬는 건 실례일까요?</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者ですか？こんな場所まで来るとは、物好きですね。
@@ -1946,6 +2679,9 @@
     <t xml:space="preserve">merchant_inn_fox</t>
   </si>
   <si>
+    <t xml:space="preserve">이 목걸이? 물론 쌀이 들어 있어. 우리 마을은 밀을 안 키우니까.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この首飾り？もちろん中身は米よ。私たちの村では小麦は育てていないから。</t>
   </si>
   <si>
@@ -1953,6 +2689,15 @@
   </si>
   <si>
     <t xml:space="preserve">merchant_inn_fox2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 여관은 원래 순례자들을 맞이하기 위해 지었지만, 최근에는 관광객도 많이 늘었어요.
+어서 오세요! 식사하실 건가요? 아니면 목욕? 아니면…?
+왜 갑자기 마을이 인기가 있어진 건지 잘 모르겠지만, 바쁜 것도 나쁘진 않네요!
+관광객 분들이 미사키의 경고를 무시하고 신성한 나무에 가까이 가서 참 곤란해요. 정말이지, 경의가 부족하단 말이죠.
+저희끼리는 자급자족이 되지만, 미후 마을에서 식량을 보내 주지 않았다면 관광객들을 접대하지는 못했을 거예요.
+왜 인간들은 저희 귀와 꼬리에 그렇게 관심이 있는 걸까요?
+미사키는 신전을 지키고, 저는 여관을 담당하고 있죠. 이대로라면 장로님이 할 일이 얼마 안 남겠네요!</t>
   </si>
   <si>
     <t xml:space="preserve">この宿は元々巡礼者を迎えるために建てられたのですが、最近は観光客も増えてきました。
@@ -1974,6 +2719,18 @@
   </si>
   <si>
     <t xml:space="preserve">adv_kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 왜 만들어진 건지 알고 있어? 몰라? 그럴 것 같았어.
+집 같은 장소를 꿈에서 봤는데, 어떻게 해야 돌아갈 수 있는지는 기억이 안 나.
+눈을 떴을 때부터 이 무기를 갖고 있었어. 정말 무거워. 찌르기? 쏘기? 둘 다 하면 되지.
+「네ー에! 모두의 아이돌, 기계 인형 키리아 쨩이야 키리～!」…나한테 아이돌 모듈 같은 게 있었어? 언제 녹음했었지?
+기계의 마니는 허무를 들을 수 있는 자에게 속삭인다고 들었어. 그 사람이라면, 내가 왜 만들어졌는지 알고 있을지도.
+*zzt* 또 손상된 기억… 이곳에 뭘 하러 왔더라?
+*beep* 현재 정기 메인터넌스 중입니다. 잠시만 기다려 주십시오.
+내가 작은 골렘이라고? 말도 안 돼.
+버그? 글리치? 그건 기능이야.
+*물끄러미* 칫.</t>
   </si>
   <si>
     <t xml:space="preserve">なぜ私が作られたのか知ってる？ いいえ？ だと思った。
@@ -2003,6 +2760,18 @@
     <t xml:space="preserve">adv_gaki</t>
   </si>
   <si>
+    <t xml:space="preserve">하늘빛 튤립? 여기 저기 여행을 다녔었지만 본 적 없어.
+기묘한 병이 새로 유행한다네…… 뿔 하나 달아주지 않으려나～
+화나게 만들면 이상한 저주를 거는 신이 있으니까 조심하라구.
+카지노의 딜러 말이야, 언젠가 그 손모가지를 날려버릴 거야……!
+알의 알♪ 토막의 토막♪ 토막의 알♪
+위에도 위가 있어. 허접 밑에도 허접이 있고. #brother2는 어느 쪽일까나～?
+뿔을…… 아니 칼을 하나 더 갖고 있었는데, 여행하다가 잃어버려서 말이야.
+맛있는 거 먹을 때가 제일 행복해ー♪
+가키 쨩이 왔어. 빨리 대접해줘 빨리 빨리.
+강한데다 귀엽기까지 하다고? 그거 가키 쨩 말하는 거네☆</t>
+  </si>
+  <si>
     <t xml:space="preserve">空色のチューリップ？ 色々旅してきたけど見たことないよ。
 新しい奇妙な病気が流行ってるらしい……ツノでも生えないかな～。
 怒らせると変な呪いをかけてくる神がいるから気を付けようね。
@@ -2030,6 +2799,18 @@
     <t xml:space="preserve">adv_mesherada</t>
   </si>
   <si>
+    <t xml:space="preserve">두 혼이 다시 한 번 얽히고, 우리가 약속을 다할 그 때를 기다리고 있어… 그렇지 않나?
+혹시 그대가 내가 찾는 사람이라면… 틀림없이 운명이 우리에게 속삭이겠지.
+그대에게서는, 시간의 저편에서 잃어버렸다고 생각했던 평온함을 느낄 수 있어.
+그대의 혼은 그리운 느낌이야… 마치 언어가 생겨나기 전에 만났던 것 같은.
+이 순간이 영원히 계속되면 좋으련만… 그대의 온기를 조금 더 느끼고 싶으니.
+그대는 그저 상냥한 낯선 이일 뿐인가… 아니면 시간을 뛰어넘어 쫓아온 잔영인가…
+내 눈앞의 그대의 이름을, 나는 아직 부를 수가 없구나.
+이상하군… 그대의 곁에 있으면 어째서인지 정말 안심이 돼.
+그대도 느끼고 있는 건가…? 우리를 묶는 실이 팽팽해져 있는 것을?
+수없는 길을 걸어도… 그 앞에는 반드시 그대가 있을 테지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">魂が再び絡み合い、私たちが約束を果たすその時を待っている…そうではないか？ 
 もしそなたが私の探し人なら…きっと運命が二人に囁くだろう。
 そなたには、時の彼方に失われたと思っていた安らぎを感じる。
@@ -2057,6 +2838,18 @@
     <t xml:space="preserve">olderyoungersister</t>
   </si>
   <si>
+    <t xml:space="preserve">내가 언제 태어났는지가 신경 쓰여, #brother2? 아주 아주 먼 옛날이야, #brother2…
+#brother2를 찾아서 쭉 이 세상을 방황했어… 그러니까 정말 있더라구, #brother2가!
+#brother2… 쭉… 함께 있어줄 거지…? 조금 불안해졌을 뿐이야, #brother2.
+#brother2를 위해서 싸움도 집안일도, 여러가지 잘 해낼 수 있게 되고 싶어.
+하느님은 가끔씩 잔혹하시구나, #brother2…
+난 #brother2를 옭아매지 않을 거야! 진짜야!
+내 목소리에는 혼돈의 힘이 담겨 있는 것 같아.
+이 세상에 나 말고도 #brother2랑 피가 이어지지 않은 여동생들이 있대!
+눈 쁘띠 쨩을 쓰담쓰담 하고 싶어! 쓰다듬고 싶다구 #brother2!
+눈 쁘띠 쨩들 중에선 색이 다른 아이가 있어, #brother2. 모두 맞이해줄 수 있다면 정말 좋겠네, #brother2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私がいつ生まれたのか気になるの#brother2？遠い遠い遥か昔の事だよ#brother2…
 ずっと#brother2を求めてこの世界を彷徨っていたの…そしたらいたのよ#brother2が！
 #brother2ずっと…一緒だよね…？ちょっと不安になっただけだよ#brother2。
@@ -2084,6 +2877,36 @@
     <t xml:space="preserve">fairy_nanasu</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">나는 나나스, 가지의 요정이야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">～
+뭐 좋아하냐고? 물론 가지지～
+스펙윙은 아주 좋은 곳이야～ 모두 즐겁게 춤을 추니까～
+모험으로 얻을 수 있는 보물도 물론 좋지만, 제일 기쁜 건 함께 모험해서 얻은 유대야～
+모험하다 만난 새 동료랑 한잔 걸친 적 많아- 엄청 즐거웠지～
+물론 슬픈 일도 있지만, 그래도 또 새로운 만남이 있을 거라 믿고 앞으로 나아가니까 지금의 내가 있는 거지～
+만남은 언젠가는 끝이 나겠지만, 그 동안에 얻은 건 결코 헛되지 않다고 생각해～
+옛날에 스펙윙을 만들었다고 하는 파란 가지 정령… 언젠가는 뛰어넘고 싶네～
+실은 어렸을 때 파란 가지 정령 밑에서 배운 적이 있어- 그녀는 요정이었지만, 엄청 강인했어～</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～
 好きな物はなにかって？もちろんナスだよ～
 スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～
@@ -2105,730 +2928,6 @@
 The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
 when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
   </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자, 천천히 {먹어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{간다}!
-우후후.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">취미는 #1 정도{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">놀리는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">흥!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">답도 없는 변태{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
-진심{이야}?
-지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
-그렇게 나와{야지}!
-{좋아}, {YOU}의 힘을 보여{줘}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{뭐야}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한가{하다}.
-응? 뭔가 볼일이라도 있{는가}?
-가끔씩은 호화스러운 식사를 하고 {싶다}.
-영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
-눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
-고양이는 왜 이렇게 귀여운 {걸까}.
-#aka? …누굴 말하는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
-하여간 이 세상에선 돈이 중요{해}.
-어디 돈 좀 떨어져 있으면 좋을 {텐데}.
-플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
-에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
-에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
-신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
-루미에스트는 예술의 거리로 유명{해}.
-노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
-여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
-에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
-신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
-아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
-신이 없다면 이 세계는 의미가 없{어}.
-치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
-가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
-쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
-행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
-기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
-이제부터는 인간의 시대{다}!
-{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
-엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
-예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
-숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
-어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
-물건 보는 눈은 자신 있{어}.
-가게 경영은 꽤 어렵{네}.
-건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
-다른 가게에서는 발밑이 안 보이게 조심{해라}.
-만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
-자, {내가} 자신있게 고른 상품들을 둘러{봐}.
-요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
-무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
-수상한 사람을 보면 알려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
-돈으로 살 수 없는 것들도 있{지}.
-본 지점에 어서 {와}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손님도 이쪽 사람이{네}.
-히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
-(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
-록 스로어가 던지는 바위를 무시하면 안 {돼}.
-꿈속에서 {내가} 믿는 신을 만났{어}!
-귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
-파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
-도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
-저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
-바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
-이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
-세금을 안 내면 나중에 골치 아파{져}.
-정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
-태양의 빛을 내는 신비한 램프가 있다{더라}.
-월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
-그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
-허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
-수영을 연습{해라}. 내구력이 단련된다{고}!
-미식가들은 독버섯도 구별할 수 있다{더라}.
-자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
-의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
-소재 망치를 평범한 물건에 막 쓰지 마라!
-영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
-질 좋은 침대에서 자면 수면 효과가 좋아진다.
-몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
-독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
-큐브는 상태이상이 걸려 있다면 분열하지 못한다.
-아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
-소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
-환혹 내성이 충분하다면 광기 상태가 되지 않는다.
-지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
-젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
-단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
-강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
-수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
-지팡이는 땅에 한동안 놔 두면 충전된다!
-소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
-보석은 플래티넘 코인으로 교환할 수 있다.
-보물 지도는 항상 축복해서 읽어라.
-냐…아…아아…
-무엇을 바라는가?
-채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
-신을 펫으로 만드는 방법도 있다고 한다.
-문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
-일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
-뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
-아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
-당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
-고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
-경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
-여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
-달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
-카르마가 높으면 세금이 감면된다.
-몬스터의 똥은 무거울수록 비싸게 팔린다.
-저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
-헤르메스의 피는 *반드시* 축복해서 마셔라!
-귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
-용무가 있{는가}? {나는} 바쁜 몸{이다}.
-마을에 투자하겠다면 언제든 환영{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
-제가 도움이 되어 드릴 일이 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
-십년전쟁으로 이 나라는 큰 타격을 입었{어}.
-죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
-십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
-미실리아는 앞으로 어떻게 되는 걸{까}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
-시오루시아는 정말로 학구열이 대단해서 감동했{어}.
-올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
-패리스한테 실컷 매도당하고 {싶다}.
-오르비나는 미실리아 최고의 관광지{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
-지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}.
-그 길에 관심 있으면 도적 길드로 가 {봐}.
-이 세상은 노예가 필요{해}.
-아레나에서 피 튀기는 걸 보는 게 {좋아}.
-이 마을에는 경비병이 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
-팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
-쟈비님과 스타샤님은 정말로 사이가 {좋아}.
-팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
-말이라면 여기서 사가는 게 {좋아}.
-수확기에는 항상 일손이 모자라{지}.
-아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
-서쪽에 무법자들의 마을이 있다{더라}.
-마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
-어딘가에 온천으로 유명한 마을이 있다{더라}.
-이 마을은 어디서든지 낚시를 할 수 있{어}.
-그림 얘기로는 하루종일 떠들 수 있{어}.
-마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
-하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
-매일매일 눈 치우는 게 큰일{이다}.
-죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
-추워!
-여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바닷바람 향기가 좋{네}.
-펫 아레나에서 경기 보는 게 취미{다}.
-더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
-이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
-피라미드에는 어떻게 들어가는 걸{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{우리}는 쌀을 많이 만들어서 인간들에게 팔고 있{어}.
-키즈아미님이 이 마을의 수호신{이다}.
-이 마을의 강은 라나 근처 산에서부터 흐르는 {거야}.
-{우리} 선조는 이 언덕을 깎아 논밭을 만들고 벼농사를 짓기 시작하셨{어}.
-이 마을 사람들은 모두 서예에 조예가 있{어}.
-서예에 관심 있으면, 잡화상에서 서예도구를 사 {봐}.
-혹시 밭 근처에서 금색 도깨비불을 보면, 바로 키누한테 알려 {줘}. 그건 사람을 홀리는 사악한 령이니{까}.
-이 마을에선 무나 대파 같은 야채도 많이 기르고 있{어}.
-키누는 쌀 농사에 재능이 있는 것 {같다}.
-키즈아미님을 믿는 사람만이 이 마을의 영적인 힘을 알아챌 수 있{어}.
-라나로 가는 여행자들이 산길을 오르기 전에 이 마을의 여관에서 잠시 쉬고 가곤 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을 밖으로 나가는 건 {무서워}. 인간들은 아무렇지도 않게 귀랑 꼬리를 만지려 드니{까}.
-호로메님이 이 마을의 모두를 지켜보고 있{어}.
-관광객들이 마을의 분위기를 깨뜨리는 게 싫{어}.
-밤에 혼자 벚나무 근처에 있으면, 황금빛 구미호가 보인다는 소문이 있{어}.
-이 마을 사람들은 어렸을 때부터 검술을 배우고 있{어}.
-이 마을에서 파는 밀크는 최고{다}!
-미후는 남쪽에서 쌀을 가져와서, 여기서 술을 담그곤 {해}.
-앵화주는 여신께 바치는 좋은 공물{이다}.
-미즈나 씨는 정말 쭉쭉빵빵{해}. 그 크기가 주는 포용력이 정말 최고{다}!
-미사키와 미즈나 덕분에 이 마을은 안전하게 경영되고 있{어}.
-이 마을의 공기는 북쪽 땅에서도 따듯하고 평온{하다}. 신목은 겨울에도 잎이 지지 {않아}.
-앵화주는 이 마을의 명물{이다}.
-폭포 아래에서 명상을 하면 몸과 마음에서 사악한 것이 씻겨져 나간다{더라}.
-호로메님을 믿는 사람만이 이 마을의 진짜 아름다움을 알아볼 수 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여기는 가도에서 멀리 떨어진 곳이라, 대부분의 물건들은 하늘길을 통해 받고 있{어}.
-스펙윙에는 수많은 모험가들이 모이고, 네피아에 도전하기 전에 파티를 짜고 있{어}.
-스펙윙은 노스티리스의 황야로 향하는 수많은 모험가들의 최후의 보급지점{이다}.
-이 주변에는 위험한 네피아가 많이 있{어}.
-대사관에서 특별한 허가를 받지 못하면 탐사를 할 수 없는 네피아가 근처에 있다{더라}.
-이 마을은 원래 요정들이 살던 곳{이다}.
-모험가들이 찾아오는 덕분에 이 마을도 꽤 커졌{어}.
-나무 위에서 벌어지는 끝없는 연회, 그게 {우리}가 모험가들에게서 돈을 얻어내는 방법{이다}.
-스펙윙을 세운 건 파란 가지 의상을 입은 요정이라{더라}.
-요정의 마법 덕에, 이 나무는 사람들이 살 수 있는데다 건강하게 자라고 있{어}.
-{우리}는 나무를 돌보고, 나무는 {우리}를 지켜주는 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#race? 어째서 이 마을에…?
-#race 같은 종족이 뭘 하러 온 {거냐}?
-결계가 이 마을을 몬스터들과 호기심에 찬 눈으로부터 지켜주고 있{어}.
-{우리}는 종종 바깥 세계에서 연구 소재를 구해와야 {해}.
-{내가} 소중하게 여기던 사람들은 이미 죽었고, 이제 바깥 세상에 {나를} 기억하고 있는 사람은 아무도 없{어}.
-{우리}는 신들의 금기를 깨, 위대한 아버지를 섬기는 노동을 하게 됐{어}.
-장로 비체린은 자기가 얼마나 오랜 세월을 살아왔는지 이야기를 잘 안 {해}.
-만약 {네가} 잿더미 말고 다른 맛이 나는 먹을거리를 갖고 있다면, 모두가 기뻐할 {거야}.
-이 마을은 먹을거리가 부족{해}.
-{우리}가 자연스럽게 죽음을 맞이하는 일은 없{어}.
-{우리}가 해방될 날은, 위대한 아버지께서 {우리}가 죗값을 전부 치렀다고 판단하실 때 뿐{이다}.
-위대한 아버지께서 항상 {우리}를 지켜보고 있{어}.
-위대한 아버지께서 {우리}의 속죄를 감독하시니, 그 운명으로부터 도망칠 수는 없{어}.
-시간이 흐르며 {우리}는 물질적인 것에 그다지 관심을 갖지 않게 됐{어}.
-#race, 지금 {YOU}의 앞에 있는 것은 천 년 이상 살아온 추방자{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
-길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
-스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
-스타샤 공주님 만세!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
-미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
-시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
-오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
-공주님 만세!
-나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
-후하핫!
-약한 자를 돕고, 악을 쳐부수는 거다!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
-나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
-어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
-이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
-교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
-그건 그렇고 귀중한 서적들이다.
-눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
-파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
-오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
-수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
-서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
-아니… 이건 코스프레가 아니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
-팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
-아이돌…? …다른 나라의 말인가요?
-궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
-패리스 언니는 화나면 무서워요.
-팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
-아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
-길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무엇이냐, 너는?
-이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
-…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
-아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
-태평하긴, 바보 녀석들이.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
-이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
-이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한 곡 듣겠나?
-예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
-지금은 미실리아야말로 내 고향이다.
-멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
-내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
-우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
-내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
-귀부인들이 절조가 없어서 참 곤란하단 말이야.
-에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐 너는?
-모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
-제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
-팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
-차라도 들겠나, 큰까마귀.
-나는 "탐구자"… 또는 "이계 방랑자"라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
-…하지만, 용케도 이런 외딴 곳을 찾아냈군.
-…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
-이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왜?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
-그 괴물들이랑 똑같은 취급 하지 마.
-아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
-아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
-아빠는 곧 돌아오실 거야.
-부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
-그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
-저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아앗, 돌돌이 추첨기를 돌리러 온 거야?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우리는 축복이기도 하고, 저주이기도 합니다. 관점을 바꾸면 연약함 또한 강인함이 되지요.
-삶에 죽음이 없고, 하늘에 지옥이 없고, 만남에 이별이 없고, 기쁨에 슬픔이 없는 세계 같은 건 존재하지 않아요.
-저는 축복의 무녀로서, 매년 이 마을에서 봉인의 의식을 지도하는 역할을 맡고 있습니다.
-키즈아미님의 축복은 누구든지 받을 수 있습니다. 그 힘은 이 세계에 개입하는 것으로써, 신앙심이 없는 자조차도 느낄 수 있겠지요.
-우리가 기르는 벼는 풍부한 영력을 품고 있습니다. 봉인의 의식에 없어서는 안 되는 것이죠.
-유후는 비뚤어진 부정한 신입니다. 신들 간에 벌어지는 다툼을 전부 없애고, 이상적인 평화를 이르바에 가져오고자 했지요.
-무녀직을 이어받겠다고 결심했을 때, 저는 옛 이름을 버리고 「키누」 라는 이름을 쓰게 됐습니다. 언젠가 제 딸이 저와 같은 길을 걷게 되겠죠.
-영원한 여름이란 없고, 계절은 돌고 도며, 끝내 겨울은 찾아옵니다. 축복도 영원히는 이어지지 않고, 불행 또한 그러합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유후는 신들의 전쟁을 이용해 이르바를 지배하고자 했던, 사악한 부정의 신이었어.
-우리는 신수의 광장에서 의식의 춤을 바쳐.
-호로메님께선 모든 생명을 사랑하시고, 신앙심이 없는 자에게조차 작은 축복을 내려주셔.
-칼날의 무녀로서, 나는 매년 봉인의 의식으로 칼춤을 춰.
-벚꽃잎은 여신의 눈물처럼 흩날리고, 우리의 마음에 덧없는 느낌을 새기지.
-의식에 쓰이는 칼은 여신을 숭배하는 데에 중요한 역할을 해.
-호로메님께선 아이들을 아끼셔서, 대가족을 이룬 자에게 축복을 내려주셔. 네후는 결코 인구가 많은 종족은 아니지만, 대가족은 큰 존경을 받아.
-내 칼은 무녀들 사이에서 대대로 전해 내려온 물건이야.
-칼날의 무녀들은 각자 그 칼에 새로운 전설을 새기는 것을 목표로 삼지.
-우리 여신님께서는 힘과 아름다움이 반대되는 게 아니라고 가르치셔. 네후의 칼춤은 그 둘 모두를 체현하는 게 목적이야.
-네후 마을은 신수를 지키기 위해 세워졌어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가신가요? 이런 곳까지 오시다니 참 별난 분이시네요.
-저는 주님께 이곳을 수호하라는 명을 받았습니다. 대단한 영예긴 하지만… 가끔씩은 좀 심심하네요.
-이반님의 가르침은 가혹하다고들 하지만, 그건 필멸자들에게 깊은 애정과 기대를 품고 계시기 때문이기도 합니다.
-기계는 싫어요. 피를 안 흘리니까.
-저랑 모의전 한 판 어떠세요? 최근에 투쟁이 좀 부족해서.
-빌리씨한테 저 가시만 없었으면…
-고양이는 정말 귀여운 동물이네요…
-전장의 화약 냄새가 그리워요. 저 좀 데려다 주지 않으실래요?
-여기는 풍경이 아름답지만, 생활하기는 불편하단 말이죠. 가끔 북쪽에 있는 미후 마을에 놀러 가는 게 소소한 즐거움이에요.
-여기 있는, 잠들어 있는 부정한 신에게 도전하신다면 말리지는 않을게요. 이반님께서도 기뻐하실 것 같고.
-에테르는 정말로 흥미로운 물질이네요. 좋은 쪽이든 나쁜 쪽이든, 이후 인류의 방향을 좌우할 것 같아요.
-처음 보는 여우족을 쓰다듬는 건 실례일까요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 목걸이? 물론 쌀이 들어 있어. 우리 마을은 밀을 안 키우니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 여관은 원래 순례자들을 맞이하기 위해 지었지만, 최근에는 관광객도 많이 늘었어요.
-어서 오세요! 식사하실 건가요? 아니면 목욕? 아니면…?
-왜 갑자기 마을이 인기가 있어진 건지 잘 모르겠지만, 바쁜 것도 나쁘진 않네요!
-관광객 분들이 미사키의 경고를 무시하고 신성한 나무에 가까이 가서 참 곤란해요. 정말이지, 경의가 부족하단 말이죠.
-저희끼리는 자급자족이 되지만, 미후 마을에서 식량을 보내 주지 않았다면 관광객들을 접대하지는 못했을 거예요.
-왜 인간들은 저희 귀와 꼬리에 그렇게 관심이 있는 걸까요?
-미사키는 신전을 지키고, 저는 여관을 담당하고 있죠. 이대로라면 장로님이 할 일이 얼마 안 남겠네요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내가 왜 만들어진 건지 알고 있어? 몰라? 그럴 것 같았어.
-집 같은 장소를 꿈에서 봤는데, 어떻게 해야 돌아갈 수 있는지는 기억이 안 나.
-눈을 떴을 때부터 이 무기를 갖고 있었어. 정말 무거워. 찌르기? 쏘기? 둘 다 하면 되지.
-「네ー에! 모두의 아이돌, 기계 인형 키리아 쨩이야 키리～!」…나한테 아이돌 모듈 같은 게 있었어? 언제 녹음했었지?
-기계의 마니는 허무를 들을 수 있는 자에게 속삭인다고 들었어. 그 사람이라면, 내가 왜 만들어졌는지 알고 있을지도.
-*zzt* 또 손상된 기억… 이곳에 뭘 하러 왔더라?
-*beep* 현재 정기 메인터넌스 중입니다. 잠시만 기다려 주십시오.
-내가 작은 골렘이라고? 말도 안 돼.
-버그? 글리치? 그건 기능이야.
-*물끄러미* 칫.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘빛 튤립? 여기 저기 여행을 다녔었지만 본 적 없어.
-기묘한 병이 새로 유행한다네…… 뿔 하나 달아주지 않으려나～
-화나게 만들면 이상한 저주를 거는 신이 있으니까 조심하라구.
-카지노의 딜러 말이야, 언젠가 그 손모가지를 날려 줄 거야……!
-알의 알♪ 토막의 토막♪ 토막의 알♪
-위에도 위가 있어. 허접 밑에도 허접이 있고. #brother2는 어느 쪽일까나～?
-뿔을…… 아니 칼을 하나 더 갖고 있었는데, 여행하다가 잃어버려서 말이야.
-맛있는 거 먹을 때가 제일 행복해ー♪
-가키 쨩이 왔어. 빨리 대접해줘 빨리 빨리.
-강한데다 귀엽기까지 하다고? 그거 가키 쨩 말하는 거네☆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">두 혼이 다시 한 번 얽히고, 우리가 약속을 다할 그 때를 기다리고 있어… 그렇지 않나?
-혹시 그대가 내가 찾는 사람이라면… 틀림없이 운명이 우리에게 속삭이겠지.
-그대에게서는, 시간의 저편에서 잃어버렸다고 생각했던 평온함을 느낄 수 있어.
-그대의 혼은 그리운 느낌이야… 마치 언어가 생겨나기 전에 만났던 것 같은.
-이 순간이 영원히 계속되면 좋으련만… 그대의 온기를 조금 더 느끼고 싶으니.
-그대는 그저 상냥한 낯선 이일 뿐인가… 아니면 시간을 뛰어넘어 쫓아온 잔영인가…
-내 눈앞의 그대의 이름을, 나는 아직 부를 수가 없구나.
-이상하군… 그대의 곁에 있으면 어째서인지 정말 안심이 돼.
-그대도 느끼고 있는 건가…? 우리를 묶는 실이 팽팽해져 있는 것을?
-수없는 길을 걸어도… 그 앞에는 반드시 그대가 있을 테지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내가 언제 태어났는지가 신경 쓰여, #brother2? 아주 아주 먼 옛날이야, #brother2…
-#brother2를 찾아서 쭉 이 세상을 방황했어… 그러니까 정말 있더라구, #brother2가!
-#brother2… 쭉… 함께 있어줄 거지…? 조금 불안해졌을 뿐이야, #brother2.
-#brother2를 위해서 싸움도 집안일도, 여러가지 잘 해낼 수 있게 되고 싶어.
-하느님은 가끔씩 잔혹하시구나, #brother2…
-난 #brother2를 옭아매지 않을 거야! 진짜야!
-내 목소리에는 혼돈의 힘이 담겨 있는 것 같아.
-이 세상에 나 말고도 #brother2랑 피가 이어지지 않은 여동생들이 있대!
-눈 쁘띠 쨩을 쓰담쓰담 하고 싶어! 쓰다듬고 싶다구 #brother2!
-눈 쁘띠 쨩들 중에선 색이 다른 아이가 있어, #brother2. 모두 맞이해줄 수 있다면 정말 좋겠네, #brother2.</t>
-  </si>
 </sst>
 </file>
 
@@ -2837,7 +2936,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2848,20 +2947,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2874,14 +2973,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2913,7 +3019,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2922,82 +3028,82 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3072,7 +3178,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3081,12 +3187,12 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>286560</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>909000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -3094,13 +3200,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49665960" cy="125280"/>
+          <a:ext cx="49665600" cy="124920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -3228,29 +3334,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B78" sqref="B78"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.53" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.34" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.34"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
+    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3264,1047 +3370,1050 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1"/>
-    <row r="3" ht="12" customHeight="1"/>
-    <row r="4" ht="12" customHeight="1"/>
-    <row r="5" ht="12" customHeight="1">
+    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>420</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>421</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>422</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>423</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>424</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>425</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>426</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>427</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>428</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>429</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>431</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>432</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>433</v>
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>434</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>435</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>436</v>
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>437</v>
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>438</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>439</v>
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="20.1" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>440</v>
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" ht="20.1" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>441</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" ht="20.1" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>442</v>
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" ht="20.1" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>443</v>
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" ht="20.1" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>444</v>
+        <v>100</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" ht="20.1" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>445</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>446</v>
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>444</v>
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="12.8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>445</v>
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>447</v>
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" ht="12.8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>448</v>
+        <v>118</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="12.8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>449</v>
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" ht="12.8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>450</v>
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" ht="12.8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>451</v>
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>452</v>
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" ht="12.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>453</v>
+        <v>138</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>454</v>
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>455</v>
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" ht="12.8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>456</v>
+        <v>150</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" ht="12.8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>457</v>
+        <v>154</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>458</v>
+        <v>158</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" ht="22.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>459</v>
+        <v>162</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>460</v>
+        <v>166</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" t="s">
-        <v>461</v>
+        <v>170</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>462</v>
+        <v>174</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>463</v>
+        <v>178</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>464</v>
+        <v>182</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" ht="22.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>465</v>
+        <v>186</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" ht="12.8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" t="s">
-        <v>466</v>
+        <v>190</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>467</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" ht="12.8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>198</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" ht="12.8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" t="s">
-        <v>468</v>
+        <v>202</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" ht="12.8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>469</v>
+        <v>206</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" ht="12.8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" t="s">
-        <v>470</v>
+        <v>210</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>471</v>
+        <v>214</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>472</v>
+        <v>218</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>473</v>
+        <v>222</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" ht="12.8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" t="s">
-        <v>474</v>
+        <v>226</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" t="s">
-        <v>475</v>
+        <v>230</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" ht="12.8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>476</v>
+        <v>234</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" ht="12.8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" t="s">
-        <v>477</v>
+        <v>238</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" ht="32.8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" t="s">
-        <v>478</v>
+        <v>242</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" ht="32.8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" t="s">
-        <v>479</v>
+        <v>246</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" ht="12.8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>480</v>
+        <v>250</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" t="s">
-        <v>481</v>
+        <v>254</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" t="s">
-        <v>482</v>
+        <v>258</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" ht="12.8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>483</v>
+        <v>262</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" ht="12.8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" t="s">
-        <v>484</v>
+        <v>266</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" ht="12.8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" t="s">
-        <v>485</v>
+        <v>270</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" ht="22.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>486</v>
+        <v>274</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" ht="12.8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>487</v>
+        <v>278</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" ht="12.8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" t="s">
-        <v>488</v>
+        <v>282</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" ht="12.8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B77" t="s">
-        <v>489</v>
+        <v>286</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" ht="12.8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B78" t="s">
-        <v>490</v>
+        <v>290</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4313,29 +4422,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
-    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
-    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4349,287 +4458,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" t="s">
-        <v>491</v>
+        <v>294</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" ht="43.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" t="s">
-        <v>492</v>
+        <v>298</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" t="s">
-        <v>493</v>
+        <v>302</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" ht="43.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" t="s">
-        <v>494</v>
+        <v>306</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" ht="43.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>495</v>
+        <v>310</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" ht="74.6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" t="s">
-        <v>496</v>
+        <v>314</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" ht="43.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" t="s">
-        <v>497</v>
+        <v>318</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" ht="43.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" t="s">
-        <v>498</v>
+        <v>322</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" t="s">
-        <v>499</v>
+        <v>326</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" ht="22.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" t="s">
-        <v>500</v>
+        <v>330</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" t="s">
-        <v>501</v>
+        <v>334</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" ht="12.8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B16" t="s">
-        <v>502</v>
+        <v>338</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" ht="22.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" t="s">
-        <v>503</v>
+        <v>342</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" ht="22.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B18" t="s">
-        <v>504</v>
+        <v>346</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" ht="200.7">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="1128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>505</v>
+        <v>351</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" ht="168.65">
+    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" t="s">
-        <v>506</v>
+        <v>354</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" t="s">
-        <v>507</v>
+        <v>358</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" ht="32.8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" t="s">
-        <v>508</v>
+        <v>362</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B23" t="s">
-        <v>509</v>
+        <v>366</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4637,29 +4746,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B17" sqref="B17"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.61" style="1" customWidth="1"/>
-    <col min="3" max="3" width="109.15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.06" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.06"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4673,193 +4782,193 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="64.15">
+    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>510</v>
+        <v>370</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" t="s">
-        <v>511</v>
+        <v>374</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" ht="22.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" t="s">
-        <v>512</v>
+        <v>378</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" ht="64.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" t="s">
-        <v>513</v>
+        <v>382</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" t="s">
-        <v>514</v>
+        <v>386</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" ht="95.5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B10" t="s">
-        <v>515</v>
+        <v>390</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" ht="64.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" t="s">
-        <v>516</v>
+        <v>394</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" ht="53.7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" t="s">
-        <v>517</v>
+        <v>398</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" ht="74.6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" t="s">
-        <v>518</v>
+        <v>402</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" ht="116.4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>519</v>
+        <v>407</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" ht="147.75">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>520</v>
+        <v>410</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" ht="116.4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>521</v>
+        <v>414</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" ht="168.65">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>522</v>
+        <v>418</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>316</v>
+        <v>420</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>317</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4867,29 +4976,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B37" sqref="B37"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
-    <col min="4" max="4" width="100.58" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="100.58"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4903,493 +5012,496 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="43.25">
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="345.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" ht="32.8">
-      <c r="A6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D30" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" ht="64.15">
-      <c r="A7" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" ht="22.35">
-      <c r="A8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B31" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" ht="43.25">
-      <c r="A9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C31" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" ht="32.8">
-      <c r="A10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D31" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" ht="53.7">
-      <c r="A11" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" ht="64.15">
-      <c r="A12" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B32" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" ht="12.8">
-      <c r="A13" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C32" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" ht="43.25">
-      <c r="A14" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D32" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
-      <c r="A15" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" ht="32.8">
-      <c r="A16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B33" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" ht="32.8">
-      <c r="A17" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C33" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" ht="44.75">
-      <c r="A18" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D33" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" ht="32.8">
-      <c r="A19" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" ht="56.7">
-      <c r="A20" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B34" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" ht="91">
-      <c r="A21" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C34" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" ht="55.95">
-      <c r="A22" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D34" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" ht="13.8">
-      <c r="A23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" ht="179.1">
-      <c r="A24" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B35" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25" ht="12.8">
-      <c r="A25" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C35" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" ht="13.8">
-      <c r="A26" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D35" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" ht="95.5">
-      <c r="A27" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
-      <c r="A28" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B36" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" ht="126.85">
-      <c r="A29" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="C36" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" ht="126.85">
-      <c r="A30" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="D36" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" ht="126.85">
-      <c r="A31" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B31" s="8" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
-      <c r="A32" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="B37" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" ht="85.05">
-      <c r="A33" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="C37" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" ht="105.95">
-      <c r="A34" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D37" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="35" ht="105.95">
-      <c r="A35" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" ht="105.95">
-      <c r="A36" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B38" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" ht="116.4">
-      <c r="A37" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C38" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="38" ht="105.95">
-      <c r="A38" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>417</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>418</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr autoCompressPictures="1"/>
+  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="general" sheetId="1" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="558">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">food1</t>
   </si>
   <si>
-    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t xml:space="preserve">food2</t>
   </si>
   <si>
-    <t xml:space="preserve">자, 천천히 {먹어}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t xml:space="preserve">healer1</t>
   </si>
   <si>
-    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
     <t xml:space="preserve">healer2</t>
   </si>
   <si>
-    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t xml:space="preserve">appraise1</t>
   </si>
   <si>
-    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
   </si>
   <si>
@@ -100,9 +85,6 @@
     <t xml:space="preserve">appraise2</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
   </si>
   <si>
@@ -112,9 +94,6 @@
     <t xml:space="preserve">appraise3</t>
   </si>
   <si>
-    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
   </si>
   <si>
@@ -124,9 +103,6 @@
     <t xml:space="preserve">expand1</t>
   </si>
   <si>
-    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
   </si>
   <si>
@@ -136,9 +112,6 @@
     <t xml:space="preserve">expand2</t>
   </si>
   <si>
-    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
   </si>
   <si>
@@ -148,9 +121,6 @@
     <t xml:space="preserve">expand3</t>
   </si>
   <si>
-    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">拡張できないよう{だ}。</t>
   </si>
   <si>
@@ -158,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">extraTax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
   </si>
   <si>
     <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
@@ -173,9 +140,6 @@
     <t xml:space="preserve">extraTax2</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
   </si>
   <si>
@@ -185,9 +149,6 @@
     <t xml:space="preserve">banker1</t>
   </si>
   <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
   </si>
   <si>
@@ -197,9 +158,6 @@
     <t xml:space="preserve">banker2</t>
   </si>
   <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
   </si>
   <si>
@@ -209,9 +167,6 @@
     <t xml:space="preserve">banker3</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
   </si>
   <si>
@@ -221,9 +176,6 @@
     <t xml:space="preserve">banker4</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
   </si>
   <si>
@@ -233,9 +185,6 @@
     <t xml:space="preserve">noDrawingRoom</t>
   </si>
   <si>
-    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
   </si>
   <si>
@@ -245,9 +194,6 @@
     <t xml:space="preserve">nomoney</t>
   </si>
   <si>
-    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
   </si>
   <si>
@@ -257,9 +203,6 @@
     <t xml:space="preserve">alreadyFull</t>
   </si>
   <si>
-    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
   </si>
   <si>
@@ -269,9 +212,6 @@
     <t xml:space="preserve">questAccept</t>
   </si>
   <si>
-    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
   </si>
   <si>
@@ -281,9 +221,6 @@
     <t xml:space="preserve">questFull</t>
   </si>
   <si>
-    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
   </si>
   <si>
@@ -293,9 +230,6 @@
     <t xml:space="preserve">questInProgress</t>
   </si>
   <si>
-    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
   </si>
   <si>
@@ -305,9 +239,6 @@
     <t xml:space="preserve">questComplete</t>
   </si>
   <si>
-    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -317,9 +248,6 @@
     <t xml:space="preserve">bird1</t>
   </si>
   <si>
-    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
   </si>
   <si>
@@ -327,10 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">bird2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{간다}!
-우후후.</t>
   </si>
   <si>
     <t xml:space="preserve">いく{よ}！
@@ -344,9 +268,6 @@
     <t xml:space="preserve">bird3</t>
   </si>
   <si>
-    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
   </si>
   <si>
@@ -356,9 +277,6 @@
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
-    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
   </si>
   <si>
@@ -374,9 +292,6 @@
     <t xml:space="preserve">lockpick_purse</t>
   </si>
   <si>
-    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
   </si>
   <si>
@@ -386,9 +301,6 @@
     <t xml:space="preserve">invite</t>
   </si>
   <si>
-    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
   </si>
   <si>
@@ -398,9 +310,6 @@
     <t xml:space="preserve">invite2</t>
   </si>
   <si>
-    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
   </si>
   <si>
@@ -410,9 +319,6 @@
     <t xml:space="preserve">invite3</t>
   </si>
   <si>
-    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
-  </si>
-  <si>
     <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
   </si>
   <si>
@@ -422,9 +328,6 @@
     <t xml:space="preserve">talk_hobby</t>
   </si>
   <si>
-    <t xml:space="preserve">취미는 #1 정도{다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">趣味は#1{だ}。</t>
   </si>
   <si>
@@ -434,9 +337,6 @@
     <t xml:space="preserve">talk_fav</t>
   </si>
   <si>
-    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
-  </si>
-  <si>
     <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
   </si>
   <si>
@@ -446,9 +346,6 @@
     <t xml:space="preserve">slave_buy</t>
   </si>
   <si>
-    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
   </si>
   <si>
@@ -458,9 +355,6 @@
     <t xml:space="preserve">slave_buy2</t>
   </si>
   <si>
-    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
   </si>
   <si>
@@ -470,9 +364,6 @@
     <t xml:space="preserve">goto</t>
   </si>
   <si>
-    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
   </si>
   <si>
@@ -482,9 +373,6 @@
     <t xml:space="preserve">goto2</t>
   </si>
   <si>
-    <t xml:space="preserve">놀리는 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">からかっているの{か}？</t>
   </si>
   <si>
@@ -494,9 +382,6 @@
     <t xml:space="preserve">upgrade_heath1</t>
   </si>
   <si>
-    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
-  </si>
-  <si>
     <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
   </si>
   <si>
@@ -506,9 +391,6 @@
     <t xml:space="preserve">upgrade_heath2</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
   </si>
   <si>
@@ -518,9 +400,6 @@
     <t xml:space="preserve">invest1</t>
   </si>
   <si>
-    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
   </si>
   <si>
@@ -530,9 +409,6 @@
     <t xml:space="preserve">invest2</t>
   </si>
   <si>
-    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
   </si>
   <si>
@@ -542,9 +418,6 @@
     <t xml:space="preserve">invest_shop1</t>
   </si>
   <si>
-    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
   </si>
   <si>
@@ -554,9 +427,6 @@
     <t xml:space="preserve">invest_shop2</t>
   </si>
   <si>
-    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
   </si>
   <si>
@@ -566,9 +436,6 @@
     <t xml:space="preserve">questCompleteDeliver</t>
   </si>
   <si>
-    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -578,9 +445,6 @@
     <t xml:space="preserve">questCompleteDeliverExtra</t>
   </si>
   <si>
-    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
@@ -590,9 +454,6 @@
     <t xml:space="preserve">miral_medal</t>
   </si>
   <si>
-    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
-  </si>
-  <si>
     <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
   </si>
   <si>
@@ -602,9 +463,6 @@
     <t xml:space="preserve">miral_medal2</t>
   </si>
   <si>
-    <t xml:space="preserve">흥!</t>
-  </si>
-  <si>
     <t xml:space="preserve">ふん！</t>
   </si>
   <si>
@@ -614,9 +472,6 @@
     <t xml:space="preserve">shop_criminal</t>
   </si>
   <si>
-    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
@@ -626,9 +481,6 @@
     <t xml:space="preserve">shop_blackmarket_noaccess</t>
   </si>
   <si>
-    <t xml:space="preserve">{아하하}, {YOU} 같은 건실한 모험가가 {I}한테 무슨 볼일{이야}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">{あはは}、君みたいなカタギの冒険者が私に何の用{だ}？</t>
   </si>
   <si>
@@ -638,9 +490,6 @@
     <t xml:space="preserve">guide</t>
   </si>
   <si>
-    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">どこに行きたい{のだ}？</t>
   </si>
   <si>
@@ -650,9 +499,6 @@
     <t xml:space="preserve">shutup</t>
   </si>
   <si>
-    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(#tgはしゅんとなった…)</t>
   </si>
   <si>
@@ -662,9 +508,6 @@
     <t xml:space="preserve">shutup2</t>
   </si>
   <si>
-    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(#tgはあなたに抱きついた)</t>
   </si>
   <si>
@@ -674,9 +517,6 @@
     <t xml:space="preserve">insult</t>
   </si>
   <si>
-    <t xml:space="preserve">답도 없는 변태{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">どうしようもない変態{だな}。</t>
   </si>
   <si>
@@ -686,9 +526,6 @@
     <t xml:space="preserve">insult2</t>
   </si>
   <si>
-    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
   </si>
   <si>
@@ -698,9 +535,6 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
-    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(#tgはこくんと肯いた)</t>
   </si>
   <si>
@@ -710,9 +544,6 @@
     <t xml:space="preserve">refuse</t>
   </si>
   <si>
-    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(#tgはやんわりと断った)</t>
   </si>
   <si>
@@ -722,9 +553,6 @@
     <t xml:space="preserve">deliver_purse</t>
   </si>
   <si>
-    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
   </si>
   <si>
@@ -734,9 +562,6 @@
     <t xml:space="preserve">news1</t>
   </si>
   <si>
-    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
@@ -746,9 +571,6 @@
     <t xml:space="preserve">news2</t>
   </si>
   <si>
-    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
   </si>
   <si>
@@ -756,11 +578,6 @@
   </si>
   <si>
     <t xml:space="preserve">bout1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
-진심{이야}?
-지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">力試しをしたいの{か}？
@@ -776,11 +593,6 @@
     <t xml:space="preserve">bout2</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
-그렇게 나와{야지}!
-{좋아}, {YOU}의 힘을 보여{줘}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
@@ -794,9 +606,6 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
-    <t xml:space="preserve">{뭐야}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">なん{だ}？</t>
   </si>
   <si>
@@ -806,9 +615,6 @@
     <t xml:space="preserve">becomeMaid</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
   </si>
   <si>
@@ -818,9 +624,6 @@
     <t xml:space="preserve">sellFame1</t>
   </si>
   <si>
-    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
@@ -830,9 +633,6 @@
     <t xml:space="preserve">sellFame2</t>
   </si>
   <si>
-    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
   </si>
   <si>
@@ -842,9 +642,6 @@
     <t xml:space="preserve">blessing</t>
   </si>
   <si>
-    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
   </si>
   <si>
@@ -854,9 +651,6 @@
     <t xml:space="preserve">lockTooHard</t>
   </si>
   <si>
-    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
   </si>
   <si>
@@ -866,9 +660,6 @@
     <t xml:space="preserve">loytel_bill_give1</t>
   </si>
   <si>
-    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
     <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
   </si>
   <si>
@@ -878,9 +669,6 @@
     <t xml:space="preserve">loytel_bill_give2</t>
   </si>
   <si>
-    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
     <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
   </si>
   <si>
@@ -890,9 +678,6 @@
     <t xml:space="preserve">loytel_bill_give_given</t>
   </si>
   <si>
-    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
-  </si>
-  <si>
     <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
   </si>
   <si>
@@ -902,9 +687,6 @@
     <t xml:space="preserve">loytel_bill_give_wait</t>
   </si>
   <si>
-    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
-  </si>
-  <si>
     <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
@@ -914,9 +696,6 @@
     <t xml:space="preserve">loytel_bill_give_lost</t>
   </si>
   <si>
-    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
-  </si>
-  <si>
     <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
   </si>
   <si>
@@ -924,15 +703,6 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한가{하다}.
-응? 뭔가 볼일이라도 있{는가}?
-가끔씩은 호화스러운 식사를 하고 {싶다}.
-영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
-눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
-고양이는 왜 이렇게 귀여운 {걸까}.
-#aka? …누굴 말하는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">暇{だ}。
@@ -956,12 +726,6 @@
     <t xml:space="preserve">interest_economy</t>
   </si>
   <si>
-    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
-하여간 이 세상에선 돈이 중요{해}.
-어디 돈 좀 떨어져 있으면 좋을 {텐데}.
-플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
@@ -977,12 +741,6 @@
     <t xml:space="preserve">interest_science</t>
   </si>
   <si>
-    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
-에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
-에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
-신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
@@ -998,12 +756,6 @@
     <t xml:space="preserve">interest_travel</t>
   </si>
   <si>
-    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
-루미에스트는 예술의 거리로 유명{해}.
-노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
-여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
@@ -1019,12 +771,6 @@
     <t xml:space="preserve">interest_world</t>
   </si>
   <si>
-    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
-에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
-신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
-아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
@@ -1038,15 +784,6 @@
   </si>
   <si>
     <t xml:space="preserve">interest_religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
-신이 없다면 이 세계는 의미가 없{어}.
-치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
-가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
-쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
-행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
-기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">信仰こそ何よりも大事{だ}。
@@ -1070,12 +807,6 @@
     <t xml:space="preserve">interest_human</t>
   </si>
   <si>
-    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
-이제부터는 인간의 시대{다}!
-{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
-엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
@@ -1091,12 +822,6 @@
     <t xml:space="preserve">interest_elea</t>
   </si>
   <si>
-    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
-예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
-숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
-어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
@@ -1110,17 +835,6 @@
   </si>
   <si>
     <t xml:space="preserve">shopkeeper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
-물건 보는 눈은 자신 있{어}.
-가게 경영은 꽤 어렵{네}.
-건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
-다른 가게에서는 발밑이 안 보이게 조심{해라}.
-만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
-자, {내가} 자신있게 고른 상품들을 둘러{봐}.
-요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
-무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
   </si>
   <si>
     <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
@@ -1148,10 +862,6 @@
     <t xml:space="preserve">guard</t>
   </si>
   <si>
-    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
-수상한 사람을 보면 알려 {줘}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。</t>
   </si>
@@ -1161,11 +871,6 @@
   </si>
   <si>
     <t xml:space="preserve">banker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
-돈으로 살 수 없는 것들도 있{지}.
-본 지점에 어서 {와}!</t>
   </si>
   <si>
     <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
@@ -1181,9 +886,6 @@
     <t xml:space="preserve">bitch</t>
   </si>
   <si>
-    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
   </si>
   <si>
@@ -1191,10 +893,6 @@
   </si>
   <si>
     <t xml:space="preserve">slaver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손님도 이쪽 사람이{네}.
-히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
   </si>
   <si>
     <t xml:space="preserve">お客さんも悪い人間{だな}。
@@ -1208,10 +906,6 @@
     <t xml:space="preserve">bored</t>
   </si>
   <si>
-    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
-(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
@@ -1221,27 +915,6 @@
   </si>
   <si>
     <t xml:space="preserve">hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
-록 스로어가 던지는 바위를 무시하면 안 {돼}.
-꿈속에서 {내가} 믿는 신을 만났{어}!
-귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
-파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
-도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
-저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
-바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
-이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
-세금을 안 내면 나중에 골치 아파{져}.
-정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
-태양의 빛을 내는 신비한 램프가 있다{더라}.
-월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
-그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
-허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
-수영을 연습{해라}. 내구력이 단련된다{고}!
-미식가들은 독버섯도 구별할 수 있다{더라}.
-자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
-의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
   </si>
   <si>
     <r>
@@ -1277,7 +950,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
@@ -1308,23 +981,6 @@
     <t xml:space="preserve">fortune</t>
   </si>
   <si>
-    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
-소재 망치를 평범한 물건에 막 쓰지 마라!
-영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
-질 좋은 침대에서 자면 수면 효과가 좋아진다.
-몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
-독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
-큐브는 상태이상이 걸려 있다면 분열하지 못한다.
-아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
-소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
-환혹 내성이 충분하다면 광기 상태가 되지 않는다.
-지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
-젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
-단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
-강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
-수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
@@ -1362,31 +1018,6 @@
   </si>
   <si>
     <t xml:space="preserve">fortune_false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
-지팡이는 땅에 한동안 놔 두면 충전된다!
-소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
-보석은 플래티넘 코인으로 교환할 수 있다.
-보물 지도는 항상 축복해서 읽어라.
-냐…아…아아…
-무엇을 바라는가?
-채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
-신을 펫으로 만드는 방법도 있다고 한다.
-문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
-일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
-뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
-아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
-당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
-고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
-경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
-여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
-달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
-카르마가 높으면 세금이 감면된다.
-몬스터의 똥은 무거울수록 비싸게 팔린다.
-저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
-헤르메스의 피는 *반드시* 축복해서 마셔라!
-귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
   </si>
   <si>
     <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
@@ -1442,11 +1073,6 @@
     <t xml:space="preserve">mayor</t>
   </si>
   <si>
-    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
-용무가 있{는가}? {나는} 바쁜 몸{이다}.
-마을에 투자하겠다면 언제든 환영{이다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
@@ -1460,10 +1086,6 @@
     <t xml:space="preserve">secretary</t>
   </si>
   <si>
-    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
-제가 도움이 되어 드릴 일이 있나요?</t>
-  </si>
-  <si>
     <t xml:space="preserve">街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
@@ -1473,13 +1095,6 @@
   </si>
   <si>
     <t xml:space="preserve">mysilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
-십년전쟁으로 이 나라는 큰 타격을 입었{어}.
-죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
-십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
-미실리아는 앞으로 어떻게 되는 걸{까}.</t>
   </si>
   <si>
     <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
@@ -1499,13 +1114,6 @@
     <t xml:space="preserve">olvina</t>
   </si>
   <si>
-    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
-시오루시아는 정말로 학구열이 대단해서 감동했{어}.
-올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
-패리스한테 실컷 매도당하고 {싶다}.
-오르비나는 미실리아 최고의 관광지{다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
@@ -1523,10 +1131,6 @@
     <t xml:space="preserve">lothria</t>
   </si>
   <si>
-    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
-지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
@@ -1536,13 +1140,6 @@
   </si>
   <si>
     <t xml:space="preserve">derphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}.
-그 길에 관심 있으면 도적 길드로 가 {봐}.
-이 세상은 노예가 필요{해}.
-아레나에서 피 튀기는 걸 보는 게 {좋아}.
-이 마을에는 경비병이 없{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">無法者の街、ダルフィへようこそ。
@@ -1560,12 +1157,6 @@
   </si>
   <si>
     <t xml:space="preserve">palmia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
-팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
-쟈비님과 스타샤님은 정말로 사이가 {좋아}.
-팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
   </si>
   <si>
     <t xml:space="preserve">パルミア国の王都へようこそ。
@@ -1583,14 +1174,6 @@
   </si>
   <si>
     <t xml:space="preserve">yowyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
-말이라면 여기서 사가는 게 {좋아}.
-수확기에는 항상 일손이 모자라{지}.
-아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
-서쪽에 무법자들의 마을이 있다{더라}.
-마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
@@ -1614,14 +1197,6 @@
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
-    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
-어딘가에 온천으로 유명한 마을이 있다{더라}.
-이 마을은 어디서든지 낚시를 할 수 있{어}.
-그림 얘기로는 하루종일 떠들 수 있{어}.
-마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
-하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
@@ -1641,13 +1216,6 @@
     <t xml:space="preserve">noyel</t>
   </si>
   <si>
-    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
-매일매일 눈 치우는 게 큰일{이다}.
-죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
-추워!
-여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
@@ -1663,13 +1231,6 @@
   </si>
   <si>
     <t xml:space="preserve">kapul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바닷바람 향기가 좋{네}.
-펫 아레나에서 경기 보는 게 취미{다}.
-더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
-이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
-피라미드에는 어떻게 들어가는 걸{까}?</t>
   </si>
   <si>
     <t xml:space="preserve">潮風が香る{な}。
@@ -1688,19 +1249,6 @@
   </si>
   <si>
     <t xml:space="preserve">foxtown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{우리}는 쌀을 많이 만들어서 인간들에게 팔고 있{어}.
-키즈아미님이 이 마을의 수호신{이다}.
-이 마을의 강은 라나 근처 산에서부터 흐르는 {거야}.
-{우리} 선조는 이 언덕을 깎아 논밭을 만들고 벼농사를 짓기 시작하셨{어}.
-이 마을 사람들은 모두 서예에 조예가 있{어}.
-서예에 관심 있으면, 잡화상에서 서예도구를 사 {봐}.
-혹시 밭 근처에서 금색 도깨비불을 보면, 바로 키누한테 알려 {줘}. 그건 사람을 홀리는 사악한 령이니{까}.
-이 마을에선 무나 대파 같은 야채도 많이 기르고 있{어}.
-키누는 쌀 농사에 재능이 있는 것 {같다}.
-키즈아미님을 믿는 사람만이 이 마을의 영적인 힘을 알아챌 수 있{어}.
-라나로 가는 여행자들이 산길을 오르기 전에 이 마을의 여관에서 잠시 쉬고 가곤 {해}.</t>
   </si>
   <si>
     <t xml:space="preserve">私たちはたくさんの米を作って、人間に売ってい{る}。
@@ -1730,22 +1278,6 @@
   </si>
   <si>
     <t xml:space="preserve">foxtown_nefu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을 밖으로 나가는 건 {무서워}. 인간들은 아무렇지도 않게 귀랑 꼬리를 만지려 드니{까}.
-호로메님이 이 마을의 모두를 지켜보고 있{어}.
-관광객들이 마을의 분위기를 깨뜨리는 게 싫{어}.
-밤에 혼자 벚나무 근처에 있으면, 황금빛 구미호가 보인다는 소문이 있{어}.
-이 마을 사람들은 어렸을 때부터 검술을 배우고 있{어}.
-이 마을에서 파는 밀크는 최고{다}!
-미후는 남쪽에서 쌀을 가져와서, 여기서 술을 담그곤 {해}.
-앵화주는 여신께 바치는 좋은 공물{이다}.
-미즈나 씨는 정말 쭉쭉빵빵{해}. 그 크기가 주는 포용력이 정말 최고{다}!
-미사키와 미즈나 덕분에 이 마을은 안전하게 경영되고 있{어}.
-이 마을의 공기는 북쪽 땅에서도 따듯하고 평온{하다}. 신목은 겨울에도 잎이 지지 {않아}.
-앵화주는 이 마을의 명물{이다}.
-폭포 아래에서 명상을 하면 몸과 마음에서 사악한 것이 씻겨져 나간다{더라}.
-호로메님을 믿는 사람만이 이 마을의 진짜 아름다움을 알아볼 수 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">村の外に出るのは怖い{よ}。人間たちは平気で耳や尻尾に触れてくるから{ね}。
@@ -1783,19 +1315,6 @@
     <t xml:space="preserve">specwing</t>
   </si>
   <si>
-    <t xml:space="preserve">여기는 가도에서 멀리 떨어진 곳이라, 대부분의 물건들은 하늘길을 통해 받고 있{어}.
-스펙윙에는 수많은 모험가들이 모이고, 네피아에 도전하기 전에 파티를 짜고 있{어}.
-스펙윙은 노스티리스의 황야로 향하는 수많은 모험가들의 최후의 보급지점{이다}.
-이 주변에는 위험한 네피아가 많이 있{어}.
-대사관에서 특별한 허가를 받지 못하면 탐사를 할 수 없는 네피아가 근처에 있다{더라}.
-이 마을은 원래 요정들이 살던 곳{이다}.
-모험가들이 찾아오는 덕분에 이 마을도 꽤 커졌{어}.
-나무 위에서 벌어지는 끝없는 연회, 그게 {우리}가 모험가들에게서 돈을 얻어내는 방법{이다}.
-스펙윙을 세운 건 파란 가지 의상을 입은 요정이라{더라}.
-요정의 마법 덕에, 이 나무는 사람들이 살 수 있는데다 건강하게 자라고 있{어}.
-{우리}는 나무를 돌보고, 나무는 {우리}를 지켜주는 {거야}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ここは街道から遠く離れているので、ほとんどの物資は空から届けられる{のだ}。
 スペクウィングには多くの冒険者が集まり、ネフィアに挑む前にパーティーを組んで{いる}。
 スペクウィングは、ノースティリスの荒野に向かう多くの冒険者にとって、最後の補給地点なん{だよ}。
@@ -1823,23 +1342,6 @@
   </si>
   <si>
     <t xml:space="preserve">village_exile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#race? 어째서 이 마을에…?
-#race 같은 종족이 뭘 하러 온 {거냐}?
-결계가 이 마을을 몬스터들과 호기심에 찬 눈으로부터 지켜주고 있{어}.
-{우리}는 종종 바깥 세계에서 연구 소재를 구해와야 {해}.
-{내가} 소중하게 여기던 사람들은 이미 죽었고, 이제 바깥 세상에 {나를} 기억하고 있는 사람은 아무도 없{어}.
-{우리}는 신들의 금기를 깨, 위대한 아버지를 섬기는 노동을 하게 됐{어}.
-장로 비체린은 자기가 얼마나 오랜 세월을 살아왔는지 이야기를 잘 안 {해}.
-만약 {네가} 잿더미 말고 다른 맛이 나는 먹을거리를 갖고 있다면, 모두가 기뻐할 {거야}.
-이 마을은 먹을거리가 부족{해}.
-{우리}가 자연스럽게 죽음을 맞이하는 일은 없{어}.
-{우리}가 해방될 날은, 위대한 아버지께서 {우리}가 죗값을 전부 치렀다고 판단하실 때 뿐{이다}.
-위대한 아버지께서 항상 {우리}를 지켜보고 있{어}.
-위대한 아버지께서 {우리}의 속죄를 감독하시니, 그 운명으로부터 도망칠 수는 없{어}.
-시간이 흐르며 {우리}는 물질적인 것에 그다지 관심을 갖지 않게 됐{어}.
-#race, 지금 {YOU}의 앞에 있는 것은 천 년 이상 살아온 추방자{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">#raceが何故この村に…？
@@ -1881,12 +1383,6 @@
     <t xml:space="preserve">conery</t>
   </si>
   <si>
-    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
-길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
-스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
-스타샤 공주님 만세!</t>
-  </si>
-  <si>
     <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
@@ -1902,11 +1398,6 @@
     <t xml:space="preserve">garokk</t>
   </si>
   <si>
-    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
-미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
-시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
-  </si>
-  <si>
     <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
@@ -1918,14 +1409,6 @@
   </si>
   <si>
     <t xml:space="preserve">gilbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
-오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
-공주님 만세!
-나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
-후하핫!
-약한 자를 돕고, 악을 쳐부수는 거다!</t>
   </si>
   <si>
     <t xml:space="preserve">フハハハハ！…何だ貴様は？
@@ -1947,10 +1430,6 @@
     <t xml:space="preserve">jonan</t>
   </si>
   <si>
-    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
-나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
@@ -1960,12 +1439,6 @@
   </si>
   <si>
     <t xml:space="preserve">lowell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
-어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
-이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
-교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者がこんなところに何のようだね？
@@ -1983,11 +1456,6 @@
     <t xml:space="preserve">mapMerchant</t>
   </si>
   <si>
-    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
-그건 그렇고 귀중한 서적들이다.
-눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
@@ -2001,11 +1469,6 @@
     <t xml:space="preserve">miral</t>
   </si>
   <si>
-    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
-파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
-오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
-  </si>
-  <si>
     <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
@@ -2017,12 +1480,6 @@
   </si>
   <si>
     <t xml:space="preserve">nino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
-수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
-서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
-아니… 이건 코스프레가 아니다.</t>
   </si>
   <si>
     <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
@@ -2040,9 +1497,6 @@
     <t xml:space="preserve">nola</t>
   </si>
   <si>
-    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
-  </si>
-  <si>
     <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
   </si>
   <si>
@@ -2050,12 +1504,6 @@
   </si>
   <si>
     <t xml:space="preserve">stasha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
-팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
-아이돌…? …다른 나라의 말인가요?
-궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
   </si>
   <si>
     <t xml:space="preserve">あら、私に何かご用ですか？
@@ -2073,11 +1521,6 @@
     <t xml:space="preserve">theolucia</t>
   </si>
   <si>
-    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
-패리스 언니는 화나면 무서워요.
-팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
-  </si>
-  <si>
     <t xml:space="preserve">私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
@@ -2091,11 +1534,6 @@
     <t xml:space="preserve">xabi</t>
   </si>
   <si>
-    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
-아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
-길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
-  </si>
-  <si>
     <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
@@ -2109,11 +1547,6 @@
     <t xml:space="preserve">zane</t>
   </si>
   <si>
-    <t xml:space="preserve">무엇이냐, 너는?
-이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
-…</t>
-  </si>
-  <si>
     <t xml:space="preserve">何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
@@ -2125,11 +1558,6 @@
   </si>
   <si>
     <t xml:space="preserve">ephrond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
-아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
-태평하긴, 바보 녀석들이.</t>
   </si>
   <si>
     <r>
@@ -2148,7 +1576,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
@@ -2182,7 +1610,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
@@ -2203,11 +1631,6 @@
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
-    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
-이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
-이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
-  </si>
-  <si>
     <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
@@ -2219,13 +1642,6 @@
   </si>
   <si>
     <t xml:space="preserve">barrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한 곡 듣겠나?
-예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
-지금은 미실리아야말로 내 고향이다.
-멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
-내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
   </si>
   <si>
     <t xml:space="preserve">一曲聴いてくかい？
@@ -2251,7 +1667,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
@@ -2262,13 +1678,6 @@
   </si>
   <si>
     <t xml:space="preserve">melvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
-우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
-내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
-귀부인들이 절조가 없어서 참 곤란하단 말이야.
-에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
   </si>
   <si>
     <r>
@@ -2287,7 +1696,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
@@ -2305,12 +1714,6 @@
   </si>
   <si>
     <t xml:space="preserve">caldorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐 너는?
-모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
-제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
-팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
   </si>
   <si>
     <t xml:space="preserve">何だお主は？
@@ -2336,7 +1739,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
@@ -2347,9 +1750,6 @@
     <t xml:space="preserve">melilith</t>
   </si>
   <si>
-    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
-  </si>
-  <si>
     <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
   </si>
   <si>
@@ -2357,83 +1757,6 @@
   </si>
   <si>
     <t xml:space="preserve">seeker</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
-차라도 들겠나, 큰까마귀.
-나는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">『탐구자』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">… 또는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">『이계 방랑자』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
-…하지만, 용케도 이런 외딴 곳을 찾아냈군.
-…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
-이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이 세상 어딘가에, 이르바의 모든 역사와 진상이 담긴 비보가 있다더군….
-영원의 맹약…? 까마득히 오래된 이야기를 알고 있군.
-여어, 큰까마귀여. 빌려간 책은 잘 읽고 있나?
-지식을 후세에 남기는 것이 지식을 가진 자의 의무지.
-여어, 큰까마귀여. 내 벗인 슬란을 못 봤나?
-…이 투구 말인가? 아름다운 짐승이지? 내 오랜 벗이다.
-…얼굴을 가리는 이유? 십년전쟁 이래로 엘레아는 얼굴을 들 면목이 없어서 말이야….
-…벗이란 모두, 한 발 빠르게 떠나 버리지….
-아무래도, 강아지 여동생의 저택이라는 환상을 좇고 있는 어떤 광인이 있는 모양이다.
-또 전쟁이 일어나려나.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
@@ -2493,25 +1816,921 @@
     <t xml:space="preserve">quru</t>
   </si>
   <si>
+    <t xml:space="preserve">何？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you hear the ancient words the wind whispers? I wander this world to learn the story of the wind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strange_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
+あのバケモノたちといっしょにしないでね。
+パパが帰ってきたら、こんなところに二度とこないよう、おねがいするの！
+パパは「かがくしゃ」なの。この保育園にきて…それで、あのバケモノ女になにかたのまれて、すぐ帰ってくるからって…
+パパはすぐもどってくるわ。
+たのまれたって、リトルたちとは遊ばないんだから。
+あの子たちったら、たまにおかしなものを拾ってくるのよ。
+あのバケモノ女はママなんかじゃない。あたりまえでしょ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't like those Littles. They talk weird things and it's really creepy!
+Don't lump me in with those monsters.
+When Daddy comes back, I'm gonna ask him so we never come here again.
+Daddy is a "sci-entist." He came to this nursery and then... that monster woman asked him for something, and he said he'd be right back...
+Daddy will come back soon.
+Even if they asked, I won't play with the Littles.
+Sometimes, they pick up and bring weird stuff.
+That monster woman is not my mommy. That's obvious!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おっとガラガラを引きに来たのかい？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here to spin the prize wheel, huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miko_mifu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私たちは祝福でもあり、呪いでもあります。見方を変えれば、弱さもまた強さに変わるのです。
+命に死がなく、天に地獄がなく、出会いに別れがなく、喜びに悲しみがない世界など、存在しないのです。
+私は祝福の巫女として、毎年この村で封印の儀を導く役目を担っています。
+キズアミ様の祝福はすべての者に与えられます。その力は世界に干渉するものであり、信仰のない者にすら感じることができるでしょう。
+私たちが育てる稲は、豊かな霊力を宿し、封印の儀には欠かせないものです。
+ユフは歪んだ負の神であり、神々の間にある争いをすべて消し去り、理想の平和をイルヴァにもたらそうとしました。
+巫女を引き継ぐと決めた時、私はかつての名を捨て、「キヌ」と名乗りました。いつの日か、私の娘の一人も同じ道を歩むことでしょう。
+永遠の夏はなく、季節は巡り、やがて冬が訪れます。祝福も永遠には続かず、不幸もまた同様です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are both our blessings and curses. By changing our perspectives, we turn our weaknesses into strengths.
+There is no life without death, no heaven without hell, no meeting without parting, no joy without sorrow.
+As Maiden of Blessings, it's my duty to lead the village in the sealing rites every year.
+Lord Kizuami's blessings may be received by all. It is his way to meddle with the world, and even unbelievers may amuse him for a time.
+The rice we grow is blessed with an abundance of spiritual energy and is essential to the sealing rites.
+Yufu was a wicked negentropy god who sought to bring his delusion of peace to Ylva by eliminating all strife between the gods.
+When I rose to the position of shrine maiden, I set aside my old name and am now called "Kinu". Someday, one of my daughters will do the same.
+There is no eternal summer; the seasons turn and winter arrives. Blessings cannot last forever, but neither will misfortune.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miko_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユフは、神々の戦争を操り、イルヴァを支配しようとした邪悪な負の神だった。
+私たちは神樹の広場で儀式の舞を捧げる。
+ホロメ様はすべての命を愛し、信仰のない者にさえ小さな祝福を与えるのよ。
+刃の巫女として、私は毎年、封印の儀式の剣舞を舞うの。
+桜の花びらは女神の涙のように散り、私たちの心に儚さを刻む。
+儀式用の刀剣は、女神への崇拝において重要な役割を果たすのよ。
+ホロメ様は子供を慈しみ、大きな家族を持つ者に祝福を授ける。ネフは決して数の多い種族ではないけど、大家族は大いに尊敬されるの。
+私の刀は代々の巫女から受け継がれてきたものだ。
+刃の巫女はそれぞれ、その刀に新たな伝説を刻むことを目指す。
+私たちの女神は、力と美は相反するものではないと教える。ネフの剣舞はその両方を体現しようとするものだ。
+ネフの村は神樹を守るために築かれた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yufu was a wicked negentropy god who sought to manipulate the divine wars and rule over Ylva unopposed.
+We hold ceremonial dances in the clearing before the sacred tree.
+Lady Horome loves all mortals, and even unbelievers may receive a small blessing.
+As Maiden of Blades, every year I perform a sword dance as part of the sealing rites.
+The cherry blossoms fall like our goddess' tears and touch our hearts with melancholy.
+Ceremonial swords play a central role in the worship rites of our goddess.
+Lady Horome delights in children, and she blesses those who have large families. We Nefu have never been a numerous people, and those who gain her favor this way are greatly respected.
+My katana has been passed down through generations of shrine maidens.
+Each Maiden of Blades seeks to add to its legacy.
+Our goddess teaches that strength and beauty are not at odds; Nefu sword dances seek to exemplify both.
+Nefu Village was founded to guard the sacred tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eureka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冒険者ですか？こんな場所まで来るとは、物好きですね。
+私は主にここの守護を任されています。大変な栄誉ではあるのですが...ときどき退屈ですね。
+イーヴァン様の教えは苛烈とされますが、元は定命者への深い愛情と期待から来るものでもあります。
+機械は嫌いです。血が出ないから。
+模擬戦でもどうですか？最近闘争が足りていなくて。
+ビリーさん、あの棘さえなければ...
+猫は本当にかわいい生き物ですね...
+戦場の硝煙が恋しいです。連れて行ってくれませんか？
+ここの景色は美しいのですが、暮らす分には不便ですね。時折、北にあるミフの里まで遊びに行くのがたまの楽しみです。
+ここに眠る負の神に挑戦するのであれば止めはしませんよ。イーヴァン様も喜びそうですし。
+エーテルは非常に興味深い物質ですね。良くも悪くも、今後の人類の行く末を左右しそうです。
+初対面の狐族をモフモフするのって失礼でしょうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A traveler? What a rare occasion.
+I've been tasked to oversee this location by my god. It's a great honor, but well...can get boring at times.
+Lord Yevan's teachings may be considered drastic, but are rooted in his deep love and high expectations for mortals.
+I hate machinery. It doesn't bleed.
+Interested in sparring? I could use some practice.
+If only Billy didn't have those spikes...
+Cats...such cute animals.
+Ah, I miss the scent of the battlefield. Any chance you could take me to one?
+The scenery here is beautiful, but food is sparse. I like to occasionally stop by Mifu Village north of here for supplies.
+I won't stop you if you'd like to challenge the god sealed here. Lord Yevan would surely enjoy it.
+Ether is an interesting substance. It's sure to change the path of humanity, for better or worse.
+Do you think it's rude to fluffy stroke a random foxfolk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_inn_fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この首飾り？もちろん中身は米よ。私たちの村では小麦は育てていないから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The charm about my neck? Of course it's filled with rice, we don't grow wheat in this village.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_inn_fox2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この宿は元々巡礼者を迎えるために建てられたのですが、最近は観光客も増えてきました。
+いらっしゃいませ！ お食事にしますか？ それともお風呂？ それとも…？
+なぜ急に村が人気になったのかはわかりませんが、忙しいのは悪くないですね！
+観光客たちは、ミサキの警告を無視して聖樹に近づきすぎるので困ります。まったく、敬意が足りませんね。
+私たちだけなら自給自足もできるのですが、ミフ村から食料を送ってもらわなければ、観光客たちをまかないきれません。
+どうして人間は、私たちの耳や尻尾にあんなに興味を持つのでしょう？
+ミサキは神殿を守り、私は宿を切り盛りしています。これじゃあ、長老がすることはあまり残っていませんね！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This inn was originally built to house pilgrims, but the village has had many tourists of late.
+Welcome! Would you like a meal, a bath, or perhaps...?
+I don't know how the village suddenly became popular, but I'm more than happy to be this busy!
+The tourists keep on getting too close to the sacred tree despite Misaki's warnings. They simply have no respect!
+We can sustain ourselves, but I wouldn't be able to deal with all these tourists if Mifu Village wasn't sending us food from the south.
+Why are humans so fascinated by our ears and tails?
+Misaki minds the temple, while I run the inn. Between us, there's not much left for the elder to do!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なぜ私が作られたのか知ってる？ いいえ？ だと思った。
+ 家みたいな場所を夢に見るけど、どうやってそこへ戻ればいいか思い出せない。
+目が覚めたらこの武器を持っていた。なんて重いの。刺す？撃つ？両方やっちゃえ。
+「はーい！ みんなのアイドル、機械人形キリアちゃんキリ～！」…私にアイドルモジュールなんてあった？ いつ録音したんだっけ？
+機械のマニは虚無を聞ける者に囁くって聞いた。あの人なら、私がなぜ作られたか知っているかも。
+*zzt* また壊れた記憶…何をしにここへ来たんだっけ？
+*beep* ただいま定期メンテナンス中です。もう少しお待ちください。
+私が小さなゴーレムだって？ 馬鹿な。
+バグ？ グリッチ？ それは機能だよ。
+*じっと見つめる* ちっ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know why I was made? No? Didn’t think so.
+I keep dreaming of a place that looks like home, but I can't remember how to get there.
+I woke up with this weapon. So cumbersome. Should I stab, or shoot?  I'll just do both.
+"Hai! It's everyone's idol, Machine Doll Kiria-chan, kiri～" ... Do I have an idol module? When did I record this?
+I heard Mani of Machine whispers to those who can hear the void. Maybe he knows why I was made.
+*zzt* Another corrupt memory... what was I doing here again?
+*beep* We are performing scheduled maintenance and will be back online shortly.
+Some people think I'm a tiny golem? Nonsense.
+Bugs? Glitches? Those are features.
+*stares* tch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_gaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空色のチューリップ？ 色々旅してきたけど見たことないよ。
+新しい奇妙な病気が流行ってるらしい……ツノでも生えないかな～。
+怒らせると変な呪いをかけてくる神がいるから気を付けようね。
+カジノのディーラーは絶対｢やってる｣……！ 
+卵の卵♪ 切り身の切り身♪ 切り身の卵♪
+上には上がいる。ざこよりざこもいる。#brother2はどっちかなぁ～？
+もう1本ツノ……いや刀を持ってたんだけど旅の途中で失くしちゃってねぇ。
+美味しいもの食べてる時がしゃーわせ♪
+牙姫ちゃん来たよ。もてなしてねすぐでいいよ。
+可愛くて強いのが牙姫ちゃんってワケ☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A phantom azure tulip? I’ve traveled far and wide, but I’ve never seen one.
+There’s some new weird disease going around... I wonder if it’ll make me grow horns~
+There’s a god who curses people with weird spells when they get mad, so be careful.
+I’m telling you, the casino dealers are definitely cheating...! 
+Egg of an egg♪ Slice of a slice♪ Slice of an egg♪
+There’s always someone better. And someone worse than the worst. Which one are you, #brother2?
+I used to have another horn... no, another sword, but I lost it along the way.
+Eating something delicious is pure bliss♪
+Fang Princess is here. Treat her well, and quickly.
+Cute and strong, that’s what makes me Fang Princess☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_mesherada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魂が再び絡み合い、私たちが約束を果たすその時を待っている…そうではないか？ 
+もしそなたが私の探し人なら…きっと運命が二人に囁くだろう。
+そなたには、時の彼方に失われたと思っていた安らぎを感じる。
+そなたの魂は懐かしい…まるで言葉が生まれるよりも前に、出会っていたかのようだ。
+この瞬間が永遠に続けばよいのに…そなたの温もりをもう少し感じていたい。
+そなたはただの優しい見知らぬ人なのか…それとも時を越えて追いかけてきた面影か…
+目の前に立つそなたの名前を、私はまだ呼ぶことができない。
+不思議だ…そなたの傍にいると、なぜか一番安らぐ。
+そなたも感じているか…？ 二人を繋ぐ糸が張り詰めているのを？
+いくつもの道を歩んでも…その先には必ずそなたがいるのだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder... are our souls once more intertwined, waiting for the moment when we shall fulfill our promise?
+If thou art the one I seek... surely fate shall whisper it to us both.
+There is something in thy presence—a peace I thought lost to time.
+Thy soul feels familiar, as though we met long before names were spoken.
+Would that this moment could linger, if only to feel thy warmth a while more.
+Art thou merely a kind stranger... or the echo I have chased through time?
+Thou standest before me, and yet I dare not name thee.
+Strange... I feel safest when thou art near.
+Dost thou feel it too? A thread pulled taut between us.
+So many paths... yet I always find thee at the end of mine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olderyoungersister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私がいつ生まれたのか気になるの#brother2？遠い遠い遥か昔の事だよ#brother2…
+ずっと#brother2を求めてこの世界を彷徨っていたの…そしたらいたのよ#brother2が！
+#brother2ずっと…一緒だよね…？ちょっと不安になっただけだよ#brother2。
+#brother2の為に戦いも家事もあらゆることはできるようになっておきたいの。
+神様は時に残酷だよね#brother2…
+私は#brother2のこと束縛しないよっ！本当だよっ！
+私の囀りには混沌の力が宿るみたい。
+私以外にもこの世界には#brother2の血の繋がらない妹達がいるんだって！
+雪プチちゃんをもふもふしたい！もふりたいよ#brother2！
+雪プチちゃんには色の違う子たちがいるんだよ#brother2。みんなお迎えできると嬉しいね#brother2。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder when I was born, #brother2? It was a long, long time ago, #brother2...
+I’ve been wandering this world all this time, searching for you, #brother2... and then I found you!
+We’ll be together forever, right, #brother2...? I just got a little scared, that’s all, #brother2.
+I want to be able to do everything for you, #brother2 – fighting, housework, everything.
+God can be so cruel sometimes, #brother2...
+I won’t ever tie you down, #brother2! I promise!
+It seems like there’s a power of chaos in my song.
+I heard there are other sisters in this world who aren’t blood-related to you, #brother2!
+I want to snuggle with snow putit-chan! I really do, #brother2!
+There are snow putit-chans with different colors, #brother2. It would be so nice if we could welcome them all, #brother2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_nanasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～
+好きな物はなにかって？もちろんナスだよ～
+スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～
+冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～
+冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～
+もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～
+出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～
+かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～
+実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am Nanas, the eggplant fairy!
+What's my favorite food? Eggplant, of course!
+Specwing is a very nice place, everyone is dancing happily.
+The most gratifying part of an adventure is the bond that you get from adventuring together!
+I had a lot of drinks with new friends I met during my adventures, it was a lot of fun.
+Of course, there were some sad times, but I still moved forward believing that I would meet new people, and that's why I am here today.
+Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
+The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
+when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{간다}!
+우후후.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">취미는 #1 정도{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">놀리는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">흥!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{아하하}, {YOU} 같은 건실한 모험가가 {I}한테 무슨 볼일{이야}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">답도 없는 변태{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
+진심{이야}?
+지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
+그렇게 나와{야지}!
+{좋아}, {YOU}의 힘을 보여{줘}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{뭐야}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가{하다}.
+응? 뭔가 볼일이라도 있{는가}?
+가끔씩은 호화스러운 식사를 하고 {싶다}.
+영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
+눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
+고양이는 왜 이렇게 귀여운 {걸까}.
+#aka? …누굴 말하는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
+하여간 이 세상에선 돈이 중요{해}.
+어디 돈 좀 떨어져 있으면 좋을 {텐데}.
+플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
+에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
+에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
+신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
+루미에스트는 예술의 거리로 유명{해}.
+노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
+여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
+에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
+신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
+아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
+신이 없다면 이 세계는 의미가 없{어}.
+치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
+가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
+쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
+행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
+기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
+이제부터는 인간의 시대{다}!
+{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
+엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
+예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
+숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
+어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
+물건 보는 눈은 자신 있{어}.
+가게 경영은 꽤 어렵{네}.
+건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
+다른 가게에서는 발밑이 안 보이게 조심{해라}.
+만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
+자, {내가} 자신있게 고른 상품들을 둘러{봐}.
+요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
+무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
+수상한 사람을 보면 알려 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
+돈으로 살 수 없는 것들도 있{지}.
+본 지점에 어서 {와}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님도 이쪽 사람이{네}.
+히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
+(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
+록 스로어가 던지는 바위를 무시하면 안 {돼}.
+꿈속에서 {내가} 믿는 신을 만났{어}!
+귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
+파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
+도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
+저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
+바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
+이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
+세금을 안 내면 나중에 골치 아파{져}.
+정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
+태양의 빛을 내는 신비한 램프가 있다{더라}.
+월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
+그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
+허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
+수영을 연습{해라}. 내구력이 단련된다{고}!
+미식가들은 독버섯도 구별할 수 있다{더라}.
+자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
+의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
+소재 망치를 평범한 물건에 막 쓰지 마라!
+영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
+질 좋은 침대에서 자면 수면 효과가 좋아진다.
+몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
+독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
+큐브는 상태이상이 걸려 있다면 분열하지 못한다.
+아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
+소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
+환혹 내성이 충분하다면 광기 상태가 되지 않는다.
+지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
+젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
+단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
+강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
+수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
+지팡이는 땅에 한동안 놔 두면 충전된다!
+소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
+보석은 플래티넘 코인으로 교환할 수 있다.
+보물 지도는 항상 축복해서 읽어라.
+냐…아…아아…
+무엇을 바라는가?
+채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
+신을 펫으로 만드는 방법도 있다고 한다.
+문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
+일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
+뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
+아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
+당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
+고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
+경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
+여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
+달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
+카르마가 높으면 세금이 감면된다.
+몬스터의 똥은 무거울수록 비싸게 팔린다.
+저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
+헤르메스의 피는 *반드시* 축복해서 마셔라!
+귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
+용무가 있{는가}? {나는} 바쁜 몸{이다}.
+마을에 투자하겠다면 언제든 환영{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
+제가 도움이 되어 드릴 일이 있나요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
+십년전쟁으로 이 나라는 큰 타격을 입었{어}.
+죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
+십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
+미실리아는 앞으로 어떻게 되는 걸{까}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
+시오루시아는 정말로 학구열이 대단해서 감동했{어}.
+올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
+패리스한테 실컷 매도당하고 {싶다}.
+오르비나는 미실리아 최고의 관광지{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
+지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}.
+그 길에 관심 있으면 도적 길드로 가 {봐}.
+이 세상은 노예가 필요{해}.
+아레나에서 피 튀기는 걸 보는 게 {좋아}.
+이 마을에는 경비병이 없{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
+팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
+쟈비님과 스타샤님은 정말로 사이가 {좋아}.
+팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
+말이라면 여기서 사가는 게 {좋아}.
+수확기에는 항상 일손이 모자라{지}.
+아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
+서쪽에 무법자들의 마을이 있다{더라}.
+마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
+어딘가에 온천으로 유명한 마을이 있다{더라}.
+이 마을은 어디서든지 낚시를 할 수 있{어}.
+그림 얘기로는 하루종일 떠들 수 있{어}.
+마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
+하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
+매일매일 눈 치우는 게 큰일{이다}.
+죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
+추워!
+여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바닷바람 향기가 좋{네}.
+펫 아레나에서 경기 보는 게 취미{다}.
+더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
+이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
+피라미드에는 어떻게 들어가는 걸{까}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{우리}는 쌀을 많이 만들어서 인간들에게 팔고 있{어}.
+키즈아미님이 이 마을의 수호신{이다}.
+이 마을의 강은 라나 근처 산에서부터 흐르는 {거야}.
+{우리} 선조는 이 언덕을 깎아 논밭을 만들고 벼농사를 짓기 시작하셨{어}.
+이 마을 사람들은 모두 서예에 조예가 있{어}.
+서예에 관심 있으면, 잡화상에서 서예도구를 사 {봐}.
+혹시 밭 근처에서 금색 도깨비불을 보면, 바로 키누한테 알려 {줘}. 그건 사람을 홀리는 사악한 령이니{까}.
+이 마을에선 무나 대파 같은 야채도 많이 기르고 있{어}.
+키누는 쌀 농사에 재능이 있는 것 {같다}.
+키즈아미님을 믿는 사람만이 이 마을의 영적인 힘을 알아챌 수 있{어}.
+라나로 가는 여행자들이 산길을 오르기 전에 이 마을의 여관에서 잠시 쉬고 가곤 {해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마을 밖으로 나가는 건 {무서워}. 인간들은 아무렇지도 않게 귀랑 꼬리를 만지려 드니{까}.
+호로메님이 이 마을의 모두를 지켜보고 있{어}.
+관광객들이 마을의 분위기를 깨뜨리는 게 싫{어}.
+밤에 혼자 벚나무 근처에 있으면, 황금빛 구미호가 보인다는 소문이 있{어}.
+이 마을 사람들은 어렸을 때부터 검술을 배우고 있{어}.
+이 마을에서 파는 밀크는 최고{다}!
+미후는 남쪽에서 쌀을 가져와서, 여기서 술을 담그곤 {해}.
+앵화주는 여신께 바치는 좋은 공물{이다}.
+미즈나 씨는 정말 쭉쭉빵빵{해}. 그 크기가 주는 포용력이 정말 최고{다}!
+미사키와 미즈나 덕분에 이 마을은 안전하게 경영되고 있{어}.
+이 마을의 공기는 북쪽 땅에서도 따듯하고 평온{하다}. 신목은 겨울에도 잎이 지지 {않아}.
+앵화주는 이 마을의 명물{이다}.
+폭포 아래에서 명상을 하면 몸과 마음에서 사악한 것이 씻겨져 나간다{더라}.
+호로메님을 믿는 사람만이 이 마을의 진짜 아름다움을 알아볼 수 있{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여기는 가도에서 멀리 떨어진 곳이라, 대부분의 물건들은 하늘길을 통해 받고 있{어}.
+스펙윙에는 수많은 모험가들이 모이고, 네피아에 도전하기 전에 파티를 짜고 있{어}.
+스펙윙은 노스티리스의 황야로 향하는 수많은 모험가들의 최후의 보급지점{이다}.
+이 주변에는 위험한 네피아가 많이 있{어}.
+대사관에서 특별한 허가를 받지 못하면 탐사를 할 수 없는 네피아가 근처에 있다{더라}.
+이 마을은 원래 요정들이 살던 곳{이다}.
+모험가들이 찾아오는 덕분에 이 마을도 꽤 커졌{어}.
+나무 위에서 벌어지는 끝없는 연회, 그게 {우리}가 모험가들에게서 돈을 얻어내는 방법{이다}.
+스펙윙을 세운 건 파란 가지 의상을 입은 요정이라{더라}.
+요정의 마법 덕에, 이 나무는 사람들이 살 수 있는데다 건강하게 자라고 있{어}.
+{우리}는 나무를 돌보고, 나무는 {우리}를 지켜주는 {거야}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#race? 어째서 이 마을에…?
+#race 같은 종족이 뭘 하러 온 {거냐}?
+결계가 이 마을을 몬스터들과 호기심에 찬 눈으로부터 지켜주고 있{어}.
+{우리}는 종종 바깥 세계에서 연구 소재를 구해와야 {해}.
+{내가} 소중하게 여기던 사람들은 이미 죽었고, 이제 바깥 세상에 {나를} 기억하고 있는 사람은 아무도 없{어}.
+{우리}는 신들의 금기를 깨, 위대한 아버지를 섬기는 노동을 하게 됐{어}.
+장로 비체린은 자기가 얼마나 오랜 세월을 살아왔는지 이야기를 잘 안 {해}.
+만약 {네가} 잿더미 말고 다른 맛이 나는 먹을거리를 갖고 있다면, 모두가 기뻐할 {거야}.
+이 마을은 먹을거리가 부족{해}.
+{우리}가 자연스럽게 죽음을 맞이하는 일은 없{어}.
+{우리}가 해방될 날은, 위대한 아버지께서 {우리}가 죗값을 전부 치렀다고 판단하실 때 뿐{이다}.
+위대한 아버지께서 항상 {우리}를 지켜보고 있{어}.
+위대한 아버지께서 {우리}의 속죄를 감독하시니, 그 운명으로부터 도망칠 수는 없{어}.
+시간이 흐르며 {우리}는 물질적인 것에 그다지 관심을 갖지 않게 됐{어}.
+#race, 지금 {YOU}의 앞에 있는 것은 천 년 이상 살아온 추방자{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
+길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
+스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
+스타샤 공주님 만세!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
+미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
+시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
+오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
+공주님 만세!
+나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
+후하핫!
+약한 자를 돕고, 악을 쳐부수는 거다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
+나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
+어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
+이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
+교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
+그건 그렇고 귀중한 서적들이다.
+눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
+파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
+오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
+수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
+서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
+아니… 이건 코스프레가 아니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
+팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
+아이돌…? …다른 나라의 말인가요?
+궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
+패리스 언니는 화나면 무서워요.
+팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
+아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
+길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무엇이냐, 너는?
+이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
+…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
+아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
+태평하긴, 바보 녀석들이.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
+이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
+이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 곡 듣겠나?
+예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
+지금은 미실리아야말로 내 고향이다.
+멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
+내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
+우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
+내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
+귀부인들이 절조가 없어서 참 곤란하단 말이야.
+에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 너는?
+모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
+제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
+팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
+차라도 들겠나, 큰까마귀.
+나는 『탐구자』… 또는 『이계 방랑자』라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
+…하지만, 용케도 이런 외딴 곳을 찾아냈군.
+…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
+이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.
+이 세상 어딘가에, 이르바의 모든 역사와 진상이 담긴 비보가 있다더군….
+영원의 맹약…? 까마득히 오래된 이야기를 알고 있군.
+여어, 큰까마귀여. 빌려간 책은 잘 읽고 있나?
+지식을 후세에 남기는 것이 지식을 가진 자의 의무지.
+여어, 큰까마귀여. 내 벗인 슬란을 못 봤나?
+…이 투구 말인가? 아름다운 짐승이지? 내 오랜 벗이다.
+…얼굴을 가리는 이유? 십년전쟁 이래로 엘레아는 얼굴을 들 면목이 없어서 말이야….
+…벗이란 모두, 한 발 빠르게 떠나 버리지….
+아무래도, 강아지 여동생의 저택이라는 환상을 좇고 있는 어떤 광인이 있는 모양이다.
+또 전쟁이 일어나려나.</t>
+  </si>
+  <si>
     <t xml:space="preserve">왜?</t>
   </si>
   <si>
-    <t xml:space="preserve">何？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kettle</t>
-  </si>
-  <si>
     <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you hear the ancient words the wind whispers? I wander this world to learn the story of the wind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strange_girl</t>
   </si>
   <si>
     <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
@@ -2524,39 +2743,7 @@
 저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
   <si>
-    <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
-あのバケモノたちといっしょにしないでね。
-パパが帰ってきたら、こんなところに二度とこないよう、おねがいするの！
-パパは「かがくしゃ」なの。この保育園にきて…それで、あのバケモノ女になにかたのまれて、すぐ帰ってくるからって…
-パパはすぐもどってくるわ。
-たのまれたって、リトルたちとは遊ばないんだから。
-あの子たちったら、たまにおかしなものを拾ってくるのよ。
-あのバケモノ女はママなんかじゃない。あたりまえでしょ？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't like those Littles. They talk weird things and it's really creepy!
-Don't lump me in with those monsters.
-When Daddy comes back, I'm gonna ask him so we never come here again.
-Daddy is a "sci-entist." He came to this nursery and then... that monster woman asked him for something, and he said he'd be right back...
-Daddy will come back soon.
-Even if they asked, I won't play with the Littles.
-Sometimes, they pick up and bring weird stuff.
-That monster woman is not my mommy. That's obvious!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">아앗, 돌돌이 추첨기를 돌리러 온 거야?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おっとガラガラを引きに来たのかい？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here to spin the prize wheel, huh?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miko_mifu</t>
   </si>
   <si>
     <t xml:space="preserve">우리는 축복이기도 하고, 저주이기도 합니다. 관점을 바꾸면 연약함 또한 강인함이 되지요.
@@ -2567,29 +2754,6 @@
 유후는 비뚤어진 부정한 신입니다. 신들 간에 벌어지는 다툼을 전부 없애고, 이상적인 평화를 이르바에 가져오고자 했지요.
 무녀직을 이어받겠다고 결심했을 때, 저는 옛 이름을 버리고 「키누」 라는 이름을 쓰게 됐습니다. 언젠가 제 딸이 저와 같은 길을 걷게 되겠죠.
 영원한 여름이란 없고, 계절은 돌고 도며, 끝내 겨울은 찾아옵니다. 축복도 영원히는 이어지지 않고, 불행 또한 그러합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私たちは祝福でもあり、呪いでもあります。見方を変えれば、弱さもまた強さに変わるのです。
-命に死がなく、天に地獄がなく、出会いに別れがなく、喜びに悲しみがない世界など、存在しないのです。
-私は祝福の巫女として、毎年この村で封印の儀を導く役目を担っています。
-キズアミ様の祝福はすべての者に与えられます。その力は世界に干渉するものであり、信仰のない者にすら感じることができるでしょう。
-私たちが育てる稲は、豊かな霊力を宿し、封印の儀には欠かせないものです。
-ユフは歪んだ負の神であり、神々の間にある争いをすべて消し去り、理想の平和をイルヴァにもたらそうとしました。
-巫女を引き継ぐと決めた時、私はかつての名を捨て、「キヌ」と名乗りました。いつの日か、私の娘の一人も同じ道を歩むことでしょう。
-永遠の夏はなく、季節は巡り、やがて冬が訪れます。祝福も永遠には続かず、不幸もまた同様です。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are both our blessings and curses. By changing our perspectives, we turn our weaknesses into strengths.
-There is no life without death, no heaven without hell, no meeting without parting, no joy without sorrow.
-As Maiden of Blessings, it's my duty to lead the village in the sealing rites every year.
-Lord Kizuami's blessings may be received by all. It is his way to meddle with the world, and even unbelievers may amuse him for a time.
-The rice we grow is blessed with an abundance of spiritual energy and is essential to the sealing rites.
-Yufu was a wicked negentropy god who sought to bring his delusion of peace to Ylva by eliminating all strife between the gods.
-When I rose to the position of shrine maiden, I set aside my old name and am now called "Kinu". Someday, one of my daughters will do the same.
-There is no eternal summer; the seasons turn and winter arrives. Blessings cannot last forever, but neither will misfortune.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miko_nefu</t>
   </si>
   <si>
     <t xml:space="preserve">유후는 신들의 전쟁을 이용해 이르바를 지배하고자 했던, 사악한 부정의 신이었어.
@@ -2603,35 +2767,6 @@
 칼날의 무녀들은 각자 그 칼에 새로운 전설을 새기는 것을 목표로 삼지.
 우리 여신님께서는 힘과 아름다움이 반대되는 게 아니라고 가르치셔. 네후의 칼춤은 그 둘 모두를 체현하는 게 목적이야.
 네후 마을은 신수를 지키기 위해 세워졌어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユフは、神々の戦争を操り、イルヴァを支配しようとした邪悪な負の神だった。
-私たちは神樹の広場で儀式の舞を捧げる。
-ホロメ様はすべての命を愛し、信仰のない者にさえ小さな祝福を与えるのよ。
-刃の巫女として、私は毎年、封印の儀式の剣舞を舞うの。
-桜の花びらは女神の涙のように散り、私たちの心に儚さを刻む。
-儀式用の刀剣は、女神への崇拝において重要な役割を果たすのよ。
-ホロメ様は子供を慈しみ、大きな家族を持つ者に祝福を授ける。ネフは決して数の多い種族ではないけど、大家族は大いに尊敬されるの。
-私の刀は代々の巫女から受け継がれてきたものだ。
-刃の巫女はそれぞれ、その刀に新たな伝説を刻むことを目指す。
-私たちの女神は、力と美は相反するものではないと教える。ネフの剣舞はその両方を体現しようとするものだ。
-ネフの村は神樹を守るために築かれた。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yufu was a wicked negentropy god who sought to manipulate the divine wars and rule over Ylva unopposed.
-We hold ceremonial dances in the clearing before the sacred tree.
-Lady Horome loves all mortals, and even unbelievers may receive a small blessing.
-As Maiden of Blades, every year I perform a sword dance as part of the sealing rites.
-The cherry blossoms fall like our goddess' tears and touch our hearts with melancholy.
-Ceremonial swords play a central role in the worship rites of our goddess.
-Lady Horome delights in children, and she blesses those who have large families. We Nefu have never been a numerous people, and those who gain her favor this way are greatly respected.
-My katana has been passed down through generations of shrine maidens.
-Each Maiden of Blades seeks to add to its legacy.
-Our goddess teaches that strength and beauty are not at odds; Nefu sword dances seek to exemplify both.
-Nefu Village was founded to guard the sacred tree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eureka</t>
   </si>
   <si>
     <t xml:space="preserve">모험가신가요? 이런 곳까지 오시다니 참 별난 분이시네요.
@@ -2648,47 +2783,7 @@
 처음 보는 여우족을 쓰다듬는 건 실례일까요?</t>
   </si>
   <si>
-    <t xml:space="preserve">冒険者ですか？こんな場所まで来るとは、物好きですね。
-私は主にここの守護を任されています。大変な栄誉ではあるのですが...ときどき退屈ですね。
-イーヴァン様の教えは苛烈とされますが、元は定命者への深い愛情と期待から来るものでもあります。
-機械は嫌いです。血が出ないから。
-模擬戦でもどうですか？最近闘争が足りていなくて。
-ビリーさん、あの棘さえなければ...
-猫は本当にかわいい生き物ですね...
-戦場の硝煙が恋しいです。連れて行ってくれませんか？
-ここの景色は美しいのですが、暮らす分には不便ですね。時折、北にあるミフの里まで遊びに行くのがたまの楽しみです。
-ここに眠る負の神に挑戦するのであれば止めはしませんよ。イーヴァン様も喜びそうですし。
-エーテルは非常に興味深い物質ですね。良くも悪くも、今後の人類の行く末を左右しそうです。
-初対面の狐族をモフモフするのって失礼でしょうか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A traveler? What a rare occasion.
-I've been tasked to oversee this location by my god. It's a great honor, but well...can get boring at times.
-Lord Yevan's teachings may be considered drastic, but are rooted in his deep love and high expectations for mortals.
-I hate machinery. It doesn't bleed.
-Interested in sparring? I could use some practice.
-If only Billy didn't have those spikes...
-Cats...such cute animals.
-Ah, I miss the scent of the battlefield. Any chance you could take me to one?
-The scenery here is beautiful, but food is sparse. I like to occasionally stop by Mifu Village north of here for supplies.
-I won't stop you if you'd like to challenge the god sealed here. Lord Yevan would surely enjoy it.
-Ether is an interesting substance. It's sure to change the path of humanity, for better or worse.
-Do you think it's rude to fluffy stroke a random foxfolk?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merchant_inn_fox</t>
-  </si>
-  <si>
     <t xml:space="preserve">이 목걸이? 물론 쌀이 들어 있어. 우리 마을은 밀을 안 키우니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この首飾り？もちろん中身は米よ。私たちの村では小麦は育てていないから。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The charm about my neck? Of course it's filled with rice, we don't grow wheat in this village.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merchant_inn_fox2</t>
   </si>
   <si>
     <t xml:space="preserve">이 여관은 원래 순례자들을 맞이하기 위해 지었지만, 최근에는 관광객도 많이 늘었어요.
@@ -2698,27 +2793,6 @@
 저희끼리는 자급자족이 되지만, 미후 마을에서 식량을 보내 주지 않았다면 관광객들을 접대하지는 못했을 거예요.
 왜 인간들은 저희 귀와 꼬리에 그렇게 관심이 있는 걸까요?
 미사키는 신전을 지키고, 저는 여관을 담당하고 있죠. 이대로라면 장로님이 할 일이 얼마 안 남겠네요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この宿は元々巡礼者を迎えるために建てられたのですが、最近は観光客も増えてきました。
-いらっしゃいませ！ お食事にしますか？ それともお風呂？ それとも…？
-なぜ急に村が人気になったのかはわかりませんが、忙しいのは悪くないですね！
-観光客たちは、ミサキの警告を無視して聖樹に近づきすぎるので困ります。まったく、敬意が足りませんね。
-私たちだけなら自給自足もできるのですが、ミフ村から食料を送ってもらわなければ、観光客たちをまかないきれません。
-どうして人間は、私たちの耳や尻尾にあんなに興味を持つのでしょう？
-ミサキは神殿を守り、私は宿を切り盛りしています。これじゃあ、長老がすることはあまり残っていませんね！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This inn was originally built to house pilgrims, but the village has had many tourists of late.
-Welcome! Would you like a meal, a bath, or perhaps...?
-I don't know how the village suddenly became popular, but I'm more than happy to be this busy!
-The tourists keep on getting too close to the sacred tree despite Misaki's warnings. They simply have no respect!
-We can sustain ourselves, but I wouldn't be able to deal with all these tourists if Mifu Village wasn't sending us food from the south.
-Why are humans so fascinated by our ears and tails?
-Misaki minds the temple, while I run the inn. Between us, there's not much left for the elder to do!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adv_kiria</t>
   </si>
   <si>
     <t xml:space="preserve">내가 왜 만들어진 건지 알고 있어? 몰라? 그럴 것 같았어.
@@ -2733,33 +2807,6 @@
 *물끄러미* 칫.</t>
   </si>
   <si>
-    <t xml:space="preserve">なぜ私が作られたのか知ってる？ いいえ？ だと思った。
- 家みたいな場所を夢に見るけど、どうやってそこへ戻ればいいか思い出せない。
-目が覚めたらこの武器を持っていた。なんて重いの。刺す？撃つ？両方やっちゃえ。
-「はーい！ みんなのアイドル、機械人形キリアちゃんキリ～！」…私にアイドルモジュールなんてあった？ いつ録音したんだっけ？
-機械のマニは虚無を聞ける者に囁くって聞いた。あの人なら、私がなぜ作られたか知っているかも。
-*zzt* また壊れた記憶…何をしにここへ来たんだっけ？
-*beep* ただいま定期メンテナンス中です。もう少しお待ちください。
-私が小さなゴーレムだって？ 馬鹿な。
-バグ？ グリッチ？ それは機能だよ。
-*じっと見つめる* ちっ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you know why I was made? No? Didn’t think so.
-I keep dreaming of a place that looks like home, but I can't remember how to get there.
-I woke up with this weapon. So cumbersome. Should I stab, or shoot?  I'll just do both.
-"Hai! It's everyone's idol, Machine Doll Kiria-chan, kiri～" ... Do I have an idol module? When did I record this?
-I heard Mani of Machine whispers to those who can hear the void. Maybe he knows why I was made.
-*zzt* Another corrupt memory... what was I doing here again?
-*beep* We are performing scheduled maintenance and will be back online shortly.
-Some people think I'm a tiny golem? Nonsense.
-Bugs? Glitches? Those are features.
-*stares* tch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adv_gaki</t>
-  </si>
-  <si>
     <t xml:space="preserve">하늘빛 튤립? 여기 저기 여행을 다녔었지만 본 적 없어.
 기묘한 병이 새로 유행한다네…… 뿔 하나 달아주지 않으려나～
 화나게 만들면 이상한 저주를 거는 신이 있으니까 조심하라구.
@@ -2772,33 +2819,6 @@
 강한데다 귀엽기까지 하다고? 그거 가키 쨩 말하는 거네☆</t>
   </si>
   <si>
-    <t xml:space="preserve">空色のチューリップ？ 色々旅してきたけど見たことないよ。
-新しい奇妙な病気が流行ってるらしい……ツノでも生えないかな～。
-怒らせると変な呪いをかけてくる神がいるから気を付けようね。
-カジノのディーラーは絶対｢やってる｣……！ 
-卵の卵♪ 切り身の切り身♪ 切り身の卵♪
-上には上がいる。ざこよりざこもいる。#brother2はどっちかなぁ～？
-もう1本ツノ……いや刀を持ってたんだけど旅の途中で失くしちゃってねぇ。
-美味しいもの食べてる時がしゃーわせ♪
-牙姫ちゃん来たよ。もてなしてねすぐでいいよ。
-可愛くて強いのが牙姫ちゃんってワケ☆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A phantom azure tulip? I’ve traveled far and wide, but I’ve never seen one.
-There’s some new weird disease going around... I wonder if it’ll make me grow horns~
-There’s a god who curses people with weird spells when they get mad, so be careful.
-I’m telling you, the casino dealers are definitely cheating...! 
-Egg of an egg♪ Slice of a slice♪ Slice of an egg♪
-There’s always someone better. And someone worse than the worst. Which one are you, #brother2?
-I used to have another horn... no, another sword, but I lost it along the way.
-Eating something delicious is pure bliss♪
-Fang Princess is here. Treat her well, and quickly.
-Cute and strong, that’s what makes me Fang Princess☆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adv_mesherada</t>
-  </si>
-  <si>
     <t xml:space="preserve">두 혼이 다시 한 번 얽히고, 우리가 약속을 다할 그 때를 기다리고 있어… 그렇지 않나?
 혹시 그대가 내가 찾는 사람이라면… 틀림없이 운명이 우리에게 속삭이겠지.
 그대에게서는, 시간의 저편에서 잃어버렸다고 생각했던 평온함을 느낄 수 있어.
@@ -2811,33 +2831,6 @@
 수없는 길을 걸어도… 그 앞에는 반드시 그대가 있을 테지.</t>
   </si>
   <si>
-    <t xml:space="preserve">魂が再び絡み合い、私たちが約束を果たすその時を待っている…そうではないか？ 
-もしそなたが私の探し人なら…きっと運命が二人に囁くだろう。
-そなたには、時の彼方に失われたと思っていた安らぎを感じる。
-そなたの魂は懐かしい…まるで言葉が生まれるよりも前に、出会っていたかのようだ。
-この瞬間が永遠に続けばよいのに…そなたの温もりをもう少し感じていたい。
-そなたはただの優しい見知らぬ人なのか…それとも時を越えて追いかけてきた面影か…
-目の前に立つそなたの名前を、私はまだ呼ぶことができない。
-不思議だ…そなたの傍にいると、なぜか一番安らぐ。
-そなたも感じているか…？ 二人を繋ぐ糸が張り詰めているのを？
-いくつもの道を歩んでも…その先には必ずそなたがいるのだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I wonder... are our souls once more intertwined, waiting for the moment when we shall fulfill our promise?
-If thou art the one I seek... surely fate shall whisper it to us both.
-There is something in thy presence—a peace I thought lost to time.
-Thy soul feels familiar, as though we met long before names were spoken.
-Would that this moment could linger, if only to feel thy warmth a while more.
-Art thou merely a kind stranger... or the echo I have chased through time?
-Thou standest before me, and yet I dare not name thee.
-Strange... I feel safest when thou art near.
-Dost thou feel it too? A thread pulled taut between us.
-So many paths... yet I always find thee at the end of mine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olderyoungersister</t>
-  </si>
-  <si>
     <t xml:space="preserve">내가 언제 태어났는지가 신경 쓰여, #brother2? 아주 아주 먼 옛날이야, #brother2…
 #brother2를 찾아서 쭉 이 세상을 방황했어… 그러니까 정말 있더라구, #brother2가!
 #brother2… 쭉… 함께 있어줄 거지…? 조금 불안해졌을 뿐이야, #brother2.
@@ -2850,52 +2843,7 @@
 눈 쁘띠 쨩들 중에선 색이 다른 아이가 있어, #brother2. 모두 맞이해줄 수 있다면 정말 좋겠네, #brother2.</t>
   </si>
   <si>
-    <t xml:space="preserve">私がいつ生まれたのか気になるの#brother2？遠い遠い遥か昔の事だよ#brother2…
-ずっと#brother2を求めてこの世界を彷徨っていたの…そしたらいたのよ#brother2が！
-#brother2ずっと…一緒だよね…？ちょっと不安になっただけだよ#brother2。
-#brother2の為に戦いも家事もあらゆることはできるようになっておきたいの。
-神様は時に残酷だよね#brother2…
-私は#brother2のこと束縛しないよっ！本当だよっ！
-私の囀りには混沌の力が宿るみたい。
-私以外にもこの世界には#brother2の血の繋がらない妹達がいるんだって！
-雪プチちゃんをもふもふしたい！もふりたいよ#brother2！
-雪プチちゃんには色の違う子たちがいるんだよ#brother2。みんなお迎えできると嬉しいね#brother2。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I wonder when I was born, #brother2? It was a long, long time ago, #brother2...
-I’ve been wandering this world all this time, searching for you, #brother2... and then I found you!
-We’ll be together forever, right, #brother2...? I just got a little scared, that’s all, #brother2.
-I want to be able to do everything for you, #brother2 – fighting, housework, everything.
-God can be so cruel sometimes, #brother2...
-I won’t ever tie you down, #brother2! I promise!
-It seems like there’s a power of chaos in my song.
-I heard there are other sisters in this world who aren’t blood-related to you, #brother2!
-I want to snuggle with snow putit-chan! I really do, #brother2!
-There are snow putit-chans with different colors, #brother2. It would be so nice if we could welcome them all, #brother2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fairy_nanasu</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">나는 나나스, 가지의 요정이야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">～
+    <t xml:space="preserve">나는 나나스, 가지의 요정이야～
 뭐 좋아하냐고? 물론 가지지～
 스펙윙은 아주 좋은 곳이야～ 모두 즐겁게 춤을 추니까～
 모험으로 얻을 수 있는 보물도 물론 좋지만, 제일 기쁜 건 함께 모험해서 얻은 유대야～
@@ -2904,29 +2852,6 @@
 만남은 언젠가는 끝이 나겠지만, 그 동안에 얻은 건 결코 헛되지 않다고 생각해～
 옛날에 스펙윙을 만들었다고 하는 파란 가지 정령… 언젠가는 뛰어넘고 싶네～
 실은 어렸을 때 파란 가지 정령 밑에서 배운 적이 있어- 그녀는 요정이었지만, 엄청 강인했어～</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～
-好きな物はなにかって？もちろんナスだよ～
-スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～
-冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～
-冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～
-もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～
-出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～
-かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～
-実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am Nanas, the eggplant fairy!
-What's my favorite food? Eggplant, of course!
-Specwing is a very nice place, everyone is dancing happily.
-The most gratifying part of an adventure is the bond that you get from adventuring together!
-I had a lot of drinks with new friends I met during my adventures, it was a lot of fun.
-Of course, there were some sad times, but I still moved forward believing that I would meet new people, and that's why I am here today.
-Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
-The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
-when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
   </si>
 </sst>
 </file>
@@ -2936,7 +2861,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2947,20 +2872,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2973,21 +2898,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
+      <family/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
+      <family/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3019,7 +2937,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3028,82 +2946,82 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3178,7 +3096,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3187,12 +3105,12 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>909000</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -3200,13 +3118,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49665600" cy="124920"/>
+          <a:ext cx="49665960" cy="125280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -3334,29 +3252,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
-      <selection pane="bottomRight" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B78" sqref="B78"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.34"/>
+    <col min="1" max="1" width="19.11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.41" style="1" customWidth="1"/>
+    <col min="3" max="3" width="95.53" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3370,1050 +3288,1050 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="12" customHeight="1"/>
+    <row r="3" ht="12" customHeight="1"/>
+    <row r="4" ht="12" customHeight="1"/>
+    <row r="5" ht="12" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" ht="20.1" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" ht="20.1" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" ht="20.1" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="9" ht="20.1" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="10" ht="20.1" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="11" ht="20.1" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="12" ht="20.1" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="13" ht="20.1" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="14" ht="20.1" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="B14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="16" ht="20.1" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="17" ht="20.1" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="18" ht="20.1" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="B18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="19" ht="20.1" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="B19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="20" ht="20.1" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="21" ht="20.1" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B21" t="s">
+        <v>436</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="22" ht="20.1" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="23" ht="20.1" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="B23" t="s">
+        <v>438</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="24" ht="20.1" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="25" ht="20.1" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="26" ht="20.1" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="B26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="27" ht="20.1" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="B27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="28" ht="20.1" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="29" ht="20.1" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="30" ht="20.1" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="B30" t="s">
+        <v>445</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="31" ht="12.8">
+      <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="B31" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="32" ht="22.35">
+      <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B32" t="s">
+        <v>444</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8">
+      <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B33" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" ht="12.8">
+      <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="B34" t="s">
+        <v>447</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="35" ht="12.8">
+      <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="B35" t="s">
+        <v>448</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="36" ht="12.8">
+      <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B36" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="37" ht="12.8">
+      <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B37" t="s">
+        <v>450</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="38" ht="12.8">
+      <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="B38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="39" ht="12.8">
+      <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="B39" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="40" ht="12.8">
+      <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B40" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="41" ht="12.8">
+      <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B41" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="42" ht="12.8">
+      <c r="A42" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="B42" t="s">
+        <v>455</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="43" ht="12.8">
+      <c r="A43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B43" t="s">
+        <v>456</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="44" ht="12.8">
+      <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="B44" t="s">
+        <v>457</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="45" ht="12.8">
+      <c r="A45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="B45" t="s">
+        <v>458</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="46" ht="22.35">
+      <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B46" t="s">
+        <v>459</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+    <row r="47" ht="12.8">
+      <c r="A47" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B47" t="s">
+        <v>460</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="1" t="s">
+    </row>
+    <row r="48" ht="12.8">
+      <c r="A48" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="B48" t="s">
+        <v>461</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="49" ht="12.8">
+      <c r="A49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="B49" t="s">
+        <v>462</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="50" ht="20.1" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B50" t="s">
+        <v>463</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+    <row r="51" ht="20.1" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B51" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="52" ht="22.35">
+      <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="B52" t="s">
+        <v>465</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="3" t="s">
+    </row>
+    <row r="53" ht="12.8">
+      <c r="A53" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="B53" t="s">
+        <v>466</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="54" ht="12.8">
+      <c r="A54" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="B54" t="s">
+        <v>467</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+    <row r="55" ht="12.8">
+      <c r="A55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B55" t="s">
+        <v>468</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="1" t="s">
+    </row>
+    <row r="56" ht="12.8">
+      <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="B56" t="s">
+        <v>469</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="3" t="s">
+    </row>
+    <row r="57" ht="12.8">
+      <c r="A57" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="B57" t="s">
+        <v>470</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="58" ht="12.8">
+      <c r="A58" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="B58" t="s">
+        <v>471</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+    <row r="59" ht="12.8">
+      <c r="A59" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B59" t="s">
+        <v>472</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="1" t="s">
+    </row>
+    <row r="60" ht="12.8">
+      <c r="A60" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="B60" t="s">
+        <v>473</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="3" t="s">
+    </row>
+    <row r="61" ht="12.8">
+      <c r="A61" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="B61" t="s">
+        <v>474</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="62" ht="12.8">
+      <c r="A62" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="B62" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+    <row r="63" ht="12.8">
+      <c r="A63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B63" t="s">
+        <v>476</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="1" t="s">
+    </row>
+    <row r="64" ht="12.8">
+      <c r="A64" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="B64" t="s">
+        <v>477</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="3" t="s">
+    </row>
+    <row r="65" ht="12.8">
+      <c r="A65" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="B65" t="s">
+        <v>478</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="66" ht="32.8">
+      <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="B66" t="s">
+        <v>479</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+    <row r="67" ht="32.8">
+      <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B67" t="s">
+        <v>480</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="68" ht="12.8">
+      <c r="A68" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="B68" t="s">
+        <v>481</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="3" t="s">
+    </row>
+    <row r="69" ht="12.8">
+      <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="B69" t="s">
+        <v>482</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="70" ht="12.8">
+      <c r="A70" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="B70" t="s">
+        <v>483</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D70" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+    <row r="71" ht="12.8">
+      <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B71" t="s">
+        <v>484</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="4" t="s">
+    </row>
+    <row r="72" ht="12.8">
+      <c r="A72" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="B72" t="s">
+        <v>485</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="3" t="s">
+    </row>
+    <row r="73" ht="12.8">
+      <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="B73" t="s">
+        <v>486</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="D73" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="74" ht="22.35">
+      <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="B74" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D74" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+    <row r="75" ht="12.8">
+      <c r="A75" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B75" t="s">
+        <v>488</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D58" s="3" t="s">
+    </row>
+    <row r="76" ht="12.8">
+      <c r="A76" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="B76" t="s">
+        <v>489</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D76" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C59" s="3" t="s">
+    </row>
+    <row r="77" ht="12.8">
+      <c r="A77" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="B77" t="s">
+        <v>490</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="D77" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="78" ht="12.8">
+      <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="B78" t="s">
+        <v>491</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D78" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4422,29 +4340,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection activeCell="B23" sqref="B23"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
+    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
+    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
+    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4458,287 +4376,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="12.8">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="12.8">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="12.8">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="74.6">
       <c r="A5" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>295</v>
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>492</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" ht="43.25">
       <c r="A6" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>299</v>
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>493</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" ht="43.25">
       <c r="A7" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>303</v>
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>494</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" ht="43.25">
       <c r="A8" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>307</v>
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>495</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" ht="43.25">
       <c r="A9" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>311</v>
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>496</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" ht="74.6">
       <c r="A10" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>315</v>
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>497</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" ht="43.25">
       <c r="A11" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>319</v>
+        <v>240</v>
+      </c>
+      <c r="B11" t="s">
+        <v>498</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" ht="43.25">
       <c r="A12" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>323</v>
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>499</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>324</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" ht="95.5">
       <c r="A13" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>327</v>
+        <v>246</v>
+      </c>
+      <c r="B13" t="s">
+        <v>500</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" ht="22.35">
       <c r="A14" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>331</v>
+        <v>249</v>
+      </c>
+      <c r="B14" t="s">
+        <v>501</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" ht="32.8">
       <c r="A15" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>335</v>
+        <v>252</v>
+      </c>
+      <c r="B15" t="s">
+        <v>502</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" ht="12.8">
       <c r="A16" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>339</v>
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>503</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>340</v>
+        <v>256</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" ht="22.35">
       <c r="A17" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>343</v>
+        <v>258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>504</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" ht="22.35">
       <c r="A18" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>347</v>
+        <v>261</v>
+      </c>
+      <c r="B18" t="s">
+        <v>505</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>348</v>
+        <v>262</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="1128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" ht="200.7">
       <c r="A19" s="7" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>351</v>
+        <v>506</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="168.65">
       <c r="A20" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>355</v>
+        <v>267</v>
+      </c>
+      <c r="B20" t="s">
+        <v>507</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" ht="241.75">
       <c r="A21" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>359</v>
+        <v>270</v>
+      </c>
+      <c r="B21" t="s">
+        <v>508</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" ht="32.8">
       <c r="A22" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>363</v>
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>509</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" ht="22.35">
       <c r="A23" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>367</v>
+        <v>276</v>
+      </c>
+      <c r="B23" t="s">
+        <v>510</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>369</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4746,29 +4664,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.06"/>
+    <col min="1" max="1" width="15.7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.61" style="1" customWidth="1"/>
+    <col min="3" max="3" width="109.15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.06" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4782,193 +4700,193 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="64.15">
       <c r="A5" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>371</v>
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>511</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>375</v>
+        <v>282</v>
+      </c>
+      <c r="B6" t="s">
+        <v>512</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>376</v>
+        <v>283</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" ht="22.35">
       <c r="A7" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>379</v>
+        <v>285</v>
+      </c>
+      <c r="B7" t="s">
+        <v>513</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" ht="64.15">
       <c r="A8" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>383</v>
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>514</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>384</v>
+        <v>289</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>387</v>
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
+        <v>515</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" ht="95.5">
       <c r="A10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>391</v>
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>516</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>392</v>
+        <v>295</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" ht="64.15">
       <c r="A11" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>395</v>
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>517</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>396</v>
+        <v>298</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" ht="53.7">
       <c r="A12" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>399</v>
+        <v>300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>518</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" ht="74.6">
       <c r="A13" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>403</v>
+        <v>303</v>
+      </c>
+      <c r="B13" t="s">
+        <v>519</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" ht="116.4">
       <c r="A14" s="3" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>407</v>
+        <v>520</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" ht="147.75">
       <c r="A15" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>411</v>
+        <v>309</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>521</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>412</v>
+        <v>310</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" ht="116.4">
       <c r="A16" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>415</v>
+        <v>312</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>522</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>416</v>
+        <v>313</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" ht="168.65">
       <c r="A17" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>419</v>
+        <v>315</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>420</v>
+        <v>316</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>421</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4976,29 +4894,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B38" sqref="B38"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="100.58"/>
+    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
+    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
+    <col min="4" max="4" width="100.58" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5012,496 +4930,496 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="12.8">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="12.8">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="12.8">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="43.25">
       <c r="A5" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>423</v>
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
+        <v>524</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" ht="32.8">
       <c r="A6" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>427</v>
+        <v>321</v>
+      </c>
+      <c r="B6" t="s">
+        <v>525</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>428</v>
+        <v>322</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" ht="64.15">
       <c r="A7" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>431</v>
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>526</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>432</v>
+        <v>325</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" ht="22.35">
       <c r="A8" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>435</v>
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>527</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" ht="43.25">
       <c r="A9" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>439</v>
+        <v>330</v>
+      </c>
+      <c r="B9" t="s">
+        <v>528</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>440</v>
+        <v>331</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" ht="32.8">
       <c r="A10" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>443</v>
+        <v>333</v>
+      </c>
+      <c r="B10" t="s">
+        <v>529</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>444</v>
+        <v>334</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" ht="53.7">
       <c r="A11" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>447</v>
+        <v>336</v>
+      </c>
+      <c r="B11" t="s">
+        <v>530</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>448</v>
+        <v>337</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="345.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" ht="64.15">
       <c r="A12" s="1" t="s">
-        <v>450</v>
+        <v>339</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>451</v>
+        <v>531</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>452</v>
+        <v>340</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8">
       <c r="A13" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>455</v>
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>532</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>456</v>
+        <v>343</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" ht="43.25">
       <c r="A14" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>459</v>
+        <v>345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>533</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>460</v>
+        <v>346</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" ht="32.8">
       <c r="A15" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>463</v>
+        <v>348</v>
+      </c>
+      <c r="B15" t="s">
+        <v>534</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" ht="32.8">
       <c r="A16" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>467</v>
+        <v>351</v>
+      </c>
+      <c r="B16" t="s">
+        <v>535</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>468</v>
+        <v>352</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" ht="32.8">
       <c r="A17" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>471</v>
+        <v>354</v>
+      </c>
+      <c r="B17" t="s">
+        <v>536</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>472</v>
+        <v>355</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" ht="44.75">
       <c r="A18" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>475</v>
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>537</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>476</v>
+        <v>358</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" ht="32.8">
       <c r="A19" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>479</v>
+        <v>360</v>
+      </c>
+      <c r="B19" t="s">
+        <v>538</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>480</v>
+        <v>361</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" ht="56.7">
       <c r="A20" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>483</v>
+        <v>363</v>
+      </c>
+      <c r="B20" t="s">
+        <v>539</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" ht="91">
       <c r="A21" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>487</v>
+        <v>366</v>
+      </c>
+      <c r="B21" t="s">
+        <v>540</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>488</v>
+        <v>367</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" ht="55.95">
       <c r="A22" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>491</v>
+        <v>369</v>
+      </c>
+      <c r="B22" t="s">
+        <v>541</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>492</v>
+        <v>370</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" ht="13.8">
       <c r="A23" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>495</v>
+        <v>372</v>
+      </c>
+      <c r="B23" t="s">
+        <v>542</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>496</v>
+        <v>373</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" ht="179.1">
       <c r="A24" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>499</v>
+        <v>375</v>
+      </c>
+      <c r="B24" t="s">
+        <v>543</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" ht="12.8">
       <c r="A25" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>503</v>
+        <v>378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>544</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>504</v>
+        <v>379</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" ht="13.8">
       <c r="A26" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>506</v>
+        <v>380</v>
+      </c>
+      <c r="B26" t="s">
+        <v>545</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" ht="95.5">
       <c r="A27" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>510</v>
+        <v>383</v>
+      </c>
+      <c r="B27" t="s">
+        <v>546</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" ht="12.8">
       <c r="A28" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>514</v>
+        <v>386</v>
+      </c>
+      <c r="B28" t="s">
+        <v>547</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>515</v>
+        <v>387</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" ht="126.85">
       <c r="A29" s="3" t="s">
-        <v>517</v>
+        <v>389</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>519</v>
+        <v>390</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" ht="126.85">
       <c r="A30" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>522</v>
+        <v>392</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>549</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>523</v>
+        <v>393</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" ht="126.85">
       <c r="A31" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>526</v>
+        <v>395</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>550</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>527</v>
+        <v>396</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" ht="22.35">
       <c r="A32" s="3" t="s">
-        <v>529</v>
+        <v>398</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>531</v>
+        <v>399</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" ht="85.05">
       <c r="A33" s="3" t="s">
-        <v>533</v>
+        <v>401</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>535</v>
+        <v>402</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" ht="105.95">
       <c r="A34" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>538</v>
+        <v>404</v>
+      </c>
+      <c r="B34" t="s">
+        <v>553</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>539</v>
+        <v>405</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" ht="105.95">
       <c r="A35" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>542</v>
+        <v>407</v>
+      </c>
+      <c r="B35" t="s">
+        <v>554</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>543</v>
+        <v>408</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" ht="105.95">
       <c r="A36" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>546</v>
+        <v>410</v>
+      </c>
+      <c r="B36" t="s">
+        <v>555</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>547</v>
+        <v>411</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" ht="116.4">
       <c r="A37" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>550</v>
+        <v>413</v>
+      </c>
+      <c r="B37" t="s">
+        <v>556</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>551</v>
+        <v>414</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" ht="105.95">
       <c r="A38" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>554</v>
+        <v>416</v>
+      </c>
+      <c r="B38" t="s">
+        <v>557</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>556</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="561">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -863,11 +863,13 @@
   </si>
   <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
-不審者を見たら報告して{くれ}。</t>
+不審者を見たら報告して{くれ}。
+私も昔は君のような冒険者だったの{だが}…</t>
   </si>
   <si>
     <t xml:space="preserve">It is our duty to protect citizens.
-Report to me if you see anyone suspicious.</t>
+Report to me if you see anyone suspicious.
+I used to be an adventurer like you, then...</t>
   </si>
   <si>
     <t xml:space="preserve">banker</t>
@@ -2084,15 +2086,15 @@
     <t xml:space="preserve">fairy_nanasu</t>
   </si>
   <si>
-    <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～
-好きな物はなにかって？もちろんナスだよ～
-スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～
-冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～
-冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～
-もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～
-出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～
-かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～
-実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～</t>
+    <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～。
+好きな物はなにかって？もちろんナスだよ～。
+スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～。
+冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～。
+冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～。
+もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～。
+出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～。
+かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～。
+実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～。</t>
   </si>
   <si>
     <t xml:space="preserve">I am Nanas, the eggplant fairy!
@@ -2104,6 +2106,33 @@
 Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
 The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
 when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪プチちゃん、かわいいですよね……フフフ……。
+ねこの自由さには憧れます。ねこの神様がいたらきっと自由そのものなんだろうなあ。
+ふつうでありたいのに、トラブルはどうしてすぐこちらを見つけるのでしょうね……*はぁ*
+不思議な話し方の冒険者さん、何故会話が出来たのか私も分かりません……。
+可愛らしいお人形の冒険者さん、ずっと誰かを探してますよね……。
+黒い翼の冒険者さん、かっこいいですよね……。
+魔法使いの冒険者さん、何やら物騒な本を持っているような……。
+運命の導きを信じる冒険者さん、何だか情熱的ですよね。
+猫を……吸う？……冒険者が居るとか……？
+ミシリアにある魔女のパン屋さん、素敵ですよね！魔女で、パン屋さん！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow Putit is just too cute... hehe.
+I wish I were as free as a cat... If there’s a cat god, they must be freedom itself.
+All I want is a normal life... So why does trouble always find me? *sigh*
+That adventurer talks so oddly... and yet, somehow we still had a conversation.
+That cute, doll-like adventurer... always searching for someone.
+That adventurer with black wings... they look really cool.
+That adventurer mage... carrying a book that feels kinda dangerous.
+That adventurer who believes in fate... so passionate, huh.
+An adventurer who... ‘inhales cats’? ...Wait, what?
+That witch’s bakery in Mysilia is so lovely... A real shop, right in the city. A witch... and a baker!</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -3106,9 +3135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>286560</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3118,7 +3147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49665960" cy="125280"/>
+          <a:ext cx="49664880" cy="124200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3259,9 +3288,9 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B78" sqref="B78"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
       <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
@@ -3296,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -3310,7 +3339,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3324,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -3338,7 +3367,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -3352,7 +3381,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -3366,7 +3395,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -3380,7 +3409,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -3394,7 +3423,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -3408,7 +3437,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -3422,7 +3451,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -3436,7 +3465,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -3450,7 +3479,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -3464,7 +3493,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -3478,7 +3507,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -3492,7 +3521,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -3506,7 +3535,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -3520,7 +3549,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -3534,7 +3563,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -3548,7 +3577,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -3562,7 +3591,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
@@ -3576,7 +3605,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -3590,7 +3619,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -3604,7 +3633,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -3618,7 +3647,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -3632,7 +3661,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>77</v>
@@ -3646,7 +3675,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -3660,7 +3689,7 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>83</v>
@@ -3674,7 +3703,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>77</v>
@@ -3688,7 +3717,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>80</v>
@@ -3702,7 +3731,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>88</v>
@@ -3716,7 +3745,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>91</v>
@@ -3730,7 +3759,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -3744,7 +3773,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -3758,7 +3787,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>100</v>
@@ -3772,7 +3801,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>103</v>
@@ -3786,7 +3815,7 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>106</v>
@@ -3800,7 +3829,7 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
@@ -3814,7 +3843,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>112</v>
@@ -3828,7 +3857,7 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>115</v>
@@ -3842,7 +3871,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>118</v>
@@ -3856,7 +3885,7 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>121</v>
@@ -3870,7 +3899,7 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
@@ -3884,7 +3913,7 @@
         <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>127</v>
@@ -3898,7 +3927,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>130</v>
@@ -3912,7 +3941,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>133</v>
@@ -3926,7 +3955,7 @@
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>136</v>
@@ -3940,7 +3969,7 @@
         <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>139</v>
@@ -3954,7 +3983,7 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -3968,7 +3997,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>145</v>
@@ -3982,7 +4011,7 @@
         <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>148</v>
@@ -3996,7 +4025,7 @@
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
@@ -4010,7 +4039,7 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>154</v>
@@ -4024,7 +4053,7 @@
         <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>157</v>
@@ -4038,7 +4067,7 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>160</v>
@@ -4052,7 +4081,7 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>163</v>
@@ -4066,7 +4095,7 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>166</v>
@@ -4080,7 +4109,7 @@
         <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>169</v>
@@ -4094,7 +4123,7 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
@@ -4108,7 +4137,7 @@
         <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>175</v>
@@ -4122,7 +4151,7 @@
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
@@ -4136,7 +4165,7 @@
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
@@ -4150,7 +4179,7 @@
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>184</v>
@@ -4164,7 +4193,7 @@
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>187</v>
@@ -4178,7 +4207,7 @@
         <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>190</v>
@@ -4192,7 +4221,7 @@
         <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>193</v>
@@ -4206,7 +4235,7 @@
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>196</v>
@@ -4220,7 +4249,7 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>199</v>
@@ -4234,7 +4263,7 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>202</v>
@@ -4248,7 +4277,7 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>205</v>
@@ -4262,7 +4291,7 @@
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>208</v>
@@ -4276,7 +4305,7 @@
         <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>211</v>
@@ -4290,7 +4319,7 @@
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>214</v>
@@ -4304,7 +4333,7 @@
         <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>217</v>
@@ -4318,7 +4347,7 @@
         <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>220</v>
@@ -4347,10 +4376,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4390,7 +4419,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>223</v>
@@ -4404,7 +4433,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>226</v>
@@ -4418,7 +4447,7 @@
         <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>229</v>
@@ -4432,7 +4461,7 @@
         <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>232</v>
@@ -4446,7 +4475,7 @@
         <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>235</v>
@@ -4460,7 +4489,7 @@
         <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>238</v>
@@ -4474,7 +4503,7 @@
         <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>241</v>
@@ -4488,7 +4517,7 @@
         <v>243</v>
       </c>
       <c r="B12" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>244</v>
@@ -4502,7 +4531,7 @@
         <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>247</v>
@@ -4511,12 +4540,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" ht="22.35">
+    <row r="14" ht="32.8">
       <c r="A14" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>250</v>
@@ -4530,7 +4559,7 @@
         <v>252</v>
       </c>
       <c r="B15" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>253</v>
@@ -4544,7 +4573,7 @@
         <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>256</v>
@@ -4558,7 +4587,7 @@
         <v>258</v>
       </c>
       <c r="B17" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>259</v>
@@ -4572,7 +4601,7 @@
         <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>262</v>
@@ -4586,7 +4615,7 @@
         <v>264</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>265</v>
@@ -4601,7 +4630,7 @@
         <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>268</v>
@@ -4615,7 +4644,7 @@
         <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>271</v>
@@ -4629,7 +4658,7 @@
         <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>274</v>
@@ -4643,7 +4672,7 @@
         <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>277</v>
@@ -4705,7 +4734,7 @@
         <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>280</v>
@@ -4719,7 +4748,7 @@
         <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>283</v>
@@ -4733,7 +4762,7 @@
         <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>286</v>
@@ -4747,7 +4776,7 @@
         <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>289</v>
@@ -4761,7 +4790,7 @@
         <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>292</v>
@@ -4775,7 +4804,7 @@
         <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>295</v>
@@ -4789,7 +4818,7 @@
         <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>298</v>
@@ -4803,7 +4832,7 @@
         <v>300</v>
       </c>
       <c r="B12" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>301</v>
@@ -4817,7 +4846,7 @@
         <v>303</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>304</v>
@@ -4831,7 +4860,7 @@
         <v>306</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>307</v>
@@ -4845,7 +4874,7 @@
         <v>309</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>310</v>
@@ -4859,7 +4888,7 @@
         <v>312</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>313</v>
@@ -4873,7 +4902,7 @@
         <v>315</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>316</v>
@@ -4898,14 +4927,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B38" sqref="B38"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -4944,7 +4973,7 @@
         <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>319</v>
@@ -4958,7 +4987,7 @@
         <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>322</v>
@@ -4972,7 +5001,7 @@
         <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>325</v>
@@ -4986,7 +5015,7 @@
         <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>328</v>
@@ -5000,7 +5029,7 @@
         <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>331</v>
@@ -5014,7 +5043,7 @@
         <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>334</v>
@@ -5028,7 +5057,7 @@
         <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>337</v>
@@ -5042,7 +5071,7 @@
         <v>339</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>340</v>
@@ -5056,7 +5085,7 @@
         <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>343</v>
@@ -5070,7 +5099,7 @@
         <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>346</v>
@@ -5084,7 +5113,7 @@
         <v>348</v>
       </c>
       <c r="B15" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>349</v>
@@ -5098,7 +5127,7 @@
         <v>351</v>
       </c>
       <c r="B16" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>352</v>
@@ -5112,7 +5141,7 @@
         <v>354</v>
       </c>
       <c r="B17" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>355</v>
@@ -5126,7 +5155,7 @@
         <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>358</v>
@@ -5140,7 +5169,7 @@
         <v>360</v>
       </c>
       <c r="B19" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>361</v>
@@ -5154,7 +5183,7 @@
         <v>363</v>
       </c>
       <c r="B20" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>364</v>
@@ -5168,7 +5197,7 @@
         <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>367</v>
@@ -5182,7 +5211,7 @@
         <v>369</v>
       </c>
       <c r="B22" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>370</v>
@@ -5196,7 +5225,7 @@
         <v>372</v>
       </c>
       <c r="B23" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>373</v>
@@ -5210,7 +5239,7 @@
         <v>375</v>
       </c>
       <c r="B24" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>376</v>
@@ -5224,7 +5253,7 @@
         <v>378</v>
       </c>
       <c r="B25" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>379</v>
@@ -5238,7 +5267,7 @@
         <v>380</v>
       </c>
       <c r="B26" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>381</v>
@@ -5252,7 +5281,7 @@
         <v>383</v>
       </c>
       <c r="B27" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>384</v>
@@ -5266,7 +5295,7 @@
         <v>386</v>
       </c>
       <c r="B28" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>387</v>
@@ -5280,7 +5309,7 @@
         <v>389</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>390</v>
@@ -5294,7 +5323,7 @@
         <v>392</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>393</v>
@@ -5308,7 +5337,7 @@
         <v>395</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>396</v>
@@ -5322,7 +5351,7 @@
         <v>398</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>399</v>
@@ -5336,7 +5365,7 @@
         <v>401</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>402</v>
@@ -5350,7 +5379,7 @@
         <v>404</v>
       </c>
       <c r="B34" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>405</v>
@@ -5364,7 +5393,7 @@
         <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>408</v>
@@ -5378,7 +5407,7 @@
         <v>410</v>
       </c>
       <c r="B36" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>411</v>
@@ -5392,7 +5421,7 @@
         <v>413</v>
       </c>
       <c r="B37" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>414</v>
@@ -5406,13 +5435,24 @@
         <v>416</v>
       </c>
       <c r="B38" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>417</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>418</v>
+      </c>
+    </row>
+    <row r="39" ht="105.95">
+      <c r="A39" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" r:id="rId6"/>
+    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="561">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">food1</t>
   </si>
   <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">food2</t>
   </si>
   <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t xml:space="preserve">healer1</t>
   </si>
   <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t xml:space="preserve">healer2</t>
   </si>
   <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t xml:space="preserve">appraise1</t>
   </si>
   <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t xml:space="preserve">appraise2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t xml:space="preserve">appraise3</t>
   </si>
   <si>
+    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t xml:space="preserve">expand1</t>
   </si>
   <si>
+    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t xml:space="preserve">expand2</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t xml:space="preserve">expand3</t>
   </si>
   <si>
+    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">拡張できないよう{だ}。</t>
   </si>
   <si>
@@ -128,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">extraTax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
   </si>
   <si>
     <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
@@ -140,6 +173,9 @@
     <t xml:space="preserve">extraTax2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
   </si>
   <si>
@@ -149,6 +185,9 @@
     <t xml:space="preserve">banker1</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
   </si>
   <si>
@@ -158,6 +197,9 @@
     <t xml:space="preserve">banker2</t>
   </si>
   <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
   </si>
   <si>
@@ -167,6 +209,9 @@
     <t xml:space="preserve">banker3</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
   </si>
   <si>
@@ -176,6 +221,9 @@
     <t xml:space="preserve">banker4</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
   </si>
   <si>
@@ -185,6 +233,9 @@
     <t xml:space="preserve">noDrawingRoom</t>
   </si>
   <si>
+    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
   </si>
   <si>
@@ -194,6 +245,9 @@
     <t xml:space="preserve">nomoney</t>
   </si>
   <si>
+    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
   </si>
   <si>
@@ -203,6 +257,9 @@
     <t xml:space="preserve">alreadyFull</t>
   </si>
   <si>
+    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
   </si>
   <si>
@@ -212,6 +269,9 @@
     <t xml:space="preserve">questAccept</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
   </si>
   <si>
@@ -221,6 +281,9 @@
     <t xml:space="preserve">questFull</t>
   </si>
   <si>
+    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
   </si>
   <si>
@@ -230,6 +293,9 @@
     <t xml:space="preserve">questInProgress</t>
   </si>
   <si>
+    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
   </si>
   <si>
@@ -239,6 +305,9 @@
     <t xml:space="preserve">questComplete</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -248,6 +317,9 @@
     <t xml:space="preserve">bird1</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
   </si>
   <si>
@@ -255,6 +327,10 @@
   </si>
   <si>
     <t xml:space="preserve">bird2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{간다}!
+우후후.</t>
   </si>
   <si>
     <t xml:space="preserve">いく{よ}！
@@ -268,6 +344,9 @@
     <t xml:space="preserve">bird3</t>
   </si>
   <si>
+    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
   </si>
   <si>
@@ -277,6 +356,9 @@
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
+    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
   </si>
   <si>
@@ -292,6 +374,9 @@
     <t xml:space="preserve">lockpick_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
   </si>
   <si>
@@ -301,6 +386,9 @@
     <t xml:space="preserve">invite</t>
   </si>
   <si>
+    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
   </si>
   <si>
@@ -310,6 +398,9 @@
     <t xml:space="preserve">invite2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
   </si>
   <si>
@@ -319,6 +410,9 @@
     <t xml:space="preserve">invite3</t>
   </si>
   <si>
+    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
+  </si>
+  <si>
     <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
   </si>
   <si>
@@ -328,6 +422,9 @@
     <t xml:space="preserve">talk_hobby</t>
   </si>
   <si>
+    <t xml:space="preserve">취미는 #1 정도{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">趣味は#1{だ}。</t>
   </si>
   <si>
@@ -337,6 +434,9 @@
     <t xml:space="preserve">talk_fav</t>
   </si>
   <si>
+    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
   </si>
   <si>
@@ -346,6 +446,9 @@
     <t xml:space="preserve">slave_buy</t>
   </si>
   <si>
+    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
   </si>
   <si>
@@ -355,6 +458,9 @@
     <t xml:space="preserve">slave_buy2</t>
   </si>
   <si>
+    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
   </si>
   <si>
@@ -364,6 +470,9 @@
     <t xml:space="preserve">goto</t>
   </si>
   <si>
+    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
   </si>
   <si>
@@ -373,6 +482,9 @@
     <t xml:space="preserve">goto2</t>
   </si>
   <si>
+    <t xml:space="preserve">놀리는 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">からかっているの{か}？</t>
   </si>
   <si>
@@ -382,6 +494,9 @@
     <t xml:space="preserve">upgrade_heath1</t>
   </si>
   <si>
+    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
+  </si>
+  <si>
     <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
   </si>
   <si>
@@ -391,6 +506,9 @@
     <t xml:space="preserve">upgrade_heath2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
   </si>
   <si>
@@ -400,6 +518,9 @@
     <t xml:space="preserve">invest1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
   </si>
   <si>
@@ -409,6 +530,9 @@
     <t xml:space="preserve">invest2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
   </si>
   <si>
@@ -418,6 +542,9 @@
     <t xml:space="preserve">invest_shop1</t>
   </si>
   <si>
+    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
   </si>
   <si>
@@ -427,6 +554,9 @@
     <t xml:space="preserve">invest_shop2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
   </si>
   <si>
@@ -436,6 +566,9 @@
     <t xml:space="preserve">questCompleteDeliver</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -445,6 +578,9 @@
     <t xml:space="preserve">questCompleteDeliverExtra</t>
   </si>
   <si>
+    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
@@ -454,6 +590,9 @@
     <t xml:space="preserve">miral_medal</t>
   </si>
   <si>
+    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
   </si>
   <si>
@@ -463,6 +602,9 @@
     <t xml:space="preserve">miral_medal2</t>
   </si>
   <si>
+    <t xml:space="preserve">흥!</t>
+  </si>
+  <si>
     <t xml:space="preserve">ふん！</t>
   </si>
   <si>
@@ -472,6 +614,9 @@
     <t xml:space="preserve">shop_criminal</t>
   </si>
   <si>
+    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
@@ -481,6 +626,9 @@
     <t xml:space="preserve">shop_blackmarket_noaccess</t>
   </si>
   <si>
+    <t xml:space="preserve">{아하하}, {YOU} 같은 건실한 모험가가 {I}한테 무슨 볼일{이야}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">{あはは}、君みたいなカタギの冒険者が私に何の用{だ}？</t>
   </si>
   <si>
@@ -490,6 +638,9 @@
     <t xml:space="preserve">guide</t>
   </si>
   <si>
+    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">どこに行きたい{のだ}？</t>
   </si>
   <si>
@@ -499,6 +650,9 @@
     <t xml:space="preserve">shutup</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはしゅんとなった…)</t>
   </si>
   <si>
@@ -508,6 +662,9 @@
     <t xml:space="preserve">shutup2</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはあなたに抱きついた)</t>
   </si>
   <si>
@@ -517,6 +674,9 @@
     <t xml:space="preserve">insult</t>
   </si>
   <si>
+    <t xml:space="preserve">답도 없는 변태{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">どうしようもない変態{だな}。</t>
   </si>
   <si>
@@ -526,6 +686,9 @@
     <t xml:space="preserve">insult2</t>
   </si>
   <si>
+    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
   </si>
   <si>
@@ -535,6 +698,9 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはこくんと肯いた)</t>
   </si>
   <si>
@@ -544,6 +710,9 @@
     <t xml:space="preserve">refuse</t>
   </si>
   <si>
+    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(#tgはやんわりと断った)</t>
   </si>
   <si>
@@ -553,6 +722,9 @@
     <t xml:space="preserve">deliver_purse</t>
   </si>
   <si>
+    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
   </si>
   <si>
@@ -562,6 +734,9 @@
     <t xml:space="preserve">news1</t>
   </si>
   <si>
+    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
@@ -571,6 +746,9 @@
     <t xml:space="preserve">news2</t>
   </si>
   <si>
+    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
   </si>
   <si>
@@ -578,6 +756,11 @@
   </si>
   <si>
     <t xml:space="preserve">bout1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
+진심{이야}?
+지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">力試しをしたいの{か}？
@@ -593,6 +776,11 @@
     <t xml:space="preserve">bout2</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
+그렇게 나와{야지}!
+{좋아}, {YOU}의 힘을 보여{줘}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
@@ -606,6 +794,9 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
+    <t xml:space="preserve">{뭐야}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">なん{だ}？</t>
   </si>
   <si>
@@ -615,6 +806,9 @@
     <t xml:space="preserve">becomeMaid</t>
   </si>
   <si>
+    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
   </si>
   <si>
@@ -624,6 +818,9 @@
     <t xml:space="preserve">sellFame1</t>
   </si>
   <si>
+    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
@@ -633,6 +830,9 @@
     <t xml:space="preserve">sellFame2</t>
   </si>
   <si>
+    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
   </si>
   <si>
@@ -642,6 +842,9 @@
     <t xml:space="preserve">blessing</t>
   </si>
   <si>
+    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
   </si>
   <si>
@@ -651,6 +854,9 @@
     <t xml:space="preserve">lockTooHard</t>
   </si>
   <si>
+    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
   </si>
   <si>
@@ -660,6 +866,9 @@
     <t xml:space="preserve">loytel_bill_give1</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
   </si>
   <si>
@@ -669,6 +878,9 @@
     <t xml:space="preserve">loytel_bill_give2</t>
   </si>
   <si>
+    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
   </si>
   <si>
@@ -678,6 +890,9 @@
     <t xml:space="preserve">loytel_bill_give_given</t>
   </si>
   <si>
+    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
   </si>
   <si>
@@ -687,6 +902,9 @@
     <t xml:space="preserve">loytel_bill_give_wait</t>
   </si>
   <si>
+    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
@@ -696,6 +914,9 @@
     <t xml:space="preserve">loytel_bill_give_lost</t>
   </si>
   <si>
+    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
+  </si>
+  <si>
     <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
   </si>
   <si>
@@ -703,6 +924,15 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가{하다}.
+응? 뭔가 볼일이라도 있{는가}?
+가끔씩은 호화스러운 식사를 하고 {싶다}.
+영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
+눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
+고양이는 왜 이렇게 귀여운 {걸까}.
+#aka? …누굴 말하는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">暇{だ}。
@@ -726,6 +956,12 @@
     <t xml:space="preserve">interest_economy</t>
   </si>
   <si>
+    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
+하여간 이 세상에선 돈이 중요{해}.
+어디 돈 좀 떨어져 있으면 좋을 {텐데}.
+플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
@@ -741,6 +977,12 @@
     <t xml:space="preserve">interest_science</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
+에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
+에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
+신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
@@ -756,6 +998,12 @@
     <t xml:space="preserve">interest_travel</t>
   </si>
   <si>
+    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
+루미에스트는 예술의 거리로 유명{해}.
+노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
+여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
@@ -771,6 +1019,12 @@
     <t xml:space="preserve">interest_world</t>
   </si>
   <si>
+    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
+에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
+신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
+아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
@@ -784,6 +1038,15 @@
   </si>
   <si>
     <t xml:space="preserve">interest_religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
+신이 없다면 이 세계는 의미가 없{어}.
+치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
+가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
+쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
+행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
+기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">信仰こそ何よりも大事{だ}。
@@ -807,6 +1070,12 @@
     <t xml:space="preserve">interest_human</t>
   </si>
   <si>
+    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
+이제부터는 인간의 시대{다}!
+{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
+엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
@@ -822,6 +1091,12 @@
     <t xml:space="preserve">interest_elea</t>
   </si>
   <si>
+    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
+예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
+숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
+어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
@@ -835,6 +1110,17 @@
   </si>
   <si>
     <t xml:space="preserve">shopkeeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
+물건 보는 눈은 자신 있{어}.
+가게 경영은 꽤 어렵{네}.
+건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
+다른 가게에서는 발밑이 안 보이게 조심{해라}.
+만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
+자, {내가} 자신있게 고른 상품들을 둘러{봐}.
+요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
+무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
   </si>
   <si>
     <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
@@ -862,6 +1148,30 @@
     <t xml:space="preserve">guard</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
+수상한 사람을 보면 알려 {줘}.
+{I}도 예전에는 {YOU} 같은 모험가였는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">…</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。
 私も昔は君のような冒険者だったの{だが}…</t>
@@ -875,6 +1185,11 @@
     <t xml:space="preserve">banker</t>
   </si>
   <si>
+    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
+돈으로 살 수 없는 것들도 있{지}.
+본 지점에 어서 {와}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
 お金で買えない価値があ{る}。
 当店へ{ようこそ}！</t>
@@ -888,6 +1203,9 @@
     <t xml:space="preserve">bitch</t>
   </si>
   <si>
+    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
+  </si>
+  <si>
     <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
   </si>
   <si>
@@ -895,6 +1213,10 @@
   </si>
   <si>
     <t xml:space="preserve">slaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님도 이쪽 사람이{네}.
+히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
   </si>
   <si>
     <t xml:space="preserve">お客さんも悪い人間{だな}。
@@ -908,6 +1230,10 @@
     <t xml:space="preserve">bored</t>
   </si>
   <si>
+    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
+(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
@@ -917,6 +1243,27 @@
   </si>
   <si>
     <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
+록 스로어가 던지는 바위를 무시하면 안 {돼}.
+꿈속에서 {내가} 믿는 신을 만났{어}!
+귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
+파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
+도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
+저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
+바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
+이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
+세금을 안 내면 나중에 골치 아파{져}.
+정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
+태양의 빛을 내는 신비한 램프가 있다{더라}.
+월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
+그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
+허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
+수영을 연습{해라}. 내구력이 단련된다{고}!
+미식가들은 독버섯도 구별할 수 있다{더라}.
+자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
+의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
   </si>
   <si>
     <r>
@@ -952,7 +1299,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
@@ -983,6 +1330,23 @@
     <t xml:space="preserve">fortune</t>
   </si>
   <si>
+    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
+소재 망치를 평범한 물건에 막 쓰지 마라!
+영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
+질 좋은 침대에서 자면 수면 효과가 좋아진다.
+몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
+독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
+큐브는 상태이상이 걸려 있다면 분열하지 못한다.
+아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
+소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
+환혹 내성이 충분하다면 광기 상태가 되지 않는다.
+지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
+젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
+단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
+강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
+수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
@@ -1020,6 +1384,31 @@
   </si>
   <si>
     <t xml:space="preserve">fortune_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
+지팡이는 땅에 한동안 놔 두면 충전된다!
+소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
+보석은 플래티넘 코인으로 교환할 수 있다.
+보물 지도는 항상 축복해서 읽어라.
+냐…아…아아…
+무엇을 바라는가?
+채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
+신을 펫으로 만드는 방법도 있다고 한다.
+문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
+일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
+뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
+아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
+당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
+고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
+경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
+여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
+달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
+카르마가 높으면 세금이 감면된다.
+몬스터의 똥은 무거울수록 비싸게 팔린다.
+저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
+헤르메스의 피는 *반드시* 축복해서 마셔라!
+귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
   </si>
   <si>
     <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
@@ -1075,6 +1464,11 @@
     <t xml:space="preserve">mayor</t>
   </si>
   <si>
+    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
+용무가 있{는가}? {나는} 바쁜 몸{이다}.
+마을에 투자하겠다면 언제든 환영{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
@@ -1088,6 +1482,10 @@
     <t xml:space="preserve">secretary</t>
   </si>
   <si>
+    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
+제가 도움이 되어 드릴 일이 있나요?</t>
+  </si>
+  <si>
     <t xml:space="preserve">街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
@@ -1097,6 +1495,13 @@
   </si>
   <si>
     <t xml:space="preserve">mysilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
+십년전쟁으로 이 나라는 큰 타격을 입었{어}.
+죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
+십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
+미실리아는 앞으로 어떻게 되는 걸{까}.</t>
   </si>
   <si>
     <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
@@ -1116,6 +1521,13 @@
     <t xml:space="preserve">olvina</t>
   </si>
   <si>
+    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
+시오루시아는 정말로 학구열이 대단해서 감동했{어}.
+올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
+패리스한테 실컷 매도당하고 {싶다}.
+오르비나는 미실리아 최고의 관광지{다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
@@ -1133,6 +1545,10 @@
     <t xml:space="preserve">lothria</t>
   </si>
   <si>
+    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
+지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
@@ -1142,6 +1558,13 @@
   </si>
   <si>
     <t xml:space="preserve">derphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}.
+그 길에 관심 있으면 도적 길드로 가 {봐}.
+이 세상은 노예가 필요{해}.
+아레나에서 피 튀기는 걸 보는 게 {좋아}.
+이 마을에는 경비병이 없{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">無法者の街、ダルフィへようこそ。
@@ -1159,6 +1582,12 @@
   </si>
   <si>
     <t xml:space="preserve">palmia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
+팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
+쟈비님과 스타샤님은 정말로 사이가 {좋아}.
+팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
   </si>
   <si>
     <t xml:space="preserve">パルミア国の王都へようこそ。
@@ -1176,6 +1605,14 @@
   </si>
   <si>
     <t xml:space="preserve">yowyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
+말이라면 여기서 사가는 게 {좋아}.
+수확기에는 항상 일손이 모자라{지}.
+아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
+서쪽에 무법자들의 마을이 있다{더라}.
+마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
@@ -1199,6 +1636,14 @@
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
+    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
+어딘가에 온천으로 유명한 마을이 있다{더라}.
+이 마을은 어디서든지 낚시를 할 수 있{어}.
+그림 얘기로는 하루종일 떠들 수 있{어}.
+마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
+하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
@@ -1218,6 +1663,13 @@
     <t xml:space="preserve">noyel</t>
   </si>
   <si>
+    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
+매일매일 눈 치우는 게 큰일{이다}.
+죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
+추워!
+여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
@@ -1233,6 +1685,13 @@
   </si>
   <si>
     <t xml:space="preserve">kapul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바닷바람 향기가 좋{네}.
+펫 아레나에서 경기 보는 게 취미{다}.
+더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
+이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
+피라미드에는 어떻게 들어가는 걸{까}?</t>
   </si>
   <si>
     <t xml:space="preserve">潮風が香る{な}。
@@ -1251,6 +1710,19 @@
   </si>
   <si>
     <t xml:space="preserve">foxtown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{우리}는 쌀을 많이 만들어서 인간들에게 팔고 있{어}.
+키즈아미님이 이 마을의 수호신{이다}.
+이 마을의 강은 라나 근처 산에서부터 흐르는 {거야}.
+{우리} 선조는 이 언덕을 깎아 논밭을 만들고 벼농사를 짓기 시작하셨{어}.
+이 마을 사람들은 모두 서예에 조예가 있{어}.
+서예에 관심 있으면, 잡화상에서 서예도구를 사 {봐}.
+혹시 밭 근처에서 금색 도깨비불을 보면, 바로 키누한테 알려 {줘}. 그건 사람을 홀리는 사악한 령이니{까}.
+이 마을에선 무나 대파 같은 야채도 많이 기르고 있{어}.
+키누는 쌀 농사에 재능이 있는 것 {같다}.
+키즈아미님을 믿는 사람만이 이 마을의 영적인 힘을 알아챌 수 있{어}.
+라나로 가는 여행자들이 산길을 오르기 전에 이 마을의 여관에서 잠시 쉬고 가곤 {해}.</t>
   </si>
   <si>
     <t xml:space="preserve">私たちはたくさんの米を作って、人間に売ってい{る}。
@@ -1280,6 +1752,22 @@
   </si>
   <si>
     <t xml:space="preserve">foxtown_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마을 밖으로 나가는 건 {무서워}. 인간들은 아무렇지도 않게 귀랑 꼬리를 만지려 드니{까}.
+호로메님이 이 마을의 모두를 지켜보고 있{어}.
+관광객들이 마을의 분위기를 깨뜨리는 게 싫{어}.
+밤에 혼자 벚나무 근처에 있으면, 황금빛 구미호가 보인다는 소문이 있{어}.
+이 마을 사람들은 어렸을 때부터 검술을 배우고 있{어}.
+이 마을에서 파는 밀크는 최고{다}!
+미후는 남쪽에서 쌀을 가져와서, 여기서 술을 담그곤 {해}.
+앵화주는 여신께 바치는 좋은 공물{이다}.
+미즈나 씨는 정말 쭉쭉빵빵{해}. 그 크기가 주는 포용력이 정말 최고{다}!
+미사키와 미즈나 덕분에 이 마을은 안전하게 경영되고 있{어}.
+이 마을의 공기는 북쪽 땅에서도 따듯하고 평온{하다}. 신목은 겨울에도 잎이 지지 {않아}.
+앵화주는 이 마을의 명물{이다}.
+폭포 아래에서 명상을 하면 몸과 마음에서 사악한 것이 씻겨져 나간다{더라}.
+호로메님을 믿는 사람만이 이 마을의 진짜 아름다움을 알아볼 수 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">村の外に出るのは怖い{よ}。人間たちは平気で耳や尻尾に触れてくるから{ね}。
@@ -1317,6 +1805,19 @@
     <t xml:space="preserve">specwing</t>
   </si>
   <si>
+    <t xml:space="preserve">여기는 가도에서 멀리 떨어진 곳이라, 대부분의 물건들은 하늘길을 통해 받고 있{어}.
+스펙윙에는 수많은 모험가들이 모이고, 네피아에 도전하기 전에 파티를 짜고 있{어}.
+스펙윙은 노스티리스의 황야로 향하는 수많은 모험가들의 최후의 보급지점{이다}.
+이 주변에는 위험한 네피아가 많이 있{어}.
+대사관에서 특별한 허가를 받지 못하면 탐사를 할 수 없는 네피아가 근처에 있다{더라}.
+이 마을은 원래 요정들이 살던 곳{이다}.
+모험가들이 찾아오는 덕분에 이 마을도 꽤 커졌{어}.
+나무 위에서 벌어지는 끝없는 연회, 그게 {우리}가 모험가들에게서 돈을 얻어내는 방법{이다}.
+스펙윙을 세운 건 파란 가지 의상을 입은 요정이라{더라}.
+요정의 마법 덕에, 이 나무는 사람들이 살 수 있는데다 건강하게 자라고 있{어}.
+{우리}는 나무를 돌보고, 나무는 {우리}를 지켜주는 {거야}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ここは街道から遠く離れているので、ほとんどの物資は空から届けられる{のだ}。
 スペクウィングには多くの冒険者が集まり、ネフィアに挑む前にパーティーを組んで{いる}。
 スペクウィングは、ノースティリスの荒野に向かう多くの冒険者にとって、最後の補給地点なん{だよ}。
@@ -1344,6 +1845,23 @@
   </si>
   <si>
     <t xml:space="preserve">village_exile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#race? 어째서 이 마을에…?
+#race 같은 종족이 뭘 하러 온 {거냐}?
+결계가 이 마을을 몬스터들과 호기심에 찬 눈으로부터 지켜주고 있{어}.
+{우리}는 종종 바깥 세계에서 연구 소재를 구해와야 {해}.
+{내가} 소중하게 여기던 사람들은 이미 죽었고, 이제 바깥 세상에 {나를} 기억하고 있는 사람은 아무도 없{어}.
+{우리}는 신들의 금기를 깨, 위대한 아버지를 섬기는 노동을 하게 됐{어}.
+장로 비체린은 자기가 얼마나 오랜 세월을 살아왔는지 이야기를 잘 안 {해}.
+만약 {네가} 잿더미 말고 다른 맛이 나는 먹을거리를 갖고 있다면, 모두가 기뻐할 {거야}.
+이 마을은 먹을거리가 부족{해}.
+{우리}가 자연스럽게 죽음을 맞이하는 일은 없{어}.
+{우리}가 해방될 날은, 위대한 아버지께서 {우리}가 죗값을 전부 치렀다고 판단하실 때 뿐{이다}.
+위대한 아버지께서 항상 {우리}를 지켜보고 있{어}.
+위대한 아버지께서 {우리}의 속죄를 감독하시니, 그 운명으로부터 도망칠 수는 없{어}.
+시간이 흐르며 {우리}는 물질적인 것에 그다지 관심을 갖지 않게 됐{어}.
+#race, 지금 {YOU}의 앞에 있는 것은 천 년 이상 살아온 추방자{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">#raceが何故この村に…？
@@ -1385,6 +1903,12 @@
     <t xml:space="preserve">conery</t>
   </si>
   <si>
+    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
+길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
+스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
+스타샤 공주님 만세!</t>
+  </si>
+  <si>
     <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
@@ -1400,6 +1924,11 @@
     <t xml:space="preserve">garokk</t>
   </si>
   <si>
+    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
+미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
+시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
+  </si>
+  <si>
     <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
@@ -1411,6 +1940,14 @@
   </si>
   <si>
     <t xml:space="preserve">gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
+오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
+공주님 만세!
+나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
+후하핫!
+약한 자를 돕고, 악을 쳐부수는 거다!</t>
   </si>
   <si>
     <t xml:space="preserve">フハハハハ！…何だ貴様は？
@@ -1432,6 +1969,10 @@
     <t xml:space="preserve">jonan</t>
   </si>
   <si>
+    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
+나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
@@ -1441,6 +1982,12 @@
   </si>
   <si>
     <t xml:space="preserve">lowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
+어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
+이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
+교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者がこんなところに何のようだね？
@@ -1458,6 +2005,11 @@
     <t xml:space="preserve">mapMerchant</t>
   </si>
   <si>
+    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
+그건 그렇고 귀중한 서적들이다.
+눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
@@ -1471,6 +2023,11 @@
     <t xml:space="preserve">miral</t>
   </si>
   <si>
+    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
+파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
+오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
+  </si>
+  <si>
     <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
@@ -1482,6 +2039,12 @@
   </si>
   <si>
     <t xml:space="preserve">nino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
+수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
+서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
+아니… 이건 코스프레가 아니다.</t>
   </si>
   <si>
     <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
@@ -1499,6 +2062,9 @@
     <t xml:space="preserve">nola</t>
   </si>
   <si>
+    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
+  </si>
+  <si>
     <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
   </si>
   <si>
@@ -1506,6 +2072,12 @@
   </si>
   <si>
     <t xml:space="preserve">stasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
+팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
+아이돌…? …다른 나라의 말인가요?
+궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
   </si>
   <si>
     <t xml:space="preserve">あら、私に何かご用ですか？
@@ -1523,6 +2095,11 @@
     <t xml:space="preserve">theolucia</t>
   </si>
   <si>
+    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
+패리스 언니는 화나면 무서워요.
+팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
@@ -1536,6 +2113,11 @@
     <t xml:space="preserve">xabi</t>
   </si>
   <si>
+    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
+아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
+길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
+  </si>
+  <si>
     <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
@@ -1549,6 +2131,11 @@
     <t xml:space="preserve">zane</t>
   </si>
   <si>
+    <t xml:space="preserve">무엇이냐, 너는?
+이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
+…</t>
+  </si>
+  <si>
     <t xml:space="preserve">何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
@@ -1560,6 +2147,11 @@
   </si>
   <si>
     <t xml:space="preserve">ephrond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
+아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
+태평하긴, 바보 녀석들이.</t>
   </si>
   <si>
     <r>
@@ -1578,7 +2170,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
@@ -1612,7 +2204,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
@@ -1633,6 +2225,11 @@
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
+    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
+이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
+이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
+  </si>
+  <si>
     <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
@@ -1644,6 +2241,13 @@
   </si>
   <si>
     <t xml:space="preserve">barrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 곡 듣겠나?
+예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
+지금은 미실리아야말로 내 고향이다.
+멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
+내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
   </si>
   <si>
     <t xml:space="preserve">一曲聴いてくかい？
@@ -1669,7 +2273,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
@@ -1680,6 +2284,13 @@
   </si>
   <si>
     <t xml:space="preserve">melvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
+우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
+내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
+귀부인들이 절조가 없어서 참 곤란하단 말이야.
+에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
   </si>
   <si>
     <r>
@@ -1698,7 +2309,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
@@ -1716,6 +2327,12 @@
   </si>
   <si>
     <t xml:space="preserve">caldorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 너는?
+모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
+제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
+팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
   </si>
   <si>
     <t xml:space="preserve">何だお主は？
@@ -1741,7 +2358,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family/>
+        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
@@ -1752,6 +2369,9 @@
     <t xml:space="preserve">melilith</t>
   </si>
   <si>
+    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
+  </si>
+  <si>
     <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
   </si>
   <si>
@@ -1759,6 +2379,24 @@
   </si>
   <si>
     <t xml:space="preserve">seeker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
+차라도 들겠나, 큰까마귀.
+나는 『탐구자』… 또는 『이계 방랑자』라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
+…하지만, 용케도 이런 외딴 곳을 찾아냈군.
+…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
+이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.
+이 세상 어딘가에, 이르바의 모든 역사와 진상이 담긴 비보가 있다더군….
+영원의 맹약…? 까마득히 오래된 이야기를 알고 있군.
+여어, 큰까마귀여. 빌려간 책은 잘 읽고 있나?
+지식을 후세에 남기는 것이 지식을 가진 자의 의무지.
+여어, 큰까마귀여. 내 벗인 슬란을 못 봤나?
+…이 투구 말인가? 아름다운 짐승이지? 내 오랜 벗이다.
+…얼굴을 가리는 이유? 십년전쟁 이래로 엘레아는 얼굴을 들 면목이 없어서 말이야….
+…벗이란 모두, 한 발 빠르게 떠나 버리지….
+아무래도, 강아지 여동생의 저택이라는 환상을 좇고 있는 어떤 광인이 있는 모양이다.
+또 전쟁이 일어나려나.</t>
   </si>
   <si>
     <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
@@ -1818,12 +2456,18 @@
     <t xml:space="preserve">quru</t>
   </si>
   <si>
+    <t xml:space="preserve">왜?</t>
+  </si>
+  <si>
     <t xml:space="preserve">何？</t>
   </si>
   <si>
     <t xml:space="preserve">kettle</t>
   </si>
   <si>
+    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
+  </si>
+  <si>
     <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
   </si>
   <si>
@@ -1831,6 +2475,16 @@
   </si>
   <si>
     <t xml:space="preserve">strange_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
+그 괴물들이랑 똑같은 취급 하지 마.
+아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
+아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
+아빠는 곧 돌아오실 거야.
+부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
+그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
+저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
   <si>
     <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
@@ -1856,6 +2510,9 @@
     <t xml:space="preserve">moyer</t>
   </si>
   <si>
+    <t xml:space="preserve">아앗, 돌돌이 추첨기를 돌리러 온 거야?</t>
+  </si>
+  <si>
     <t xml:space="preserve">おっとガラガラを引きに来たのかい？</t>
   </si>
   <si>
@@ -1863,6 +2520,16 @@
   </si>
   <si>
     <t xml:space="preserve">miko_mifu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리는 축복이기도 하고, 저주이기도 합니다. 관점을 바꾸면 연약함 또한 강인함이 되지요.
+삶에 죽음이 없고, 하늘에 지옥이 없고, 만남에 이별이 없고, 기쁨에 슬픔이 없는 세계 같은 건 존재하지 않아요.
+저는 축복의 무녀로서, 매년 이 마을에서 봉인의 의식을 지도하는 역할을 맡고 있습니다.
+키즈아미님의 축복은 누구든지 받을 수 있습니다. 그 힘은 이 세계에 개입하는 것으로써, 신앙심이 없는 자조차도 느낄 수 있겠지요.
+우리가 기르는 벼는 풍부한 영력을 품고 있습니다. 봉인의 의식에 없어서는 안 되는 것이죠.
+유후는 비뚤어진 부정한 신입니다. 신들 간에 벌어지는 다툼을 전부 없애고, 이상적인 평화를 이르바에 가져오고자 했지요.
+무녀직을 이어받겠다고 결심했을 때, 저는 옛 이름을 버리고 「키누」 라는 이름을 쓰게 됐습니다. 언젠가 제 딸이 저와 같은 길을 걷게 되겠죠.
+영원한 여름이란 없고, 계절은 돌고 도며, 끝내 겨울은 찾아옵니다. 축복도 영원히는 이어지지 않고, 불행 또한 그러합니다.</t>
   </si>
   <si>
     <t xml:space="preserve">私たちは祝福でもあり、呪いでもあります。見方を変えれば、弱さもまた強さに変わるのです。
@@ -1886,6 +2553,19 @@
   </si>
   <si>
     <t xml:space="preserve">miko_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유후는 신들의 전쟁을 이용해 이르바를 지배하고자 했던, 사악한 부정의 신이었어.
+우리는 신수의 광장에서 의식의 춤을 바쳐.
+호로메님께선 모든 생명을 사랑하시고, 신앙심이 없는 자에게조차 작은 축복을 내려주셔.
+칼날의 무녀로서, 나는 매년 봉인의 의식으로 칼춤을 춰.
+벚꽃잎은 여신의 눈물처럼 흩날리고, 우리의 마음에 덧없는 느낌을 새기지.
+의식에 쓰이는 칼은 여신을 숭배하는 데에 중요한 역할을 해.
+호로메님께선 아이들을 아끼셔서, 대가족을 이룬 자에게 축복을 내려주셔. 네후는 결코 인구가 많은 종족은 아니지만, 대가족은 큰 존경을 받아.
+내 칼은 무녀들 사이에서 대대로 전해 내려온 물건이야.
+칼날의 무녀들은 각자 그 칼에 새로운 전설을 새기는 것을 목표로 삼지.
+우리 여신님께서는 힘과 아름다움이 반대되는 게 아니라고 가르치셔. 네후의 칼춤은 그 둘 모두를 체현하는 게 목적이야.
+네후 마을은 신수를 지키기 위해 세워졌어.</t>
   </si>
   <si>
     <t xml:space="preserve">ユフは、神々の戦争を操り、イルヴァを支配しようとした邪悪な負の神だった。
@@ -1915,6 +2595,20 @@
   </si>
   <si>
     <t xml:space="preserve">eureka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가신가요? 이런 곳까지 오시다니 참 별난 분이시네요.
+저는 주님께 이곳을 수호하라는 명을 받았습니다. 대단한 영예긴 하지만… 가끔씩은 좀 심심하네요.
+이반님의 가르침은 가혹하다고들 하지만, 그건 필멸자들에게 깊은 애정과 기대를 품고 계시기 때문이기도 합니다.
+기계는 싫어요. 피를 안 흘리니까.
+저랑 모의전 한 판 어떠세요? 최근에 투쟁이 좀 부족해서.
+빌리씨한테 저 가시만 없었으면…
+고양이는 정말 귀여운 동물이네요…
+전장의 화약 냄새가 그리워요. 저 좀 데려다 주지 않으실래요?
+여기는 풍경이 아름답지만, 생활하기는 불편하단 말이죠. 가끔 북쪽에 있는 미후 마을에 놀러 가는 게 소소한 즐거움이에요.
+이곳에 잠들어 있는 부정한 신에게 도전하신다면 말리지는 않을게요. 이반님께서도 기뻐하실 것 같고.
+에테르는 정말로 흥미로운 물질이네요. 좋은 쪽이든 나쁜 쪽이든, 이후 인류의 방향을 좌우할 것 같아요.
+처음 보는 여우족을 쓰다듬는 건 실례일까요?</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者ですか？こんな場所まで来るとは、物好きですね。
@@ -1948,6 +2642,9 @@
     <t xml:space="preserve">merchant_inn_fox</t>
   </si>
   <si>
+    <t xml:space="preserve">이 목걸이? 물론 쌀이 들어 있어. 우리 마을은 밀을 안 키우니까.</t>
+  </si>
+  <si>
     <t xml:space="preserve">この首飾り？もちろん中身は米よ。私たちの村では小麦は育てていないから。</t>
   </si>
   <si>
@@ -1955,6 +2652,15 @@
   </si>
   <si>
     <t xml:space="preserve">merchant_inn_fox2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 여관은 원래 순례자들을 맞이하기 위해 지었지만, 최근에는 관광객도 많이 늘었어요.
+어서 오세요! 식사하실 건가요? 아니면 목욕? 아니면…?
+왜 갑자기 마을이 인기가 있어진 건지 잘 모르겠지만, 바쁜 것도 나쁘진 않네요!
+관광객 분들이 미사키의 경고를 무시하고 신성한 나무에 가까이 가서 참 곤란해요. 정말이지, 경의가 부족하단 말이죠.
+저희끼리는 자급자족이 되지만, 미후 마을에서 식량을 보내 주지 않았다면 관광객들을 접대하지는 못했을 거예요.
+왜 인간들은 저희 귀와 꼬리에 그렇게 관심이 있는 걸까요?
+미사키는 신전을 지키고, 저는 여관을 담당하고 있죠. 이대로라면 장로님이 할 일이 얼마 안 남겠네요!</t>
   </si>
   <si>
     <t xml:space="preserve">この宿は元々巡礼者を迎えるために建てられたのですが、最近は観光客も増えてきました。
@@ -1976,6 +2682,18 @@
   </si>
   <si>
     <t xml:space="preserve">adv_kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내가 왜 만들어진 건지 알고 있어? 몰라? 그럴 것 같았어.
+집 같은 장소를 꿈에서 봤는데, 어떻게 해야 돌아갈 수 있는지는 기억이 안 나.
+눈을 떴을 때부터 이 무기를 갖고 있었어. 정말 무거워. 찌르기? 쏘기? 둘 다 하면 되지.
+「네ー에! 모두의 아이돌, 기계 인형 키리아 쨩이야 키리～!」…나한테 아이돌 모듈 같은 게 있었어? 언제 녹음했었지?
+기계의 마니는 허무를 들을 수 있는 자에게 속삭인다고 들었어. 그 사람이라면, 내가 왜 만들어졌는지 알고 있을지도.
+*zzt* 또 손상된 기억… 이곳에 뭘 하러 왔더라?
+*beep* 현재 정기 메인터넌스 중입니다. 잠시만 기다려 주십시오.
+내가 작은 골렘이라고? 말도 안 돼.
+버그? 글리치? 그건 기능이야.
+*물끄러미* 칫.</t>
   </si>
   <si>
     <t xml:space="preserve">なぜ私が作られたのか知ってる？ いいえ？ だと思った。
@@ -2005,6 +2723,18 @@
     <t xml:space="preserve">adv_gaki</t>
   </si>
   <si>
+    <t xml:space="preserve">하늘빛 튤립? 여기 저기 여행을 다녔었지만 본 적 없어.
+기묘한 병이 새로 유행한다네…… 뿔 하나 달아주지 않으려나～
+화나게 만들면 이상한 저주를 거는 신이 있으니까 조심하라구.
+카지노의 딜러 말이야, 언젠가 그 손모가지를 날려버릴 거야……!
+알의 알♪ 토막의 토막♪ 토막의 알♪
+위에도 위가 있어. 허접 밑에도 허접이 있고. #brother2는 어느 쪽일까나～?
+뿔을…… 아니 칼을 하나 더 갖고 있었는데, 여행하다가 잃어버려서 말이야.
+맛있는 거 먹을 때가 제일 행복해ー♪
+가키 쨩이 왔어. 빨리 대접해줘 빨리 빨리.
+강한데다 귀엽기까지 하다고? 그거 가키 쨩 말하는 거네☆</t>
+  </si>
+  <si>
     <t xml:space="preserve">空色のチューリップ？ 色々旅してきたけど見たことないよ。
 新しい奇妙な病気が流行ってるらしい……ツノでも生えないかな～。
 怒らせると変な呪いをかけてくる神がいるから気を付けようね。
@@ -2032,6 +2762,18 @@
     <t xml:space="preserve">adv_mesherada</t>
   </si>
   <si>
+    <t xml:space="preserve">두 혼이 다시 한 번 얽히고, 우리가 약속을 다할 그 때를 기다리고 있어… 그렇지 않나?
+혹시 그대가 내가 찾는 사람이라면… 틀림없이 운명이 우리에게 속삭이겠지.
+그대에게서는, 시간의 저편에서 잃어버렸다고 생각했던 평온함을 느낄 수 있어.
+그대의 혼은 그리운 느낌이야… 마치 언어가 생겨나기 전에 만났던 것 같은.
+이 순간이 영원히 계속되면 좋으련만… 그대의 온기를 조금 더 느끼고 싶으니.
+그대는 그저 상냥한 낯선 이일 뿐인가… 아니면 시간을 뛰어넘어 쫓아온 잔영인가…
+내 눈앞의 그대의 이름을, 나는 아직 부를 수가 없구나.
+이상하군… 그대의 곁에 있으면 어째서인지 정말 안심이 돼.
+그대도 느끼고 있는 건가…? 우리를 묶는 실이 팽팽해져 있는 것을?
+수없는 길을 걸어도… 그 앞에는 반드시 그대가 있을 테지.</t>
+  </si>
+  <si>
     <t xml:space="preserve">魂が再び絡み合い、私たちが約束を果たすその時を待っている…そうではないか？ 
 もしそなたが私の探し人なら…きっと運命が二人に囁くだろう。
 そなたには、時の彼方に失われたと思っていた安らぎを感じる。
@@ -2059,6 +2801,18 @@
     <t xml:space="preserve">olderyoungersister</t>
   </si>
   <si>
+    <t xml:space="preserve">내가 언제 태어났는지가 신경 쓰여, #brother2? 아주 아주 먼 옛날이야, #brother2…
+#brother2를 찾아서 쭉 이 세상을 방황했어… 그러니까 정말 있더라구, #brother2가!
+#brother2… 쭉… 함께 있어줄 거지…? 조금 불안해졌을 뿐이야, #brother2.
+#brother2를 위해서 싸움도 집안일도, 여러가지 잘 해낼 수 있게 되고 싶어.
+하느님은 가끔씩 잔혹하시구나, #brother2…
+난 #brother2를 옭아매지 않을 거야! 진짜야!
+내 목소리에는 혼돈의 힘이 담겨 있는 것 같아.
+이 세상에 나 말고도 #brother2랑 피가 이어지지 않은 여동생들이 있대!
+눈 쁘띠 쨩을 쓰담쓰담 하고 싶어! 쓰다듬고 싶다구 #brother2!
+눈 쁘띠 쨩들 중에선 색이 다른 아이가 있어, #brother2. 모두 맞이해줄 수 있다면 정말 좋겠네, #brother2.</t>
+  </si>
+  <si>
     <t xml:space="preserve">私がいつ生まれたのか気になるの#brother2？遠い遠い遥か昔の事だよ#brother2…
 ずっと#brother2を求めてこの世界を彷徨っていたの…そしたらいたのよ#brother2が！
 #brother2ずっと…一緒だよね…？ちょっと不安になっただけだよ#brother2。
@@ -2086,6 +2840,17 @@
     <t xml:space="preserve">fairy_nanasu</t>
   </si>
   <si>
+    <t xml:space="preserve">나는 나나스, 가지의 요정이야～
+뭐 좋아하냐고? 물론 가지지～
+스펙윙은 아주 좋은 곳이야～ 모두 즐겁게 춤을 추니까～
+모험으로 얻을 수 있는 보물도 물론 좋지만, 제일 기쁜 건 함께 모험해서 얻은 유대야～
+모험하다 만난 새 동료랑 한잔 걸친 적 많아- 엄청 즐거웠지～
+물론 슬픈 일도 있지만, 그래도 또 새로운 만남이 있을 거라 믿고 앞으로 나아가니까 지금의 내가 있는 거지～
+만남은 언젠가는 끝이 나겠지만, 그 동안에 얻은 건 결코 헛되지 않다고 생각해～
+옛날에 스펙윙을 만들었다고 하는 파란 가지 정령… 언젠가는 뛰어넘고 싶네～
+실은 어렸을 때 파란 가지 정령 밑에서 배운 적이 있어- 그녀는 요정이었지만, 엄청 강인했어～</t>
+  </si>
+  <si>
     <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～。
 好きな物はなにかって？もちろんナスだよ～。
 スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～。
@@ -2109,6 +2874,37 @@
   </si>
   <si>
     <t xml:space="preserve">girl_blue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">눈 쁘띠 쨩, 귀엽네요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">…… 후후후……
+고양이의 자유로움이 부러워요. 고양이의 신이 있다면 분명 자유 그 자체인 분이겠죠.
+평범하게 살고 싶은데, 왜 항상 트러블한테 딱 걸리게 되는 걸까요…… 하아.
+말투가 독특한 모험가씨 말인데요, 왜 이야기가 통했는지는 저도 잘 모르겠네요……
+귀여운 인형 모험가씨 말인데요, 뭔가를 계속 찾고 있단 말이죠……
+검은 날개가 달린 모험가씨는 엄청 멋있어요……
+마법사 모험가씨 말인데요, 아무래도 좀 위험한 책을 가지고 계신 것 같아서……
+운명의 인도를 믿는 모험가씨 말인데요, 뭔가 좀 열정적이시네요.
+고양이를…… 빠는? ……모험가가 있다던가……?
+미실리아에서 빵집을 운영하는 마녀님, 엄청 멋지죠! 마녀인데다, 빵집이라니!</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">雪プチちゃん、かわいいですよね……フフフ……。
@@ -2134,754 +2930,6 @@
 An adventurer who... ‘inhales cats’? ...Wait, what?
 That witch’s bakery in Mysilia is so lovely... A real shop, right in the city. A witch... and a baker!</t>
   </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">자, 천천히 {먹어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{간다}!
-우후후.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">취미는 #1 정도{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">놀리는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">흥!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{아하하}, {YOU} 같은 건실한 모험가가 {I}한테 무슨 볼일{이야}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">답도 없는 변태{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
-진심{이야}?
-지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
-그렇게 나와{야지}!
-{좋아}, {YOU}의 힘을 보여{줘}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{뭐야}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한가{하다}.
-응? 뭔가 볼일이라도 있{는가}?
-가끔씩은 호화스러운 식사를 하고 {싶다}.
-영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
-눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
-고양이는 왜 이렇게 귀여운 {걸까}.
-#aka? …누굴 말하는 {거냐}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
-하여간 이 세상에선 돈이 중요{해}.
-어디 돈 좀 떨어져 있으면 좋을 {텐데}.
-플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
-에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
-에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
-신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
-루미에스트는 예술의 거리로 유명{해}.
-노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
-여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
-에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
-신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
-아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
-신이 없다면 이 세계는 의미가 없{어}.
-치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
-가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
-쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
-행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
-기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
-이제부터는 인간의 시대{다}!
-{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
-엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
-예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
-숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
-어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
-물건 보는 눈은 자신 있{어}.
-가게 경영은 꽤 어렵{네}.
-건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
-다른 가게에서는 발밑이 안 보이게 조심{해라}.
-만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
-자, {내가} 자신있게 고른 상품들을 둘러{봐}.
-요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
-무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
-수상한 사람을 보면 알려 {줘}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
-돈으로 살 수 없는 것들도 있{지}.
-본 지점에 어서 {와}!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손님도 이쪽 사람이{네}.
-히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
-(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
-록 스로어가 던지는 바위를 무시하면 안 {돼}.
-꿈속에서 {내가} 믿는 신을 만났{어}!
-귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
-파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
-도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
-저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
-바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
-이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
-세금을 안 내면 나중에 골치 아파{져}.
-정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
-태양의 빛을 내는 신비한 램프가 있다{더라}.
-월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
-그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
-허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
-수영을 연습{해라}. 내구력이 단련된다{고}!
-미식가들은 독버섯도 구별할 수 있다{더라}.
-자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
-의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
-소재 망치를 평범한 물건에 막 쓰지 마라!
-영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
-질 좋은 침대에서 자면 수면 효과가 좋아진다.
-몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
-독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
-큐브는 상태이상이 걸려 있다면 분열하지 못한다.
-아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
-소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
-환혹 내성이 충분하다면 광기 상태가 되지 않는다.
-지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
-젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
-단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
-강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
-수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
-지팡이는 땅에 한동안 놔 두면 충전된다!
-소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
-보석은 플래티넘 코인으로 교환할 수 있다.
-보물 지도는 항상 축복해서 읽어라.
-냐…아…아아…
-무엇을 바라는가?
-채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
-신을 펫으로 만드는 방법도 있다고 한다.
-문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
-일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
-뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
-아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
-당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
-고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
-경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
-여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
-달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
-카르마가 높으면 세금이 감면된다.
-몬스터의 똥은 무거울수록 비싸게 팔린다.
-저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
-헤르메스의 피는 *반드시* 축복해서 마셔라!
-귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
-용무가 있{는가}? {나는} 바쁜 몸{이다}.
-마을에 투자하겠다면 언제든 환영{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
-제가 도움이 되어 드릴 일이 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
-십년전쟁으로 이 나라는 큰 타격을 입었{어}.
-죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
-십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
-미실리아는 앞으로 어떻게 되는 걸{까}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
-시오루시아는 정말로 학구열이 대단해서 감동했{어}.
-올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
-패리스한테 실컷 매도당하고 {싶다}.
-오르비나는 미실리아 최고의 관광지{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
-지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}.
-그 길에 관심 있으면 도적 길드로 가 {봐}.
-이 세상은 노예가 필요{해}.
-아레나에서 피 튀기는 걸 보는 게 {좋아}.
-이 마을에는 경비병이 없{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
-팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
-쟈비님과 스타샤님은 정말로 사이가 {좋아}.
-팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
-말이라면 여기서 사가는 게 {좋아}.
-수확기에는 항상 일손이 모자라{지}.
-아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
-서쪽에 무법자들의 마을이 있다{더라}.
-마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
-어딘가에 온천으로 유명한 마을이 있다{더라}.
-이 마을은 어디서든지 낚시를 할 수 있{어}.
-그림 얘기로는 하루종일 떠들 수 있{어}.
-마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
-하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
-매일매일 눈 치우는 게 큰일{이다}.
-죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
-추워!
-여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바닷바람 향기가 좋{네}.
-펫 아레나에서 경기 보는 게 취미{다}.
-더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
-이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
-피라미드에는 어떻게 들어가는 걸{까}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{우리}는 쌀을 많이 만들어서 인간들에게 팔고 있{어}.
-키즈아미님이 이 마을의 수호신{이다}.
-이 마을의 강은 라나 근처 산에서부터 흐르는 {거야}.
-{우리} 선조는 이 언덕을 깎아 논밭을 만들고 벼농사를 짓기 시작하셨{어}.
-이 마을 사람들은 모두 서예에 조예가 있{어}.
-서예에 관심 있으면, 잡화상에서 서예도구를 사 {봐}.
-혹시 밭 근처에서 금색 도깨비불을 보면, 바로 키누한테 알려 {줘}. 그건 사람을 홀리는 사악한 령이니{까}.
-이 마을에선 무나 대파 같은 야채도 많이 기르고 있{어}.
-키누는 쌀 농사에 재능이 있는 것 {같다}.
-키즈아미님을 믿는 사람만이 이 마을의 영적인 힘을 알아챌 수 있{어}.
-라나로 가는 여행자들이 산길을 오르기 전에 이 마을의 여관에서 잠시 쉬고 가곤 {해}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을 밖으로 나가는 건 {무서워}. 인간들은 아무렇지도 않게 귀랑 꼬리를 만지려 드니{까}.
-호로메님이 이 마을의 모두를 지켜보고 있{어}.
-관광객들이 마을의 분위기를 깨뜨리는 게 싫{어}.
-밤에 혼자 벚나무 근처에 있으면, 황금빛 구미호가 보인다는 소문이 있{어}.
-이 마을 사람들은 어렸을 때부터 검술을 배우고 있{어}.
-이 마을에서 파는 밀크는 최고{다}!
-미후는 남쪽에서 쌀을 가져와서, 여기서 술을 담그곤 {해}.
-앵화주는 여신께 바치는 좋은 공물{이다}.
-미즈나 씨는 정말 쭉쭉빵빵{해}. 그 크기가 주는 포용력이 정말 최고{다}!
-미사키와 미즈나 덕분에 이 마을은 안전하게 경영되고 있{어}.
-이 마을의 공기는 북쪽 땅에서도 따듯하고 평온{하다}. 신목은 겨울에도 잎이 지지 {않아}.
-앵화주는 이 마을의 명물{이다}.
-폭포 아래에서 명상을 하면 몸과 마음에서 사악한 것이 씻겨져 나간다{더라}.
-호로메님을 믿는 사람만이 이 마을의 진짜 아름다움을 알아볼 수 있{어}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여기는 가도에서 멀리 떨어진 곳이라, 대부분의 물건들은 하늘길을 통해 받고 있{어}.
-스펙윙에는 수많은 모험가들이 모이고, 네피아에 도전하기 전에 파티를 짜고 있{어}.
-스펙윙은 노스티리스의 황야로 향하는 수많은 모험가들의 최후의 보급지점{이다}.
-이 주변에는 위험한 네피아가 많이 있{어}.
-대사관에서 특별한 허가를 받지 못하면 탐사를 할 수 없는 네피아가 근처에 있다{더라}.
-이 마을은 원래 요정들이 살던 곳{이다}.
-모험가들이 찾아오는 덕분에 이 마을도 꽤 커졌{어}.
-나무 위에서 벌어지는 끝없는 연회, 그게 {우리}가 모험가들에게서 돈을 얻어내는 방법{이다}.
-스펙윙을 세운 건 파란 가지 의상을 입은 요정이라{더라}.
-요정의 마법 덕에, 이 나무는 사람들이 살 수 있는데다 건강하게 자라고 있{어}.
-{우리}는 나무를 돌보고, 나무는 {우리}를 지켜주는 {거야}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#race? 어째서 이 마을에…?
-#race 같은 종족이 뭘 하러 온 {거냐}?
-결계가 이 마을을 몬스터들과 호기심에 찬 눈으로부터 지켜주고 있{어}.
-{우리}는 종종 바깥 세계에서 연구 소재를 구해와야 {해}.
-{내가} 소중하게 여기던 사람들은 이미 죽었고, 이제 바깥 세상에 {나를} 기억하고 있는 사람은 아무도 없{어}.
-{우리}는 신들의 금기를 깨, 위대한 아버지를 섬기는 노동을 하게 됐{어}.
-장로 비체린은 자기가 얼마나 오랜 세월을 살아왔는지 이야기를 잘 안 {해}.
-만약 {네가} 잿더미 말고 다른 맛이 나는 먹을거리를 갖고 있다면, 모두가 기뻐할 {거야}.
-이 마을은 먹을거리가 부족{해}.
-{우리}가 자연스럽게 죽음을 맞이하는 일은 없{어}.
-{우리}가 해방될 날은, 위대한 아버지께서 {우리}가 죗값을 전부 치렀다고 판단하실 때 뿐{이다}.
-위대한 아버지께서 항상 {우리}를 지켜보고 있{어}.
-위대한 아버지께서 {우리}의 속죄를 감독하시니, 그 운명으로부터 도망칠 수는 없{어}.
-시간이 흐르며 {우리}는 물질적인 것에 그다지 관심을 갖지 않게 됐{어}.
-#race, 지금 {YOU}의 앞에 있는 것은 천 년 이상 살아온 추방자{다}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
-길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
-스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
-스타샤 공주님 만세!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
-미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
-시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
-오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
-공주님 만세!
-나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
-후하핫!
-약한 자를 돕고, 악을 쳐부수는 거다!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
-나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
-어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
-이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
-교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
-그건 그렇고 귀중한 서적들이다.
-눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
-파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
-오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
-수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
-서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
-아니… 이건 코스프레가 아니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
-팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
-아이돌…? …다른 나라의 말인가요?
-궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
-패리스 언니는 화나면 무서워요.
-팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
-아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
-길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무엇이냐, 너는?
-이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
-…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
-아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
-태평하긴, 바보 녀석들이.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
-이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
-이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한 곡 듣겠나?
-예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
-지금은 미실리아야말로 내 고향이다.
-멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
-내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
-우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
-내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
-귀부인들이 절조가 없어서 참 곤란하단 말이야.
-에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐 너는?
-모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
-제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
-팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
-차라도 들겠나, 큰까마귀.
-나는 『탐구자』… 또는 『이계 방랑자』라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
-…하지만, 용케도 이런 외딴 곳을 찾아냈군.
-…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
-이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.
-이 세상 어딘가에, 이르바의 모든 역사와 진상이 담긴 비보가 있다더군….
-영원의 맹약…? 까마득히 오래된 이야기를 알고 있군.
-여어, 큰까마귀여. 빌려간 책은 잘 읽고 있나?
-지식을 후세에 남기는 것이 지식을 가진 자의 의무지.
-여어, 큰까마귀여. 내 벗인 슬란을 못 봤나?
-…이 투구 말인가? 아름다운 짐승이지? 내 오랜 벗이다.
-…얼굴을 가리는 이유? 십년전쟁 이래로 엘레아는 얼굴을 들 면목이 없어서 말이야….
-…벗이란 모두, 한 발 빠르게 떠나 버리지….
-아무래도, 강아지 여동생의 저택이라는 환상을 좇고 있는 어떤 광인이 있는 모양이다.
-또 전쟁이 일어나려나.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왜?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
-그 괴물들이랑 똑같은 취급 하지 마.
-아빠가 돌아오시면, 이런 곳에는 다시는 오지 말자고 할 거야!
-아빠는 "가학자"야. 이 보육원에 와서… 그 괴물 여자한테 뭔가 부탁받아서, 곧 돌아올게 라고…
-아빠는 곧 돌아오실 거야.
-부탁받았다고 해도, 리틀들이랑은 안 놀 거니까.
-그 아이들 말이야, 가끔씩 이상한 걸 주워 온다구.
-저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아앗, 돌돌이 추첨기를 돌리러 온 거야?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우리는 축복이기도 하고, 저주이기도 합니다. 관점을 바꾸면 연약함 또한 강인함이 되지요.
-삶에 죽음이 없고, 하늘에 지옥이 없고, 만남에 이별이 없고, 기쁨에 슬픔이 없는 세계 같은 건 존재하지 않아요.
-저는 축복의 무녀로서, 매년 이 마을에서 봉인의 의식을 지도하는 역할을 맡고 있습니다.
-키즈아미님의 축복은 누구든지 받을 수 있습니다. 그 힘은 이 세계에 개입하는 것으로써, 신앙심이 없는 자조차도 느낄 수 있겠지요.
-우리가 기르는 벼는 풍부한 영력을 품고 있습니다. 봉인의 의식에 없어서는 안 되는 것이죠.
-유후는 비뚤어진 부정한 신입니다. 신들 간에 벌어지는 다툼을 전부 없애고, 이상적인 평화를 이르바에 가져오고자 했지요.
-무녀직을 이어받겠다고 결심했을 때, 저는 옛 이름을 버리고 「키누」 라는 이름을 쓰게 됐습니다. 언젠가 제 딸이 저와 같은 길을 걷게 되겠죠.
-영원한 여름이란 없고, 계절은 돌고 도며, 끝내 겨울은 찾아옵니다. 축복도 영원히는 이어지지 않고, 불행 또한 그러합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유후는 신들의 전쟁을 이용해 이르바를 지배하고자 했던, 사악한 부정의 신이었어.
-우리는 신수의 광장에서 의식의 춤을 바쳐.
-호로메님께선 모든 생명을 사랑하시고, 신앙심이 없는 자에게조차 작은 축복을 내려주셔.
-칼날의 무녀로서, 나는 매년 봉인의 의식으로 칼춤을 춰.
-벚꽃잎은 여신의 눈물처럼 흩날리고, 우리의 마음에 덧없는 느낌을 새기지.
-의식에 쓰이는 칼은 여신을 숭배하는 데에 중요한 역할을 해.
-호로메님께선 아이들을 아끼셔서, 대가족을 이룬 자에게 축복을 내려주셔. 네후는 결코 인구가 많은 종족은 아니지만, 대가족은 큰 존경을 받아.
-내 칼은 무녀들 사이에서 대대로 전해 내려온 물건이야.
-칼날의 무녀들은 각자 그 칼에 새로운 전설을 새기는 것을 목표로 삼지.
-우리 여신님께서는 힘과 아름다움이 반대되는 게 아니라고 가르치셔. 네후의 칼춤은 그 둘 모두를 체현하는 게 목적이야.
-네후 마을은 신수를 지키기 위해 세워졌어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가신가요? 이런 곳까지 오시다니 참 별난 분이시네요.
-저는 주님께 이곳을 수호하라는 명을 받았습니다. 대단한 영예긴 하지만… 가끔씩은 좀 심심하네요.
-이반님의 가르침은 가혹하다고들 하지만, 그건 필멸자들에게 깊은 애정과 기대를 품고 계시기 때문이기도 합니다.
-기계는 싫어요. 피를 안 흘리니까.
-저랑 모의전 한 판 어떠세요? 최근에 투쟁이 좀 부족해서.
-빌리씨한테 저 가시만 없었으면…
-고양이는 정말 귀여운 동물이네요…
-전장의 화약 냄새가 그리워요. 저 좀 데려다 주지 않으실래요?
-여기는 풍경이 아름답지만, 생활하기는 불편하단 말이죠. 가끔 북쪽에 있는 미후 마을에 놀러 가는 게 소소한 즐거움이에요.
-이곳에 잠들어 있는 부정한 신에게 도전하신다면 말리지는 않을게요. 이반님께서도 기뻐하실 것 같고.
-에테르는 정말로 흥미로운 물질이네요. 좋은 쪽이든 나쁜 쪽이든, 이후 인류의 방향을 좌우할 것 같아요.
-처음 보는 여우족을 쓰다듬는 건 실례일까요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 목걸이? 물론 쌀이 들어 있어. 우리 마을은 밀을 안 키우니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 여관은 원래 순례자들을 맞이하기 위해 지었지만, 최근에는 관광객도 많이 늘었어요.
-어서 오세요! 식사하실 건가요? 아니면 목욕? 아니면…?
-왜 갑자기 마을이 인기가 있어진 건지 잘 모르겠지만, 바쁜 것도 나쁘진 않네요!
-관광객 분들이 미사키의 경고를 무시하고 신성한 나무에 가까이 가서 참 곤란해요. 정말이지, 경의가 부족하단 말이죠.
-저희끼리는 자급자족이 되지만, 미후 마을에서 식량을 보내 주지 않았다면 관광객들을 접대하지는 못했을 거예요.
-왜 인간들은 저희 귀와 꼬리에 그렇게 관심이 있는 걸까요?
-미사키는 신전을 지키고, 저는 여관을 담당하고 있죠. 이대로라면 장로님이 할 일이 얼마 안 남겠네요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내가 왜 만들어진 건지 알고 있어? 몰라? 그럴 것 같았어.
-집 같은 장소를 꿈에서 봤는데, 어떻게 해야 돌아갈 수 있는지는 기억이 안 나.
-눈을 떴을 때부터 이 무기를 갖고 있었어. 정말 무거워. 찌르기? 쏘기? 둘 다 하면 되지.
-「네ー에! 모두의 아이돌, 기계 인형 키리아 쨩이야 키리～!」…나한테 아이돌 모듈 같은 게 있었어? 언제 녹음했었지?
-기계의 마니는 허무를 들을 수 있는 자에게 속삭인다고 들었어. 그 사람이라면, 내가 왜 만들어졌는지 알고 있을지도.
-*zzt* 또 손상된 기억… 이곳에 뭘 하러 왔더라?
-*beep* 현재 정기 메인터넌스 중입니다. 잠시만 기다려 주십시오.
-내가 작은 골렘이라고? 말도 안 돼.
-버그? 글리치? 그건 기능이야.
-*물끄러미* 칫.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘빛 튤립? 여기 저기 여행을 다녔었지만 본 적 없어.
-기묘한 병이 새로 유행한다네…… 뿔 하나 달아주지 않으려나～
-화나게 만들면 이상한 저주를 거는 신이 있으니까 조심하라구.
-카지노의 딜러 말이야, 언젠가 그 손모가지를 날려버릴 거야……!
-알의 알♪ 토막의 토막♪ 토막의 알♪
-위에도 위가 있어. 허접 밑에도 허접이 있고. #brother2는 어느 쪽일까나～?
-뿔을…… 아니 칼을 하나 더 갖고 있었는데, 여행하다가 잃어버려서 말이야.
-맛있는 거 먹을 때가 제일 행복해ー♪
-가키 쨩이 왔어. 빨리 대접해줘 빨리 빨리.
-강한데다 귀엽기까지 하다고? 그거 가키 쨩 말하는 거네☆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">두 혼이 다시 한 번 얽히고, 우리가 약속을 다할 그 때를 기다리고 있어… 그렇지 않나?
-혹시 그대가 내가 찾는 사람이라면… 틀림없이 운명이 우리에게 속삭이겠지.
-그대에게서는, 시간의 저편에서 잃어버렸다고 생각했던 평온함을 느낄 수 있어.
-그대의 혼은 그리운 느낌이야… 마치 언어가 생겨나기 전에 만났던 것 같은.
-이 순간이 영원히 계속되면 좋으련만… 그대의 온기를 조금 더 느끼고 싶으니.
-그대는 그저 상냥한 낯선 이일 뿐인가… 아니면 시간을 뛰어넘어 쫓아온 잔영인가…
-내 눈앞의 그대의 이름을, 나는 아직 부를 수가 없구나.
-이상하군… 그대의 곁에 있으면 어째서인지 정말 안심이 돼.
-그대도 느끼고 있는 건가…? 우리를 묶는 실이 팽팽해져 있는 것을?
-수없는 길을 걸어도… 그 앞에는 반드시 그대가 있을 테지.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">내가 언제 태어났는지가 신경 쓰여, #brother2? 아주 아주 먼 옛날이야, #brother2…
-#brother2를 찾아서 쭉 이 세상을 방황했어… 그러니까 정말 있더라구, #brother2가!
-#brother2… 쭉… 함께 있어줄 거지…? 조금 불안해졌을 뿐이야, #brother2.
-#brother2를 위해서 싸움도 집안일도, 여러가지 잘 해낼 수 있게 되고 싶어.
-하느님은 가끔씩 잔혹하시구나, #brother2…
-난 #brother2를 옭아매지 않을 거야! 진짜야!
-내 목소리에는 혼돈의 힘이 담겨 있는 것 같아.
-이 세상에 나 말고도 #brother2랑 피가 이어지지 않은 여동생들이 있대!
-눈 쁘띠 쨩을 쓰담쓰담 하고 싶어! 쓰다듬고 싶다구 #brother2!
-눈 쁘띠 쨩들 중에선 색이 다른 아이가 있어, #brother2. 모두 맞이해줄 수 있다면 정말 좋겠네, #brother2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">나는 나나스, 가지의 요정이야～
-뭐 좋아하냐고? 물론 가지지～
-스펙윙은 아주 좋은 곳이야～ 모두 즐겁게 춤을 추니까～
-모험으로 얻을 수 있는 보물도 물론 좋지만, 제일 기쁜 건 함께 모험해서 얻은 유대야～
-모험하다 만난 새 동료랑 한잔 걸친 적 많아- 엄청 즐거웠지～
-물론 슬픈 일도 있지만, 그래도 또 새로운 만남이 있을 거라 믿고 앞으로 나아가니까 지금의 내가 있는 거지～
-만남은 언젠가는 끝이 나겠지만, 그 동안에 얻은 건 결코 헛되지 않다고 생각해～
-옛날에 스펙윙을 만들었다고 하는 파란 가지 정령… 언젠가는 뛰어넘고 싶네～
-실은 어렸을 때 파란 가지 정령 밑에서 배운 적이 있어- 그녀는 요정이었지만, 엄청 강인했어～</t>
-  </si>
 </sst>
 </file>
 
@@ -2890,7 +2938,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2901,20 +2949,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family/>
-      <charset val="128"/>
+      <family val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2924,16 +2972,23 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2966,7 +3021,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2975,82 +3030,82 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3125,7 +3180,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3135,11 +3190,11 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -3147,13 +3202,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49664880" cy="124200"/>
+          <a:ext cx="49664520" cy="123840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -3281,29 +3336,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B78" sqref="B78"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.53" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.34" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.34"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
+    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3317,1050 +3372,1050 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1"/>
-    <row r="3" ht="12" customHeight="1"/>
-    <row r="4" ht="12" customHeight="1"/>
-    <row r="5" ht="12" customHeight="1">
+    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>423</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>424</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>425</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>426</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>427</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="20.1" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>428</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="20.1" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>429</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="20.1" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>430</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="20.1" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>431</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="20.1" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>432</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="20.1" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>434</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" ht="20.1" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>435</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="20.1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>436</v>
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="20.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>437</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="20.1" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>438</v>
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="20.1" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>439</v>
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="20.1" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>440</v>
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="20.1" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>441</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" ht="20.1" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>442</v>
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="20.1" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>443</v>
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" ht="20.1" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>444</v>
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" ht="20.1" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>445</v>
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" ht="20.1" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>446</v>
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" ht="20.1" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>447</v>
+        <v>100</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" ht="20.1" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>448</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>449</v>
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>447</v>
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="12.8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>448</v>
+        <v>113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" ht="12.8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>450</v>
+        <v>114</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" ht="12.8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>451</v>
+        <v>118</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" ht="12.8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>452</v>
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" ht="12.8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>453</v>
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" ht="12.8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>454</v>
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>455</v>
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" ht="12.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>456</v>
+        <v>138</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" ht="12.8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>457</v>
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>458</v>
+        <v>146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" ht="12.8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>459</v>
+        <v>150</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" ht="12.8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>460</v>
+        <v>154</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" ht="12.8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>461</v>
+        <v>158</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" ht="22.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>462</v>
+        <v>162</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" ht="12.8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>463</v>
+        <v>166</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" t="s">
-        <v>464</v>
+        <v>170</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>465</v>
+        <v>174</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>466</v>
+        <v>178</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>467</v>
+        <v>182</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" ht="22.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>468</v>
+        <v>186</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" ht="12.8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" t="s">
-        <v>469</v>
+        <v>190</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" ht="12.8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>470</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" ht="12.8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s">
-        <v>471</v>
+        <v>198</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" ht="12.8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" t="s">
-        <v>472</v>
+        <v>202</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" ht="12.8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>473</v>
+        <v>206</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" ht="12.8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58" t="s">
-        <v>474</v>
+        <v>210</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" ht="12.8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>475</v>
+        <v>214</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" ht="12.8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>476</v>
+        <v>218</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" ht="12.8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>477</v>
+        <v>222</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" ht="12.8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" t="s">
-        <v>478</v>
+        <v>226</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" ht="12.8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" t="s">
-        <v>479</v>
+        <v>230</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" ht="12.8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>480</v>
+        <v>234</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" ht="12.8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" t="s">
-        <v>481</v>
+        <v>238</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" ht="32.8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" t="s">
-        <v>482</v>
+        <v>242</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" ht="32.8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" t="s">
-        <v>483</v>
+        <v>246</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" ht="12.8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>484</v>
+        <v>250</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" ht="12.8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" t="s">
-        <v>485</v>
+        <v>254</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" ht="12.8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" t="s">
-        <v>486</v>
+        <v>258</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" ht="12.8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>487</v>
+        <v>262</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" ht="12.8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" t="s">
-        <v>488</v>
+        <v>266</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" ht="12.8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B73" t="s">
-        <v>489</v>
+        <v>270</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" ht="22.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" t="s">
-        <v>490</v>
+        <v>274</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" ht="12.8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" t="s">
-        <v>491</v>
+        <v>278</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" ht="12.8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" t="s">
-        <v>492</v>
+        <v>282</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" ht="12.8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B77" t="s">
-        <v>493</v>
+        <v>286</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" ht="12.8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B78" t="s">
-        <v>494</v>
+        <v>290</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4369,29 +4424,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
-    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
-    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="98.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4405,287 +4460,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" ht="74.6">
+    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" t="s">
-        <v>495</v>
+        <v>294</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" ht="43.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" t="s">
-        <v>496</v>
+        <v>298</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" ht="43.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" t="s">
-        <v>497</v>
+        <v>302</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" ht="43.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" t="s">
-        <v>498</v>
+        <v>306</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" ht="43.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>499</v>
+        <v>310</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" ht="74.6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" t="s">
-        <v>500</v>
+        <v>314</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" ht="43.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" t="s">
-        <v>501</v>
+        <v>318</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" ht="43.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" t="s">
-        <v>502</v>
+        <v>322</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" ht="95.5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" t="s">
-        <v>503</v>
+        <v>326</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" ht="32.8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" t="s">
-        <v>504</v>
+        <v>330</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" t="s">
-        <v>505</v>
+        <v>334</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" ht="12.8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B16" t="s">
-        <v>506</v>
+        <v>338</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" ht="22.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" t="s">
-        <v>507</v>
+        <v>342</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" ht="22.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B18" t="s">
-        <v>508</v>
+        <v>346</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" ht="200.7">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="1128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>509</v>
+        <v>351</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" ht="168.65">
+    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" t="s">
-        <v>510</v>
+        <v>354</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" ht="241.75">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" t="s">
-        <v>511</v>
+        <v>358</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" ht="32.8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" t="s">
-        <v>512</v>
+        <v>362</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" ht="22.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B23" t="s">
-        <v>513</v>
+        <v>366</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4693,29 +4748,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B17" sqref="B17"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.61" style="1" customWidth="1"/>
-    <col min="3" max="3" width="109.15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="123.06" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.06"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4729,193 +4784,193 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="64.15">
+    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>514</v>
+        <v>370</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" ht="53.7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" t="s">
-        <v>515</v>
+        <v>374</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" ht="22.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" t="s">
-        <v>516</v>
+        <v>378</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>286</v>
+        <v>380</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" ht="64.15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" t="s">
-        <v>517</v>
+        <v>382</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" ht="64.15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" t="s">
-        <v>518</v>
+        <v>386</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" ht="95.5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B10" t="s">
-        <v>519</v>
+        <v>390</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" ht="64.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" t="s">
-        <v>520</v>
+        <v>394</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" ht="53.7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" t="s">
-        <v>521</v>
+        <v>398</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" ht="74.6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" t="s">
-        <v>522</v>
+        <v>402</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" ht="116.4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>523</v>
+        <v>407</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" ht="147.75">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>524</v>
+        <v>410</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" ht="116.4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>525</v>
+        <v>414</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" ht="168.65">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>526</v>
+        <v>418</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>316</v>
+        <v>420</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>317</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4923,29 +4978,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B38" sqref="B38"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
-    <col min="4" max="4" width="100.58" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="82.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="100.58"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4959,507 +5014,510 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" ht="12.8">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="12.8">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="43.25">
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="345.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" ht="32.8">
-      <c r="A6" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D31" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" ht="64.15">
-      <c r="A7" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" ht="22.35">
-      <c r="A8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B32" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" ht="43.25">
-      <c r="A9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C32" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" ht="32.8">
-      <c r="A10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D32" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" ht="53.7">
-      <c r="A11" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" ht="64.15">
-      <c r="A12" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" ht="12.8">
-      <c r="A13" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C33" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" ht="43.25">
-      <c r="A14" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D33" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" ht="32.8">
-      <c r="A15" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" ht="32.8">
-      <c r="A16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B34" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" ht="32.8">
-      <c r="A17" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C34" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" ht="44.75">
-      <c r="A18" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D34" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" ht="32.8">
-      <c r="A19" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" ht="56.7">
-      <c r="A20" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B35" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" ht="91">
-      <c r="A21" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C35" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" ht="55.95">
-      <c r="A22" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D35" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" ht="13.8">
-      <c r="A23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" ht="179.1">
-      <c r="A24" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B36" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25" ht="12.8">
-      <c r="A25" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C36" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" ht="13.8">
-      <c r="A26" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D36" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" ht="95.5">
-      <c r="A27" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
-      <c r="A28" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B37" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" ht="126.85">
-      <c r="A29" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="C37" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" ht="126.85">
-      <c r="A30" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="D37" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" ht="126.85">
-      <c r="A31" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B31" s="8" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="32" ht="22.35">
-      <c r="A32" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" ht="85.05">
-      <c r="A33" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="C38" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" ht="105.95">
-      <c r="A34" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D38" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="35" ht="105.95">
-      <c r="A35" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" ht="105.95">
-      <c r="A36" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B39" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37" ht="116.4">
-      <c r="A37" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C39" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="38" ht="105.95">
-      <c r="A38" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D39" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="39" ht="105.95">
-      <c r="A39" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>421</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr autoCompressPictures="1"/>
+  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="general" sheetId="1" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="562">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">food1</t>
   </si>
   <si>
-    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t xml:space="preserve">food2</t>
   </si>
   <si>
-    <t xml:space="preserve">자, 천천히 {먹어}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t xml:space="preserve">healer1</t>
   </si>
   <si>
-    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
     <t xml:space="preserve">healer2</t>
   </si>
   <si>
-    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t xml:space="preserve">appraise1</t>
   </si>
   <si>
-    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
   </si>
   <si>
@@ -100,9 +85,6 @@
     <t xml:space="preserve">appraise2</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、早速鑑定をはじめ{る}。しばらく待ってて{くれ}。</t>
   </si>
   <si>
@@ -112,9 +94,6 @@
     <t xml:space="preserve">appraise3</t>
   </si>
   <si>
-    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">鑑定するものがないよう{だ}。</t>
   </si>
   <si>
@@ -124,9 +103,6 @@
     <t xml:space="preserve">expand1</t>
   </si>
   <si>
-    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ホームの拡張には金塊#2本が必要{だ}。</t>
   </si>
   <si>
@@ -136,9 +112,6 @@
     <t xml:space="preserve">expand2</t>
   </si>
   <si>
-    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">よし、ホームを拡張した{よ}！</t>
   </si>
   <si>
@@ -148,9 +121,6 @@
     <t xml:space="preserve">expand3</t>
   </si>
   <si>
-    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">拡張できないよう{だ}。</t>
   </si>
   <si>
@@ -158,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">extraTax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
   </si>
   <si>
     <t xml:space="preserve">現在、君のミシリアへの毎月の追加納税額は#1{だ}。金額を変えたいなら教えて{くれ}。</t>
@@ -173,9 +140,6 @@
     <t xml:space="preserve">extraTax2</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、君のミシリアへの追加納税額を#1に変更した{よ}。</t>
   </si>
   <si>
@@ -185,9 +149,6 @@
     <t xml:space="preserve">banker1</t>
   </si>
   <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら預ける{のだ}？</t>
   </si>
   <si>
@@ -197,9 +158,6 @@
     <t xml:space="preserve">banker2</t>
   </si>
   <si>
-    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">現在君の口座には#1オレンの金貨があ{る}。さて、いくら引き出す{のだ}？</t>
   </si>
   <si>
@@ -209,9 +167,6 @@
     <t xml:space="preserve">banker3</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、金は確かに預かった{よ}。</t>
   </si>
   <si>
@@ -221,9 +176,6 @@
     <t xml:space="preserve">banker4</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、ではこれを受け取って{くれ}。</t>
   </si>
   <si>
@@ -233,9 +185,6 @@
     <t xml:space="preserve">noDrawingRoom</t>
   </si>
   <si>
-    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">面会のための応接室がないみたい{だ}。</t>
   </si>
   <si>
@@ -245,9 +194,6 @@
     <t xml:space="preserve">nomoney</t>
   </si>
   <si>
-    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">どうやら金が足りないみたい{だ}。</t>
   </si>
   <si>
@@ -257,9 +203,6 @@
     <t xml:space="preserve">alreadyFull</t>
   </si>
   <si>
-    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">君はすでに満腹のよう{だ}。</t>
   </si>
   <si>
@@ -269,9 +212,6 @@
     <t xml:space="preserve">questAccept</t>
   </si>
   <si>
-    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{おお}、依頼を引き受けてくれるの{か}？では、よろしく{たのむ}。</t>
   </si>
   <si>
@@ -281,9 +221,6 @@
     <t xml:space="preserve">questFull</t>
   </si>
   <si>
-    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">随分たくさん依頼を引き受けているよう{だな}。他の依頼をまず片づけて{くれ}。</t>
   </si>
   <si>
@@ -293,9 +230,6 @@
     <t xml:space="preserve">questInProgress</t>
   </si>
   <si>
-    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">頼んでいた依頼は順調{か}？</t>
   </si>
   <si>
@@ -305,9 +239,6 @@
     <t xml:space="preserve">questComplete</t>
   </si>
   <si>
-    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{おお}、依頼が無事終わったの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -317,9 +248,6 @@
     <t xml:space="preserve">bird1</t>
   </si>
   <si>
-    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">{おお}、バードウォッチングは私も好き{だ}！</t>
   </si>
   <si>
@@ -327,10 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">bird2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{간다}!
-우후후.</t>
   </si>
   <si>
     <t xml:space="preserve">いく{よ}！
@@ -344,9 +268,6 @@
     <t xml:space="preserve">bird3</t>
   </si>
   <si>
-    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">そう{だな}、#1オレンを前払いで{くれ}。</t>
   </si>
   <si>
@@ -356,9 +277,6 @@
     <t xml:space="preserve">tail1</t>
   </si>
   <si>
-    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">なかなかの体つき{だな}。{よし}、買ってあげ{る}。</t>
   </si>
   <si>
@@ -374,9 +292,6 @@
     <t xml:space="preserve">lockpick_purse</t>
   </si>
   <si>
-    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">これは落とし物のよう{だが}…まあ、いい{だろう}。</t>
   </si>
   <si>
@@ -386,9 +301,6 @@
     <t xml:space="preserve">invite</t>
   </si>
   <si>
-    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">私に君のホームの住人になれというの{か}？</t>
   </si>
   <si>
@@ -398,9 +310,6 @@
     <t xml:space="preserve">invite2</t>
   </si>
   <si>
-    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">残念{だが}、私にはやらなければならないことがある{のだ}。</t>
   </si>
   <si>
@@ -410,9 +319,6 @@
     <t xml:space="preserve">invite3</t>
   </si>
   <si>
-    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
-  </si>
-  <si>
     <t xml:space="preserve">君にもう少し魅力があれば{な}。#newline(魅力が#1必要)</t>
   </si>
   <si>
@@ -422,9 +328,6 @@
     <t xml:space="preserve">talk_hobby</t>
   </si>
   <si>
-    <t xml:space="preserve">취미는 #1 정도{다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">趣味は#1{だ}。</t>
   </si>
   <si>
@@ -434,9 +337,6 @@
     <t xml:space="preserve">talk_fav</t>
   </si>
   <si>
-    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
-  </si>
-  <si>
     <t xml:space="preserve">好きなもの{か}？そう{だな}、#1には興味が{ある}。ちなみに大好物は#2{だ}。</t>
   </si>
   <si>
@@ -446,9 +346,6 @@
     <t xml:space="preserve">slave_buy</t>
   </si>
   <si>
-    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">#2を購入したいとは、お客さんもなかなかいい趣味をしてい{る}。代金は#1オレン{だ}。</t>
   </si>
   <si>
@@ -458,9 +355,6 @@
     <t xml:space="preserve">slave_buy2</t>
   </si>
   <si>
-    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">今日から#1は君のもの{だ}。大事にしてやって{くれ}。</t>
   </si>
   <si>
@@ -470,9 +364,6 @@
     <t xml:space="preserve">goto</t>
   </si>
   <si>
-    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">#1{か}？{よし}、案内してあげ{る}。</t>
   </si>
   <si>
@@ -482,9 +373,6 @@
     <t xml:space="preserve">goto2</t>
   </si>
   <si>
-    <t xml:space="preserve">놀리는 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">からかっているの{か}？</t>
   </si>
   <si>
@@ -494,9 +382,6 @@
     <t xml:space="preserve">upgrade_heath1</t>
   </si>
   <si>
-    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
-  </si>
-  <si>
     <t xml:space="preserve">盟約の石をレベル#2にアップグレードするには#1が必要{だ}。#3</t>
   </si>
   <si>
@@ -506,9 +391,6 @@
     <t xml:space="preserve">upgrade_heath2</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、これでこの場所もより発展すること{だろう}！</t>
   </si>
   <si>
@@ -518,9 +400,6 @@
     <t xml:space="preserve">invest1</t>
   </si>
   <si>
-    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">投資に興味があるの{か}？君はこれまでに合計#2オレンを投資し、#zoneはちょうど今、#1オレンの投資を募ってい{る}。</t>
   </si>
   <si>
@@ -530,9 +409,6 @@
     <t xml:space="preserve">invest2</t>
   </si>
   <si>
-    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{ありがとう}！君の投資で、#zoneもより発展する{だろう}。</t>
   </si>
   <si>
@@ -542,9 +418,6 @@
     <t xml:space="preserve">invest_shop1</t>
   </si>
   <si>
-    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">投資をしてくれるの{か}？この店の規模を拡大するには#1オレン必要{だ}。</t>
   </si>
   <si>
@@ -554,9 +427,6 @@
     <t xml:space="preserve">invest_shop2</t>
   </si>
   <si>
-    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{ありがとう}！これでいい商売ができる{よ}。</t>
   </si>
   <si>
@@ -566,9 +436,6 @@
     <t xml:space="preserve">questCompleteDeliver</t>
   </si>
   <si>
-    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{おお}、#1を持ってきてくれたの{か}！{ありがとう}。これが約束の報酬{だ}。</t>
   </si>
   <si>
@@ -578,9 +445,6 @@
     <t xml:space="preserve">questCompleteDeliverExtra</t>
   </si>
   <si>
-    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{おお}、たしかに#1{だな}。この品に見合うだけの報酬を渡す{よ}。{ありがとう}。</t>
   </si>
   <si>
@@ -590,9 +454,6 @@
     <t xml:space="preserve">miral_medal</t>
   </si>
   <si>
-    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
-  </si>
-  <si>
     <t xml:space="preserve">ほお、小さなメダルを持っておるのか？メダルの収集は、わしの生きがいなんじゃよ！わしが作った自慢の品の数々と交換しないかの？</t>
   </si>
   <si>
@@ -602,9 +463,6 @@
     <t xml:space="preserve">miral_medal2</t>
   </si>
   <si>
-    <t xml:space="preserve">흥!</t>
-  </si>
-  <si>
     <t xml:space="preserve">ふん！</t>
   </si>
   <si>
@@ -614,9 +472,6 @@
     <t xml:space="preserve">shop_criminal</t>
   </si>
   <si>
-    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">犯罪者に売るものはない{よ}。</t>
   </si>
   <si>
@@ -626,9 +481,6 @@
     <t xml:space="preserve">shop_blackmarket_noaccess</t>
   </si>
   <si>
-    <t xml:space="preserve">{아하하}, {YOU} 같은 건실한 모험가가 {I}한테 무슨 볼일{이야}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">{あはは}、君みたいなカタギの冒険者が私に何の用{だ}？</t>
   </si>
   <si>
@@ -638,9 +490,6 @@
     <t xml:space="preserve">guide</t>
   </si>
   <si>
-    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">どこに行きたい{のだ}？</t>
   </si>
   <si>
@@ -650,9 +499,6 @@
     <t xml:space="preserve">shutup</t>
   </si>
   <si>
-    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(#tgはしゅんとなった…)</t>
   </si>
   <si>
@@ -662,9 +508,6 @@
     <t xml:space="preserve">shutup2</t>
   </si>
   <si>
-    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(#tgはあなたに抱きついた)</t>
   </si>
   <si>
@@ -674,9 +517,6 @@
     <t xml:space="preserve">insult</t>
   </si>
   <si>
-    <t xml:space="preserve">답도 없는 변태{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">どうしようもない変態{だな}。</t>
   </si>
   <si>
@@ -686,9 +526,6 @@
     <t xml:space="preserve">insult2</t>
   </si>
   <si>
-    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ようやくまともになったよう{だな}。</t>
   </si>
   <si>
@@ -698,9 +535,6 @@
     <t xml:space="preserve">ok</t>
   </si>
   <si>
-    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(#tgはこくんと肯いた)</t>
   </si>
   <si>
@@ -710,9 +544,6 @@
     <t xml:space="preserve">refuse</t>
   </si>
   <si>
-    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(#tgはやんわりと断った)</t>
   </si>
   <si>
@@ -722,9 +553,6 @@
     <t xml:space="preserve">deliver_purse</t>
   </si>
   <si>
-    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">わざわざ落し物を届けてくれたの{か}。君は市民の模範{だ}。{ありがとう}。</t>
   </si>
   <si>
@@ -734,9 +562,6 @@
     <t xml:space="preserve">news1</t>
   </si>
   <si>
-    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">この付近に#1という場所がある{のだ}。もし興味があるなら、探索してみる価値があるかもしれない{ね}。</t>
   </si>
   <si>
@@ -746,9 +571,6 @@
     <t xml:space="preserve">news2</t>
   </si>
   <si>
-    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">残念{だが}、これといった情報は今はない{な}。</t>
   </si>
   <si>
@@ -756,11 +578,6 @@
   </si>
   <si>
     <t xml:space="preserve">bout1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
-진심{이야}?
-지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">力試しをしたいの{か}？
@@ -776,11 +593,6 @@
     <t xml:space="preserve">bout2</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
-그렇게 나와{야지}!
-{좋아}, {YOU}의 힘을 보여{줘}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、いい度胸{だ}！
 そうこなくては{な}！
 {よし}、君の力を見せてもらう{よ}！</t>
@@ -794,9 +606,6 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
-    <t xml:space="preserve">{뭐야}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">なん{だ}？</t>
   </si>
   <si>
@@ -806,9 +615,6 @@
     <t xml:space="preserve">becomeMaid</t>
   </si>
   <si>
-    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{よし}、今日から私が君のメイド{だ}。</t>
   </si>
   <si>
@@ -818,9 +624,6 @@
     <t xml:space="preserve">sellFame1</t>
   </si>
   <si>
-    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{あはは}、#brother、よっぽど金に困っているの{か}？{よし}、#1オレンで君の名声を売って{くれ}。</t>
   </si>
   <si>
@@ -830,9 +633,6 @@
     <t xml:space="preserve">sellFame2</t>
   </si>
   <si>
-    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">{ありがとう}、君の名声は有効に使わせてもらう{よ}。</t>
   </si>
   <si>
@@ -842,9 +642,6 @@
     <t xml:space="preserve">blessing</t>
   </si>
   <si>
-    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">祝福を受けたいの{だな}？{よし}、頭をたれ{なさい}！</t>
   </si>
   <si>
@@ -854,9 +651,6 @@
     <t xml:space="preserve">lockTooHard</t>
   </si>
   <si>
-    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">この鍵は私には複雑すぎるよう{だ}。すまない{が}、自分でどうにかして{くれ}。</t>
   </si>
   <si>
@@ -866,9 +660,6 @@
     <t xml:space="preserve">loytel_bill_give1</t>
   </si>
   <si>
-    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
     <t xml:space="preserve">借金の返済を手伝ってくれるのか…すまないな。では、まずはこの少額の借金請求書から片をつけるとしよう。納税箱に納めて返済が完了したら、私に報告してくれ。</t>
   </si>
   <si>
@@ -878,9 +669,6 @@
     <t xml:space="preserve">loytel_bill_give2</t>
   </si>
   <si>
-    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
-  </si>
-  <si>
     <t xml:space="preserve">そうか…では心苦しいが、次の借金請求書をお前に渡そう。返済が完了したら、また私に話しかけてくれ。</t>
   </si>
   <si>
@@ -890,9 +678,6 @@
     <t xml:space="preserve">loytel_bill_give_given</t>
   </si>
   <si>
-    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
-  </si>
-  <si>
     <t xml:space="preserve">借金の請求書はもう渡したはずだ。大事なものだから、くれぐれも失くさないでくれ。</t>
   </si>
   <si>
@@ -902,9 +687,6 @@
     <t xml:space="preserve">loytel_bill_give_wait</t>
   </si>
   <si>
-    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
-  </si>
-  <si>
     <t xml:space="preserve">その…まだ心の準備ができていないんだ。すまないが、もう少し待ってくれ。</t>
   </si>
   <si>
@@ -914,9 +696,6 @@
     <t xml:space="preserve">loytel_bill_give_lost</t>
   </si>
   <si>
-    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
-  </si>
-  <si>
     <t xml:space="preserve">…大事なものだから失くさないでくれと、私は言ったな？ もう一枚渡すから、今度は気を付けてくれ。</t>
   </si>
   <si>
@@ -924,15 +703,6 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한가{하다}.
-응? 뭔가 볼일이라도 있{는가}?
-가끔씩은 호화스러운 식사를 하고 {싶다}.
-영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
-눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
-고양이는 왜 이렇게 귀여운 {걸까}.
-#aka? …누굴 말하는 {거냐}?</t>
   </si>
   <si>
     <t xml:space="preserve">暇{だ}。
@@ -956,12 +726,6 @@
     <t xml:space="preserve">interest_economy</t>
   </si>
   <si>
-    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
-하여간 이 세상에선 돈이 중요{해}.
-어디 돈 좀 떨어져 있으면 좋을 {텐데}.
-플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">経済の話題には関心がある{のだ}。
 ともかく、世の中お金が大事{だ}。
 どこかにお金が落ちていない{か}。
@@ -977,12 +741,6 @@
     <t xml:space="preserve">interest_science</t>
   </si>
   <si>
-    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
-에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
-에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
-신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">科学について語るのが好き{だ}。
 エイス・テールは第七紀の文明{だ}。高度な科学を持っていた{のだ}。
 エイス・テールは、魔法と科学を対立するものと考えていたよう{だ}。
@@ -998,12 +756,6 @@
     <t xml:space="preserve">interest_travel</t>
   </si>
   <si>
-    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
-루미에스트는 예술의 거리로 유명{해}.
-노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
-여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">色々なところを旅するのが好き{だ}。
 ルミエストは芸術の街として有名{だ}。
 ノースティリスには、ネフィアの遺跡群と呼ばれる数々の遺跡やダンジョンがある{のだ}。
@@ -1019,12 +771,6 @@
     <t xml:space="preserve">interest_world</t>
   </si>
   <si>
-    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
-에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
-신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
-아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">世界の情勢に興味がある{のだ}。
 エウダーナは東の大陸の砂漠にある強大な帝国{だ}。
 新王国イエルは、帝国から脱走した奴隷たちによって建国されたそう{だ}。
@@ -1038,15 +784,6 @@
   </si>
   <si>
     <t xml:space="preserve">interest_religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
-신이 없다면 이 세계는 의미가 없{어}.
-치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
-가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
-쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
-행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
-기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">信仰こそ何よりも大事{だ}。
@@ -1070,12 +807,6 @@
     <t xml:space="preserve">interest_human</t>
   </si>
   <si>
-    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
-이제부터는 인간의 시대{다}!
-{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
-엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">十年戦争で、危機に瀕した私たちをエレアは見殺しにしようとし{た}。
 これからは人間の時代{だ}！
 もう私たちはエレアの助けなど必要としない{よ}。
@@ -1091,12 +822,6 @@
     <t xml:space="preserve">interest_elea</t>
   </si>
   <si>
-    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
-예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
-숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
-어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">人間はもっと謙虚にならないといけない{な}。古い種族に敬意を払うべき{だ}。
 かつて、人間はエレアを母と呼んだ{のだ}。
 森の人たちは、干渉することも、干渉されることも望んでいないよう{だ}。
@@ -1110,17 +835,6 @@
   </si>
   <si>
     <t xml:space="preserve">shopkeeper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
-물건 보는 눈은 자신 있{어}.
-가게 경영은 꽤 어렵{네}.
-건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
-다른 가게에서는 발밑이 안 보이게 조심{해라}.
-만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
-자, {내가} 자신있게 고른 상품들을 둘러{봐}.
-요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
-무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
   </si>
   <si>
     <t xml:space="preserve">いらっしゃい。ゆっくり見ていって{くれ}。
@@ -1148,30 +862,6 @@
     <t xml:space="preserve">guard</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
-수상한 사람을 보면 알려 {줘}.
-{I}도 예전에는 {YOU} 같은 모험가였는데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">…</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">市民の安全を守るのがガードの仕事{だ}。
 不審者を見たら報告して{くれ}。
 私も昔は君のような冒険者だったの{だが}…</t>
@@ -1185,11 +875,6 @@
     <t xml:space="preserve">banker</t>
   </si>
   <si>
-    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
-돈으로 살 수 없는 것들도 있{지}.
-본 지점에 어서 {와}!</t>
-  </si>
-  <si>
     <t xml:space="preserve">お客様のお金は何よりも大事{だ}。
 お金で買えない価値があ{る}。
 当店へ{ようこそ}！</t>
@@ -1203,9 +888,6 @@
     <t xml:space="preserve">bitch</t>
   </si>
   <si>
-    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
-  </si>
-  <si>
     <t xml:space="preserve">あ～ら、あなたいい#gender{だ}。一晩の夢を見させてあげ{る}。</t>
   </si>
   <si>
@@ -1213,10 +895,6 @@
   </si>
   <si>
     <t xml:space="preserve">slaver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손님도 이쪽 사람이{네}.
-히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
   </si>
   <si>
     <t xml:space="preserve">お客さんも悪い人間{だな}。
@@ -1230,10 +908,6 @@
     <t xml:space="preserve">bored</t>
   </si>
   <si>
-    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
-(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(退屈そうにあなたを見ている)
 (#meは、あなたを一瞥してそっぽを向いた)</t>
   </si>
@@ -1243,27 +917,6 @@
   </si>
   <si>
     <t xml:space="preserve">hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
-록 스로어가 던지는 바위를 무시하면 안 {돼}.
-꿈속에서 {내가} 믿는 신을 만났{어}!
-귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
-파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
-도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
-저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
-바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
-이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
-세금을 안 내면 나중에 골치 아파{져}.
-정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
-태양의 빛을 내는 신비한 램프가 있다{더라}.
-월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
-그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
-허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
-수영을 연습{해라}. 내구력이 단련된다{고}!
-미식가들은 독버섯도 구별할 수 있다{더라}.
-자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
-의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
   </si>
   <si>
     <r>
@@ -1299,7 +952,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">依頼が難しいと感じたら、名声を売ってしまうのも一つの手段{だ}。</t>
@@ -1330,23 +983,6 @@
     <t xml:space="preserve">fortune</t>
   </si>
   <si>
-    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
-소재 망치를 평범한 물건에 막 쓰지 마라!
-영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
-질 좋은 침대에서 자면 수면 효과가 좋아진다.
-몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
-독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
-큐브는 상태이상이 걸려 있다면 분열하지 못한다.
-아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
-소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
-환혹 내성이 충분하다면 광기 상태가 되지 않는다.
-지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
-젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
-단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
-강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
-수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">クミロミを信仰すれば、腐った食料から種を取り出すことができる。
 素材槌を普通の装備に使うな！
 栄養の高い料理の真の効果はペットに食べさせた時に発揮される。
@@ -1384,31 +1020,6 @@
   </si>
   <si>
     <t xml:space="preserve">fortune_false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
-지팡이는 땅에 한동안 놔 두면 충전된다!
-소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
-보석은 플래티넘 코인으로 교환할 수 있다.
-보물 지도는 항상 축복해서 읽어라.
-냐…아…아아…
-무엇을 바라는가?
-채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
-신을 펫으로 만드는 방법도 있다고 한다.
-문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
-일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
-뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
-아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
-당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
-고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
-경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
-여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
-달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
-카르마가 높으면 세금이 감면된다.
-몬스터의 똥은 무거울수록 비싸게 팔린다.
-저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
-헤르메스의 피는 *반드시* 축복해서 마셔라!
-귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
   </si>
   <si>
     <t xml:space="preserve">指追加というすばらしい指輪があるそうだ。
@@ -1464,11 +1075,6 @@
     <t xml:space="preserve">mayor</t>
   </si>
   <si>
-    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
-용무가 있{는가}? {나는} 바쁜 몸{이다}.
-마을에 투자하겠다면 언제든 환영{이다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">手続きなら秘書を通して{くれ}。
 何の用{だ}？私は忙しい{のだ}。
 街への投資ならいつでも歓迎{だ}。</t>
@@ -1482,10 +1088,6 @@
     <t xml:space="preserve">secretary</t>
   </si>
   <si>
-    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
-제가 도움이 되어 드릴 일이 있나요?</t>
-  </si>
-  <si>
     <t xml:space="preserve">街への投資はいかがですか？
 なにか私でお役にたてますか？</t>
   </si>
@@ -1495,13 +1097,6 @@
   </si>
   <si>
     <t xml:space="preserve">mysilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
-십년전쟁으로 이 나라는 큰 타격을 입었{어}.
-죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
-십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
-미실리아는 앞으로 어떻게 되는 걸{까}.</t>
   </si>
   <si>
     <t xml:space="preserve">ミシリアでは人間とエレアが平和に暮らしている{よ}。
@@ -1521,13 +1116,6 @@
     <t xml:space="preserve">olvina</t>
   </si>
   <si>
-    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
-시오루시아는 정말로 학구열이 대단해서 감동했{어}.
-올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
-패리스한테 실컷 매도당하고 {싶다}.
-오르비나는 미실리아 최고의 관광지{다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ワインと温泉と桜の村、オルヴィナへようこそ。
 シオルシアは本当に勉強熱心で感心する{よ}。
 今年もウェットチュニック・コンテストが待ち遠しい{よ}！
@@ -1545,10 +1133,6 @@
     <t xml:space="preserve">lothria</t>
   </si>
   <si>
-    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
-지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">フリアウネ様が亡くなってから、シェトラス様はあまり笑わなくなってしまった{な}。
 今ではみなこの砦をウィロウと呼んでいる{が}、昔は別の名前があったそう{だ}。</t>
   </si>
@@ -1558,13 +1142,6 @@
   </si>
   <si>
     <t xml:space="preserve">derphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}.
-그 길에 관심 있으면 도적 길드로 가 {봐}.
-이 세상은 노예가 필요{해}.
-아레나에서 피 튀기는 걸 보는 게 {좋아}.
-이 마을에는 경비병이 없{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">無法者の街、ダルフィへようこそ。
@@ -1582,12 +1159,6 @@
   </si>
   <si>
     <t xml:space="preserve">palmia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
-팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
-쟈비님과 스타샤님은 정말로 사이가 {좋아}.
-팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
   </si>
   <si>
     <t xml:space="preserve">パルミア国の王都へようこそ。
@@ -1605,14 +1176,6 @@
   </si>
   <si>
     <t xml:space="preserve">yowyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
-말이라면 여기서 사가는 게 {좋아}.
-수확기에는 항상 일손이 모자라{지}.
-아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
-서쪽에 무법자들의 마을이 있다{더라}.
-마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">こんな田舎街にもちゃんとヨウィンと言う名前がある{のだ}。
@@ -1636,14 +1199,6 @@
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
-    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
-어딘가에 온천으로 유명한 마을이 있다{더라}.
-이 마을은 어디서든지 낚시를 할 수 있{어}.
-그림 얘기로는 하루종일 떠들 수 있{어}.
-마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
-하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ようこそ、水と芸術の街へ。
 どこかに温泉で有名な街があるそう{だ}。
 この街じゃ、どこでも釣りが出来る{のだ}。
@@ -1663,13 +1218,6 @@
     <t xml:space="preserve">noyel</t>
   </si>
   <si>
-    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
-매일매일 눈 치우는 게 큰일{이다}.
-죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
-추워!
-여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">えっくし！ うぅ、今日も寒い{な}。
 毎日雪かきが大変{だ}。
 罪悪感に耐え切れなくなったら教会に行くと良い{よ}。
@@ -1685,13 +1233,6 @@
   </si>
   <si>
     <t xml:space="preserve">kapul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">바닷바람 향기가 좋{네}.
-펫 아레나에서 경기 보는 게 취미{다}.
-더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
-이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
-피라미드에는 어떻게 들어가는 걸{까}?</t>
   </si>
   <si>
     <t xml:space="preserve">潮風が香る{な}。
@@ -1710,19 +1251,6 @@
   </si>
   <si>
     <t xml:space="preserve">foxtown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{우리}는 쌀을 많이 만들어서 인간들에게 팔고 있{어}.
-키즈아미님이 이 마을의 수호신{이다}.
-이 마을의 강은 라나 근처 산에서부터 흐르는 {거야}.
-{우리} 선조는 이 언덕을 깎아 논밭을 만들고 벼농사를 짓기 시작하셨{어}.
-이 마을 사람들은 모두 서예에 조예가 있{어}.
-서예에 관심 있으면, 잡화상에서 서예도구를 사 {봐}.
-혹시 밭 근처에서 금색 도깨비불을 보면, 바로 키누한테 알려 {줘}. 그건 사람을 홀리는 사악한 령이니{까}.
-이 마을에선 무나 대파 같은 야채도 많이 기르고 있{어}.
-키누는 쌀 농사에 재능이 있는 것 {같다}.
-키즈아미님을 믿는 사람만이 이 마을의 영적인 힘을 알아챌 수 있{어}.
-라나로 가는 여행자들이 산길을 오르기 전에 이 마을의 여관에서 잠시 쉬고 가곤 {해}.</t>
   </si>
   <si>
     <t xml:space="preserve">私たちはたくさんの米を作って、人間に売ってい{る}。
@@ -1752,22 +1280,6 @@
   </si>
   <si>
     <t xml:space="preserve">foxtown_nefu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마을 밖으로 나가는 건 {무서워}. 인간들은 아무렇지도 않게 귀랑 꼬리를 만지려 드니{까}.
-호로메님이 이 마을의 모두를 지켜보고 있{어}.
-관광객들이 마을의 분위기를 깨뜨리는 게 싫{어}.
-밤에 혼자 벚나무 근처에 있으면, 황금빛 구미호가 보인다는 소문이 있{어}.
-이 마을 사람들은 어렸을 때부터 검술을 배우고 있{어}.
-이 마을에서 파는 밀크는 최고{다}!
-미후는 남쪽에서 쌀을 가져와서, 여기서 술을 담그곤 {해}.
-앵화주는 여신께 바치는 좋은 공물{이다}.
-미즈나 씨는 정말 쭉쭉빵빵{해}. 그 크기가 주는 포용력이 정말 최고{다}!
-미사키와 미즈나 덕분에 이 마을은 안전하게 경영되고 있{어}.
-이 마을의 공기는 북쪽 땅에서도 따듯하고 평온{하다}. 신목은 겨울에도 잎이 지지 {않아}.
-앵화주는 이 마을의 명물{이다}.
-폭포 아래에서 명상을 하면 몸과 마음에서 사악한 것이 씻겨져 나간다{더라}.
-호로메님을 믿는 사람만이 이 마을의 진짜 아름다움을 알아볼 수 있{어}.</t>
   </si>
   <si>
     <t xml:space="preserve">村の外に出るのは怖い{よ}。人間たちは平気で耳や尻尾に触れてくるから{ね}。
@@ -1805,19 +1317,6 @@
     <t xml:space="preserve">specwing</t>
   </si>
   <si>
-    <t xml:space="preserve">여기는 가도에서 멀리 떨어진 곳이라, 대부분의 물건들은 하늘길을 통해 받고 있{어}.
-스펙윙에는 수많은 모험가들이 모이고, 네피아에 도전하기 전에 파티를 짜고 있{어}.
-스펙윙은 노스티리스의 황야로 향하는 수많은 모험가들의 최후의 보급지점{이다}.
-이 주변에는 위험한 네피아가 많이 있{어}.
-대사관에서 특별한 허가를 받지 못하면 탐사를 할 수 없는 네피아가 근처에 있다{더라}.
-이 마을은 원래 요정들이 살던 곳{이다}.
-모험가들이 찾아오는 덕분에 이 마을도 꽤 커졌{어}.
-나무 위에서 벌어지는 끝없는 연회, 그게 {우리}가 모험가들에게서 돈을 얻어내는 방법{이다}.
-스펙윙을 세운 건 파란 가지 의상을 입은 요정이라{더라}.
-요정의 마법 덕에, 이 나무는 사람들이 살 수 있는데다 건강하게 자라고 있{어}.
-{우리}는 나무를 돌보고, 나무는 {우리}를 지켜주는 {거야}.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ここは街道から遠く離れているので、ほとんどの物資は空から届けられる{のだ}。
 スペクウィングには多くの冒険者が集まり、ネフィアに挑む前にパーティーを組んで{いる}。
 スペクウィングは、ノースティリスの荒野に向かう多くの冒険者にとって、最後の補給地点なん{だよ}。
@@ -1845,23 +1344,6 @@
   </si>
   <si>
     <t xml:space="preserve">village_exile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#race? 어째서 이 마을에…?
-#race 같은 종족이 뭘 하러 온 {거냐}?
-결계가 이 마을을 몬스터들과 호기심에 찬 눈으로부터 지켜주고 있{어}.
-{우리}는 종종 바깥 세계에서 연구 소재를 구해와야 {해}.
-{내가} 소중하게 여기던 사람들은 이미 죽었고, 이제 바깥 세상에 {나를} 기억하고 있는 사람은 아무도 없{어}.
-{우리}는 신들의 금기를 깨, 위대한 아버지를 섬기는 노동을 하게 됐{어}.
-장로 비체린은 자기가 얼마나 오랜 세월을 살아왔는지 이야기를 잘 안 {해}.
-만약 {네가} 잿더미 말고 다른 맛이 나는 먹을거리를 갖고 있다면, 모두가 기뻐할 {거야}.
-이 마을은 먹을거리가 부족{해}.
-{우리}가 자연스럽게 죽음을 맞이하는 일은 없{어}.
-{우리}가 해방될 날은, 위대한 아버지께서 {우리}가 죗값을 전부 치렀다고 판단하실 때 뿐{이다}.
-위대한 아버지께서 항상 {우리}를 지켜보고 있{어}.
-위대한 아버지께서 {우리}의 속죄를 감독하시니, 그 운명으로부터 도망칠 수는 없{어}.
-시간이 흐르며 {우리}는 물질적인 것에 그다지 관심을 갖지 않게 됐{어}.
-#race, 지금 {YOU}의 앞에 있는 것은 천 년 이상 살아온 추방자{다}.</t>
   </si>
   <si>
     <t xml:space="preserve">#raceが何故この村に…？
@@ -1903,12 +1385,6 @@
     <t xml:space="preserve">conery</t>
   </si>
   <si>
-    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
-길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
-스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
-스타샤 공주님 만세!</t>
-  </si>
-  <si>
     <t xml:space="preserve">若様には、パルミアの世継ぎとして、もう少し節操を持って頂きたいものだ。
 ギルバートのような輩がいるから、若様も悪ノリしてしまう。
 スターシャ姫は、あのお年で何と礼儀正しく毅然と振る舞われるのだろうか。まさに宮廷のアイドルといってもいいだろう！
@@ -1924,11 +1400,6 @@
     <t xml:space="preserve">garokk</t>
   </si>
   <si>
-    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
-미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
-시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
-  </si>
-  <si>
     <t xml:space="preserve">相棒のミラルとはまだ槌も持てぬガキの頃からの腐れ縁じゃ。
 ミラルの才能にはわしも一目置いておる。それなのにヤツときたら注文を放ったらかして猫の玩具など作っている情けない始末じゃよ。
 つまらんのう。わしのくすぶった職人のハートを燃え上がらせる大きな依頼はないものか！</t>
@@ -1940,14 +1411,6 @@
   </si>
   <si>
     <t xml:space="preserve">gilbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
-오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
-공주님 만세!
-나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
-후하핫!
-약한 자를 돕고, 악을 쳐부수는 거다!</t>
   </si>
   <si>
     <t xml:space="preserve">フハハハハ！…何だ貴様は？
@@ -1969,10 +1432,6 @@
     <t xml:space="preserve">jonan</t>
   </si>
   <si>
-    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
-나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ミシリア宮廷に何の用かな？
 私ももう年だ。だが、今はまだ隠居するわけにはいかない。</t>
   </si>
@@ -1982,12 +1441,6 @@
   </si>
   <si>
     <t xml:space="preserve">lowell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
-어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
-이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
-교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
   </si>
   <si>
     <t xml:space="preserve">冒険者がこんなところに何のようだね？
@@ -2005,11 +1458,6 @@
     <t xml:space="preserve">mapMerchant</t>
   </si>
   <si>
-    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
-그건 그렇고 귀중한 서적들이다.
-눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">私の名はスラン。パルミアに仕える身だ。今は研さんを積むために各地を放浪している。
 それにしても貴重な書物の数々だ。
 吹雪の日にこの孤城に辿り着いて、しばらく世話になっている。</t>
@@ -2023,11 +1471,6 @@
     <t xml:space="preserve">miral</t>
   </si>
   <si>
-    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
-파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
-오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
-  </si>
-  <si>
     <t xml:space="preserve">おお、客人か！なに、遠慮することはない、わしの猫たちと存分に戯れていってくれ。
 相棒とは工房の屋号でもめたものよ。奴に少しでもネーミングセンスというものがあれば、「ガロクミラル」などとふざけた名前を思いつくこともなかったじゃろうに。
 今日のご飯はなんにしようかぬ。最近は猫の食事の献立を考えるのが鍛冶よりも楽しくてな。</t>
@@ -2039,12 +1482,6 @@
   </si>
   <si>
     <t xml:space="preserve">nino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
-수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
-서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
-아니… 이건 코스프레가 아니다.</t>
   </si>
   <si>
     <t xml:space="preserve">隊商の暮らしも気ままでいいが、どこか住心地の良い街に腰を据えるのも悪くはないな。そう、カプールあたりに。
@@ -2062,9 +1499,6 @@
     <t xml:space="preserve">nola</t>
   </si>
   <si>
-    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
-  </si>
-  <si>
     <t xml:space="preserve">市長代理のノーラです。何かご用ですか？</t>
   </si>
   <si>
@@ -2072,12 +1506,6 @@
   </si>
   <si>
     <t xml:space="preserve">stasha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
-팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
-아이돌…? …다른 나라의 말인가요?
-궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
   </si>
   <si>
     <t xml:space="preserve">あら、私に何かご用ですか？
@@ -2095,11 +1523,6 @@
     <t xml:space="preserve">theolucia</t>
   </si>
   <si>
-    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
-패리스 언니는 화나면 무서워요.
-팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
-  </si>
-  <si>
     <t xml:space="preserve">私は歴史と伝承に興味があります。
 ファリス姉さんは、怒らせると怖いですよ。
 パルミアの王宮図書館にはたくさんの蔵書があって、本当に素敵な所です。</t>
@@ -2113,11 +1536,6 @@
     <t xml:space="preserve">xabi</t>
   </si>
   <si>
-    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
-아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
-길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
-  </si>
-  <si>
     <t xml:space="preserve">君は冒険者か？ぜひ色々と話を聞かせてもらいたいものだ。
 父上は厳しすぎるのだ。何事にもいちいち小言を言われて嫌になるよ。コネリーが悪い影響を受けないといいが…
 ギルバートとコネリーは幼い頃からの友だ。主従関係はあっても、それは変わらないよ。</t>
@@ -2131,11 +1549,6 @@
     <t xml:space="preserve">zane</t>
   </si>
   <si>
-    <t xml:space="preserve">무엇이냐, 너는?
-이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
-…</t>
-  </si>
-  <si>
     <t xml:space="preserve">何だね、君は？
 ここは冒険者風情が訪れていい場所ではない。立ち去りたまえ。
 …</t>
@@ -2147,11 +1560,6 @@
   </si>
   <si>
     <t xml:space="preserve">ephrond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
-아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
-태평하긴, 바보 녀석들이.</t>
   </si>
   <si>
     <r>
@@ -2170,7 +1578,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ああ、いとも愛らしく安穏としたミシリアの都の一日だ。ミシリアの民は皆、目を塞いでいるかどこかに置き忘れてしまったのだろう。
@@ -2204,7 +1612,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Ah, what a lovely and peaceful day in Mysilia. All the people here must have closed their eyes or left them somewhere.
@@ -2225,11 +1633,6 @@
     <t xml:space="preserve">eluminaire</t>
   </si>
   <si>
-    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
-이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
-이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
-  </si>
-  <si>
     <t xml:space="preserve">近づかないでください…エフロンド様に怒られます。
 異形の森？…私は訪れたことはありません。ミシリアに住むエレアは皆、「森の外」のエレアなのです。
 こうして花を眺めていると眠くなりますね…</t>
@@ -2241,13 +1644,6 @@
   </si>
   <si>
     <t xml:space="preserve">barrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한 곡 듣겠나?
-예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
-지금은 미실리아야말로 내 고향이다.
-멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
-내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
   </si>
   <si>
     <t xml:space="preserve">一曲聴いてくかい？
@@ -2273,7 +1669,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">I served in the royal court of Zanan long ago, but, well, I screwed up.
@@ -2284,13 +1680,6 @@
   </si>
   <si>
     <t xml:space="preserve">melvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
-우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
-내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
-귀부인들이 절조가 없어서 참 곤란하단 말이야.
-에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
   </si>
   <si>
     <r>
@@ -2309,7 +1698,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">私の家は、森の民の守護者の役職を代々受け継いできた。エレア達にとって苦難の時代の今、この称号が名ばかりでないことを証明したいよ。もちろん、そんな機会が訪れないのが一番だが。
@@ -2327,12 +1716,6 @@
   </si>
   <si>
     <t xml:space="preserve">caldorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐냐 너는?
-모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
-제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
-팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
   </si>
   <si>
     <t xml:space="preserve">何だお主は？
@@ -2358,7 +1741,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
+        <family/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Obviously the empire is a threat. but Zanan, who conceals her real intentions carefully, also creeps me out.
@@ -2369,9 +1752,6 @@
     <t xml:space="preserve">melilith</t>
   </si>
   <si>
-    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
-  </si>
-  <si>
     <t xml:space="preserve">妹たちとキューブ、どちらが怖い？私は妹たちの方が可愛いと思ってるけど</t>
   </si>
   <si>
@@ -2379,24 +1759,6 @@
   </si>
   <si>
     <t xml:space="preserve">seeker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
-차라도 들겠나, 큰까마귀.
-나는 『탐구자』… 또는 『이계 방랑자』라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
-…하지만, 용케도 이런 외딴 곳을 찾아냈군.
-…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
-이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.
-이 세상 어딘가에, 이르바의 모든 역사와 진상이 담긴 비보가 있다더군….
-영원의 맹약…? 까마득히 오래된 이야기를 알고 있군.
-여어, 큰까마귀여. 빌려간 책은 잘 읽고 있나?
-지식을 후세에 남기는 것이 지식을 가진 자의 의무지.
-여어, 큰까마귀여. 내 벗인 슬란을 못 봤나?
-…이 투구 말인가? 아름다운 짐승이지? 내 오랜 벗이다.
-…얼굴을 가리는 이유? 십년전쟁 이래로 엘레아는 얼굴을 들 면목이 없어서 말이야….
-…벗이란 모두, 한 발 빠르게 떠나 버리지….
-아무래도, 강아지 여동생의 저택이라는 환상을 좇고 있는 어떤 광인이 있는 모양이다.
-또 전쟁이 일어나려나.</t>
   </si>
   <si>
     <t xml:space="preserve">やあ、ワタリガラス。なにか用かな。
@@ -2456,25 +1818,949 @@
     <t xml:space="preserve">quru</t>
   </si>
   <si>
+    <t xml:space="preserve">何？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you hear the ancient words the wind whispers? I wander this world to learn the story of the wind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strange_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
+あのバケモノたちといっしょにしないでね。
+パパが帰ってきたら、こんなところに二度とこないよう、おねがいするの！
+パパは「かがくしゃ」なの。この保育園にきて…それで、あのバケモノ女になにかたのまれて、すぐ帰ってくるからって…
+パパはすぐもどってくるわ。
+たのまれたって、リトルたちとは遊ばないんだから。
+あの子たちったら、たまにおかしなものを拾ってくるのよ。
+あのバケモノ女はママなんかじゃない。あたりまえでしょ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't like those Littles. They talk weird things and it's really creepy!
+Don't lump me in with those monsters.
+When Daddy comes back, I'm gonna ask him so we never come here again.
+Daddy is a "sci-entist." He came to this nursery and then... that monster woman asked him for something, and he said he'd be right back...
+Daddy will come back soon.
+Even if they asked, I won't play with the Littles.
+Sometimes, they pick up and bring weird stuff.
+That monster woman is not my mommy. That's obvious!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おっとガラガラを引きに来たのかい？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here to spin the prize wheel, huh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miko_mifu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私たちは祝福でもあり、呪いでもあります。見方を変えれば、弱さもまた強さに変わるのです。
+命に死がなく、天に地獄がなく、出会いに別れがなく、喜びに悲しみがない世界など、存在しないのです。
+私は祝福の巫女として、毎年この村で封印の儀を導く役目を担っています。
+キズアミ様の祝福はすべての者に与えられます。その力は世界に干渉するものであり、信仰のない者にすら感じることができるでしょう。
+私たちが育てる稲は、豊かな霊力を宿し、封印の儀には欠かせないものです。
+ユフは歪んだ負の神であり、神々の間にある争いをすべて消し去り、理想の平和をイルヴァにもたらそうとしました。
+巫女を引き継ぐと決めた時、私はかつての名を捨て、「キヌ」と名乗りました。いつの日か、私の娘の一人も同じ道を歩むことでしょう。
+永遠の夏はなく、季節は巡り、やがて冬が訪れます。祝福も永遠には続かず、不幸もまた同様です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are both our blessings and curses. By changing our perspectives, we turn our weaknesses into strengths.
+There is no life without death, no heaven without hell, no meeting without parting, no joy without sorrow.
+As Maiden of Blessings, it's my duty to lead the village in the sealing rites every year.
+Lord Kizuami's blessings may be received by all. It is his way to meddle with the world, and even unbelievers may amuse him for a time.
+The rice we grow is blessed with an abundance of spiritual energy and is essential to the sealing rites.
+Yufu was a wicked negentropy god who sought to bring his delusion of peace to Ylva by eliminating all strife between the gods.
+When I rose to the position of shrine maiden, I set aside my old name and am now called "Kinu". Someday, one of my daughters will do the same.
+There is no eternal summer; the seasons turn and winter arrives. Blessings cannot last forever, but neither will misfortune.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miko_nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユフは、神々の戦争を操り、イルヴァを支配しようとした邪悪な負の神だった。
+私たちは神樹の広場で儀式の舞を捧げる。
+ホロメ様はすべての命を愛し、信仰のない者にさえ小さな祝福を与えるのよ。
+刃の巫女として、私は毎年、封印の儀式の剣舞を舞うの。
+桜の花びらは女神の涙のように散り、私たちの心に儚さを刻む。
+儀式用の刀剣は、女神への崇拝において重要な役割を果たすのよ。
+ホロメ様は子供を慈しみ、大きな家族を持つ者に祝福を授ける。ネフは決して数の多い種族ではないけど、大家族は大いに尊敬されるの。
+私の刀は代々の巫女から受け継がれてきたものだ。
+刃の巫女はそれぞれ、その刀に新たな伝説を刻むことを目指す。
+私たちの女神は、力と美は相反するものではないと教える。ネフの剣舞はその両方を体現しようとするものだ。
+ネフの村は神樹を守るために築かれた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yufu was a wicked negentropy god who sought to manipulate the divine wars and rule over Ylva unopposed.
+We hold ceremonial dances in the clearing before the sacred tree.
+Lady Horome loves all mortals, and even unbelievers may receive a small blessing.
+As Maiden of Blades, every year I perform a sword dance as part of the sealing rites.
+The cherry blossoms fall like our goddess' tears and touch our hearts with melancholy.
+Ceremonial swords play a central role in the worship rites of our goddess.
+Lady Horome delights in children, and she blesses those who have large families. We Nefu have never been a numerous people, and those who gain her favor this way are greatly respected.
+My katana has been passed down through generations of shrine maidens.
+Each Maiden of Blades seeks to add to its legacy.
+Our goddess teaches that strength and beauty are not at odds; Nefu sword dances seek to exemplify both.
+Nefu Village was founded to guard the sacred tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eureka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冒険者ですか？こんな場所まで来るとは、物好きですね。
+私は主にここの守護を任されています。大変な栄誉ではあるのですが...ときどき退屈ですね。
+イーヴァン様の教えは苛烈とされますが、元は定命者への深い愛情と期待から来るものでもあります。
+機械は嫌いです。血が出ないから。
+模擬戦でもどうですか？最近闘争が足りていなくて。
+ビリーさん、あの棘さえなければ...
+猫は本当にかわいい生き物ですね...
+戦場の硝煙が恋しいです。連れて行ってくれませんか？
+ここの景色は美しいのですが、暮らす分には不便ですね。時折、北にあるミフの里まで遊びに行くのがたまの楽しみです。
+ここに眠る負の神に挑戦するのであれば止めはしませんよ。イーヴァン様も喜びそうですし。
+エーテルは非常に興味深い物質ですね。良くも悪くも、今後の人類の行く末を左右しそうです。
+初対面の狐族をモフモフするのって失礼でしょうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A traveler? What a rare occasion.
+I've been tasked to oversee this location by my god. It's a great honor, but well...can get boring at times.
+Lord Yevan's teachings may be considered drastic, but are rooted in his deep love and high expectations for mortals.
+I hate machinery. It doesn't bleed.
+Interested in sparring? I could use some practice.
+If only Billy didn't have those spikes...
+Cats...such cute animals.
+Ah, I miss the scent of the battlefield. Any chance you could take me to one?
+The scenery here is beautiful, but food is sparse. I like to occasionally stop by Mifu Village north of here for supplies.
+I won't stop you if you'd like to challenge the god sealed here. Lord Yevan would surely enjoy it.
+Ether is an interesting substance. It's sure to change the path of humanity, for better or worse.
+Do you think it's rude to fluffy stroke a random foxfolk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_inn_fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この首飾り？もちろん中身は米よ。私たちの村では小麦は育てていないから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The charm about my neck? Of course it's filled with rice, we don't grow wheat in this village.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_inn_fox2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この宿は元々巡礼者を迎えるために建てられたのですが、最近は観光客も増えてきました。
+いらっしゃいませ！ お食事にしますか？ それともお風呂？ それとも…？
+なぜ急に村が人気になったのかはわかりませんが、忙しいのは悪くないですね！
+観光客たちは、ミサキの警告を無視して聖樹に近づきすぎるので困ります。まったく、敬意が足りませんね。
+私たちだけなら自給自足もできるのですが、ミフ村から食料を送ってもらわなければ、観光客たちをまかないきれません。
+どうして人間は、私たちの耳や尻尾にあんなに興味を持つのでしょう？
+ミサキは神殿を守り、私は宿を切り盛りしています。これじゃあ、長老がすることはあまり残っていませんね！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This inn was originally built to house pilgrims, but the village has had many tourists of late.
+Welcome! Would you like a meal, a bath, or perhaps...?
+I don't know how the village suddenly became popular, but I'm more than happy to be this busy!
+The tourists keep on getting too close to the sacred tree despite Misaki's warnings. They simply have no respect!
+We can sustain ourselves, but I wouldn't be able to deal with all these tourists if Mifu Village wasn't sending us food from the south.
+Why are humans so fascinated by our ears and tails?
+Misaki minds the temple, while I run the inn. Between us, there's not much left for the elder to do!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_kiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なぜ私が作られたのか知ってる？ いいえ？ だと思った。
+ 家みたいな場所を夢に見るけど、どうやってそこへ戻ればいいか思い出せない。
+目が覚めたらこの武器を持っていた。なんて重いの。刺す？撃つ？両方やっちゃえ。
+「はーい！ みんなのアイドル、機械人形キリアちゃんキリ～！」…私にアイドルモジュールなんてあった？ いつ録音したんだっけ？
+機械のマニは虚無を聞ける者に囁くって聞いた。あの人なら、私がなぜ作られたか知っているかも。
+*zzt* また壊れた記憶…何をしにここへ来たんだっけ？
+*beep* ただいま定期メンテナンス中です。もう少しお待ちください。
+私が小さなゴーレムだって？ 馬鹿な。
+バグ？ グリッチ？ それは機能だよ。
+*じっと見つめる* ちっ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know why I was made? No? Didn’t think so.
+I keep dreaming of a place that looks like home, but I can't remember how to get there.
+I woke up with this weapon. So cumbersome. Should I stab, or shoot?  I'll just do both.
+"Hai! It's everyone's idol, Machine Doll Kiria-chan, kiri～" ... Do I have an idol module? When did I record this?
+I heard Mani of Machine whispers to those who can hear the void. Maybe he knows why I was made.
+*zzt* Another corrupt memory... what was I doing here again?
+*beep* We are performing scheduled maintenance and will be back online shortly.
+Some people think I'm a tiny golem? Nonsense.
+Bugs? Glitches? Those are features.
+*stares* tch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_gaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空色のチューリップ？ 色々旅してきたけど見たことないよ。
+新しい奇妙な病気が流行ってるらしい……ツノでも生えないかな～。
+怒らせると変な呪いをかけてくる神がいるから気を付けようね。
+カジノのディーラーは絶対｢やってる｣……！ 
+卵の卵♪ 切り身の切り身♪ 切り身の卵♪
+上には上がいる。ざこよりざこもいる。#brother2はどっちかなぁ～？
+もう1本ツノ……いや刀を持ってたんだけど旅の途中で失くしちゃってねぇ。
+美味しいもの食べてる時がしゃーわせ♪
+牙姫ちゃん来たよ。もてなしてねすぐでいいよ。
+可愛くて強いのが牙姫ちゃんってワケ☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A phantom azure tulip? I’ve traveled far and wide, but I’ve never seen one.
+There’s some new weird disease going around... I wonder if it’ll make me grow horns~
+There’s a god who curses people with weird spells when they get mad, so be careful.
+I’m telling you, the casino dealers are definitely cheating...! 
+Egg of an egg♪ Slice of a slice♪ Slice of an egg♪
+There’s always someone better. And someone worse than the worst. Which one are you, #brother2?
+I used to have another horn... no, another sword, but I lost it along the way.
+Eating something delicious is pure bliss♪
+Fang Princess is here. Treat her well, and quickly.
+Cute and strong, that’s what makes me Fang Princess☆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv_mesherada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魂が再び絡み合い、私たちが約束を果たすその時を待っている…そうではないか？ 
+もしそなたが私の探し人なら…きっと運命が二人に囁くだろう。
+そなたには、時の彼方に失われたと思っていた安らぎを感じる。
+そなたの魂は懐かしい…まるで言葉が生まれるよりも前に、出会っていたかのようだ。
+この瞬間が永遠に続けばよいのに…そなたの温もりをもう少し感じていたい。
+そなたはただの優しい見知らぬ人なのか…それとも時を越えて追いかけてきた面影か…
+目の前に立つそなたの名前を、私はまだ呼ぶことができない。
+不思議だ…そなたの傍にいると、なぜか一番安らぐ。
+そなたも感じているか…？ 二人を繋ぐ糸が張り詰めているのを？
+いくつもの道を歩んでも…その先には必ずそなたがいるのだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder... are our souls once more intertwined, waiting for the moment when we shall fulfill our promise?
+If thou art the one I seek... surely fate shall whisper it to us both.
+There is something in thy presence—a peace I thought lost to time.
+Thy soul feels familiar, as though we met long before names were spoken.
+Would that this moment could linger, if only to feel thy warmth a while more.
+Art thou merely a kind stranger... or the echo I have chased through time?
+Thou standest before me, and yet I dare not name thee.
+Strange... I feel safest when thou art near.
+Dost thou feel it too? A thread pulled taut between us.
+So many paths... yet I always find thee at the end of mine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olderyoungersister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私がいつ生まれたのか気になるの#brother2？遠い遠い遥か昔の事だよ#brother2…
+ずっと#brother2を求めてこの世界を彷徨っていたの…そしたらいたのよ#brother2が！
+#brother2ずっと…一緒だよね…？ちょっと不安になっただけだよ#brother2。
+#brother2の為に戦いも家事もあらゆることはできるようになっておきたいの。
+神様は時に残酷だよね#brother2…
+私は#brother2のこと束縛しないよっ！本当だよっ！
+私の囀りには混沌の力が宿るみたい。
+私以外にもこの世界には#brother2の血の繋がらない妹達がいるんだって！
+雪プチちゃんをもふもふしたい！もふりたいよ#brother2！
+雪プチちゃんには色の違う子たちがいるんだよ#brother2。みんなお迎えできると嬉しいね#brother2。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wonder when I was born, #brother2? It was a long, long time ago, #brother2...
+I’ve been wandering this world all this time, searching for you, #brother2... and then I found you!
+We’ll be together forever, right, #brother2...? I just got a little scared, that’s all, #brother2.
+I want to be able to do everything for you, #brother2 – fighting, housework, everything.
+God can be so cruel sometimes, #brother2...
+I won’t ever tie you down, #brother2! I promise!
+It seems like there’s a power of chaos in my song.
+I heard there are other sisters in this world who aren’t blood-related to you, #brother2!
+I want to snuggle with snow putit-chan! I really do, #brother2!
+There are snow putit-chans with different colors, #brother2. It would be so nice if we could welcome them all, #brother2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_nanasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～。
+好きな物はなにかって？もちろんナスだよ～。
+スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～。
+冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～。
+冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～。
+もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～。
+出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～。
+かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～。
+実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am Nanas, the eggplant fairy!
+What's my favorite food? Eggplant, of course!
+Specwing is a very nice place, everyone is dancing happily.
+The most gratifying part of an adventure is the bond that you get from adventuring together!
+I had a lot of drinks with new friends I met during my adventures, it was a lot of fun.
+Of course, there were some sad times, but I still moved forward believing that I would meet new people, and that's why I am here today.
+Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
+The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
+when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪プチちゃん、かわいいですよね……フフフ……。
+ねこの自由さには憧れます。ねこの神様がいたらきっと自由そのものなんだろうなあ。
+ふつうでありたいのに、トラブルはどうしてすぐこちらを見つけるのでしょうね……*はぁ*
+不思議な話し方の冒険者さん、何故会話が出来たのか私も分かりません……。
+可愛らしいお人形の冒険者さん、ずっと誰かを探してますよね……。
+黒い翼の冒険者さん、かっこいいですよね……。
+魔法使いの冒険者さん、何やら物騒な本を持っているような……。
+運命の導きを信じる冒険者さん、何だか情熱的ですよね。
+猫を……吸う？……冒険者が居るとか……？
+ミシリアにある魔女のパン屋さん、素敵ですよね！魔女で、パン屋さん！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow Putit is just too cute... hehe.
+I wish I were as free as a cat... If there’s a cat god, they must be freedom itself.
+All I want is a normal life... So why does trouble always find me? *sigh*
+That adventurer talks so oddly... and yet, somehow we still had a conversation.
+That cute, doll-like adventurer... always searching for someone.
+That adventurer with black wings... they look really cool.
+That adventurer mage... carrying a book that feels kinda dangerous.
+That adventurer who believes in fate... so passionate, huh.
+An adventurer who... ‘inhales cats’? ...Wait, what?
+That witch’s bakery in Mysilia is so lovely... A real shop, right in the city. A witch... and a baker!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 바로 감정을 시작하{겠다}. 잠시 기다려 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">감정할 물건이 없는 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">홈을 확장하려면 금괴 #2개가 필요{해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좋아, 홈을 확장했{어}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확장할 수 없는 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {너는} 미실리아에 달마다 #1을 추가로 납세하고 있{네}. 금액을 바꾸고 싶다면 알려{줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, {YOU}의 미실리아에 대한 추가 납세액을 #1으로 변경했{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 입금할 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 {YOU}의 계좌에는 금화가 #1 오렌 있{네}. 그럼, 얼마나 출금할 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 돈은 확실히 받았{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 이게 원하는 금액{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방문객을 위한 응접실이 없는 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">돈이 부족한 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{너는} 이미 배가 부른 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, 의뢰를 받아 줄 {거냐}? 그럼 잘 부탁{해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">의뢰를 너무 많이 받아둔 것 같{네}. 다른 의뢰를 먼저 처리해 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">맡긴 의뢰는 잘 되어 가는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, 의뢰를 무사히 완수한 {거냐}! {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, {I}도 새 관찰 좋아{해}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{간다}!
+우후후.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{흐음}, 그럼 #1 오렌을 선불로 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">몸이 꽤 괜찮{네}. {좋아}, 사 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이건 분실물인 것 같은데… 뭐, 괜찮겠{지}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{내가} {YOU}의 홈에 살았으면 좋겠다는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아쉽지만, {나는} 아직 해야 할 일이 있{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{네가} 조금 더 매력적이었다면 갔을 {텐데}.#newline(매력이 #1 필요)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">취미는 #1 정도{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">좋아하는 것? {흐음}, #1에 관심이 있{어}. 참고로 제일 좋아하는 건 #2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2를 사고 싶은 {거냐}, 손님도 취향이 꽤 괜찮은데. 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오늘부터 #1은(는) {YOU} 것{이다}. 소중히 다루어 {줘}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 말{이야}? {좋아}, 안내해 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">놀리는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">맹약의 돌을 레벨 #2로 업그레이드하려면 #1이 필요{해}. #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 이제 이 장소도 더욱 발전할 {거야}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">투자에 관심이 있는 {거냐}? {너는} 지금까지 총 #2 오렌을 투자했고, #zone에서는 지금 #1 오렌을 투자할 사람을 모집하고 있{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{고마워}! {YOU}의 투자로 #zone도 더 발전할 {거야}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">투자를 해 줄 {거냐}? 이 가게의 규모를 확장하려면 #1 오렌이 필요{해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{고마워}! 이걸로 장사가 더 좋아질 {거야}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, #1 가져다 준 {거냐}? {고마워}. 이게 약속했던 보수{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{오오}, 이건 틀림없는 #1! 이 물건에 어울리는 보수를 {줄게}. {고마워}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호오, 작은 메달을 가지고 있는 건가? 나는 메달 수집에 죽고 산다고! 내 걸작들 몇 가지와 교환하지 않겠나?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">흥!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">범죄자한테는 장사 안 {해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{아하하}, {YOU} 같은 건실한 모험가가 {I}한테 무슨 볼일{이야}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어디로 가고 싶은 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 시무룩해졌다…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 당신을 껴안았다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">답도 없는 변태{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드디어 멀쩡해진 것 같{네}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 고개를 끄덕였다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(#tg은(는) 완곡하게 거절했다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분실물을 가져다 준 {거냐}? {너는} 시민들의 모범{이다}. {고마워}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 근처에 #1이라는 곳이 있{어}. 관심 있다면, 탐험해 볼 가치가 있을지도 모르{지}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아쉽지만, 지금은 별다른 정보가 없{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">힘을 시험해 보고 싶은 {거냐}?
+진심{이야}?
+지금 {I}에게 싸움을 걸겠다는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 배짱도 좋{네}!
+그렇게 나와{야지}!
+{좋아}, {YOU}의 힘을 보여{줘}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{뭐야}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{좋아}, 오늘부터 {내가} {YOU}의 메이드{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{아하하}, #brother, 그 정도로 돈이 급한 건가? {좋아}, {YOU}의 명성을 팔면 #1 오렌 {줄게}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{고마워}, {YOU}의 명성은 유용하게 쓰겠{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">축복받고 싶은 {거냐}? {좋아}, 머리를 숙여 {봐}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 자물쇠는 {내가} 풀기엔 너무 복잡한 것 같{네}. 미안하지만, 스스로 해결{해라}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빚 갚는 걸 도와줄 건가… 미안하다. 그럼, 우선 이 소액 빚 청구서부터 처리하자. 납세 상자에 넣어서 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그런가… 그럼 마음이 아프지만, 다음 빚 청구서를 네게 넘길게. 갚고 나면 얘기해 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빚 청구서는 이미 넘겨준 것 같은데. 중요한 것이니까 부디 잃어버리지 말아 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그… 아직 마음의 준비가 안 됐어. 미안하지만, 조금만 더 기다려 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… '중요한 것이니 잃어버리지 말아 줘'라고 말했던 거 기억해? 한 장 더 줄 테니 다음엔 조심해 줘.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한가{하다}.
+응? 뭔가 볼일이라도 있{는가}?
+가끔씩은 호화스러운 식사를 하고 {싶다}.
+영원의 맹약…? 그런 말은 들어 본 적이 없{네}.
+눈앞이 핑핑 돌 때까지 크림에일을 마시고 {싶다}.
+고양이는 왜 이렇게 귀여운 {걸까}.
+#aka? …누굴 말하는 {거냐}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제 이야기에는 관심이 있{어}.
+하여간 이 세상에선 돈이 중요{해}.
+어디 돈 좀 떨어져 있으면 좋을 {텐데}.
+플래티넘 코인은 얻기가 쉽지가 {않아}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{나는} 과학 이야기 하는 걸 좋아{해}.
+에이스 테일은 제7기의 문명{이다}. 고도의 과학 기술을 가지고 있{었지}.
+에이스 테일은 마법과 과학이 서로 대립한다고 생각했던 것 {같다}.
+신왕국 예를에서는 기계 인형이 사람 대신 일을 한다{더라}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다양한 곳을 여행하는 게 {좋아}.
+루미에스트는 예술의 거리로 유명{해}.
+노스티리스에는 네피아 유적군이라고 불리는 수많은 유적과 던전이 있{어}.
+여행을 떠날 거라면, 식량을 충분히 챙겨야 {해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{나는} 세계 정세에 관심이 있{어}.
+에우다나는 동쪽 대륙의 사막에 있는 강대한 제국{이다}.
+신왕국 예를은 제국에서 탈출한 노예들이 세웠다{더라}.
+아무래도 자난에는 제국의 입김이 닿는 것 {같다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음이야말로 무엇보다 중요{해}.
+신이 없다면 이 세계는 의미가 없{어}.
+치유의 여신의 머리에 달린 날개깃털에는, 어떤 난치병이든 낫게 하는 힘이 있다{더라}.
+가끔씩 땅이 흔들리는 건 오파토스가 잠꼬대를 해서라{더라}.
+쿠미로미님은 남신일{까}, 여신일{까}? 신경 쓰여서 잠을 못 자겠{어}!
+행운의 여신은 사실 고양이라{고}? {아하하}, 그럴 리가!
+기계의 마니는 원래 인간이었다는 소문이 있{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엘레아는 십년전쟁 내내, 위기에 처한 {우리}를 죽게 내버려 뒀{어}.
+이제부터는 인간의 시대{다}!
+{우리}는 이제 엘레아의 도움 따위는 필요 없{어}.
+엘레아가 사는 숲을 전부 태워버리면 좋을 {텐데}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인간들은 좀 더 겸손해져야 {해}. 오래된 종족에게 경의를 표해야지.
+예로부터 인간들은 엘레아를 어머니라고 불렀{어}.
+숲의 사람들은 간섭하는 것도, 간섭받는 것도 원하지 않는 것 {같다}.
+어째서 숲의 사람들을 그냥 놔 두지 않는 {걸까}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 천천히 둘러{봐}.
+물건 보는 눈은 자신 있{어}.
+가게 경영은 꽤 어렵{네}.
+건달도 혼자 못 쫓아내면 장사꾼 노릇은 못 {해}.
+다른 가게에서는 발밑이 안 보이게 조심{해라}.
+만일을 대비해서, 가게를 물려받을 사람을 이미 정해뒀{어}.
+자, {내가} 자신있게 고른 상품들을 둘러{봐}.
+요즘 들어 뒤숭숭한 사람들이 많아져서 걱정{이다}.
+무기나 방어구는, 확실하게 감정된 게 아니면 제값 못 쳐 {준다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시민의 안전을 지키는 게 경비병의 일{이다}.
+수상한 사람을 보면 알려 {줘}.
+{I}도 예전에는 {YOU} 같은 모험가였는데…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고객의 돈은 무엇보다도 중요{해}.
+돈으로 살 수 없는 것들도 있{지}.
+본 지점에 어서 {와}!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나~ {너는} 좋은 #gender{네}. 하룻밤의 꿈을 보여줄{까}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님도 이쪽 사람이{네}.
+히히히… 나으리도 꽤 밝히는 인간이잖{아}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(지루하다는 얼굴로 당신을 보고 있다)
+(#me은(는) 당신을 슬쩍 보곤 고개를 돌렸다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">토끼의 꼬리는 행운을 부른다{더라}.
+록 스로어가 던지는 바위를 무시하면 안 {돼}.
+꿈속에서 {내가} 믿는 신을 만났{어}!
+귀족 중에는 이상한 물건을 수집하는 사람도 있는 것 {같다}.
+파티에서 연주를 하면 취한 사람들이 가끔씩 이상한 걸 던{져}.
+도적단 녀석들은 아무래도 수상쩍은 약을 쓰고 있는 것 {같다}.
+저번에 방랑 마법사가 불꽃 마법으로 고기를 구워 줬{어}. 솔직히, 가게에서 파는 요리보다 맛있었{어}!
+바위가 안 파진다{고}? 좀 더 단단한 재료로 곡괭이를 만들어 {봐}.
+이 대륙의 어딘가에 요정들이 사는 커다란 나무가 있다{더라}.
+세금을 안 내면 나중에 골치 아파{져}.
+정말{이다}! {내가} 황금색 눈 쁘띠를 분명히 봤다{고}!
+태양의 빛을 내는 신비한 램프가 있다{더라}.
+월척을 낚았다고 신나서 바로 내다 파는 건 바보 짓{이다}.
+그거 {알아}? 배가 고플 때 밥을 먹으면 영양소를 더 많이 흡수할 수 있{어}.
+허브를 모으고 싶으면, 숲의 네피아를 뒤져 {봐}.
+수영을 연습{해라}. 내구력이 단련된다{고}!
+미식가들은 독버섯도 구별할 수 있다{더라}.
+자물쇠가 걸린 상자를 정보상에 가져가면 열어주는 것 {같다}.
+의뢰가 너무 어려운 것 같으면, 명성을 팔아서 떨어뜨려도 {돼}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쿠미로미를 믿으면 썩은 식재료에서 씨앗을 찾아낼 수 있다.
+소재 망치를 평범한 물건에 막 쓰지 마라!
+영양이 풍부한 음식은 펫에게 먹일 때 진가가 드러난다.
+질 좋은 침대에서 자면 수면 효과가 좋아진다.
+몽롱해진 적 상대로는 크리티컬이 잘 터지게 된다.
+독이나 마비, 출혈 같은 상태이상이 있을 땐 자연적으로 회복이 안 된다.
+큐브는 상태이상이 걸려 있다면 분열하지 못한다.
+아티팩트에 재구축의 두루마리를 사용하면 재생성할 수 있다.
+소리 내성이 충분하다면 몽롱 상태가 되지 않는다.
+환혹 내성이 충분하다면 광기 상태가 되지 않는다.
+지팡이를 축복하는 건 좋은 아이디어지만, 효과가 축복받은 포션이나 두루마리보단 약간 못하다.
+젖어 있을 때는 화염 속성 대미지를 거의 받지 않는다. 하지만 전기 속성 대미지를 더 받는다.
+단기간에 구토를 너무 많이 하면 거식증에 걸린다. 걸리면 마실 것으로 배를 채워야 한다.
+강적에게는 저주받은 능력 부활/정신 부활 포션을 던져라.
+수영 스킬이 있다면 다른 대륙으로 수영해서 건너가는 게 가능하다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손가락을 추가해 주는 굉장한 반지가 있는 모양이다.
+지팡이는 땅에 한동안 놔 두면 충전된다!
+소원으로 뭘 빌어야 할지 모르겠는가? 아슬의 비보를 빌어 봐라.
+보석은 플래티넘 코인으로 교환할 수 있다.
+보물 지도는 항상 축복해서 읽어라.
+냐…아…아아…
+무엇을 바라는가?
+채팅창에 Guards!라고 외치면, 경비병이 도와주러 올 때도 있다.
+신을 펫으로 만드는 방법도 있다고 한다.
+문 게이트 앞에는 플레이어 킬러가 기다리고 있다.
+일을 저질렀구나. 이걸 읽은 자에게는 *반드시* 저주가 내릴 것이다.
+뒤에! 조심해! 보, 보라고, 여동생이-! 도망쳐-! 아-!
+아이 뇨 토-쿠 파-니-, 뇨-범프범프 포오-유.
+당신의 세이브 파일이 파손되어 있어, 올바른 점괘를 표시하지 못했습니다.
+고양이를 한 마리도 죽이지 않으면 좋은 일이 있을 것이다.
+경비병에게 알몸으로 몸통박치기를 하면 좋아하는 것 같다.
+여동생만 쓸 수 있는 최강의 아티팩트가 존재하는 모양이다.
+달피 근처에 목장을 세우면 금방 부자가 될 수 있다!
+카르마가 높으면 세금이 감면된다.
+몬스터의 똥은 무거울수록 비싸게 팔린다.
+저주받은 회복 포션을 마시면 병에 걸릴 수도 있다.
+헤르메스의 피는 *반드시* 축복해서 마셔라!
+귀환 마법 시전을 실패하면 큰일이 날 지도 모른다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서면 절차는 비서를 통해서 {해라}.
+용무가 있{는가}? {나는} 바쁜 몸{이다}.
+마을에 투자하겠다면 언제든 환영{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마을에 투자하시는 건 어떻습니까?
+제가 도움이 되어 드릴 일이 있나요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아에선 인간과 엘레아가 함께 평화롭게 살고 있{어}.
+십년전쟁으로 이 나라는 큰 타격을 입었{어}.
+죠난 공의 후계자인 에프론드님에 대해선 좋은 얘기가 들리질 {않아}.
+십년전쟁이 끝나고, 이 나라는 수수께끼의 역병에 휩쓸렸{어}. 소문으로는 그 나이미르의 기적의 바람에 병이 실려서 퍼졌다{더라}.
+미실리아는 앞으로 어떻게 되는 걸{까}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">와인과 온천과 벚꽃의 마을, 오르비나에 어서 {와}.
+시오루시아는 정말로 학구열이 대단해서 감동했{어}.
+올해도 웨트 튜닉 콘테스트가 정말로 기대{돼}!
+패리스한테 실컷 매도당하고 {싶다}.
+오르비나는 미실리아 최고의 관광지{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프리아우네님이 돌아가시고, 셰토라스님은 잘 웃지 않게 되셨{어}.
+지금은 다들 이 요새를 윌로우라고 부르지만, 옛날에는 이름이 달랐다는 것 {같다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무법자의 마을, 달피에 어서 {와}.
+그 길에 관심 있으면 도적 길드로 가 {봐}.
+이 세상은 노예가 필요{해}.
+아레나에서 피 튀기는 걸 보는 게 {좋아}.
+이 마을에는 경비병이 없{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">팔미아국의 수도에 어서 {와}.
+팔미아는 뭐든지 다 있어서 편리하고 좋지만, 넓어서 사람 찾는 게 큰일{이다}.
+쟈비님과 스타샤님은 정말로 사이가 {좋아}.
+팔미아의 특산품이 뭐냐고 물으면, 귀족의 장난감{이다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이런 촌동네에도 요윈이라는 이름이 있{어}.
+말이라면 여기서 사가는 게 {좋아}.
+수확기에는 항상 일손이 모자라{지}.
+아무것도 없는 곳이지만, 느긋하게 있다 가라{고}.
+서쪽에 무법자들의 마을이 있다{더라}.
+마을을 나서서 동쪽으로 길 따라 가면 수도 팔미아{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 {와}, 물과 예술의 도시에.
+어딘가에 온천으로 유명한 마을이 있다{더라}.
+이 마을은 어디서든지 낚시를 할 수 있{어}.
+그림 얘기로는 하루종일 떠들 수 있{어}.
+마술사 길드는 팔미아 전체에서 오직 이곳에만 있{어}.
+하수도는 냄새도 끔찍하고, 소문으로는 무서운 괴물들도 산다{더라}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엣취! 으으, 오늘도 춥{네}.
+매일매일 눈 치우는 게 큰일{이다}.
+죄책감을 못 버티겠으면 교회를 찾아가 {봐}.
+추워!
+여기서 남쪽으로 조금 떨어진 곳에 작은 공방이 지어진 걸 봤{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바닷바람 향기가 좋{네}.
+펫 아레나에서 경기 보는 게 취미{다}.
+더 강해지고 싶으면 전사 길드에 찾아가 {봐}.
+이곳의 해산물은 내륙에서 비싸게 팔 수 있{어}.
+피라미드에는 어떻게 들어가는 걸{까}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{우리}는 쌀을 많이 만들어서 인간들에게 팔고 있{어}.
+키즈아미님이 이 마을의 수호신{이다}.
+이 마을의 강은 라나 근처 산에서부터 흐르는 {거야}.
+{우리} 선조는 이 언덕을 깎아 논밭을 만들고 벼농사를 짓기 시작하셨{어}.
+이 마을 사람들은 모두 서예에 조예가 있{어}.
+서예에 관심 있으면, 잡화상에서 서예도구를 사 {봐}.
+혹시 밭 근처에서 금색 도깨비불을 보면, 바로 키누한테 알려 {줘}. 그건 사람을 홀리는 사악한 령이니{까}.
+이 마을에선 무나 대파 같은 야채도 많이 기르고 있{어}.
+키누는 쌀 농사에 재능이 있는 것 {같다}.
+키즈아미님을 믿는 사람만이 이 마을의 영적인 힘을 알아챌 수 있{어}.
+라나로 가는 여행자들이 산길을 오르기 전에 이 마을의 여관에서 잠시 쉬고 가곤 {해}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마을 밖으로 나가는 건 {무서워}. 인간들은 아무렇지도 않게 귀랑 꼬리를 만지려 드니{까}.
+호로메님이 이 마을의 모두를 지켜보고 있{어}.
+관광객들이 마을의 분위기를 깨뜨리는 게 싫{어}.
+밤에 혼자 벚나무 근처에 있으면, 황금빛 구미호가 보인다는 소문이 있{어}.
+이 마을 사람들은 어렸을 때부터 검술을 배우고 있{어}.
+이 마을에서 파는 밀크는 최고{다}!
+미후는 남쪽에서 쌀을 가져와서, 여기서 술을 담그곤 {해}.
+앵화주는 여신께 바치는 좋은 공물{이다}.
+미즈나 씨는 정말 쭉쭉빵빵{해}. 그 크기가 주는 포용력이 정말 최고{다}!
+미사키와 미즈나 덕분에 이 마을은 안전하게 경영되고 있{어}.
+이 마을의 공기는 북쪽 땅에서도 따듯하고 평온{하다}. 신목은 겨울에도 잎이 지지 {않아}.
+앵화주는 이 마을의 명물{이다}.
+폭포 아래에서 명상을 하면 몸과 마음에서 사악한 것이 씻겨져 나간다{더라}.
+호로메님을 믿는 사람만이 이 마을의 진짜 아름다움을 알아볼 수 있{어}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여기는 가도에서 멀리 떨어진 곳이라, 대부분의 물건들은 하늘길을 통해 받고 있{어}.
+스펙윙에는 수많은 모험가들이 모이고, 네피아에 도전하기 전에 파티를 짜고 있{어}.
+스펙윙은 노스티리스의 황야로 향하는 수많은 모험가들의 최후의 보급지점{이다}.
+이 주변에는 위험한 네피아가 많이 있{어}.
+대사관에서 특별한 허가를 받지 못하면 탐사를 할 수 없는 네피아가 근처에 있다{더라}.
+이 마을은 원래 요정들이 살던 곳{이다}.
+모험가들이 찾아오는 덕분에 이 마을도 꽤 커졌{어}.
+나무 위에서 벌어지는 끝없는 연회, 그게 {우리}가 모험가들에게서 돈을 얻어내는 방법{이다}.
+스펙윙을 세운 건 파란 가지 의상을 입은 요정이라{더라}.
+요정의 마법 덕에, 이 나무는 사람들이 살 수 있는데다 건강하게 자라고 있{어}.
+{우리}는 나무를 돌보고, 나무는 {우리}를 지켜주는 {거야}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#race? 어째서 이 마을에…?
+#race 같은 종족이 뭘 하러 온 {거냐}?
+결계가 이 마을을 몬스터들과 호기심에 찬 눈으로부터 지켜주고 있{어}.
+{우리}는 종종 바깥 세계에서 연구 소재를 구해와야 {해}.
+{내가} 소중하게 여기던 사람들은 이미 죽었고, 이제 바깥 세상에 {나를} 기억하고 있는 사람은 아무도 없{어}.
+{우리}는 신들의 금기를 깨, 위대한 아버지를 섬기는 노동을 하게 됐{어}.
+장로 비체린은 자기가 얼마나 오랜 세월을 살아왔는지 이야기를 잘 안 {해}.
+만약 {네가} 잿더미 말고 다른 맛이 나는 먹을거리를 갖고 있다면, 모두가 기뻐할 {거야}.
+이 마을은 먹을거리가 부족{해}.
+{우리}가 자연스럽게 죽음을 맞이하는 일은 없{어}.
+{우리}가 해방될 날은, 위대한 아버지께서 {우리}가 죗값을 전부 치렀다고 판단하실 때 뿐{이다}.
+위대한 아버지께서 항상 {우리}를 지켜보고 있{어}.
+위대한 아버지께서 {우리}의 속죄를 감독하시니, 그 운명으로부터 도망칠 수는 없{어}.
+시간이 흐르며 {우리}는 물질적인 것에 그다지 관심을 갖지 않게 됐{어}.
+#race, 지금 {YOU}의 앞에 있는 것은 천 년 이상 살아온 추방자{다}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도련님께선 장차 팔미아를 이끌 분이시니, 조금 더 의젓해지시길 바랄 뿐이다.
+길버트 같은 녀석들이 있으니까 도련님도 나쁜 물이 드시는 거야.
+스타샤 공주님께선, 어떻게 그 나이에 그렇게나 예의 바르고 의연하실까. 그야말로 궁전의 아이돌이야!
+스타샤 공주님 만세!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 파트너 미랄이랑은 망치 하나도 못 들던 꼬마 시절부터 알고 지냈지.
+미랄의 재능은 나도 인정한다. 근데 그 녀석은 짜증나면 주문을 내팽개치고 고양이 장난감 따위나 만든단 말이지. 한심하다고.
+시시하구만. 나의 타다 만 장인 정신을 불타오르게 할 만한 굉장한 일거리는 없는 건가!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후하하하하! …뭐냐, 넌?
+오파토스의 이름에 걸고, 스타샤 공주님께 다가가는 벌레 자식들은 내가 전부 퇴치해 주마. 후하하하하-!
+공주님 만세!
+나도 15년 전 전쟁에서 날뛰고 싶었는데 말이야!
+후하핫!
+약한 자를 돕고, 악을 쳐부수는 거다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미실리아 왕궁에는 무슨 용무인가?
+나도 많이 늙었군. 하지만, 아직은 은퇴할 수가 없지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모험가가 이런 곳에는 무슨 일인가?
+어사일럼은 부모가 없는 아이들을 보호하고, 가르치고 있어.
+이런 시대지만, 아이들만큼은 건강하게 크면 좋겠다고 바라고 있어.
+교육은 중요해. 뒷배가 없는 이 아이들도, 자라서는 일할 곳을 찾아야만 하니까.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 이름은 슬란, 팔미아를 섬기는 몸이다. 지금은 기술을 쌓기 위해 각지를 유랑하고 있지.
+그건 그렇고 귀중한 서적들이다.
+눈보라가 부는 날에 이 외딴 성에 도착했고, 지금까지 신세를 지고 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오오, 손님인가! 아니, 사양할 필요는 없다. 내 고양이들과 마음껏 놀아 주게.
+파트너랑 공방 이름을 두고 싸웠었지. 그 놈한테 네이밍 센스가 약간이라도 있었다면, "가로크 미랄" 같은 웃기는 이름이 나올 일도 없었을 텐데 말이야.
+오늘은 밥으로 뭘 할까. 근래에는 대장 일보다 고양이 밥으로 뭘 줄지 고민하는 게 더 즐겁구만.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행상 생활도 마음 가는 대로라 좋지만, 어딘가 괜찮은 곳에 정착하는 것도 나쁘진 않을 것 같네. 그래, 카풀 근처라든지.
+수인 상인은 처음 보나? 티리스에선 그다지 흔하지 않을지도 모르겠네.
+서쪽에 있는 바다의 나라 베리차부터 동쪽에 있는 사막의 황금향 니사까지 가서 들여온 훌륭한 물건들이다. 느긋하게 둘러봐.
+아니… 이건 코스프레가 아니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시장 대리 노라입니다. 무슨 용무시죠?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어머나, 제게 무언가 용무가 있으신지요?
+팔미아는 유서 깊은 티리스의 대국이죠. 이 궁전에 초대받게 되어 영광입니다.
+아이돌…? …다른 나라의 말인가요?
+궁전에서는 팬…아니…그…분들께서 굉장히 잘 대해주십니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">저는 역사와 전승에 관심이 있습니다.
+패리스 언니는 화나면 무서워요.
+팔미아 왕궁 도서관에는 장서가 아주 많아서, 정말 굉장한 곳이에요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너는 모험가인가? 부디 여러가지 이야기를 들려 줬으면 하는데.
+아버님께서는 너무 엄격하셔. 뭐든지 하나하나 지적을 하셔서 질린다고. 코네리가 나쁜 영향을 받지 않았으면 좋겠는데…
+길버트와 코네리와는 어렸을 때부터 친구였지. 주종관계이지만, 그것만은 변하지 않아.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무엇이냐, 너는?
+이곳은 모험가 따위가 돌아다녀도 되는 곳이 아니다. 돌아가거라.
+…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐, 너는? 아무렇지 않게 말 걸지 마라.
+아아, 정말로 사랑스럽고 평온한 미실리아의 하루다. 미실리아의 백성은 모두, 눈을 가리고 있거나 어딘가에 두고 온 게 틀림없구나.
+태평하긴, 바보 녀석들이.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">가까이 오지 마세요… 에프론드님이 화내십니다.
+이형의 숲? …저는 방문한 적이 없습니다. 미실리아에 사는 엘레아는 모두 "숲 바깥"의 엘레아니까요.
+이렇게 꽃을 보고 있으니 졸리게 되네요…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 곡 듣겠나?
+예전에는 자난 왕실을 섬겼지만, 뭐, 실수를 해 버려서 말이야…
+지금은 미실리아야말로 내 고향이다.
+멜빈 녀석을 본 적 없나? 잠깐 노래 한 곡 하고 싶은 기분이야.
+내 아내는 미실리아에서 가장 아름답고 현명한 사람이야. 나한테는 과분할 정도지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생이 베리히한테 시집간 지가 벌써 8년이군. 시간은 참 빠르게 흘러가는구나.
+우리 가문은 숲의 백성의 수호자 역할을 대대로 이어왔다. 엘레아들에게는 고난의 시대인 지금, 이 칭호가 이름만 남지 않았단 걸 증명하고 싶어. 물론, 그럴 기회가 안 생기는 게 제일이지만.
+내 파트너인 그리핀은 야생 부엉이다. 다친 녀석을 치료해 줬더니 정이 들어버렸지. 지금은 내 어깨를 횃대라고 생각하고 있는 것 같아.
+귀부인들이 절조가 없어서 참 곤란하단 말이야.
+에프론드님과 동행하는 에르미나레라는 소녀 말인데, 그 소녀는 설마… 아니, 내가 상상이 지나친 것이겠지.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐냐 너는?
+모험가라는 말은 듣기는 좋지만, 결국 착실하게 일할 생각이 없는 녀석들인 것 아닌가?
+제국의 위협은 물론이고, 속셈이 보이지 않는 자난도 또 기분 나쁜 존재다.
+팔미아의 제인 왕은 명군으로 유명하지만, 그 아들인 쟈비 왕자는 난봉꾼이라고 들었다. 후계자 때문에 골머리 썩이는 건 어느 나라든 똑같구나!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여동생들이랑 큐브, 어느 쪽이 더 무서워? 난 여동생들이 더 귀엽다고 생각하는데.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여어, 큰까마귀여. 무슨 일인가.
+차라도 들겠나, 큰까마귀.
+나는 『탐구자』… 또는 『이계 방랑자』라고 불리는 남자다. 이 세상의 모든 지식을 손에 넣기 위해 인생을 바치고 있지. 보다시피 은둔자다.
+…하지만, 용케도 이런 외딴 곳을 찾아냈군.
+…이 성은 나의 대도서관이지만, 본래 도서관이란 넓고 개방된 곳이어야 마땅하지… 나는 너를 환영하겠다.
+이 세상 모든 지식이란, 누구든지 손에 넣을 권리가 있는 것이다. 너도 자유롭게 이용하도록.
+이 세상 어딘가에, 이르바의 모든 역사와 진상이 담긴 비보가 있다더군….
+영원의 맹약…? 까마득히 오래된 이야기를 알고 있군.
+여어, 큰까마귀여. 빌려간 책은 잘 읽고 있나?
+지식을 후세에 남기는 것이 지식을 가진 자의 의무지.
+여어, 큰까마귀여. 내 벗인 슬란을 못 봤나?
+…이 투구 말인가? 아름다운 짐승이지? 내 오랜 벗이다.
+…얼굴을 가리는 이유? 십년전쟁 이래로 엘레아는 얼굴을 들 면목이 없어서 말이야….
+…벗이란 모두, 한 발 빠르게 떠나 버리지….
+아무래도, 강아지 여동생의 저택이라는 환상을 좇고 있는 어떤 광인이 있는 모양이다.
+또 전쟁이 일어나려나.</t>
+  </si>
+  <si>
     <t xml:space="preserve">왜?</t>
   </si>
   <si>
-    <t xml:space="preserve">何？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kettle</t>
-  </si>
-  <si>
     <t xml:space="preserve">바람이 속삭이는 고대의 낱말을, 너는 들을 수 있어? 나는 바람의 이야기를 배우기 위해, 이 세계를 방랑하고 있어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you hear the ancient words the wind whispers? I wander this world to learn the story of the wind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strange_girl</t>
   </si>
   <si>
     <t xml:space="preserve">리틀들은 싫어. 그 아이들, 이상한 이야기만 해서, 진짜로 기분 나빠!
@@ -2487,39 +2773,7 @@
 저 괴물 여자는 우리 엄마가 아니야. 당연하잖아?</t>
   </si>
   <si>
-    <t xml:space="preserve">リトルたちはきらいよ。あの子たち、おかしなことをしゃべって、ほんとに気持ちわるい！
-あのバケモノたちといっしょにしないでね。
-パパが帰ってきたら、こんなところに二度とこないよう、おねがいするの！
-パパは「かがくしゃ」なの。この保育園にきて…それで、あのバケモノ女になにかたのまれて、すぐ帰ってくるからって…
-パパはすぐもどってくるわ。
-たのまれたって、リトルたちとは遊ばないんだから。
-あの子たちったら、たまにおかしなものを拾ってくるのよ。
-あのバケモノ女はママなんかじゃない。あたりまえでしょ？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't like those Littles. They talk weird things and it's really creepy!
-Don't lump me in with those monsters.
-When Daddy comes back, I'm gonna ask him so we never come here again.
-Daddy is a "sci-entist." He came to this nursery and then... that monster woman asked him for something, and he said he'd be right back...
-Daddy will come back soon.
-Even if they asked, I won't play with the Littles.
-Sometimes, they pick up and bring weird stuff.
-That monster woman is not my mommy. That's obvious!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">아앗, 돌돌이 추첨기를 돌리러 온 거야?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おっとガラガラを引きに来たのかい？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here to spin the prize wheel, huh?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miko_mifu</t>
   </si>
   <si>
     <t xml:space="preserve">우리는 축복이기도 하고, 저주이기도 합니다. 관점을 바꾸면 연약함 또한 강인함이 되지요.
@@ -2530,29 +2784,6 @@
 유후는 비뚤어진 부정한 신입니다. 신들 간에 벌어지는 다툼을 전부 없애고, 이상적인 평화를 이르바에 가져오고자 했지요.
 무녀직을 이어받겠다고 결심했을 때, 저는 옛 이름을 버리고 「키누」 라는 이름을 쓰게 됐습니다. 언젠가 제 딸이 저와 같은 길을 걷게 되겠죠.
 영원한 여름이란 없고, 계절은 돌고 도며, 끝내 겨울은 찾아옵니다. 축복도 영원히는 이어지지 않고, 불행 또한 그러합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私たちは祝福でもあり、呪いでもあります。見方を変えれば、弱さもまた強さに変わるのです。
-命に死がなく、天に地獄がなく、出会いに別れがなく、喜びに悲しみがない世界など、存在しないのです。
-私は祝福の巫女として、毎年この村で封印の儀を導く役目を担っています。
-キズアミ様の祝福はすべての者に与えられます。その力は世界に干渉するものであり、信仰のない者にすら感じることができるでしょう。
-私たちが育てる稲は、豊かな霊力を宿し、封印の儀には欠かせないものです。
-ユフは歪んだ負の神であり、神々の間にある争いをすべて消し去り、理想の平和をイルヴァにもたらそうとしました。
-巫女を引き継ぐと決めた時、私はかつての名を捨て、「キヌ」と名乗りました。いつの日か、私の娘の一人も同じ道を歩むことでしょう。
-永遠の夏はなく、季節は巡り、やがて冬が訪れます。祝福も永遠には続かず、不幸もまた同様です。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are both our blessings and curses. By changing our perspectives, we turn our weaknesses into strengths.
-There is no life without death, no heaven without hell, no meeting without parting, no joy without sorrow.
-As Maiden of Blessings, it's my duty to lead the village in the sealing rites every year.
-Lord Kizuami's blessings may be received by all. It is his way to meddle with the world, and even unbelievers may amuse him for a time.
-The rice we grow is blessed with an abundance of spiritual energy and is essential to the sealing rites.
-Yufu was a wicked negentropy god who sought to bring his delusion of peace to Ylva by eliminating all strife between the gods.
-When I rose to the position of shrine maiden, I set aside my old name and am now called "Kinu". Someday, one of my daughters will do the same.
-There is no eternal summer; the seasons turn and winter arrives. Blessings cannot last forever, but neither will misfortune.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miko_nefu</t>
   </si>
   <si>
     <t xml:space="preserve">유후는 신들의 전쟁을 이용해 이르바를 지배하고자 했던, 사악한 부정의 신이었어.
@@ -2566,35 +2797,6 @@
 칼날의 무녀들은 각자 그 칼에 새로운 전설을 새기는 것을 목표로 삼지.
 우리 여신님께서는 힘과 아름다움이 반대되는 게 아니라고 가르치셔. 네후의 칼춤은 그 둘 모두를 체현하는 게 목적이야.
 네후 마을은 신수를 지키기 위해 세워졌어.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユフは、神々の戦争を操り、イルヴァを支配しようとした邪悪な負の神だった。
-私たちは神樹の広場で儀式の舞を捧げる。
-ホロメ様はすべての命を愛し、信仰のない者にさえ小さな祝福を与えるのよ。
-刃の巫女として、私は毎年、封印の儀式の剣舞を舞うの。
-桜の花びらは女神の涙のように散り、私たちの心に儚さを刻む。
-儀式用の刀剣は、女神への崇拝において重要な役割を果たすのよ。
-ホロメ様は子供を慈しみ、大きな家族を持つ者に祝福を授ける。ネフは決して数の多い種族ではないけど、大家族は大いに尊敬されるの。
-私の刀は代々の巫女から受け継がれてきたものだ。
-刃の巫女はそれぞれ、その刀に新たな伝説を刻むことを目指す。
-私たちの女神は、力と美は相反するものではないと教える。ネフの剣舞はその両方を体現しようとするものだ。
-ネフの村は神樹を守るために築かれた。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yufu was a wicked negentropy god who sought to manipulate the divine wars and rule over Ylva unopposed.
-We hold ceremonial dances in the clearing before the sacred tree.
-Lady Horome loves all mortals, and even unbelievers may receive a small blessing.
-As Maiden of Blades, every year I perform a sword dance as part of the sealing rites.
-The cherry blossoms fall like our goddess' tears and touch our hearts with melancholy.
-Ceremonial swords play a central role in the worship rites of our goddess.
-Lady Horome delights in children, and she blesses those who have large families. We Nefu have never been a numerous people, and those who gain her favor this way are greatly respected.
-My katana has been passed down through generations of shrine maidens.
-Each Maiden of Blades seeks to add to its legacy.
-Our goddess teaches that strength and beauty are not at odds; Nefu sword dances seek to exemplify both.
-Nefu Village was founded to guard the sacred tree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eureka</t>
   </si>
   <si>
     <t xml:space="preserve">모험가신가요? 이런 곳까지 오시다니 참 별난 분이시네요.
@@ -2611,47 +2813,7 @@
 처음 보는 여우족을 쓰다듬는 건 실례일까요?</t>
   </si>
   <si>
-    <t xml:space="preserve">冒険者ですか？こんな場所まで来るとは、物好きですね。
-私は主にここの守護を任されています。大変な栄誉ではあるのですが...ときどき退屈ですね。
-イーヴァン様の教えは苛烈とされますが、元は定命者への深い愛情と期待から来るものでもあります。
-機械は嫌いです。血が出ないから。
-模擬戦でもどうですか？最近闘争が足りていなくて。
-ビリーさん、あの棘さえなければ...
-猫は本当にかわいい生き物ですね...
-戦場の硝煙が恋しいです。連れて行ってくれませんか？
-ここの景色は美しいのですが、暮らす分には不便ですね。時折、北にあるミフの里まで遊びに行くのがたまの楽しみです。
-ここに眠る負の神に挑戦するのであれば止めはしませんよ。イーヴァン様も喜びそうですし。
-エーテルは非常に興味深い物質ですね。良くも悪くも、今後の人類の行く末を左右しそうです。
-初対面の狐族をモフモフするのって失礼でしょうか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A traveler? What a rare occasion.
-I've been tasked to oversee this location by my god. It's a great honor, but well...can get boring at times.
-Lord Yevan's teachings may be considered drastic, but are rooted in his deep love and high expectations for mortals.
-I hate machinery. It doesn't bleed.
-Interested in sparring? I could use some practice.
-If only Billy didn't have those spikes...
-Cats...such cute animals.
-Ah, I miss the scent of the battlefield. Any chance you could take me to one?
-The scenery here is beautiful, but food is sparse. I like to occasionally stop by Mifu Village north of here for supplies.
-I won't stop you if you'd like to challenge the god sealed here. Lord Yevan would surely enjoy it.
-Ether is an interesting substance. It's sure to change the path of humanity, for better or worse.
-Do you think it's rude to fluffy stroke a random foxfolk?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merchant_inn_fox</t>
-  </si>
-  <si>
     <t xml:space="preserve">이 목걸이? 물론 쌀이 들어 있어. 우리 마을은 밀을 안 키우니까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この首飾り？もちろん中身は米よ。私たちの村では小麦は育てていないから。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The charm about my neck? Of course it's filled with rice, we don't grow wheat in this village.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merchant_inn_fox2</t>
   </si>
   <si>
     <t xml:space="preserve">이 여관은 원래 순례자들을 맞이하기 위해 지었지만, 최근에는 관광객도 많이 늘었어요.
@@ -2661,27 +2823,6 @@
 저희끼리는 자급자족이 되지만, 미후 마을에서 식량을 보내 주지 않았다면 관광객들을 접대하지는 못했을 거예요.
 왜 인간들은 저희 귀와 꼬리에 그렇게 관심이 있는 걸까요?
 미사키는 신전을 지키고, 저는 여관을 담당하고 있죠. 이대로라면 장로님이 할 일이 얼마 안 남겠네요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この宿は元々巡礼者を迎えるために建てられたのですが、最近は観光客も増えてきました。
-いらっしゃいませ！ お食事にしますか？ それともお風呂？ それとも…？
-なぜ急に村が人気になったのかはわかりませんが、忙しいのは悪くないですね！
-観光客たちは、ミサキの警告を無視して聖樹に近づきすぎるので困ります。まったく、敬意が足りませんね。
-私たちだけなら自給自足もできるのですが、ミフ村から食料を送ってもらわなければ、観光客たちをまかないきれません。
-どうして人間は、私たちの耳や尻尾にあんなに興味を持つのでしょう？
-ミサキは神殿を守り、私は宿を切り盛りしています。これじゃあ、長老がすることはあまり残っていませんね！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This inn was originally built to house pilgrims, but the village has had many tourists of late.
-Welcome! Would you like a meal, a bath, or perhaps...?
-I don't know how the village suddenly became popular, but I'm more than happy to be this busy!
-The tourists keep on getting too close to the sacred tree despite Misaki's warnings. They simply have no respect!
-We can sustain ourselves, but I wouldn't be able to deal with all these tourists if Mifu Village wasn't sending us food from the south.
-Why are humans so fascinated by our ears and tails?
-Misaki minds the temple, while I run the inn. Between us, there's not much left for the elder to do!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adv_kiria</t>
   </si>
   <si>
     <t xml:space="preserve">내가 왜 만들어진 건지 알고 있어? 몰라? 그럴 것 같았어.
@@ -2696,33 +2837,6 @@
 *물끄러미* 칫.</t>
   </si>
   <si>
-    <t xml:space="preserve">なぜ私が作られたのか知ってる？ いいえ？ だと思った。
- 家みたいな場所を夢に見るけど、どうやってそこへ戻ればいいか思い出せない。
-目が覚めたらこの武器を持っていた。なんて重いの。刺す？撃つ？両方やっちゃえ。
-「はーい！ みんなのアイドル、機械人形キリアちゃんキリ～！」…私にアイドルモジュールなんてあった？ いつ録音したんだっけ？
-機械のマニは虚無を聞ける者に囁くって聞いた。あの人なら、私がなぜ作られたか知っているかも。
-*zzt* また壊れた記憶…何をしにここへ来たんだっけ？
-*beep* ただいま定期メンテナンス中です。もう少しお待ちください。
-私が小さなゴーレムだって？ 馬鹿な。
-バグ？ グリッチ？ それは機能だよ。
-*じっと見つめる* ちっ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you know why I was made? No? Didn’t think so.
-I keep dreaming of a place that looks like home, but I can't remember how to get there.
-I woke up with this weapon. So cumbersome. Should I stab, or shoot?  I'll just do both.
-"Hai! It's everyone's idol, Machine Doll Kiria-chan, kiri～" ... Do I have an idol module? When did I record this?
-I heard Mani of Machine whispers to those who can hear the void. Maybe he knows why I was made.
-*zzt* Another corrupt memory... what was I doing here again?
-*beep* We are performing scheduled maintenance and will be back online shortly.
-Some people think I'm a tiny golem? Nonsense.
-Bugs? Glitches? Those are features.
-*stares* tch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adv_gaki</t>
-  </si>
-  <si>
     <t xml:space="preserve">하늘빛 튤립? 여기 저기 여행을 다녔었지만 본 적 없어.
 기묘한 병이 새로 유행한다네…… 뿔 하나 달아주지 않으려나～
 화나게 만들면 이상한 저주를 거는 신이 있으니까 조심하라구.
@@ -2735,33 +2849,6 @@
 강한데다 귀엽기까지 하다고? 그거 가키 쨩 말하는 거네☆</t>
   </si>
   <si>
-    <t xml:space="preserve">空色のチューリップ？ 色々旅してきたけど見たことないよ。
-新しい奇妙な病気が流行ってるらしい……ツノでも生えないかな～。
-怒らせると変な呪いをかけてくる神がいるから気を付けようね。
-カジノのディーラーは絶対｢やってる｣……！ 
-卵の卵♪ 切り身の切り身♪ 切り身の卵♪
-上には上がいる。ざこよりざこもいる。#brother2はどっちかなぁ～？
-もう1本ツノ……いや刀を持ってたんだけど旅の途中で失くしちゃってねぇ。
-美味しいもの食べてる時がしゃーわせ♪
-牙姫ちゃん来たよ。もてなしてねすぐでいいよ。
-可愛くて強いのが牙姫ちゃんってワケ☆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A phantom azure tulip? I’ve traveled far and wide, but I’ve never seen one.
-There’s some new weird disease going around... I wonder if it’ll make me grow horns~
-There’s a god who curses people with weird spells when they get mad, so be careful.
-I’m telling you, the casino dealers are definitely cheating...! 
-Egg of an egg♪ Slice of a slice♪ Slice of an egg♪
-There’s always someone better. And someone worse than the worst. Which one are you, #brother2?
-I used to have another horn... no, another sword, but I lost it along the way.
-Eating something delicious is pure bliss♪
-Fang Princess is here. Treat her well, and quickly.
-Cute and strong, that’s what makes me Fang Princess☆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adv_mesherada</t>
-  </si>
-  <si>
     <t xml:space="preserve">두 혼이 다시 한 번 얽히고, 우리가 약속을 다할 그 때를 기다리고 있어… 그렇지 않나?
 혹시 그대가 내가 찾는 사람이라면… 틀림없이 운명이 우리에게 속삭이겠지.
 그대에게서는, 시간의 저편에서 잃어버렸다고 생각했던 평온함을 느낄 수 있어.
@@ -2774,33 +2861,6 @@
 수없는 길을 걸어도… 그 앞에는 반드시 그대가 있을 테지.</t>
   </si>
   <si>
-    <t xml:space="preserve">魂が再び絡み合い、私たちが約束を果たすその時を待っている…そうではないか？ 
-もしそなたが私の探し人なら…きっと運命が二人に囁くだろう。
-そなたには、時の彼方に失われたと思っていた安らぎを感じる。
-そなたの魂は懐かしい…まるで言葉が生まれるよりも前に、出会っていたかのようだ。
-この瞬間が永遠に続けばよいのに…そなたの温もりをもう少し感じていたい。
-そなたはただの優しい見知らぬ人なのか…それとも時を越えて追いかけてきた面影か…
-目の前に立つそなたの名前を、私はまだ呼ぶことができない。
-不思議だ…そなたの傍にいると、なぜか一番安らぐ。
-そなたも感じているか…？ 二人を繋ぐ糸が張り詰めているのを？
-いくつもの道を歩んでも…その先には必ずそなたがいるのだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I wonder... are our souls once more intertwined, waiting for the moment when we shall fulfill our promise?
-If thou art the one I seek... surely fate shall whisper it to us both.
-There is something in thy presence—a peace I thought lost to time.
-Thy soul feels familiar, as though we met long before names were spoken.
-Would that this moment could linger, if only to feel thy warmth a while more.
-Art thou merely a kind stranger... or the echo I have chased through time?
-Thou standest before me, and yet I dare not name thee.
-Strange... I feel safest when thou art near.
-Dost thou feel it too? A thread pulled taut between us.
-So many paths... yet I always find thee at the end of mine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olderyoungersister</t>
-  </si>
-  <si>
     <t xml:space="preserve">내가 언제 태어났는지가 신경 쓰여, #brother2? 아주 아주 먼 옛날이야, #brother2…
 #brother2를 찾아서 쭉 이 세상을 방황했어… 그러니까 정말 있더라구, #brother2가!
 #brother2… 쭉… 함께 있어줄 거지…? 조금 불안해졌을 뿐이야, #brother2.
@@ -2813,33 +2873,6 @@
 눈 쁘띠 쨩들 중에선 색이 다른 아이가 있어, #brother2. 모두 맞이해줄 수 있다면 정말 좋겠네, #brother2.</t>
   </si>
   <si>
-    <t xml:space="preserve">私がいつ生まれたのか気になるの#brother2？遠い遠い遥か昔の事だよ#brother2…
-ずっと#brother2を求めてこの世界を彷徨っていたの…そしたらいたのよ#brother2が！
-#brother2ずっと…一緒だよね…？ちょっと不安になっただけだよ#brother2。
-#brother2の為に戦いも家事もあらゆることはできるようになっておきたいの。
-神様は時に残酷だよね#brother2…
-私は#brother2のこと束縛しないよっ！本当だよっ！
-私の囀りには混沌の力が宿るみたい。
-私以外にもこの世界には#brother2の血の繋がらない妹達がいるんだって！
-雪プチちゃんをもふもふしたい！もふりたいよ#brother2！
-雪プチちゃんには色の違う子たちがいるんだよ#brother2。みんなお迎えできると嬉しいね#brother2。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I wonder when I was born, #brother2? It was a long, long time ago, #brother2...
-I’ve been wandering this world all this time, searching for you, #brother2... and then I found you!
-We’ll be together forever, right, #brother2...? I just got a little scared, that’s all, #brother2.
-I want to be able to do everything for you, #brother2 – fighting, housework, everything.
-God can be so cruel sometimes, #brother2...
-I won’t ever tie you down, #brother2! I promise!
-It seems like there’s a power of chaos in my song.
-I heard there are other sisters in this world who aren’t blood-related to you, #brother2!
-I want to snuggle with snow putit-chan! I really do, #brother2!
-There are snow putit-chans with different colors, #brother2. It would be so nice if we could welcome them all, #brother2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fairy_nanasu</t>
-  </si>
-  <si>
     <t xml:space="preserve">나는 나나스, 가지의 요정이야～
 뭐 좋아하냐고? 물론 가지지～
 스펙윙은 아주 좋은 곳이야～ 모두 즐겁게 춤을 추니까～
@@ -2851,50 +2884,7 @@
 실은 어렸을 때 파란 가지 정령 밑에서 배운 적이 있어- 그녀는 요정이었지만, 엄청 강인했어～</t>
   </si>
   <si>
-    <t xml:space="preserve">ボクはナナス、ナスの妖精だよ～。
-好きな物はなにかって？もちろんナスだよ～。
-スペクウィングはとってもいいところだよ～みんな楽しそうに踊ってるからねぇ～。
-冒険で得られるお宝ももちろん嬉しいけど、一番嬉しいのは一緒に冒険して得られた絆だよ～。
-冒険の途中で出会った新しい仲間と一緒に飲んだ事もたくさんあるよぉ。とっても楽しかったねぇ～。
-もちろん悲しいこともあったけど、それでもまた新しい出会いがあると信じて前に進んだからこそ今のボクがあるんだよ～。
-出会いはいつかは終わるけど、その中で得たことは決して無駄ではないとおもってるよぉ～。
-かつてスペクウィングを作ったと言われている青いナスの妖精…いつかは彼女を超えてみたいねぇ～。
-実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am Nanas, the eggplant fairy!
-What's my favorite food? Eggplant, of course!
-Specwing is a very nice place, everyone is dancing happily.
-The most gratifying part of an adventure is the bond that you get from adventuring together!
-I had a lot of drinks with new friends I met during my adventures, it was a lot of fun.
-Of course, there were some sad times, but I still moved forward believing that I would meet new people, and that's why I am here today.
-Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
-The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
-when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">girl_blue</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">눈 쁘띠 쨩, 귀엽네요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">…… 후후후……
+    <t xml:space="preserve">눈 쁘띠 쨩, 귀엽네요…… 후후후……
 고양이의 자유로움이 부러워요. 고양이의 신이 있다면 분명 자유 그 자체인 분이겠죠.
 평범하게 살고 싶은데, 왜 항상 트러블한테 딱 걸리게 되는 걸까요…… 하아.
 말투가 독특한 모험가씨 말인데요, 왜 이야기가 통했는지는 저도 잘 모르겠네요……
@@ -2904,31 +2894,6 @@
 운명의 인도를 믿는 모험가씨 말인데요, 뭔가 좀 열정적이시네요.
 고양이를…… 빠는? ……모험가가 있다던가……?
 미실리아에서 빵집을 운영하는 마녀님, 엄청 멋지죠! 마녀인데다, 빵집이라니!</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">雪プチちゃん、かわいいですよね……フフフ……。
-ねこの自由さには憧れます。ねこの神様がいたらきっと自由そのものなんだろうなあ。
-ふつうでありたいのに、トラブルはどうしてすぐこちらを見つけるのでしょうね……*はぁ*
-不思議な話し方の冒険者さん、何故会話が出来たのか私も分かりません……。
-可愛らしいお人形の冒険者さん、ずっと誰かを探してますよね……。
-黒い翼の冒険者さん、かっこいいですよね……。
-魔法使いの冒険者さん、何やら物騒な本を持っているような……。
-運命の導きを信じる冒険者さん、何だか情熱的ですよね。
-猫を……吸う？……冒険者が居るとか……？
-ミシリアにある魔女のパン屋さん、素敵ですよね！魔女で、パン屋さん！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snow Putit is just too cute... hehe.
-I wish I were as free as a cat... If there’s a cat god, they must be freedom itself.
-All I want is a normal life... So why does trouble always find me? *sigh*
-That adventurer talks so oddly... and yet, somehow we still had a conversation.
-That cute, doll-like adventurer... always searching for someone.
-That adventurer with black wings... they look really cool.
-That adventurer mage... carrying a book that feels kinda dangerous.
-That adventurer who believes in fate... so passionate, huh.
-An adventurer who... ‘inhales cats’? ...Wait, what?
-That witch’s bakery in Mysilia is so lovely... A real shop, right in the city. A witch... and a baker!</t>
   </si>
 </sst>
 </file>
@@ -2938,7 +2903,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2949,20 +2914,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
+      <family/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2972,23 +2937,16 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
+      <family/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
+      <family/>
       <charset val="128"/>
     </font>
     <font>
@@ -3021,7 +2979,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3030,82 +2988,82 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3180,7 +3138,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3190,11 +3148,11 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>285120</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Rectangle 2" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -3202,13 +3160,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49664520" cy="123840"/>
+          <a:ext cx="49664880" cy="124200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -3336,29 +3294,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
-      <selection pane="bottomRight" activeCell="D54" activeCellId="0" sqref="D54"/>
+      <selection activeCell="B78" sqref="B78"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="86.34"/>
+    <col min="1" max="1" width="19.11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.41" style="1" customWidth="1"/>
+    <col min="3" max="3" width="95.53" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3372,1050 +3330,1050 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="12" customHeight="1"/>
+    <row r="3" ht="12" customHeight="1"/>
+    <row r="4" ht="12" customHeight="1"/>
+    <row r="5" ht="12" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" ht="20.1" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" ht="20.1" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" ht="20.1" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="9" ht="20.1" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="10" ht="20.1" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="11" ht="20.1" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="12" ht="20.1" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="13" ht="20.1" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="14" ht="20.1" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="B14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="16" ht="20.1" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="17" ht="20.1" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="18" ht="20.1" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="B18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="19" ht="20.1" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="B19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="20" ht="20.1" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="21" ht="20.1" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B21" t="s">
+        <v>439</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="22" ht="20.1" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="23" ht="20.1" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="B23" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="24" ht="20.1" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B24" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="25" ht="20.1" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="26" ht="20.1" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="B26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="27" ht="20.1" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="B27" t="s">
+        <v>445</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="28" ht="20.1" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B28" t="s">
+        <v>446</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="29" ht="20.1" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B29" t="s">
+        <v>447</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="30" ht="20.1" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="B30" t="s">
+        <v>448</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="31" ht="12.8">
+      <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="B31" t="s">
+        <v>449</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="32" ht="22.35">
+      <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8">
+      <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B33" t="s">
+        <v>448</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" ht="12.8">
+      <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="B34" t="s">
+        <v>450</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="35" ht="12.8">
+      <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="B35" t="s">
+        <v>451</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="36" ht="12.8">
+      <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="37" ht="12.8">
+      <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B37" t="s">
+        <v>453</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="38" ht="12.8">
+      <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="B38" t="s">
+        <v>454</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="39" ht="12.8">
+      <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="B39" t="s">
+        <v>455</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="40" ht="12.8">
+      <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B40" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="41" ht="12.8">
+      <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B41" t="s">
+        <v>457</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="42" ht="12.8">
+      <c r="A42" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="B42" t="s">
+        <v>458</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="43" ht="12.8">
+      <c r="A43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B43" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="44" ht="12.8">
+      <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="B44" t="s">
+        <v>460</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="45" ht="12.8">
+      <c r="A45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="B45" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="46" ht="22.35">
+      <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B46" t="s">
+        <v>462</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+    <row r="47" ht="12.8">
+      <c r="A47" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B47" t="s">
+        <v>463</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="1" t="s">
+    </row>
+    <row r="48" ht="12.8">
+      <c r="A48" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="B48" t="s">
+        <v>464</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="49" ht="12.8">
+      <c r="A49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="B49" t="s">
+        <v>465</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="50" ht="20.1" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B50" t="s">
+        <v>466</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+    <row r="51" ht="20.1" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B51" t="s">
+        <v>467</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="52" ht="22.35">
+      <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="B52" t="s">
+        <v>468</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="3" t="s">
+    </row>
+    <row r="53" ht="12.8">
+      <c r="A53" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="B53" t="s">
+        <v>469</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="54" ht="12.8">
+      <c r="A54" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="B54" t="s">
+        <v>470</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+    <row r="55" ht="12.8">
+      <c r="A55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B55" t="s">
+        <v>471</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="1" t="s">
+    </row>
+    <row r="56" ht="12.8">
+      <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="B56" t="s">
+        <v>472</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="3" t="s">
+    </row>
+    <row r="57" ht="12.8">
+      <c r="A57" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="B57" t="s">
+        <v>473</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="58" ht="12.8">
+      <c r="A58" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="B58" t="s">
+        <v>474</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+    <row r="59" ht="12.8">
+      <c r="A59" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B59" t="s">
+        <v>475</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="1" t="s">
+    </row>
+    <row r="60" ht="12.8">
+      <c r="A60" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="B60" t="s">
+        <v>476</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="3" t="s">
+    </row>
+    <row r="61" ht="12.8">
+      <c r="A61" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="B61" t="s">
+        <v>477</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="62" ht="12.8">
+      <c r="A62" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="B62" t="s">
+        <v>478</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+    <row r="63" ht="12.8">
+      <c r="A63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B63" t="s">
+        <v>479</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="1" t="s">
+    </row>
+    <row r="64" ht="12.8">
+      <c r="A64" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="B64" t="s">
+        <v>480</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="3" t="s">
+    </row>
+    <row r="65" ht="12.8">
+      <c r="A65" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="B65" t="s">
+        <v>481</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="66" ht="32.8">
+      <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="B66" t="s">
+        <v>482</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+    <row r="67" ht="32.8">
+      <c r="A67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B67" t="s">
+        <v>483</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="68" ht="12.8">
+      <c r="A68" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="B68" t="s">
+        <v>484</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="3" t="s">
+    </row>
+    <row r="69" ht="12.8">
+      <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="B69" t="s">
+        <v>485</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="70" ht="12.8">
+      <c r="A70" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="B70" t="s">
+        <v>486</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D70" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+    <row r="71" ht="12.8">
+      <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B71" t="s">
+        <v>487</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="4" t="s">
+    </row>
+    <row r="72" ht="12.8">
+      <c r="A72" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="B72" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="3" t="s">
+    </row>
+    <row r="73" ht="12.8">
+      <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="B73" t="s">
+        <v>489</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="D73" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="74" ht="22.35">
+      <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="B74" t="s">
+        <v>490</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D74" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+    <row r="75" ht="12.8">
+      <c r="A75" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B75" t="s">
+        <v>491</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D58" s="3" t="s">
+    </row>
+    <row r="76" ht="12.8">
+      <c r="A76" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="B76" t="s">
+        <v>492</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D76" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C59" s="3" t="s">
+    </row>
+    <row r="77" ht="12.8">
+      <c r="A77" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="B77" t="s">
+        <v>493</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="D77" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="78" ht="12.8">
+      <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="B78" t="s">
+        <v>494</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D78" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4424,29 +4382,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B23" sqref="B23"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="98.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="117.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="122.68"/>
+    <col min="1" max="1" width="13.63" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.71" style="5" customWidth="1"/>
+    <col min="3" max="3" width="117.64" style="5" customWidth="1"/>
+    <col min="4" max="4" width="122.68" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4460,287 +4418,287 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="12.8">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="12.8">
       <c r="C3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="12.8">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="74.6">
       <c r="A5" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>295</v>
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>495</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" ht="43.25">
       <c r="A6" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>299</v>
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>496</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" ht="43.25">
       <c r="A7" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>303</v>
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>497</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" ht="43.25">
       <c r="A8" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>307</v>
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>498</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" ht="43.25">
       <c r="A9" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>311</v>
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>499</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" ht="74.6">
       <c r="A10" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>315</v>
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>500</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" ht="43.25">
       <c r="A11" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>319</v>
+        <v>240</v>
+      </c>
+      <c r="B11" t="s">
+        <v>501</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" ht="43.25">
       <c r="A12" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>323</v>
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>502</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>324</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" ht="95.5">
       <c r="A13" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>327</v>
+        <v>246</v>
+      </c>
+      <c r="B13" t="s">
+        <v>503</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" ht="32.8">
       <c r="A14" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>331</v>
+        <v>249</v>
+      </c>
+      <c r="B14" t="s">
+        <v>504</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" ht="32.8">
       <c r="A15" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>335</v>
+        <v>252</v>
+      </c>
+      <c r="B15" t="s">
+        <v>505</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" ht="12.8">
       <c r="A16" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>339</v>
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>506</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>340</v>
+        <v>256</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" ht="22.35">
       <c r="A17" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>343</v>
+        <v>258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>507</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" ht="22.35">
       <c r="A18" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>347</v>
+        <v>261</v>
+      </c>
+      <c r="B18" t="s">
+        <v>508</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>348</v>
+        <v>262</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="1128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" ht="200.7">
       <c r="A19" s="7" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>351</v>
+        <v>509</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="168.65">
       <c r="A20" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>355</v>
+        <v>267</v>
+      </c>
+      <c r="B20" t="s">
+        <v>510</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="241.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" ht="241.75">
       <c r="A21" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>359</v>
+        <v>270</v>
+      </c>
+      <c r="B21" t="s">
+        <v>511</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" ht="32.8">
       <c r="A22" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>363</v>
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>512</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" ht="22.35">
       <c r="A23" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>367</v>
+        <v>276</v>
+      </c>
+      <c r="B23" t="s">
+        <v>513</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>368</v>
+        <v>277</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>369</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4748,29 +4706,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="109.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="123.06"/>
+    <col min="1" max="1" width="15.7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.61" style="1" customWidth="1"/>
+    <col min="3" max="3" width="109.15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.06" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4784,193 +4742,193 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="64.15">
       <c r="A5" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>371</v>
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>514</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" ht="53.7">
       <c r="A6" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>375</v>
+        <v>282</v>
+      </c>
+      <c r="B6" t="s">
+        <v>515</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>376</v>
+        <v>283</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" ht="22.35">
       <c r="A7" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>379</v>
+        <v>285</v>
+      </c>
+      <c r="B7" t="s">
+        <v>516</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" ht="64.15">
       <c r="A8" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>383</v>
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>517</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>384</v>
+        <v>289</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>387</v>
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
+        <v>518</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" ht="95.5">
       <c r="A10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>391</v>
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>519</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>392</v>
+        <v>295</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" ht="64.15">
       <c r="A11" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>395</v>
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>520</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>396</v>
+        <v>298</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" ht="53.7">
       <c r="A12" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>399</v>
+        <v>300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>521</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" ht="74.6">
       <c r="A13" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>403</v>
+        <v>303</v>
+      </c>
+      <c r="B13" t="s">
+        <v>522</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" ht="116.4">
       <c r="A14" s="3" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>407</v>
+        <v>523</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" ht="147.75">
       <c r="A15" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>411</v>
+        <v>309</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>412</v>
+        <v>310</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" ht="116.4">
       <c r="A16" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>415</v>
+        <v>312</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>525</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>416</v>
+        <v>313</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" ht="168.65">
       <c r="A17" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>419</v>
+        <v>315</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>420</v>
+        <v>316</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>421</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
@@ -4978,29 +4936,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B39" sqref="B39"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="82.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="110.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="100.58"/>
+    <col min="1" max="1" width="14.58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.56" style="1" customWidth="1"/>
+    <col min="3" max="3" width="110.96" style="1" customWidth="1"/>
+    <col min="4" max="4" width="100.58" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="12.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5014,510 +4972,510 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="12.8">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="12.8">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="12.8">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="43.25">
       <c r="A5" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>423</v>
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
+        <v>527</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" ht="32.8">
       <c r="A6" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>427</v>
+        <v>321</v>
+      </c>
+      <c r="B6" t="s">
+        <v>528</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>428</v>
+        <v>322</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" ht="64.15">
       <c r="A7" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>431</v>
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>529</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>432</v>
+        <v>325</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" ht="22.35">
       <c r="A8" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>435</v>
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>530</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" ht="43.25">
       <c r="A9" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>439</v>
+        <v>330</v>
+      </c>
+      <c r="B9" t="s">
+        <v>531</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>440</v>
+        <v>331</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" ht="32.8">
       <c r="A10" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>443</v>
+        <v>333</v>
+      </c>
+      <c r="B10" t="s">
+        <v>532</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>444</v>
+        <v>334</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" ht="53.7">
       <c r="A11" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>447</v>
+        <v>336</v>
+      </c>
+      <c r="B11" t="s">
+        <v>533</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>448</v>
+        <v>337</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="345.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" ht="64.15">
       <c r="A12" s="1" t="s">
-        <v>450</v>
+        <v>339</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>451</v>
+        <v>534</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>452</v>
+        <v>340</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8">
       <c r="A13" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>455</v>
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>535</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>456</v>
+        <v>343</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" ht="43.25">
       <c r="A14" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>459</v>
+        <v>345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>536</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>460</v>
+        <v>346</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" ht="32.8">
       <c r="A15" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>463</v>
+        <v>348</v>
+      </c>
+      <c r="B15" t="s">
+        <v>537</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" ht="32.8">
       <c r="A16" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>467</v>
+        <v>351</v>
+      </c>
+      <c r="B16" t="s">
+        <v>538</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>468</v>
+        <v>352</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" ht="32.8">
       <c r="A17" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>471</v>
+        <v>354</v>
+      </c>
+      <c r="B17" t="s">
+        <v>539</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>472</v>
+        <v>355</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" ht="44.75">
       <c r="A18" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>475</v>
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>540</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>476</v>
+        <v>358</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" ht="32.8">
       <c r="A19" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>479</v>
+        <v>360</v>
+      </c>
+      <c r="B19" t="s">
+        <v>541</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>480</v>
+        <v>361</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" ht="56.7">
       <c r="A20" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>483</v>
+        <v>363</v>
+      </c>
+      <c r="B20" t="s">
+        <v>542</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" ht="91">
       <c r="A21" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>487</v>
+        <v>366</v>
+      </c>
+      <c r="B21" t="s">
+        <v>543</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>488</v>
+        <v>367</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" ht="55.95">
       <c r="A22" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>491</v>
+        <v>369</v>
+      </c>
+      <c r="B22" t="s">
+        <v>544</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>492</v>
+        <v>370</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" ht="13.8">
       <c r="A23" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>495</v>
+        <v>372</v>
+      </c>
+      <c r="B23" t="s">
+        <v>545</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>496</v>
+        <v>373</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" ht="179.1">
       <c r="A24" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>499</v>
+        <v>375</v>
+      </c>
+      <c r="B24" t="s">
+        <v>546</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" ht="12.8">
       <c r="A25" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>503</v>
+        <v>378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>547</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>504</v>
+        <v>379</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" ht="13.8">
       <c r="A26" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>506</v>
+        <v>380</v>
+      </c>
+      <c r="B26" t="s">
+        <v>548</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" ht="95.5">
       <c r="A27" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>510</v>
+        <v>383</v>
+      </c>
+      <c r="B27" t="s">
+        <v>549</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" ht="12.8">
       <c r="A28" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>514</v>
+        <v>386</v>
+      </c>
+      <c r="B28" t="s">
+        <v>550</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>515</v>
+        <v>387</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" ht="126.85">
       <c r="A29" s="3" t="s">
-        <v>517</v>
+        <v>389</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>519</v>
+        <v>390</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" ht="126.85">
       <c r="A30" s="3" t="s">
-        <v>521</v>
+        <v>392</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>523</v>
+        <v>393</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" ht="126.85">
       <c r="A31" s="3" t="s">
-        <v>525</v>
+        <v>395</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>527</v>
+        <v>396</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" ht="22.35">
       <c r="A32" s="3" t="s">
-        <v>529</v>
+        <v>398</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>531</v>
+        <v>399</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" ht="85.05">
       <c r="A33" s="3" t="s">
-        <v>533</v>
+        <v>401</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>535</v>
+        <v>402</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" ht="105.95">
       <c r="A34" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>538</v>
+        <v>404</v>
+      </c>
+      <c r="B34" t="s">
+        <v>556</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>539</v>
+        <v>405</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" ht="105.95">
       <c r="A35" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>542</v>
+        <v>407</v>
+      </c>
+      <c r="B35" t="s">
+        <v>557</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>543</v>
+        <v>408</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" ht="105.95">
       <c r="A36" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>546</v>
+        <v>410</v>
+      </c>
+      <c r="B36" t="s">
+        <v>558</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>547</v>
+        <v>411</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" ht="116.4">
       <c r="A37" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>550</v>
+        <v>413</v>
+      </c>
+      <c r="B37" t="s">
+        <v>559</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>551</v>
+        <v>414</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" ht="105.95">
       <c r="A38" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>554</v>
+        <v>416</v>
+      </c>
+      <c r="B38" t="s">
+        <v>560</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" ht="105.95">
       <c r="A39" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>558</v>
+        <v>419</v>
+      </c>
+      <c r="B39" t="s">
+        <v>561</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>559</v>
+        <v>420</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>560</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="574">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1382,6 +1382,60 @@
 Yes #race, you're standing in front of an exile who has lived more than 1000 years.</t>
   </si>
   <si>
+    <t xml:space="preserve">larnneire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あら、獣に変えられた王子の童話を、あなたは知っているの？
+私達はヴィンデールの森からの使者。
+公正なるジャビ王と会見し、森とエレアの民に降りかかる嫌疑を晴らすために、王都パルミアに向かっているの。
+アセリア大陸から大洋を隔たち、ティリス大陸の北に位置するのがノースティリスよ。
+あなたに風の加護のあらんことを。
+ここはどこかしら…？
+ミシリア？ ええ、知っているわ。でもミシリアは…
+人間は…怖いと思う。でも、同時に興味を惹かれるの。
+人間の抱く欲求の多くを、エレアは持たない。私たちは所有することにも、支配や戦うことにも興味がないの。それが良いことかは別としてね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, you know the fairy tale of the prince who was turned into an ugly beast?
+We are messengers from Vindale.
+Our journey ends here in North Tyris at the great city of Palmia where we're supposed to have a talk with King Xabi, a man of fairness and compassion.
+North Tyris is a continent in the western hemisphere of Ylva.
+May Wind always be with you.
+...Where have we come?
+Mysilia? Yes, I know it. But Mysilia is...
+Humans... they frighten me, yet they hold such allure.
+Most of the cravings that dwell in human hearts are absent in us Elea. We have no interest in owning, in ruling, or in fighting. But whether that is for the better is another matter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lomias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">見たところ君はノースティリスの人間ではないようだ。
+君はこの世界で何を見て、如何な足跡を残すのかな？
+おかしな場所に迷い込んでしまったぞ。
+パルミアに向かう旅の途中なんだ。
+何を言っている？ 今はシエラ暦517年だろう？
+ヴェルニースを開拓？ 君は頭でも打ったのか？
+奇遇だな。君とよく似た冒険者を介護してきたところだ。
+まったく、我々の急を要する旅が、行き倒れの冒険者のせいで遅れてしまったよ。
+…そんな物珍しげな顔をするな。君の察する通り、我々は森の民だ。君たちが「異形」と呼ぶ森の。
+森の「外」に出たエレアを、森は二度と受け入れない。もちろん、私とラーネイレは別だ。人間と関わるのは「使者」の役目だからな。
+ラーネイレはエレアの中でも特別な血筋を受け継いでいる。おっと、彼女に口酸っぱく言われる前にこの話は止めておこう！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It looks like you aren't familiar with this land.
+What will you see in this world, and what footprints will you leave behind?
+Hah, we’ve wandered into a strange place.
+We are on our way to Palmia.
+What are you talking about? It’s the year 517 of Sierra Terre. of course.
+Pioneering Vernis? Did you hit your head?
+What a coincidence. we just finished tending to an adventurer who looked a lot like you.
+Honestly, our urgent journey has been delayed all because of a collapsed adventurer.
+...Stop your curious eyes. Yes, we are kin of the Forest. The forest which you deride as "Other".
+Once an Elea leaves the Forest, the Forest shall never receive them again. Naturally, Larnneire and I stand apart, for it is the envoy’s role to treat with humans.
+Larnneire inherits a bloodline unlike any other among the Elea. But I had better say no more, lest she remind me sharply again!</t>
+  </si>
+  <si>
     <t xml:space="preserve">conery</t>
   </si>
   <si>
@@ -2097,7 +2151,7 @@
 実は幼いころに青いナスの妖精に稽古をつけてもらったことがあるんだよぉ。彼女は妖精だったけど、とっても頑丈だったよぉ～。</t>
   </si>
   <si>
-    <t xml:space="preserve">I am Nanas, the eggplant fairy!
+    <t xml:space="preserve">I am Nanasu, the eggplant fairy!
 What's my favorite food? Eggplant, of course!
 Specwing is a very nice place, everyone is dancing happily.
 The most gratifying part of an adventure is the bond that you get from adventuring together!
@@ -2106,6 +2160,60 @@
 Encounters will come to an end at some point, but I believe that what I have gained from them will not be in vain.
 The blue eggplant fairy who is said to have once created Specwing, I would like to surpass her someday.
 when I was still very young, I had a blue eggplant fairy practice fighting. She was a fairy, but very sturdy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_raina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アタシはライナ！迂闊に触れると痺れさせちゃうよっ！
+あら、冒険者さん。アタシに何か用？
+ポイナとの関係？まぁ～ただのいたずら仲間ってカンジ？でもなんだかんだで一緒に冒険してる長い付き合いよ。
+ナナスのことは別に嫌いじゃないのよ？ただ…ちょっといたずらして焼きナスにしたいだけ！キャハハ！
+初めてポイナとナナスとアタシの3人で冒険した時、ナナスがドジかまして死にかけたよ…アタシの機転で何とかなったけど、全く…
+鞄の時はナナスとは別行動だったけど、ナナスと一緒に冒険することもあるよ。ま、殆どデコイ役だけどね！キャハハ！
+最近だとアタシ含めてスペクウィングの妖精達が冒険に出る事が多くなったよ。ま、ライバルが増えるのは悪くはないけどねっ！
+…アタシが熱を出した時、ナナスが看病してくれた事があったよ。その時はありがとうって言えなかったけど、感謝はしてる。
+スペクウィングの創設者と言われている青いナスの妖精…？ああ、アイツね…昔アタシも稽古してもらってた、でも一回も勝てなかった！
+青いナスの妖精にはいつかリベンジしようと思ってた、でもいつの間にかどっかに行っちゃった！…勝ち逃げされた気分でくやしい！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm Raina! Touch me carelessly and I'll make you tingle!
+Oh, adventurer. You need something from me?
+My relationship with Poina? Well~ just like mischief partners, I guess? But we've been adventuring together for ages, one way or another.
+I don't dislike Nanasu, you know? I just... want to play a little prank and turn her into grilled eggplant!
+The first time Poina, Nanasu, and I went on an adventure together, Nanasu messed up and nearly died... I managed to save the day with my quick thinking, but seriously...
+During the bag scramble, I was on a separate mission from Nanasu, but I do go on adventures with her sometimes. Well, mostly she's just the decoy though!
+Lately, the fairies of Specwing have been going on more adventures. Well, having more rivals isn't so bad either!
+When I had a fever, Nanasu took care of me. I couldn't thank her at the time, but I'm grateful.
+The Blue Eggplant Fairy, said to be Specwing's founder...? Ah, her... I used to train under her too, but I never won a single match!
+I'd been planning to get revenge on Blue Eggplant Fairy someday, but before I knew it, she'd vanished! ...Feels like she got away with it, and it's so frustrating!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy_poina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私はポイナ、余計な事言うと毒を喰らわせるからな。
+…なんだ？何か用か？
+ライナは戦いを甘く見てる時がある。冒険は遊びじゃないと何度言えば分かるんだか、バカがよ…
+ナナスは甘すぎる。アイツは絆を大事にしていると言っているが、それだけだといつか足元をすくわれるだろうな…
+ライナとは長い付き合いだが、いたずら仲間程度の認識だ。だが一緒に冒険をするのは嫌いじゃない。
+私は奇襲を仕掛ける方が好きだが、ライナがすぐに突っ込んでいくから余計な消耗をすることになる…バカがよ…
+ライナからナナスと一緒に初めて冒険をした話は聞いたか？その時ナナスは自分が皆を危険な目に合わせたことに泣いてたさ、ハハッ。
+…ナナスは昔、私が落とし物をした際に必死になって探してくれたことがある。普段こっちがいたずらしてばっかなのに…バカがよ…
+昔、ナナスやライナと共に青いナスの妖精に稽古をつけてもらったことがある。だがアイツには私の毒攻撃が殆ど効いていなかった。
+今の私とライナ、そしてナナスの3人であれば青いナスの妖精に勝てるだろうか？だがアイツはもう何処かに行って久しいからな…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm Poina. Say one wrong thing and I'll attack you with poison.
+What? You need something?
+Raina sometimes underestimates the fight. How many times do I have to tell you that adventure isn't a game, idiot...
+Nanasu is way too sweet. She says she values bonds, but if that's all she has, she'll get tripped up someday...
+I've known Raina for a long time, but I only think of her as a fellow prankster. Still, I don't mind adventuring with her.
+I prefer launching surprise attacks, but Raina always charges in headfirst, leading to unnecessary wear and tear... What an idiot...
+Did you hear about Raina's first adventure with Nanasu? Back then, Nanasu was crying because she thought she'd put everyone in danger.
+Nanasu once searched desperately for something I lost. Even though I'm always the one pulling pranks... idiot...
+Long ago, I trained with Nanasu and Raina under the blue eggplant fairy. But my poison attacks barely affected her.
+Can Raina, Nanasu, and I defeat the blue eggplant fairy? But she's been traveling somewhere for a long time now...</t>
   </si>
   <si>
     <t xml:space="preserve">girl_blue</t>
@@ -3012,7 +3120,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -3049,6 +3157,10 @@
       <alignment/>
       <protection locked="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
@@ -3062,6 +3174,10 @@
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
@@ -3148,9 +3264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3160,7 +3276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="49664880" cy="124200"/>
+          <a:ext cx="49664160" cy="123480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3338,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -3352,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3366,7 +3482,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -3380,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -3394,7 +3510,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -3408,7 +3524,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -3422,7 +3538,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -3436,7 +3552,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -3450,7 +3566,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -3464,7 +3580,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -3478,7 +3594,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -3492,7 +3608,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -3506,7 +3622,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>41</v>
@@ -3520,7 +3636,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -3534,7 +3650,7 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -3548,7 +3664,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -3562,7 +3678,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -3576,7 +3692,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -3590,7 +3706,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>59</v>
@@ -3604,7 +3720,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>62</v>
@@ -3618,7 +3734,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
@@ -3632,7 +3748,7 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -3646,7 +3762,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
@@ -3660,7 +3776,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -3674,7 +3790,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>77</v>
@@ -3688,7 +3804,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -3702,7 +3818,7 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>83</v>
@@ -3716,7 +3832,7 @@
         <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>77</v>
@@ -3730,7 +3846,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>80</v>
@@ -3744,7 +3860,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>88</v>
@@ -3758,7 +3874,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>91</v>
@@ -3772,7 +3888,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -3786,7 +3902,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>97</v>
@@ -3800,7 +3916,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>100</v>
@@ -3814,7 +3930,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>103</v>
@@ -3828,7 +3944,7 @@
         <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>106</v>
@@ -3842,7 +3958,7 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
@@ -3856,7 +3972,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>112</v>
@@ -3870,7 +3986,7 @@
         <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>115</v>
@@ -3884,7 +4000,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>118</v>
@@ -3898,7 +4014,7 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>121</v>
@@ -3912,7 +4028,7 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
@@ -3926,7 +4042,7 @@
         <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>127</v>
@@ -3940,7 +4056,7 @@
         <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>130</v>
@@ -3954,7 +4070,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>133</v>
@@ -3968,7 +4084,7 @@
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>136</v>
@@ -3982,7 +4098,7 @@
         <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>139</v>
@@ -3996,7 +4112,7 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>142</v>
@@ -4010,7 +4126,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>145</v>
@@ -4024,7 +4140,7 @@
         <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>148</v>
@@ -4038,7 +4154,7 @@
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>151</v>
@@ -4052,7 +4168,7 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>154</v>
@@ -4066,7 +4182,7 @@
         <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>157</v>
@@ -4080,7 +4196,7 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>160</v>
@@ -4094,7 +4210,7 @@
         <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>163</v>
@@ -4108,7 +4224,7 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>166</v>
@@ -4122,7 +4238,7 @@
         <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>169</v>
@@ -4136,7 +4252,7 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>172</v>
@@ -4150,7 +4266,7 @@
         <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>175</v>
@@ -4164,7 +4280,7 @@
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
@@ -4178,7 +4294,7 @@
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>181</v>
@@ -4192,7 +4308,7 @@
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>184</v>
@@ -4206,7 +4322,7 @@
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>187</v>
@@ -4220,7 +4336,7 @@
         <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>190</v>
@@ -4234,7 +4350,7 @@
         <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>193</v>
@@ -4248,7 +4364,7 @@
         <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>196</v>
@@ -4262,7 +4378,7 @@
         <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>199</v>
@@ -4276,7 +4392,7 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>202</v>
@@ -4290,7 +4406,7 @@
         <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>205</v>
@@ -4304,7 +4420,7 @@
         <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>208</v>
@@ -4318,7 +4434,7 @@
         <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>211</v>
@@ -4332,7 +4448,7 @@
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>214</v>
@@ -4346,7 +4462,7 @@
         <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>217</v>
@@ -4360,7 +4476,7 @@
         <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>220</v>
@@ -4432,7 +4548,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>223</v>
@@ -4446,7 +4562,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>226</v>
@@ -4460,7 +4576,7 @@
         <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>229</v>
@@ -4474,7 +4590,7 @@
         <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>232</v>
@@ -4488,7 +4604,7 @@
         <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>235</v>
@@ -4502,7 +4618,7 @@
         <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>238</v>
@@ -4516,7 +4632,7 @@
         <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>241</v>
@@ -4530,7 +4646,7 @@
         <v>243</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>244</v>
@@ -4544,7 +4660,7 @@
         <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>247</v>
@@ -4558,7 +4674,7 @@
         <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>250</v>
@@ -4572,7 +4688,7 @@
         <v>252</v>
       </c>
       <c r="B15" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>253</v>
@@ -4586,7 +4702,7 @@
         <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>256</v>
@@ -4600,7 +4716,7 @@
         <v>258</v>
       </c>
       <c r="B17" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>259</v>
@@ -4614,7 +4730,7 @@
         <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>262</v>
@@ -4628,7 +4744,7 @@
         <v>264</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>265</v>
@@ -4643,7 +4759,7 @@
         <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>268</v>
@@ -4657,7 +4773,7 @@
         <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>271</v>
@@ -4671,7 +4787,7 @@
         <v>273</v>
       </c>
       <c r="B22" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>274</v>
@@ -4685,7 +4801,7 @@
         <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>277</v>
@@ -4747,7 +4863,7 @@
         <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>280</v>
@@ -4761,7 +4877,7 @@
         <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>283</v>
@@ -4775,7 +4891,7 @@
         <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>286</v>
@@ -4789,7 +4905,7 @@
         <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>289</v>
@@ -4803,7 +4919,7 @@
         <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>292</v>
@@ -4817,7 +4933,7 @@
         <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>295</v>
@@ -4831,7 +4947,7 @@
         <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>298</v>
@@ -4845,7 +4961,7 @@
         <v>300</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>301</v>
@@ -4859,7 +4975,7 @@
         <v>303</v>
       </c>
       <c r="B13" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>304</v>
@@ -4873,7 +4989,7 @@
         <v>306</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>307</v>
@@ -4887,7 +5003,7 @@
         <v>309</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>310</v>
@@ -4901,7 +5017,7 @@
         <v>312</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>313</v>
@@ -4915,7 +5031,7 @@
         <v>315</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>316</v>
@@ -4940,14 +5056,14 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B39" sqref="B39"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B43" sqref="B43"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8"/>
@@ -4981,27 +5097,21 @@
     <row r="4" ht="12.8">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="43.25">
+    <row r="5" ht="95.5">
       <c r="A5" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" ht="32.8">
+    <row r="6" ht="116.4">
       <c r="A6" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B6" t="s">
-        <v>528</v>
-      </c>
       <c r="C6" s="3" t="s">
         <v>322</v>
       </c>
@@ -5009,12 +5119,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" ht="64.15">
+    <row r="7" ht="43.25">
       <c r="A7" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>325</v>
@@ -5023,12 +5133,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" ht="22.35">
+    <row r="8" ht="32.8">
       <c r="A8" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>328</v>
@@ -5037,12 +5147,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" ht="43.25">
+    <row r="9" ht="64.15">
       <c r="A9" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>331</v>
@@ -5051,12 +5161,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" ht="32.8">
+    <row r="10" ht="22.35">
       <c r="A10" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>334</v>
@@ -5065,12 +5175,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" ht="53.7">
+    <row r="11" ht="43.25">
       <c r="A11" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>337</v>
@@ -5079,12 +5189,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" ht="64.15">
+    <row r="12" ht="32.8">
       <c r="A12" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>534</v>
+      <c r="B12" t="s">
+        <v>544</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>340</v>
@@ -5093,26 +5203,26 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" ht="12.8">
+    <row r="13" ht="53.7">
       <c r="A13" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="14" ht="43.25">
+    <row r="14" ht="64.15">
       <c r="A14" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B14" t="s">
-        <v>536</v>
+      <c r="B14" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>346</v>
@@ -5121,26 +5231,26 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" ht="32.8">
+    <row r="15" ht="12.8">
       <c r="A15" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B15" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="16" ht="32.8">
+    <row r="16" ht="43.25">
       <c r="A16" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B16" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>352</v>
@@ -5154,7 +5264,7 @@
         <v>354</v>
       </c>
       <c r="B17" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>355</v>
@@ -5163,12 +5273,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" ht="44.75">
+    <row r="18" ht="32.8">
       <c r="A18" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>358</v>
@@ -5182,7 +5292,7 @@
         <v>360</v>
       </c>
       <c r="B19" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>361</v>
@@ -5191,12 +5301,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" ht="56.7">
+    <row r="20" ht="44.75">
       <c r="A20" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B20" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>364</v>
@@ -5205,26 +5315,26 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" ht="91">
+    <row r="21" ht="32.8">
       <c r="A21" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="22" ht="55.95">
+    <row r="22" ht="56.7">
       <c r="A22" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B22" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>370</v>
@@ -5233,26 +5343,26 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" ht="13.8">
+    <row r="23" ht="91">
       <c r="A23" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B23" t="s">
-        <v>545</v>
-      </c>
-      <c r="C23" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="24" ht="179.1">
+    <row r="24" ht="55.95">
       <c r="A24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B24" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>376</v>
@@ -5261,87 +5371,87 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" ht="12.8">
-      <c r="A25" s="10" t="s">
+    <row r="25" ht="13.8">
+      <c r="A25" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B25" t="s">
-        <v>547</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" ht="179.1">
+      <c r="A26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26" t="s">
+        <v>558</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" ht="12.8">
+      <c r="A27" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B27" t="s">
+        <v>559</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="26" ht="13.8">
-      <c r="A26" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B26" t="s">
-        <v>548</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" ht="95.5">
-      <c r="A27" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="B27" t="s">
-        <v>549</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" ht="12.8">
-      <c r="A28" s="1" t="s">
+    <row r="28" ht="13.8">
+      <c r="A28" s="11" t="s">
         <v>386</v>
       </c>
       <c r="B28" t="s">
-        <v>550</v>
-      </c>
-      <c r="C28" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="29" ht="126.85">
-      <c r="A29" s="3" t="s">
+    <row r="29" ht="95.5">
+      <c r="A29" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" t="s">
+        <v>561</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>390</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="30" ht="126.85">
-      <c r="A30" s="3" t="s">
+    <row r="30" ht="12.8">
+      <c r="A30" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>552</v>
+      <c r="B30" t="s">
+        <v>562</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5350,7 +5460,7 @@
         <v>395</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>396</v>
@@ -5359,26 +5469,26 @@
         <v>397</v>
       </c>
     </row>
-    <row r="32" ht="22.35">
+    <row r="32" ht="126.85">
       <c r="A32" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>399</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="33" ht="85.05">
+    <row r="33" ht="126.85">
       <c r="A33" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>402</v>
@@ -5387,26 +5497,26 @@
         <v>403</v>
       </c>
     </row>
-    <row r="34" ht="105.95">
-      <c r="A34" s="1" t="s">
+    <row r="34" ht="22.35">
+      <c r="A34" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B34" t="s">
-        <v>556</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>405</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="35" ht="105.95">
-      <c r="A35" s="1" t="s">
+    <row r="35" ht="85.05">
+      <c r="A35" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B35" t="s">
-        <v>557</v>
+      <c r="B35" s="8" t="s">
+        <v>567</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>408</v>
@@ -5416,11 +5526,11 @@
       </c>
     </row>
     <row r="36" ht="105.95">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B36" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>411</v>
@@ -5429,12 +5539,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="37" ht="116.4">
-      <c r="A37" s="10" t="s">
+    <row r="37" ht="105.95">
+      <c r="A37" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B37" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>414</v>
@@ -5444,11 +5554,11 @@
       </c>
     </row>
     <row r="38" ht="105.95">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>416</v>
       </c>
       <c r="B38" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>417</v>
@@ -5457,18 +5567,68 @@
         <v>418</v>
       </c>
     </row>
-    <row r="39" ht="105.95">
-      <c r="A39" s="10" t="s">
+    <row r="39" ht="116.4">
+      <c r="A39" s="11" t="s">
         <v>419</v>
       </c>
       <c r="B39" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>420</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="40" ht="105.95">
+      <c r="A40" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B40" t="s">
+        <v>572</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="41" ht="158.2">
+      <c r="A41" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" ht="126.85">
+      <c r="A42" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" ht="105.95">
+      <c r="A43" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43" t="s">
+        <v>573</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/dialog.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr autoCompressPictures="1"/>
-  <workbookProtection lockStructure="0" lockWindows="0" lockRevision="0"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" r:id="rId3"/>
-    <sheet name="rumor" sheetId="2" r:id="rId4"/>
-    <sheet name="zone" sheetId="3" r:id="rId5"/>
-    <sheet name="unique" sheetId="4" r:id="rId6"/>
+    <sheet name="general" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="rumor" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="zone" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="unique" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
-    <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="577">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">food1</t>
   </si>
   <si>
+    <t xml:space="preserve">따끈따끈한 특제 요리가 준비되어 있{어}! 가격은 #1 오렌{이다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">熱々の特製料理を用意している{よ}！食事には#1オレンが必要{だ}。</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">food2</t>
   </si>
   <si>
+    <t xml:space="preserve">자, 천천히 {먹어}!</t>
+  </si>
+  <si>
     <t xml:space="preserve">さあ、ゆっくり食べていって{くれ}！</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t xml:space="preserve">healer1</t>
   </si>
   <si>
+    <t xml:space="preserve">부상이나 병으로 곤란한 {거냐}? #1 오렌만 주{면} 바로 치료를 시작하{겠다}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">怪我や病気に困っていない{か}？#1オレンを支払ってもらえれば、すぐにでも治療をはじめ{る}。</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t xml:space="preserve">healer2</t>
   </si>
   <si>
+    <t xml:space="preserve">그럼 이제 가만히 {있어}. 지금 바로 {YOU}의 몸을 원래대로 건강하게 만들어 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ではじっとしていて{くれ}。すぐに君の体を元通り健康にしてみせ{る}。</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t xml:space="preserve">appraise1</t>
   </si>
   <si>
+    <t xml:space="preserve">배낭 안에 미감정 아이템이 쌓여 있{는가}? #1 오렌만 주{면} 전부 감정해 {줄게}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">バックパックの中に未鑑定のアイテムは眠っていない{か}？#1オレンで、全て鑑定してさしあげ{る}。</t>
   </si>
   <si>
@@ -85,6 +100,9 @@
     <t xml:space="preserve">appraise2</t>
   </si>
   <si>
+    <t xml:space="preserv